--- a/Input/FantaSPL_Milano.xlsx
+++ b/Input/FantaSPL_Milano.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Local_Docs\Admin\Other\Kit\SPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Local_Docs\Admin\Other\Kit\SPL\SPL_v_0.2\SPL_Regional\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD84EDA-5A43-47D7-A73C-DA8243F3BB84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8F2372-93FD-40B2-A9D0-26E00059D693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{05F018D4-855F-4570-8D15-9B4DD092A228}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{05F018D4-855F-4570-8D15-9B4DD092A228}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="11" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Players!$A$1:$E$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Points!$A$1:$J$440</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Points!$A$1:$J$431</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="110">
   <si>
     <t>Parameter</t>
   </si>
@@ -947,14 +947,14 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -968,7 +968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="24" t="s">
         <v>4</v>
       </c>
@@ -982,7 +982,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="24" t="s">
         <v>5</v>
       </c>
@@ -996,7 +996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="24" t="s">
         <v>109</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
         <v>6</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="24" t="s">
         <v>7</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="24" t="s">
         <v>8</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="24" t="s">
         <v>9</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="24" t="s">
         <v>10</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="24" t="s">
         <v>11</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="24" t="s">
         <v>20</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="24" t="s">
         <v>107</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="24" t="s">
         <v>12</v>
       </c>
@@ -1144,19 +1144,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A29AA2D-3F32-45F2-B719-A1F62E0F1A5F}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="17.140625" style="1"/>
+    <col min="1" max="3" width="17.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>13</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="14">
         <v>44938</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="14">
         <v>44945</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="14">
         <v>44952</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>44959</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>44966</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <v>44980</v>
       </c>
@@ -1233,7 +1233,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>44987</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>44994</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="14">
         <v>45001</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="14">
         <v>45008</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="14">
         <v>45015</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="14">
         <v>45022</v>
       </c>
@@ -1299,7 +1299,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="14">
         <v>45030</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="14">
         <v>45050</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="14">
         <v>45057</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="14">
         <v>45064</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="14">
         <v>45071</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="14">
         <v>45078</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="14">
         <v>45085</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="14">
         <v>45092</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="14">
         <v>45099</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="14">
         <v>45106</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="14">
         <v>45113</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="14">
         <v>45114</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="14">
         <v>45115</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="14">
         <v>45116</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="14">
         <v>45117</v>
       </c>
@@ -1464,7 +1464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="14">
         <v>45118</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="14">
         <v>45119</v>
       </c>
@@ -1486,26 +1486,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="26">
-        <v>45170</v>
+        <v>45176</v>
       </c>
       <c r="B31" s="27">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C31" s="27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="26">
-        <v>45179</v>
-      </c>
-      <c r="B32" s="27">
-        <v>2</v>
-      </c>
-      <c r="C32" s="27">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1515,27 +1504,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F55E8A24-46F9-4225-A2C2-A9164F13364A}">
-  <dimension ref="A1:J440"/>
+  <dimension ref="A1:J436"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A397" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J426" sqref="J426"/>
+    <sheetView zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A418" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D430" sqref="D430:D436"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="17.140625" style="3"/>
+    <col min="8" max="8" width="15.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="17.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
@@ -1567,7 +1556,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="7">
         <v>44938</v>
       </c>
@@ -1596,7 +1585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>44938</v>
       </c>
@@ -1628,7 +1617,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>44938</v>
       </c>
@@ -1657,7 +1646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>44938</v>
       </c>
@@ -1686,7 +1675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>44938</v>
       </c>
@@ -1715,7 +1704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>44938</v>
       </c>
@@ -1744,7 +1733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>44938</v>
       </c>
@@ -1773,7 +1762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>44938</v>
       </c>
@@ -1802,7 +1791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>44938</v>
       </c>
@@ -1831,7 +1820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>44938</v>
       </c>
@@ -1860,7 +1849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>44938</v>
       </c>
@@ -1889,7 +1878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>44938</v>
       </c>
@@ -1918,7 +1907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <v>44938</v>
       </c>
@@ -1947,7 +1936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
         <v>44938</v>
       </c>
@@ -1976,7 +1965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <v>44945</v>
       </c>
@@ -2005,7 +1994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
         <v>44945</v>
       </c>
@@ -2034,7 +2023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
         <v>44945</v>
       </c>
@@ -2063,7 +2052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
         <v>44945</v>
       </c>
@@ -2092,7 +2081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
         <v>44945</v>
       </c>
@@ -2121,7 +2110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="7">
         <v>44945</v>
       </c>
@@ -2150,7 +2139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="7">
         <v>44945</v>
       </c>
@@ -2179,7 +2168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="7">
         <v>44945</v>
       </c>
@@ -2208,7 +2197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="7">
         <v>44945</v>
       </c>
@@ -2237,7 +2226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="7">
         <v>44945</v>
       </c>
@@ -2266,7 +2255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="7">
         <v>44945</v>
       </c>
@@ -2295,7 +2284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="7">
         <v>44945</v>
       </c>
@@ -2324,7 +2313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="7">
         <v>44945</v>
       </c>
@@ -2353,7 +2342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="7">
         <v>44945</v>
       </c>
@@ -2382,7 +2371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="7">
         <v>44945</v>
       </c>
@@ -2411,7 +2400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="7">
         <v>44945</v>
       </c>
@@ -2440,7 +2429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="7">
         <v>44945</v>
       </c>
@@ -2469,7 +2458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="7">
         <v>44945</v>
       </c>
@@ -2498,7 +2487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="7">
         <v>44945</v>
       </c>
@@ -2527,7 +2516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="7">
         <v>44945</v>
       </c>
@@ -2559,7 +2548,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="7">
         <v>44945</v>
       </c>
@@ -2588,7 +2577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="7">
         <v>44945</v>
       </c>
@@ -2617,7 +2606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="7">
         <v>44952</v>
       </c>
@@ -2646,7 +2635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="7">
         <v>44952</v>
       </c>
@@ -2675,7 +2664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="7">
         <v>44952</v>
       </c>
@@ -2704,7 +2693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="7">
         <v>44952</v>
       </c>
@@ -2733,7 +2722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="7">
         <v>44952</v>
       </c>
@@ -2762,7 +2751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="7">
         <v>44952</v>
       </c>
@@ -2791,7 +2780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="7">
         <v>44952</v>
       </c>
@@ -2820,7 +2809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="7">
         <v>44952</v>
       </c>
@@ -2849,7 +2838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="7">
         <v>44952</v>
       </c>
@@ -2878,7 +2867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="7">
         <v>44952</v>
       </c>
@@ -2907,7 +2896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="7">
         <v>44952</v>
       </c>
@@ -2936,7 +2925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="7">
         <v>44952</v>
       </c>
@@ -2965,7 +2954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="7">
         <v>44952</v>
       </c>
@@ -2994,7 +2983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="7">
         <v>44952</v>
       </c>
@@ -3023,7 +3012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="7">
         <v>44952</v>
       </c>
@@ -3052,7 +3041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="7">
         <v>44952</v>
       </c>
@@ -3081,7 +3070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="7">
         <v>44959</v>
       </c>
@@ -3110,7 +3099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="7">
         <v>44959</v>
       </c>
@@ -3139,7 +3128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="7">
         <v>44959</v>
       </c>
@@ -3168,7 +3157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="7">
         <v>44959</v>
       </c>
@@ -3197,7 +3186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="7">
         <v>44959</v>
       </c>
@@ -3226,7 +3215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="7">
         <v>44959</v>
       </c>
@@ -3255,7 +3244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="7">
         <v>44959</v>
       </c>
@@ -3284,7 +3273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="7">
         <v>44959</v>
       </c>
@@ -3313,7 +3302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="7">
         <v>44959</v>
       </c>
@@ -3342,7 +3331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="7">
         <v>44959</v>
       </c>
@@ -3371,7 +3360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="7">
         <v>44959</v>
       </c>
@@ -3400,7 +3389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="7">
         <v>44959</v>
       </c>
@@ -3429,7 +3418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="7">
         <v>44959</v>
       </c>
@@ -3458,7 +3447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="7">
         <v>44959</v>
       </c>
@@ -3487,7 +3476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="7">
         <v>44966</v>
       </c>
@@ -3516,7 +3505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="7">
         <v>44966</v>
       </c>
@@ -3545,7 +3534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="7">
         <v>44966</v>
       </c>
@@ -3574,7 +3563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="7">
         <v>44966</v>
       </c>
@@ -3603,7 +3592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="7">
         <v>44966</v>
       </c>
@@ -3632,7 +3621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="7">
         <v>44966</v>
       </c>
@@ -3661,7 +3650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="7">
         <v>44966</v>
       </c>
@@ -3690,7 +3679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="7">
         <v>44966</v>
       </c>
@@ -3719,7 +3708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="7">
         <v>44966</v>
       </c>
@@ -3748,7 +3737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="7">
         <v>44966</v>
       </c>
@@ -3777,7 +3766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="7">
         <v>44966</v>
       </c>
@@ -3806,7 +3795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="7">
         <v>44966</v>
       </c>
@@ -3835,7 +3824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="7">
         <v>44966</v>
       </c>
@@ -3864,7 +3853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="7">
         <v>44966</v>
       </c>
@@ -3893,7 +3882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="7">
         <v>44980</v>
       </c>
@@ -3922,7 +3911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="7">
         <v>44980</v>
       </c>
@@ -3951,7 +3940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="7">
         <v>44980</v>
       </c>
@@ -3980,7 +3969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="7">
         <v>44980</v>
       </c>
@@ -4009,7 +3998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="7">
         <v>44980</v>
       </c>
@@ -4038,7 +4027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="7">
         <v>44980</v>
       </c>
@@ -4067,7 +4056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="7">
         <v>44980</v>
       </c>
@@ -4096,7 +4085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="7">
         <v>44980</v>
       </c>
@@ -4125,7 +4114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="7">
         <v>44980</v>
       </c>
@@ -4154,7 +4143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="7">
         <v>44980</v>
       </c>
@@ -4183,7 +4172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="7">
         <v>44980</v>
       </c>
@@ -4212,7 +4201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="7">
         <v>44980</v>
       </c>
@@ -4241,7 +4230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="7">
         <v>44980</v>
       </c>
@@ -4270,7 +4259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="7">
         <v>44980</v>
       </c>
@@ -4299,7 +4288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" s="7">
         <v>44980</v>
       </c>
@@ -4328,7 +4317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" s="7">
         <v>44980</v>
       </c>
@@ -4357,7 +4346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" s="7">
         <v>44987</v>
       </c>
@@ -4386,7 +4375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" s="7">
         <v>44987</v>
       </c>
@@ -4415,7 +4404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" s="7">
         <v>44987</v>
       </c>
@@ -4444,7 +4433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" s="7">
         <v>44987</v>
       </c>
@@ -4473,7 +4462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" s="7">
         <v>44987</v>
       </c>
@@ -4502,7 +4491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" s="7">
         <v>44987</v>
       </c>
@@ -4531,7 +4520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" s="7">
         <v>44987</v>
       </c>
@@ -4560,7 +4549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" s="7">
         <v>44987</v>
       </c>
@@ -4589,7 +4578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" s="7">
         <v>44987</v>
       </c>
@@ -4618,7 +4607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" s="7">
         <v>44987</v>
       </c>
@@ -4647,7 +4636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" s="7">
         <v>44987</v>
       </c>
@@ -4676,7 +4665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" s="7">
         <v>44987</v>
       </c>
@@ -4705,7 +4694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" s="7">
         <v>44987</v>
       </c>
@@ -4734,7 +4723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" s="7">
         <v>44987</v>
       </c>
@@ -4763,7 +4752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" s="7">
         <v>44994</v>
       </c>
@@ -4792,7 +4781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" s="7">
         <v>44994</v>
       </c>
@@ -4821,7 +4810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" s="7">
         <v>44994</v>
       </c>
@@ -4850,7 +4839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" s="7">
         <v>44994</v>
       </c>
@@ -4879,7 +4868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" s="7">
         <v>44994</v>
       </c>
@@ -4908,7 +4897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" s="7">
         <v>44994</v>
       </c>
@@ -4937,7 +4926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" s="7">
         <v>44994</v>
       </c>
@@ -4966,7 +4955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" s="7">
         <v>44994</v>
       </c>
@@ -4995,7 +4984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" s="7">
         <v>44994</v>
       </c>
@@ -5024,7 +5013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" s="7">
         <v>44994</v>
       </c>
@@ -5053,7 +5042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" s="7">
         <v>44994</v>
       </c>
@@ -5082,7 +5071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" s="7">
         <v>44994</v>
       </c>
@@ -5111,7 +5100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" s="7">
         <v>44994</v>
       </c>
@@ -5140,7 +5129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" s="7">
         <v>44994</v>
       </c>
@@ -5169,7 +5158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" s="7">
         <v>45001</v>
       </c>
@@ -5198,7 +5187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" s="7">
         <v>45001</v>
       </c>
@@ -5227,7 +5216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" s="7">
         <v>45001</v>
       </c>
@@ -5256,7 +5245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" s="7">
         <v>45001</v>
       </c>
@@ -5285,7 +5274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" s="7">
         <v>45001</v>
       </c>
@@ -5314,7 +5303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" s="7">
         <v>45001</v>
       </c>
@@ -5343,7 +5332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" s="7">
         <v>45001</v>
       </c>
@@ -5372,7 +5361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" s="7">
         <v>45001</v>
       </c>
@@ -5401,7 +5390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" s="7">
         <v>45001</v>
       </c>
@@ -5430,7 +5419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" s="7">
         <v>45001</v>
       </c>
@@ -5459,7 +5448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" s="7">
         <v>45001</v>
       </c>
@@ -5488,7 +5477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" s="7">
         <v>45001</v>
       </c>
@@ -5517,7 +5506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" s="7">
         <v>45001</v>
       </c>
@@ -5546,7 +5535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" s="7">
         <v>45001</v>
       </c>
@@ -5575,7 +5564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" s="7">
         <v>45008</v>
       </c>
@@ -5604,7 +5593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" s="7">
         <v>45008</v>
       </c>
@@ -5633,7 +5622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" s="7">
         <v>45008</v>
       </c>
@@ -5662,7 +5651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" s="7">
         <v>45008</v>
       </c>
@@ -5691,7 +5680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" s="7">
         <v>45008</v>
       </c>
@@ -5720,7 +5709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" s="7">
         <v>45008</v>
       </c>
@@ -5749,7 +5738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" s="7">
         <v>45008</v>
       </c>
@@ -5778,7 +5767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" s="7">
         <v>45008</v>
       </c>
@@ -5807,7 +5796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" s="7">
         <v>45008</v>
       </c>
@@ -5836,7 +5825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" s="7">
         <v>45008</v>
       </c>
@@ -5865,7 +5854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" s="7">
         <v>45008</v>
       </c>
@@ -5894,7 +5883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" s="7">
         <v>45008</v>
       </c>
@@ -5923,7 +5912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" s="7">
         <v>45008</v>
       </c>
@@ -5952,7 +5941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" s="7">
         <v>45008</v>
       </c>
@@ -5981,7 +5970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" s="7">
         <v>45015</v>
       </c>
@@ -6010,7 +5999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" s="7">
         <v>45015</v>
       </c>
@@ -6039,7 +6028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156" s="7">
         <v>45015</v>
       </c>
@@ -6068,7 +6057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157" s="7">
         <v>45015</v>
       </c>
@@ -6097,7 +6086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" s="7">
         <v>45015</v>
       </c>
@@ -6126,7 +6115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159" s="7">
         <v>45015</v>
       </c>
@@ -6155,7 +6144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160" s="7">
         <v>45015</v>
       </c>
@@ -6184,7 +6173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" s="7">
         <v>45015</v>
       </c>
@@ -6213,7 +6202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162" s="7">
         <v>45015</v>
       </c>
@@ -6242,7 +6231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163" s="7">
         <v>45015</v>
       </c>
@@ -6271,7 +6260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164" s="7">
         <v>45015</v>
       </c>
@@ -6300,7 +6289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165" s="7">
         <v>45015</v>
       </c>
@@ -6329,7 +6318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166" s="7">
         <v>45015</v>
       </c>
@@ -6358,7 +6347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167" s="7">
         <v>45015</v>
       </c>
@@ -6387,7 +6376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168" s="7">
         <v>45022</v>
       </c>
@@ -6416,7 +6405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169" s="7">
         <v>45022</v>
       </c>
@@ -6445,7 +6434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A170" s="7">
         <v>45022</v>
       </c>
@@ -6474,7 +6463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A171" s="7">
         <v>45022</v>
       </c>
@@ -6503,7 +6492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A172" s="7">
         <v>45022</v>
       </c>
@@ -6532,7 +6521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A173" s="7">
         <v>45022</v>
       </c>
@@ -6561,7 +6550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A174" s="7">
         <v>45022</v>
       </c>
@@ -6590,7 +6579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A175" s="7">
         <v>45022</v>
       </c>
@@ -6619,7 +6608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A176" s="7">
         <v>45022</v>
       </c>
@@ -6648,7 +6637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177" s="7">
         <v>45022</v>
       </c>
@@ -6677,7 +6666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A178" s="7">
         <v>45022</v>
       </c>
@@ -6706,7 +6695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A179" s="7">
         <v>45022</v>
       </c>
@@ -6735,7 +6724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A180" s="7">
         <v>45022</v>
       </c>
@@ -6764,7 +6753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A181" s="7">
         <v>45022</v>
       </c>
@@ -6793,7 +6782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A182" s="7">
         <v>45030</v>
       </c>
@@ -6822,7 +6811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A183" s="7">
         <v>45030</v>
       </c>
@@ -6851,7 +6840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A184" s="7">
         <v>45030</v>
       </c>
@@ -6880,7 +6869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A185" s="7">
         <v>45030</v>
       </c>
@@ -6909,7 +6898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A186" s="7">
         <v>45030</v>
       </c>
@@ -6938,7 +6927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A187" s="7">
         <v>45030</v>
       </c>
@@ -6967,7 +6956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A188" s="7">
         <v>45030</v>
       </c>
@@ -6996,7 +6985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A189" s="7">
         <v>45030</v>
       </c>
@@ -7025,7 +7014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A190" s="7">
         <v>45030</v>
       </c>
@@ -7054,7 +7043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A191" s="7">
         <v>45030</v>
       </c>
@@ -7083,7 +7072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A192" s="7">
         <v>45030</v>
       </c>
@@ -7112,7 +7101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A193" s="7">
         <v>45030</v>
       </c>
@@ -7141,7 +7130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A194" s="7">
         <v>45030</v>
       </c>
@@ -7170,7 +7159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A195" s="7">
         <v>45030</v>
       </c>
@@ -7199,7 +7188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A196" s="7">
         <v>45030</v>
       </c>
@@ -7228,7 +7217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A197" s="7">
         <v>45030</v>
       </c>
@@ -7257,7 +7246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A198" s="7">
         <v>45030</v>
       </c>
@@ -7286,7 +7275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A199" s="7">
         <v>45030</v>
       </c>
@@ -7315,7 +7304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A200" s="7">
         <v>45030</v>
       </c>
@@ -7344,7 +7333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A201" s="7">
         <v>45030</v>
       </c>
@@ -7373,7 +7362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A202" s="7">
         <v>45030</v>
       </c>
@@ -7402,7 +7391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A203" s="7">
         <v>45030</v>
       </c>
@@ -7431,7 +7420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A204" s="7">
         <v>45050</v>
       </c>
@@ -7460,7 +7449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A205" s="7">
         <v>45050</v>
       </c>
@@ -7489,7 +7478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A206" s="7">
         <v>45050</v>
       </c>
@@ -7518,7 +7507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A207" s="7">
         <v>45050</v>
       </c>
@@ -7547,7 +7536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A208" s="7">
         <v>45050</v>
       </c>
@@ -7576,7 +7565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A209" s="7">
         <v>45050</v>
       </c>
@@ -7605,7 +7594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A210" s="7">
         <v>45050</v>
       </c>
@@ -7634,7 +7623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A211" s="7">
         <v>45050</v>
       </c>
@@ -7663,7 +7652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A212" s="7">
         <v>45050</v>
       </c>
@@ -7692,7 +7681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A213" s="7">
         <v>45050</v>
       </c>
@@ -7721,7 +7710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A214" s="7">
         <v>45050</v>
       </c>
@@ -7750,7 +7739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A215" s="7">
         <v>45050</v>
       </c>
@@ -7779,7 +7768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A216" s="7">
         <v>45050</v>
       </c>
@@ -7808,7 +7797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A217" s="7">
         <v>45050</v>
       </c>
@@ -7837,7 +7826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A218" s="7">
         <v>45050</v>
       </c>
@@ -7866,7 +7855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A219" s="7">
         <v>45050</v>
       </c>
@@ -7895,7 +7884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A220" s="7">
         <v>45057</v>
       </c>
@@ -7924,7 +7913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A221" s="7">
         <v>45057</v>
       </c>
@@ -7953,7 +7942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A222" s="7">
         <v>45057</v>
       </c>
@@ -7982,7 +7971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A223" s="7">
         <v>45057</v>
       </c>
@@ -8011,7 +8000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A224" s="7">
         <v>45057</v>
       </c>
@@ -8040,7 +8029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A225" s="7">
         <v>45057</v>
       </c>
@@ -8069,7 +8058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A226" s="7">
         <v>45057</v>
       </c>
@@ -8098,7 +8087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A227" s="7">
         <v>45057</v>
       </c>
@@ -8127,7 +8116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A228" s="7">
         <v>45057</v>
       </c>
@@ -8156,7 +8145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A229" s="7">
         <v>45057</v>
       </c>
@@ -8185,7 +8174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A230" s="7">
         <v>45057</v>
       </c>
@@ -8214,7 +8203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A231" s="7">
         <v>45057</v>
       </c>
@@ -8243,7 +8232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A232" s="7">
         <v>45057</v>
       </c>
@@ -8272,7 +8261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A233" s="7">
         <v>45057</v>
       </c>
@@ -8301,7 +8290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A234" s="7">
         <v>45064</v>
       </c>
@@ -8330,7 +8319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A235" s="7">
         <v>45064</v>
       </c>
@@ -8359,7 +8348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A236" s="7">
         <v>45064</v>
       </c>
@@ -8388,7 +8377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A237" s="7">
         <v>45064</v>
       </c>
@@ -8417,7 +8406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A238" s="7">
         <v>45064</v>
       </c>
@@ -8446,7 +8435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A239" s="7">
         <v>45064</v>
       </c>
@@ -8475,7 +8464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A240" s="7">
         <v>45064</v>
       </c>
@@ -8504,7 +8493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A241" s="7">
         <v>45064</v>
       </c>
@@ -8533,7 +8522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A242" s="7">
         <v>45064</v>
       </c>
@@ -8562,7 +8551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A243" s="7">
         <v>45064</v>
       </c>
@@ -8591,7 +8580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A244" s="7">
         <v>45064</v>
       </c>
@@ -8620,7 +8609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A245" s="7">
         <v>45064</v>
       </c>
@@ -8649,7 +8638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A246" s="7">
         <v>45064</v>
       </c>
@@ -8678,7 +8667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A247" s="7">
         <v>45064</v>
       </c>
@@ -8707,7 +8696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A248" s="7">
         <v>45064</v>
       </c>
@@ -8736,7 +8725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A249" s="7">
         <v>45064</v>
       </c>
@@ -8765,7 +8754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A250" s="7">
         <v>45071</v>
       </c>
@@ -8794,7 +8783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A251" s="7">
         <v>45071</v>
       </c>
@@ -8823,7 +8812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A252" s="7">
         <v>45071</v>
       </c>
@@ -8852,7 +8841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A253" s="7">
         <v>45071</v>
       </c>
@@ -8881,7 +8870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A254" s="7">
         <v>45071</v>
       </c>
@@ -8910,7 +8899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A255" s="7">
         <v>45071</v>
       </c>
@@ -8939,7 +8928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A256" s="7">
         <v>45071</v>
       </c>
@@ -8968,7 +8957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A257" s="7">
         <v>45071</v>
       </c>
@@ -8997,7 +8986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A258" s="7">
         <v>45071</v>
       </c>
@@ -9026,7 +9015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A259" s="7">
         <v>45071</v>
       </c>
@@ -9055,7 +9044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A260" s="7">
         <v>45071</v>
       </c>
@@ -9084,7 +9073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A261" s="7">
         <v>45071</v>
       </c>
@@ -9113,7 +9102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A262" s="7">
         <v>45071</v>
       </c>
@@ -9142,7 +9131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A263" s="7">
         <v>45071</v>
       </c>
@@ -9171,7 +9160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A264" s="7">
         <v>45078</v>
       </c>
@@ -9200,7 +9189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A265" s="7">
         <v>45078</v>
       </c>
@@ -9229,7 +9218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A266" s="7">
         <v>45078</v>
       </c>
@@ -9258,7 +9247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A267" s="7">
         <v>45078</v>
       </c>
@@ -9287,7 +9276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A268" s="7">
         <v>45078</v>
       </c>
@@ -9316,7 +9305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A269" s="7">
         <v>45078</v>
       </c>
@@ -9345,7 +9334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A270" s="7">
         <v>45078</v>
       </c>
@@ -9374,7 +9363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A271" s="7">
         <v>45078</v>
       </c>
@@ -9403,7 +9392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A272" s="7">
         <v>45078</v>
       </c>
@@ -9432,7 +9421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A273" s="7">
         <v>45078</v>
       </c>
@@ -9461,7 +9450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A274" s="7">
         <v>45078</v>
       </c>
@@ -9490,7 +9479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A275" s="7">
         <v>45078</v>
       </c>
@@ -9519,7 +9508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A276" s="7">
         <v>45078</v>
       </c>
@@ -9548,7 +9537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A277" s="7">
         <v>45078</v>
       </c>
@@ -9577,7 +9566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A278" s="7">
         <v>45085</v>
       </c>
@@ -9606,7 +9595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A279" s="7">
         <v>45085</v>
       </c>
@@ -9635,7 +9624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A280" s="7">
         <v>45085</v>
       </c>
@@ -9664,7 +9653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A281" s="7">
         <v>45085</v>
       </c>
@@ -9693,7 +9682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A282" s="7">
         <v>45085</v>
       </c>
@@ -9722,7 +9711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A283" s="7">
         <v>45085</v>
       </c>
@@ -9751,7 +9740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A284" s="7">
         <v>45085</v>
       </c>
@@ -9780,7 +9769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A285" s="7">
         <v>45085</v>
       </c>
@@ -9809,7 +9798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A286" s="7">
         <v>45085</v>
       </c>
@@ -9838,7 +9827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A287" s="7">
         <v>45085</v>
       </c>
@@ -9867,7 +9856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A288" s="7">
         <v>45085</v>
       </c>
@@ -9896,7 +9885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A289" s="7">
         <v>45085</v>
       </c>
@@ -9925,7 +9914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A290" s="7">
         <v>45085</v>
       </c>
@@ -9954,7 +9943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A291" s="7">
         <v>45085</v>
       </c>
@@ -9983,7 +9972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A292" s="7">
         <v>45092</v>
       </c>
@@ -10012,7 +10001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A293" s="7">
         <v>45092</v>
       </c>
@@ -10041,7 +10030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A294" s="7">
         <v>45092</v>
       </c>
@@ -10070,7 +10059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A295" s="7">
         <v>45092</v>
       </c>
@@ -10099,7 +10088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A296" s="7">
         <v>45092</v>
       </c>
@@ -10128,7 +10117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A297" s="7">
         <v>45092</v>
       </c>
@@ -10157,7 +10146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A298" s="7">
         <v>45092</v>
       </c>
@@ -10186,7 +10175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A299" s="7">
         <v>45092</v>
       </c>
@@ -10215,7 +10204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A300" s="7">
         <v>45092</v>
       </c>
@@ -10244,7 +10233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A301" s="7">
         <v>45092</v>
       </c>
@@ -10273,7 +10262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A302" s="7">
         <v>45092</v>
       </c>
@@ -10302,7 +10291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A303" s="7">
         <v>45092</v>
       </c>
@@ -10331,7 +10320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A304" s="7">
         <v>45092</v>
       </c>
@@ -10360,7 +10349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A305" s="7">
         <v>45092</v>
       </c>
@@ -10389,7 +10378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A306" s="7">
         <v>45092</v>
       </c>
@@ -10418,7 +10407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A307" s="7">
         <v>45092</v>
       </c>
@@ -10447,7 +10436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A308" s="7">
         <v>45099</v>
       </c>
@@ -10476,7 +10465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A309" s="7">
         <v>45099</v>
       </c>
@@ -10505,7 +10494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A310" s="7">
         <v>45099</v>
       </c>
@@ -10534,7 +10523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A311" s="7">
         <v>45099</v>
       </c>
@@ -10563,7 +10552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A312" s="7">
         <v>45099</v>
       </c>
@@ -10592,7 +10581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A313" s="7">
         <v>45099</v>
       </c>
@@ -10621,7 +10610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A314" s="7">
         <v>45099</v>
       </c>
@@ -10650,7 +10639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A315" s="7">
         <v>45099</v>
       </c>
@@ -10679,7 +10668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A316" s="7">
         <v>45099</v>
       </c>
@@ -10708,7 +10697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A317" s="7">
         <v>45099</v>
       </c>
@@ -10737,7 +10726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A318" s="7">
         <v>45099</v>
       </c>
@@ -10766,7 +10755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A319" s="7">
         <v>45099</v>
       </c>
@@ -10795,7 +10784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A320" s="7">
         <v>45099</v>
       </c>
@@ -10824,7 +10813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A321" s="7">
         <v>45099</v>
       </c>
@@ -10853,7 +10842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A322" s="7">
         <v>45099</v>
       </c>
@@ -10882,7 +10871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A323" s="7">
         <v>45099</v>
       </c>
@@ -10911,7 +10900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A324" s="7">
         <v>45106</v>
       </c>
@@ -10940,7 +10929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A325" s="7">
         <v>45106</v>
       </c>
@@ -10969,7 +10958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A326" s="7">
         <v>45106</v>
       </c>
@@ -10998,7 +10987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A327" s="7">
         <v>45106</v>
       </c>
@@ -11027,7 +11016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A328" s="7">
         <v>45106</v>
       </c>
@@ -11056,7 +11045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A329" s="7">
         <v>45106</v>
       </c>
@@ -11085,7 +11074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A330" s="7">
         <v>45106</v>
       </c>
@@ -11114,7 +11103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A331" s="7">
         <v>45106</v>
       </c>
@@ -11143,7 +11132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A332" s="7">
         <v>45106</v>
       </c>
@@ -11172,7 +11161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A333" s="7">
         <v>45106</v>
       </c>
@@ -11201,7 +11190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A334" s="7">
         <v>45106</v>
       </c>
@@ -11230,7 +11219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A335" s="7">
         <v>45106</v>
       </c>
@@ -11259,7 +11248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A336" s="7">
         <v>45106</v>
       </c>
@@ -11288,7 +11277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A337" s="7">
         <v>45106</v>
       </c>
@@ -11317,7 +11306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A338" s="7">
         <v>45106</v>
       </c>
@@ -11346,7 +11335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A339" s="7">
         <v>45106</v>
       </c>
@@ -11375,7 +11364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A340" s="7">
         <v>45113</v>
       </c>
@@ -11404,7 +11393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A341" s="7">
         <v>45113</v>
       </c>
@@ -11433,7 +11422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A342" s="7">
         <v>45113</v>
       </c>
@@ -11462,7 +11451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A343" s="7">
         <v>45113</v>
       </c>
@@ -11491,7 +11480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A344" s="7">
         <v>45113</v>
       </c>
@@ -11520,7 +11509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A345" s="7">
         <v>45113</v>
       </c>
@@ -11549,7 +11538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A346" s="7">
         <v>45113</v>
       </c>
@@ -11578,7 +11567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A347" s="7">
         <v>45113</v>
       </c>
@@ -11607,7 +11596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A348" s="7">
         <v>45113</v>
       </c>
@@ -11636,7 +11625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A349" s="7">
         <v>45113</v>
       </c>
@@ -11665,7 +11654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A350" s="7">
         <v>45113</v>
       </c>
@@ -11694,7 +11683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A351" s="7">
         <v>45113</v>
       </c>
@@ -11723,7 +11712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A352" s="7">
         <v>45113</v>
       </c>
@@ -11752,7 +11741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A353" s="7">
         <v>45113</v>
       </c>
@@ -11781,7 +11770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A354" s="7">
         <v>45114</v>
       </c>
@@ -11810,7 +11799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A355" s="7">
         <v>45114</v>
       </c>
@@ -11839,7 +11828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A356" s="7">
         <v>45114</v>
       </c>
@@ -11868,7 +11857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A357" s="7">
         <v>45114</v>
       </c>
@@ -11897,7 +11886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A358" s="7">
         <v>45114</v>
       </c>
@@ -11926,7 +11915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A359" s="7">
         <v>45114</v>
       </c>
@@ -11955,7 +11944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A360" s="7">
         <v>45114</v>
       </c>
@@ -11984,7 +11973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A361" s="7">
         <v>45114</v>
       </c>
@@ -12013,7 +12002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A362" s="7">
         <v>45114</v>
       </c>
@@ -12042,7 +12031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A363" s="7">
         <v>45114</v>
       </c>
@@ -12071,7 +12060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A364" s="7">
         <v>45114</v>
       </c>
@@ -12100,7 +12089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A365" s="7">
         <v>45114</v>
       </c>
@@ -12129,7 +12118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A366" s="7">
         <v>45114</v>
       </c>
@@ -12158,7 +12147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A367" s="7">
         <v>45115</v>
       </c>
@@ -12187,7 +12176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A368" s="7">
         <v>45115</v>
       </c>
@@ -12216,7 +12205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A369" s="7">
         <v>45115</v>
       </c>
@@ -12245,7 +12234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A370" s="7">
         <v>45115</v>
       </c>
@@ -12274,7 +12263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A371" s="7">
         <v>45115</v>
       </c>
@@ -12303,7 +12292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A372" s="7">
         <v>45115</v>
       </c>
@@ -12332,7 +12321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A373" s="7">
         <v>45115</v>
       </c>
@@ -12361,7 +12350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A374" s="7">
         <v>45115</v>
       </c>
@@ -12390,7 +12379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A375" s="7">
         <v>45115</v>
       </c>
@@ -12419,7 +12408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A376" s="7">
         <v>45115</v>
       </c>
@@ -12448,7 +12437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A377" s="7">
         <v>45116</v>
       </c>
@@ -12477,7 +12466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A378" s="7">
         <v>45116</v>
       </c>
@@ -12506,7 +12495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A379" s="7">
         <v>45116</v>
       </c>
@@ -12535,7 +12524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A380" s="7">
         <v>45116</v>
       </c>
@@ -12564,7 +12553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A381" s="7">
         <v>45116</v>
       </c>
@@ -12593,7 +12582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A382" s="7">
         <v>45116</v>
       </c>
@@ -12622,7 +12611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A383" s="7">
         <v>45116</v>
       </c>
@@ -12651,7 +12640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A384" s="7">
         <v>45116</v>
       </c>
@@ -12680,7 +12669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A385" s="7">
         <v>45116</v>
       </c>
@@ -12709,7 +12698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A386" s="7">
         <v>45116</v>
       </c>
@@ -12738,7 +12727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A387" s="7">
         <v>45116</v>
       </c>
@@ -12767,7 +12756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A388" s="7">
         <v>45116</v>
       </c>
@@ -12796,7 +12785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A389" s="7">
         <v>45116</v>
       </c>
@@ -12825,7 +12814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A390" s="7">
         <v>45116</v>
       </c>
@@ -12854,7 +12843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A391" s="7">
         <v>45117</v>
       </c>
@@ -12883,7 +12872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A392" s="7">
         <v>45117</v>
       </c>
@@ -12912,7 +12901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A393" s="7">
         <v>45117</v>
       </c>
@@ -12941,7 +12930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A394" s="7">
         <v>45117</v>
       </c>
@@ -12970,7 +12959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A395" s="7">
         <v>45117</v>
       </c>
@@ -12999,7 +12988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A396" s="7">
         <v>45117</v>
       </c>
@@ -13028,7 +13017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A397" s="7">
         <v>45117</v>
       </c>
@@ -13057,7 +13046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A398" s="7">
         <v>45117</v>
       </c>
@@ -13086,7 +13075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A399" s="7">
         <v>45117</v>
       </c>
@@ -13115,7 +13104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A400" s="7">
         <v>45118</v>
       </c>
@@ -13144,7 +13133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A401" s="7">
         <v>45118</v>
       </c>
@@ -13173,7 +13162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A402" s="7">
         <v>45118</v>
       </c>
@@ -13202,7 +13191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A403" s="7">
         <v>45118</v>
       </c>
@@ -13231,7 +13220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A404" s="7">
         <v>45118</v>
       </c>
@@ -13260,7 +13249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A405" s="7">
         <v>45118</v>
       </c>
@@ -13289,7 +13278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A406" s="7">
         <v>45118</v>
       </c>
@@ -13318,7 +13307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A407" s="7">
         <v>45118</v>
       </c>
@@ -13347,7 +13336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A408" s="7">
         <v>45118</v>
       </c>
@@ -13376,7 +13365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A409" s="7">
         <v>45118</v>
       </c>
@@ -13405,7 +13394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A410" s="7">
         <v>45118</v>
       </c>
@@ -13434,7 +13423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A411" s="7">
         <v>45118</v>
       </c>
@@ -13463,7 +13452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A412" s="7">
         <v>45118</v>
       </c>
@@ -13492,7 +13481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A413" s="7">
         <v>45118</v>
       </c>
@@ -13521,7 +13510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A414" s="7">
         <v>45119</v>
       </c>
@@ -13550,7 +13539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A415" s="7">
         <v>45119</v>
       </c>
@@ -13579,7 +13568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A416" s="7">
         <v>45119</v>
       </c>
@@ -13608,7 +13597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A417" s="7">
         <v>45119</v>
       </c>
@@ -13637,7 +13626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A418" s="7">
         <v>45119</v>
       </c>
@@ -13666,7 +13655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A419" s="7">
         <v>45119</v>
       </c>
@@ -13695,7 +13684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A420" s="7">
         <v>45119</v>
       </c>
@@ -13724,7 +13713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A421" s="7">
         <v>45119</v>
       </c>
@@ -13753,7 +13742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A422" s="7">
         <v>45119</v>
       </c>
@@ -13782,9 +13771,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A423" s="28">
-        <v>45170</v>
+        <v>45176</v>
       </c>
       <c r="B423" s="29" t="s">
         <v>75</v>
@@ -13811,12 +13800,12 @@
         <v>0</v>
       </c>
       <c r="J423" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="424" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A424" s="28">
-        <v>45170</v>
+        <v>45176</v>
       </c>
       <c r="B424" s="29" t="s">
         <v>31</v>
@@ -13825,7 +13814,7 @@
         <v>30</v>
       </c>
       <c r="D424" s="30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E424" s="30">
         <v>0</v>
@@ -13843,279 +13832,279 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A425" s="28">
-        <v>45170</v>
+        <v>45176</v>
       </c>
       <c r="B425" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C425" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D425" s="30">
+        <v>4</v>
+      </c>
+      <c r="E425" s="30">
+        <v>0</v>
+      </c>
+      <c r="F425" s="30">
+        <v>0</v>
+      </c>
+      <c r="G425" s="30">
+        <v>0</v>
+      </c>
+      <c r="H425" s="30">
+        <v>0</v>
+      </c>
+      <c r="I425" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A426" s="28">
+        <v>45176</v>
+      </c>
+      <c r="B426" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C426" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D426" s="30">
+        <v>0</v>
+      </c>
+      <c r="E426" s="30">
+        <v>0</v>
+      </c>
+      <c r="F426" s="30">
+        <v>0</v>
+      </c>
+      <c r="G426" s="30">
+        <v>0</v>
+      </c>
+      <c r="H426" s="30">
+        <v>0</v>
+      </c>
+      <c r="I426" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A427" s="28">
+        <v>45176</v>
+      </c>
+      <c r="B427" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C427" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D427" s="30">
+        <v>1</v>
+      </c>
+      <c r="E427" s="30">
+        <v>0</v>
+      </c>
+      <c r="F427" s="30">
+        <v>0</v>
+      </c>
+      <c r="G427" s="30">
+        <v>0</v>
+      </c>
+      <c r="H427" s="30">
+        <v>0</v>
+      </c>
+      <c r="I427" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A428" s="28">
+        <v>45176</v>
+      </c>
+      <c r="B428" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C428" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D428" s="30">
+        <v>0</v>
+      </c>
+      <c r="E428" s="30">
+        <v>0</v>
+      </c>
+      <c r="F428" s="30">
+        <v>1</v>
+      </c>
+      <c r="G428" s="30">
+        <v>0</v>
+      </c>
+      <c r="H428" s="30">
+        <v>0</v>
+      </c>
+      <c r="I428" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A429" s="28">
+        <v>45176</v>
+      </c>
+      <c r="B429" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="C425" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D425" s="30">
-        <v>1</v>
-      </c>
-      <c r="E425" s="30">
-        <v>0</v>
-      </c>
-      <c r="F425" s="30">
-        <v>0</v>
-      </c>
-      <c r="G425" s="30">
-        <v>0</v>
-      </c>
-      <c r="H425" s="30">
-        <v>0</v>
-      </c>
-      <c r="I425" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A426" s="28">
-        <v>45170</v>
-      </c>
-      <c r="B426" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="C426" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D426" s="30">
-        <v>0</v>
-      </c>
-      <c r="E426" s="30">
-        <v>0</v>
-      </c>
-      <c r="F426" s="30">
-        <v>0</v>
-      </c>
-      <c r="G426" s="30">
-        <v>0</v>
-      </c>
-      <c r="H426" s="30">
-        <v>0</v>
-      </c>
-      <c r="I426" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A427" s="28">
-        <v>45170</v>
-      </c>
-      <c r="B427" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C427" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="D427" s="30">
-        <v>0</v>
-      </c>
-      <c r="E427" s="30">
-        <v>0</v>
-      </c>
-      <c r="F427" s="30">
-        <v>0</v>
-      </c>
-      <c r="G427" s="30">
-        <v>0</v>
-      </c>
-      <c r="H427" s="30">
-        <v>0</v>
-      </c>
-      <c r="I427" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A428" s="28">
-        <v>45170</v>
-      </c>
-      <c r="B428" s="29" t="s">
+      <c r="C429" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D429" s="30">
+        <v>0</v>
+      </c>
+      <c r="E429" s="30">
+        <v>1</v>
+      </c>
+      <c r="F429" s="30">
+        <v>0</v>
+      </c>
+      <c r="G429" s="30">
+        <v>0</v>
+      </c>
+      <c r="H429" s="30">
+        <v>2</v>
+      </c>
+      <c r="I429" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A430" s="28">
+        <v>45176</v>
+      </c>
+      <c r="B430" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="C430" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D430" s="30">
+        <v>0</v>
+      </c>
+      <c r="E430" s="30">
+        <v>0</v>
+      </c>
+      <c r="F430" s="30">
+        <v>0</v>
+      </c>
+      <c r="G430" s="30">
+        <v>0</v>
+      </c>
+      <c r="H430" s="30">
+        <v>0</v>
+      </c>
+      <c r="I430" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A431" s="28">
+        <v>45176</v>
+      </c>
+      <c r="B431" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C431" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D431" s="30">
+        <v>2</v>
+      </c>
+      <c r="E431" s="30">
+        <v>0</v>
+      </c>
+      <c r="F431" s="30">
+        <v>0</v>
+      </c>
+      <c r="G431" s="30">
+        <v>0</v>
+      </c>
+      <c r="H431" s="30">
+        <v>0</v>
+      </c>
+      <c r="I431" s="30">
+        <v>0</v>
+      </c>
+      <c r="J431" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="432" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A432" s="28">
+        <v>45176</v>
+      </c>
+      <c r="B432" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C432" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D432" s="30">
+        <v>0</v>
+      </c>
+      <c r="E432" s="30">
+        <v>0</v>
+      </c>
+      <c r="F432" s="30">
+        <v>0</v>
+      </c>
+      <c r="G432" s="30">
+        <v>0</v>
+      </c>
+      <c r="H432" s="30">
+        <v>0</v>
+      </c>
+      <c r="I432" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A433" s="28">
+        <v>45176</v>
+      </c>
+      <c r="B433" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C433" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D433" s="30">
+        <v>0</v>
+      </c>
+      <c r="E433" s="30">
+        <v>0</v>
+      </c>
+      <c r="F433" s="30">
+        <v>0</v>
+      </c>
+      <c r="G433" s="30">
+        <v>0</v>
+      </c>
+      <c r="H433" s="30">
+        <v>0</v>
+      </c>
+      <c r="I433" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A434" s="28">
+        <v>45176</v>
+      </c>
+      <c r="B434" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="C428" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="D428" s="30">
-        <v>3</v>
-      </c>
-      <c r="E428" s="30">
-        <v>0</v>
-      </c>
-      <c r="F428" s="30">
-        <v>0</v>
-      </c>
-      <c r="G428" s="30">
-        <v>0</v>
-      </c>
-      <c r="H428" s="30">
-        <v>0</v>
-      </c>
-      <c r="I428" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A429" s="28">
-        <v>45170</v>
-      </c>
-      <c r="B429" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C429" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="D429" s="30">
-        <v>2</v>
-      </c>
-      <c r="E429" s="30">
-        <v>0</v>
-      </c>
-      <c r="F429" s="30">
-        <v>0</v>
-      </c>
-      <c r="G429" s="30">
-        <v>0</v>
-      </c>
-      <c r="H429" s="30">
-        <v>0</v>
-      </c>
-      <c r="I429" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A430" s="28">
-        <v>45170</v>
-      </c>
-      <c r="B430" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="C430" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="D430" s="30">
-        <v>0</v>
-      </c>
-      <c r="E430" s="30">
-        <v>0</v>
-      </c>
-      <c r="F430" s="30">
-        <v>0</v>
-      </c>
-      <c r="G430" s="30">
-        <v>0</v>
-      </c>
-      <c r="H430" s="30">
-        <v>0</v>
-      </c>
-      <c r="I430" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A431" s="28">
-        <v>45170</v>
-      </c>
-      <c r="B431" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="C431" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="D431" s="30">
-        <v>0</v>
-      </c>
-      <c r="E431" s="30">
-        <v>0</v>
-      </c>
-      <c r="F431" s="30">
-        <v>0</v>
-      </c>
-      <c r="G431" s="30">
-        <v>0</v>
-      </c>
-      <c r="H431" s="30">
-        <v>0</v>
-      </c>
-      <c r="I431" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A432" s="28">
-        <v>45179</v>
-      </c>
-      <c r="B432" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="C432" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D432" s="30">
-        <v>0</v>
-      </c>
-      <c r="E432" s="30">
-        <v>0</v>
-      </c>
-      <c r="F432" s="30">
-        <v>0</v>
-      </c>
-      <c r="G432" s="30">
-        <v>0</v>
-      </c>
-      <c r="H432" s="30">
-        <v>0</v>
-      </c>
-      <c r="I432" s="30">
-        <v>0</v>
-      </c>
-      <c r="J432" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A433" s="28">
-        <v>45179</v>
-      </c>
-      <c r="B433" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C433" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D433" s="30">
-        <v>3</v>
-      </c>
-      <c r="E433" s="30">
-        <v>0</v>
-      </c>
-      <c r="F433" s="30">
-        <v>0</v>
-      </c>
-      <c r="G433" s="30">
-        <v>0</v>
-      </c>
-      <c r="H433" s="30">
-        <v>0</v>
-      </c>
-      <c r="I433" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A434" s="28">
-        <v>45179</v>
-      </c>
-      <c r="B434" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="C434" s="30" t="s">
-        <v>30</v>
+      <c r="C434" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="D434" s="30">
         <v>1</v>
@@ -14127,7 +14116,7 @@
         <v>0</v>
       </c>
       <c r="G434" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H434" s="30">
         <v>0</v>
@@ -14135,19 +14124,16 @@
       <c r="I434" s="30">
         <v>0</v>
       </c>
-      <c r="J434" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="435" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A435" s="28">
-        <v>45179</v>
+        <v>45176</v>
       </c>
       <c r="B435" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="C435" s="30" t="s">
-        <v>30</v>
+        <v>37</v>
+      </c>
+      <c r="C435" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="D435" s="30">
         <v>0</v>
@@ -14168,14 +14154,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A436" s="28">
-        <v>45179</v>
+        <v>45176</v>
       </c>
       <c r="B436" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C436" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C436" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D436" s="30">
@@ -14197,125 +14183,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A437" s="28">
-        <v>45179</v>
-      </c>
-      <c r="B437" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="C437" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="D437" s="30">
-        <v>3</v>
-      </c>
-      <c r="E437" s="30">
-        <v>0</v>
-      </c>
-      <c r="F437" s="30">
-        <v>0</v>
-      </c>
-      <c r="G437" s="30">
-        <v>0</v>
-      </c>
-      <c r="H437" s="30">
-        <v>0</v>
-      </c>
-      <c r="I437" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A438" s="28">
-        <v>45179</v>
-      </c>
-      <c r="B438" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C438" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="D438" s="30">
-        <v>2</v>
-      </c>
-      <c r="E438" s="30">
-        <v>0</v>
-      </c>
-      <c r="F438" s="30">
-        <v>0</v>
-      </c>
-      <c r="G438" s="30">
-        <v>0</v>
-      </c>
-      <c r="H438" s="30">
-        <v>0</v>
-      </c>
-      <c r="I438" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A439" s="28">
-        <v>45179</v>
-      </c>
-      <c r="B439" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="C439" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="D439" s="30">
-        <v>0</v>
-      </c>
-      <c r="E439" s="30">
-        <v>0</v>
-      </c>
-      <c r="F439" s="30">
-        <v>0</v>
-      </c>
-      <c r="G439" s="30">
-        <v>0</v>
-      </c>
-      <c r="H439" s="30">
-        <v>0</v>
-      </c>
-      <c r="I439" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A440" s="28">
-        <v>45179</v>
-      </c>
-      <c r="B440" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="C440" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="D440" s="30">
-        <v>0</v>
-      </c>
-      <c r="E440" s="30">
-        <v>0</v>
-      </c>
-      <c r="F440" s="30">
-        <v>0</v>
-      </c>
-      <c r="G440" s="30">
-        <v>0</v>
-      </c>
-      <c r="H440" s="30">
-        <v>0</v>
-      </c>
-      <c r="I440" s="30">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:J440" xr:uid="{F55E8A24-46F9-4225-A2C2-A9164F13364A}"/>
-  <conditionalFormatting sqref="C2:C440">
+  <autoFilter ref="A1:J431" xr:uid="{F55E8A24-46F9-4225-A2C2-A9164F13364A}"/>
+  <conditionalFormatting sqref="C2:C436">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Scuri"</formula>
     </cfRule>
@@ -14324,13 +14194,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H440 D2:E440" xr:uid="{A2364708-0661-4544-87F1-D3FDEABF18B6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H436 D2:E436" xr:uid="{A2364708-0661-4544-87F1-D3FDEABF18B6}">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I440" xr:uid="{3C35827F-D598-4F40-B064-7FA732E53B67}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I436" xr:uid="{3C35827F-D598-4F40-B064-7FA732E53B67}">
       <formula1>"0, 1, 2, 3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G440" xr:uid="{2FE2E49C-6CC7-4B84-9D73-A960B8BAAF9A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G436" xr:uid="{2FE2E49C-6CC7-4B84-9D73-A960B8BAAF9A}">
       <formula1>"0, 1"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14355,19 +14225,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E168A56-6341-4406-8D41-CC351A3A492A}">
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="25.54296875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.5703125" style="20"/>
-    <col min="3" max="5" width="25.5703125" style="22"/>
-    <col min="6" max="6" width="25.5703125" style="20"/>
-    <col min="7" max="16384" width="25.5703125" style="17"/>
+    <col min="1" max="2" width="25.54296875" style="20"/>
+    <col min="3" max="5" width="25.54296875" style="22"/>
+    <col min="6" max="6" width="25.54296875" style="20"/>
+    <col min="7" max="16384" width="25.54296875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>16</v>
       </c>
@@ -14387,7 +14257,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>74</v>
       </c>
@@ -14407,7 +14277,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>58</v>
       </c>
@@ -14427,7 +14297,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>68</v>
       </c>
@@ -14445,7 +14315,7 @@
       </c>
       <c r="F4" s="19"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>42</v>
       </c>
@@ -14463,7 +14333,7 @@
       </c>
       <c r="F5" s="19"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>71</v>
       </c>
@@ -14483,7 +14353,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>70</v>
       </c>
@@ -14501,7 +14371,7 @@
       </c>
       <c r="F7" s="19"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>78</v>
       </c>
@@ -14519,7 +14389,7 @@
       </c>
       <c r="F8" s="19"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
         <v>21</v>
       </c>
@@ -14537,7 +14407,7 @@
       </c>
       <c r="F9" s="19"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>80</v>
       </c>
@@ -14555,7 +14425,7 @@
       </c>
       <c r="F10" s="19"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
         <v>39</v>
       </c>
@@ -14573,7 +14443,7 @@
       </c>
       <c r="F11" s="19"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="19" t="s">
         <v>64</v>
       </c>
@@ -14591,7 +14461,7 @@
       </c>
       <c r="F12" s="19"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
         <v>31</v>
       </c>
@@ -14609,7 +14479,7 @@
       </c>
       <c r="F13" s="19"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
         <v>28</v>
       </c>
@@ -14627,7 +14497,7 @@
       </c>
       <c r="F14" s="19"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
         <v>73</v>
       </c>
@@ -14645,7 +14515,7 @@
       </c>
       <c r="F15" s="19"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
         <v>37</v>
       </c>
@@ -14665,7 +14535,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="19" t="s">
         <v>52</v>
       </c>
@@ -14685,7 +14555,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="19" t="s">
         <v>33</v>
       </c>
@@ -14703,7 +14573,7 @@
       </c>
       <c r="F18" s="19"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="19" t="s">
         <v>94</v>
       </c>
@@ -14721,7 +14591,7 @@
       </c>
       <c r="F19" s="19"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="19" t="s">
         <v>95</v>
       </c>
@@ -14741,7 +14611,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="19" t="s">
         <v>57</v>
       </c>
@@ -14761,7 +14631,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="19" t="s">
         <v>79</v>
       </c>
@@ -14779,7 +14649,7 @@
       </c>
       <c r="F22" s="19"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="19" t="s">
         <v>96</v>
       </c>
@@ -14799,7 +14669,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="19" t="s">
         <v>43</v>
       </c>
@@ -14817,7 +14687,7 @@
       </c>
       <c r="F24" s="19"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="19" t="s">
         <v>51</v>
       </c>
@@ -14837,7 +14707,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="19" t="s">
         <v>29</v>
       </c>
@@ -14855,7 +14725,7 @@
       </c>
       <c r="F26" s="19"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="19" t="s">
         <v>38</v>
       </c>
@@ -14873,7 +14743,7 @@
       </c>
       <c r="F27" s="19"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="19" t="s">
         <v>99</v>
       </c>
@@ -14893,7 +14763,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="19" t="s">
         <v>35</v>
       </c>
@@ -14911,7 +14781,7 @@
       </c>
       <c r="F29" s="19"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="19" t="s">
         <v>41</v>
       </c>
@@ -14929,7 +14799,7 @@
       </c>
       <c r="F30" s="19"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="19" t="s">
         <v>47</v>
       </c>
@@ -14947,7 +14817,7 @@
       </c>
       <c r="F31" s="19"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="18" t="s">
         <v>72</v>
       </c>
@@ -14967,7 +14837,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="19" t="s">
         <v>49</v>
       </c>
@@ -14985,7 +14855,7 @@
       </c>
       <c r="F33" s="19"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="19" t="s">
         <v>36</v>
       </c>
@@ -15003,7 +14873,7 @@
       </c>
       <c r="F34" s="19"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="19" t="s">
         <v>56</v>
       </c>
@@ -15023,7 +14893,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="19" t="s">
         <v>32</v>
       </c>
@@ -15041,7 +14911,7 @@
       </c>
       <c r="F36" s="19"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="19" t="s">
         <v>55</v>
       </c>
@@ -15061,7 +14931,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="18" t="s">
         <v>66</v>
       </c>
@@ -15079,7 +14949,7 @@
       </c>
       <c r="F38" s="19"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="19" t="s">
         <v>44</v>
       </c>
@@ -15097,7 +14967,7 @@
       </c>
       <c r="F39" s="19"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="19" t="s">
         <v>50</v>
       </c>
@@ -15117,7 +14987,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="19" t="s">
         <v>61</v>
       </c>
@@ -15137,7 +15007,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="19" t="s">
         <v>63</v>
       </c>
@@ -15155,7 +15025,7 @@
       </c>
       <c r="F42" s="19"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="19" t="s">
         <v>23</v>
       </c>
@@ -15173,7 +15043,7 @@
       </c>
       <c r="F43" s="19"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="18" t="s">
         <v>60</v>
       </c>
@@ -15191,7 +15061,7 @@
       </c>
       <c r="F44" s="19"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="19" t="s">
         <v>25</v>
       </c>
@@ -15209,7 +15079,7 @@
       </c>
       <c r="F45" s="19"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="18" t="s">
         <v>69</v>
       </c>
@@ -15229,7 +15099,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="19" t="s">
         <v>53</v>
       </c>
@@ -15249,7 +15119,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="19" t="s">
         <v>76</v>
       </c>
@@ -15267,7 +15137,7 @@
       </c>
       <c r="F48" s="19"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="19" t="s">
         <v>62</v>
       </c>
@@ -15285,7 +15155,7 @@
       </c>
       <c r="F49" s="19"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="19" t="s">
         <v>26</v>
       </c>
@@ -15303,7 +15173,7 @@
       </c>
       <c r="F50" s="19"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="19" t="s">
         <v>48</v>
       </c>
@@ -15321,7 +15191,7 @@
       </c>
       <c r="F51" s="19"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="19" t="s">
         <v>54</v>
       </c>
@@ -15339,7 +15209,7 @@
       </c>
       <c r="F52" s="19"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="18" t="s">
         <v>67</v>
       </c>
@@ -15357,7 +15227,7 @@
       </c>
       <c r="F53" s="19"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="19" t="s">
         <v>24</v>
       </c>
@@ -15375,7 +15245,7 @@
       </c>
       <c r="F54" s="19"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="19" t="s">
         <v>46</v>
       </c>
@@ -15395,7 +15265,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="18" t="s">
         <v>59</v>
       </c>
@@ -15413,7 +15283,7 @@
       </c>
       <c r="F56" s="19"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="19" t="s">
         <v>103</v>
       </c>
@@ -15431,7 +15301,7 @@
       </c>
       <c r="F57" s="19"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="19" t="s">
         <v>40</v>
       </c>
@@ -15451,7 +15321,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="19" t="s">
         <v>27</v>
       </c>
@@ -15469,7 +15339,7 @@
       </c>
       <c r="F59" s="19"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="19" t="s">
         <v>45</v>
       </c>
@@ -15487,7 +15357,7 @@
       </c>
       <c r="F60" s="19"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="19" t="s">
         <v>104</v>
       </c>
@@ -15507,7 +15377,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="19" t="s">
         <v>105</v>
       </c>
@@ -15527,7 +15397,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="19" t="s">
         <v>77</v>
       </c>
@@ -15545,7 +15415,7 @@
       </c>
       <c r="F63" s="19"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="19" t="s">
         <v>34</v>
       </c>
@@ -15563,7 +15433,7 @@
       </c>
       <c r="F64" s="19"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="19" t="s">
         <v>75</v>
       </c>
@@ -15581,7 +15451,7 @@
       </c>
       <c r="F65" s="19"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="19" t="s">
         <v>65</v>
       </c>
@@ -15616,42 +15486,42 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
         <v>88</v>
       </c>

--- a/Input/FantaSPL_Milano.xlsx
+++ b/Input/FantaSPL_Milano.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Local_Docs\Admin\Other\Kit\SPL\SPL_v_0.2\SPL_Regional\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8F2372-93FD-40B2-A9D0-26E00059D693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572E62D2-B315-4B4B-8AE2-6D67640DD818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{05F018D4-855F-4570-8D15-9B4DD092A228}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{05F018D4-855F-4570-8D15-9B4DD092A228}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="11" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Players!$A$1:$E$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Points!$A$1:$J$431</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Points!$A$1:$J$436</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="111">
   <si>
     <t>Parameter</t>
   </si>
@@ -375,6 +375,9 @@
   <si>
     <t>Loss</t>
   </si>
+  <si>
+    <t>Coco' (Stoppi)</t>
+  </si>
 </sst>
 </file>
 
@@ -506,7 +509,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -591,6 +594,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -944,7 +950,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1147,8 +1153,8 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B31" sqref="B31:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1506,9 +1512,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F55E8A24-46F9-4225-A2C2-A9164F13364A}">
   <dimension ref="A1:J436"/>
   <sheetViews>
-    <sheetView zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A418" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D430" sqref="D430:D436"/>
+    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A416" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K427" sqref="K427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2288,8 +2294,8 @@
       <c r="A27" s="7">
         <v>44945</v>
       </c>
-      <c r="B27" s="8" t="s">
-        <v>37</v>
+      <c r="B27" s="31" t="s">
+        <v>110</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>22</v>
@@ -11455,8 +11461,8 @@
       <c r="A343" s="7">
         <v>45113</v>
       </c>
-      <c r="B343" s="8" t="s">
-        <v>37</v>
+      <c r="B343" s="31" t="s">
+        <v>110</v>
       </c>
       <c r="C343" s="9" t="s">
         <v>30</v>
@@ -14130,7 +14136,7 @@
         <v>45176</v>
       </c>
       <c r="B435" s="29" t="s">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="C435" s="9" t="s">
         <v>22</v>
@@ -14184,7 +14190,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J431" xr:uid="{F55E8A24-46F9-4225-A2C2-A9164F13364A}"/>
+  <autoFilter ref="A1:J436" xr:uid="{F55E8A24-46F9-4225-A2C2-A9164F13364A}"/>
   <conditionalFormatting sqref="C2:C436">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Scuri"</formula>
@@ -14225,8 +14231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E168A56-6341-4406-8D41-CC351A3A492A}">
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.54296875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -14517,7 +14523,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>37</v>

--- a/Input/FantaSPL_Milano.xlsx
+++ b/Input/FantaSPL_Milano.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Local_Docs\Admin\Other\Kit\SPL\SPL_v_0.2\SPL_Regional\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572E62D2-B315-4B4B-8AE2-6D67640DD818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580C3416-1AD2-4C09-B08D-8CEBB3D05736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{05F018D4-855F-4570-8D15-9B4DD092A228}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="111">
   <si>
     <t>Parameter</t>
   </si>
@@ -595,8 +595,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1150,11 +1150,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A29AA2D-3F32-45F2-B719-A1F62E0F1A5F}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B31" sqref="B31:C31"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1503,6 +1503,17 @@
         <v>3</v>
       </c>
     </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="31">
+        <v>45091</v>
+      </c>
+      <c r="B32" s="15">
+        <v>18</v>
+      </c>
+      <c r="C32" s="15">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1510,11 +1521,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F55E8A24-46F9-4225-A2C2-A9164F13364A}">
-  <dimension ref="A1:J436"/>
+  <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A416" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K427" sqref="K427"/>
+      <pane ySplit="1" topLeftCell="A430" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J438" sqref="J438"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2294,7 +2305,7 @@
       <c r="A27" s="7">
         <v>44945</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="8" t="s">
         <v>110</v>
       </c>
       <c r="C27" s="9" t="s">
@@ -11461,7 +11472,7 @@
       <c r="A343" s="7">
         <v>45113</v>
       </c>
-      <c r="B343" s="31" t="s">
+      <c r="B343" s="8" t="s">
         <v>110</v>
       </c>
       <c r="C343" s="9" t="s">
@@ -14073,7 +14084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A433" s="28">
         <v>45176</v>
       </c>
@@ -14102,7 +14113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A434" s="28">
         <v>45176</v>
       </c>
@@ -14131,7 +14142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A435" s="28">
         <v>45176</v>
       </c>
@@ -14160,7 +14171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A436" s="28">
         <v>45176</v>
       </c>
@@ -14189,9 +14200,389 @@
         <v>0</v>
       </c>
     </row>
+    <row r="437" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A437" s="7">
+        <v>44938</v>
+      </c>
+      <c r="B437" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C437" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D437" s="9">
+        <v>0</v>
+      </c>
+      <c r="E437" s="9">
+        <v>0</v>
+      </c>
+      <c r="F437" s="9">
+        <v>1</v>
+      </c>
+      <c r="G437" s="9">
+        <v>0</v>
+      </c>
+      <c r="H437" s="9">
+        <v>0</v>
+      </c>
+      <c r="I437" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A438" s="7">
+        <v>44938</v>
+      </c>
+      <c r="B438" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C438" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D438" s="9">
+        <v>2</v>
+      </c>
+      <c r="E438" s="9">
+        <v>1</v>
+      </c>
+      <c r="F438" s="9">
+        <v>0</v>
+      </c>
+      <c r="G438" s="9">
+        <v>0</v>
+      </c>
+      <c r="H438" s="9">
+        <v>0</v>
+      </c>
+      <c r="I438" s="9">
+        <v>0</v>
+      </c>
+      <c r="J438" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="439" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A439" s="7">
+        <v>44938</v>
+      </c>
+      <c r="B439" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C439" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D439" s="9">
+        <v>0</v>
+      </c>
+      <c r="E439" s="9">
+        <v>0</v>
+      </c>
+      <c r="F439" s="9">
+        <v>0</v>
+      </c>
+      <c r="G439" s="9">
+        <v>0</v>
+      </c>
+      <c r="H439" s="9">
+        <v>0</v>
+      </c>
+      <c r="I439" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A440" s="7">
+        <v>44938</v>
+      </c>
+      <c r="B440" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C440" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D440" s="9">
+        <v>3</v>
+      </c>
+      <c r="E440" s="9">
+        <v>0</v>
+      </c>
+      <c r="F440" s="9">
+        <v>0</v>
+      </c>
+      <c r="G440" s="9">
+        <v>0</v>
+      </c>
+      <c r="H440" s="9">
+        <v>0</v>
+      </c>
+      <c r="I440" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A441" s="7">
+        <v>44938</v>
+      </c>
+      <c r="B441" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C441" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D441" s="9">
+        <v>7</v>
+      </c>
+      <c r="E441" s="9">
+        <v>0</v>
+      </c>
+      <c r="F441" s="9">
+        <v>0</v>
+      </c>
+      <c r="G441" s="9">
+        <v>0</v>
+      </c>
+      <c r="H441" s="9">
+        <v>0</v>
+      </c>
+      <c r="I441" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A442" s="7">
+        <v>44938</v>
+      </c>
+      <c r="B442" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C442" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D442" s="9">
+        <v>1</v>
+      </c>
+      <c r="E442" s="9">
+        <v>0</v>
+      </c>
+      <c r="F442" s="9">
+        <v>0</v>
+      </c>
+      <c r="G442" s="9">
+        <v>0</v>
+      </c>
+      <c r="H442" s="9">
+        <v>1</v>
+      </c>
+      <c r="I442" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A443" s="7">
+        <v>44938</v>
+      </c>
+      <c r="B443" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C443" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D443" s="9">
+        <v>0</v>
+      </c>
+      <c r="E443" s="9">
+        <v>0</v>
+      </c>
+      <c r="F443" s="9">
+        <v>0</v>
+      </c>
+      <c r="G443" s="9">
+        <v>0</v>
+      </c>
+      <c r="H443" s="9">
+        <v>0</v>
+      </c>
+      <c r="I443" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A444" s="7">
+        <v>44938</v>
+      </c>
+      <c r="B444" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C444" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D444" s="9">
+        <v>0</v>
+      </c>
+      <c r="E444" s="9">
+        <v>0</v>
+      </c>
+      <c r="F444" s="9">
+        <v>0</v>
+      </c>
+      <c r="G444" s="9">
+        <v>0</v>
+      </c>
+      <c r="H444" s="9">
+        <v>0</v>
+      </c>
+      <c r="I444" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A445" s="7">
+        <v>44938</v>
+      </c>
+      <c r="B445" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C445" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D445" s="9">
+        <v>5</v>
+      </c>
+      <c r="E445" s="9">
+        <v>0</v>
+      </c>
+      <c r="F445" s="9">
+        <v>0</v>
+      </c>
+      <c r="G445" s="9">
+        <v>0</v>
+      </c>
+      <c r="H445" s="9">
+        <v>0</v>
+      </c>
+      <c r="I445" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A446" s="7">
+        <v>44938</v>
+      </c>
+      <c r="B446" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C446" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D446" s="9">
+        <v>1</v>
+      </c>
+      <c r="E446" s="9">
+        <v>0</v>
+      </c>
+      <c r="F446" s="9">
+        <v>0</v>
+      </c>
+      <c r="G446" s="9">
+        <v>0</v>
+      </c>
+      <c r="H446" s="9">
+        <v>0</v>
+      </c>
+      <c r="I446" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A447" s="7">
+        <v>44938</v>
+      </c>
+      <c r="B447" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C447" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D447" s="9">
+        <v>1</v>
+      </c>
+      <c r="E447" s="9">
+        <v>0</v>
+      </c>
+      <c r="F447" s="9">
+        <v>0</v>
+      </c>
+      <c r="G447" s="9">
+        <v>0</v>
+      </c>
+      <c r="H447" s="9">
+        <v>0</v>
+      </c>
+      <c r="I447" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A448" s="7">
+        <v>44938</v>
+      </c>
+      <c r="B448" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C448" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D448" s="9">
+        <v>2</v>
+      </c>
+      <c r="E448" s="9">
+        <v>0</v>
+      </c>
+      <c r="F448" s="9">
+        <v>0</v>
+      </c>
+      <c r="G448" s="9">
+        <v>0</v>
+      </c>
+      <c r="H448" s="9">
+        <v>0</v>
+      </c>
+      <c r="I448" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A449" s="7">
+        <v>44938</v>
+      </c>
+      <c r="B449" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C449" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D449" s="9">
+        <v>6</v>
+      </c>
+      <c r="E449" s="9">
+        <v>0</v>
+      </c>
+      <c r="F449" s="9">
+        <v>0</v>
+      </c>
+      <c r="G449" s="9">
+        <v>0</v>
+      </c>
+      <c r="H449" s="9">
+        <v>0</v>
+      </c>
+      <c r="I449" s="9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J436" xr:uid="{F55E8A24-46F9-4225-A2C2-A9164F13364A}"/>
-  <conditionalFormatting sqref="C2:C436">
+  <conditionalFormatting sqref="C2:C449">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Scuri"</formula>
     </cfRule>
@@ -14200,13 +14591,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H436 D2:E436" xr:uid="{A2364708-0661-4544-87F1-D3FDEABF18B6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H449 D2:E449" xr:uid="{A2364708-0661-4544-87F1-D3FDEABF18B6}">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I436" xr:uid="{3C35827F-D598-4F40-B064-7FA732E53B67}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I449" xr:uid="{3C35827F-D598-4F40-B064-7FA732E53B67}">
       <formula1>"0, 1, 2, 3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G436" xr:uid="{2FE2E49C-6CC7-4B84-9D73-A960B8BAAF9A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G449" xr:uid="{2FE2E49C-6CC7-4B84-9D73-A960B8BAAF9A}">
       <formula1>"0, 1"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Input/FantaSPL_Milano.xlsx
+++ b/Input/FantaSPL_Milano.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Local_Docs\Admin\Other\Kit\SPL\SPL_v_0.2\SPL_Regional\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580C3416-1AD2-4C09-B08D-8CEBB3D05736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37DD9C65-4E40-4940-AB74-88215D6853A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{05F018D4-855F-4570-8D15-9B4DD092A228}"/>
   </bookViews>
@@ -1154,7 +1154,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1505,7 +1505,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="31">
-        <v>45091</v>
+        <v>45183</v>
       </c>
       <c r="B32" s="15">
         <v>18</v>
@@ -1525,7 +1525,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A430" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J438" sqref="J438"/>
+      <selection pane="bottomLeft" activeCell="B452" sqref="B452"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -14201,8 +14201,8 @@
       </c>
     </row>
     <row r="437" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A437" s="7">
-        <v>44938</v>
+      <c r="A437" s="31">
+        <v>45183</v>
       </c>
       <c r="B437" s="8" t="s">
         <v>21</v>
@@ -14230,8 +14230,8 @@
       </c>
     </row>
     <row r="438" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A438" s="7">
-        <v>44938</v>
+      <c r="A438" s="31">
+        <v>45183</v>
       </c>
       <c r="B438" s="8" t="s">
         <v>23</v>
@@ -14262,8 +14262,8 @@
       </c>
     </row>
     <row r="439" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A439" s="7">
-        <v>44938</v>
+      <c r="A439" s="31">
+        <v>45183</v>
       </c>
       <c r="B439" s="8" t="s">
         <v>24</v>
@@ -14291,8 +14291,8 @@
       </c>
     </row>
     <row r="440" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A440" s="7">
-        <v>44938</v>
+      <c r="A440" s="31">
+        <v>45183</v>
       </c>
       <c r="B440" s="8" t="s">
         <v>25</v>
@@ -14320,8 +14320,8 @@
       </c>
     </row>
     <row r="441" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A441" s="7">
-        <v>44938</v>
+      <c r="A441" s="31">
+        <v>45183</v>
       </c>
       <c r="B441" s="8" t="s">
         <v>26</v>
@@ -14349,8 +14349,8 @@
       </c>
     </row>
     <row r="442" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A442" s="7">
-        <v>44938</v>
+      <c r="A442" s="31">
+        <v>45183</v>
       </c>
       <c r="B442" s="8" t="s">
         <v>27</v>
@@ -14378,8 +14378,8 @@
       </c>
     </row>
     <row r="443" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A443" s="7">
-        <v>44938</v>
+      <c r="A443" s="31">
+        <v>45183</v>
       </c>
       <c r="B443" s="8" t="s">
         <v>28</v>
@@ -14407,8 +14407,8 @@
       </c>
     </row>
     <row r="444" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A444" s="7">
-        <v>44938</v>
+      <c r="A444" s="31">
+        <v>45183</v>
       </c>
       <c r="B444" s="8" t="s">
         <v>29</v>
@@ -14436,8 +14436,8 @@
       </c>
     </row>
     <row r="445" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A445" s="7">
-        <v>44938</v>
+      <c r="A445" s="31">
+        <v>45183</v>
       </c>
       <c r="B445" s="8" t="s">
         <v>31</v>
@@ -14465,8 +14465,8 @@
       </c>
     </row>
     <row r="446" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A446" s="7">
-        <v>44938</v>
+      <c r="A446" s="31">
+        <v>45183</v>
       </c>
       <c r="B446" s="8" t="s">
         <v>32</v>
@@ -14494,8 +14494,8 @@
       </c>
     </row>
     <row r="447" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A447" s="7">
-        <v>44938</v>
+      <c r="A447" s="31">
+        <v>45183</v>
       </c>
       <c r="B447" s="8" t="s">
         <v>33</v>
@@ -14523,8 +14523,8 @@
       </c>
     </row>
     <row r="448" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A448" s="7">
-        <v>44938</v>
+      <c r="A448" s="31">
+        <v>45183</v>
       </c>
       <c r="B448" s="8" t="s">
         <v>34</v>
@@ -14552,8 +14552,8 @@
       </c>
     </row>
     <row r="449" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A449" s="7">
-        <v>44938</v>
+      <c r="A449" s="31">
+        <v>45183</v>
       </c>
       <c r="B449" s="8" t="s">
         <v>94</v>

--- a/Input/FantaSPL_Milano.xlsx
+++ b/Input/FantaSPL_Milano.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Local_Docs\Admin\Other\Kit\SPL\SPL_v_0.2\SPL_Regional\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37DD9C65-4E40-4940-AB74-88215D6853A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD384A9-5247-419B-9C00-CF32AABAB62F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{05F018D4-855F-4570-8D15-9B4DD092A228}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="113">
   <si>
     <t>Parameter</t>
   </si>
@@ -377,6 +377,12 @@
   </si>
   <si>
     <t>Coco' (Stoppi)</t>
+  </si>
+  <si>
+    <t>Mario Croce</t>
+  </si>
+  <si>
+    <t>Gian Pareo</t>
   </si>
 </sst>
 </file>
@@ -1525,7 +1531,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A430" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B452" sqref="B452"/>
+      <selection pane="bottomLeft" activeCell="H442" sqref="H442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -14266,7 +14272,7 @@
         <v>45183</v>
       </c>
       <c r="B439" s="8" t="s">
-        <v>24</v>
+        <v>111</v>
       </c>
       <c r="C439" s="9" t="s">
         <v>22</v>
@@ -14295,7 +14301,7 @@
         <v>45183</v>
       </c>
       <c r="B440" s="8" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
       <c r="C440" s="9" t="s">
         <v>22</v>
@@ -14342,7 +14348,7 @@
         <v>0</v>
       </c>
       <c r="H441" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I441" s="9">
         <v>0</v>
@@ -14371,7 +14377,7 @@
         <v>0</v>
       </c>
       <c r="H442" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I442" s="9">
         <v>0</v>
@@ -14440,7 +14446,7 @@
         <v>45183</v>
       </c>
       <c r="B445" s="8" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C445" s="9" t="s">
         <v>30</v>
@@ -14620,10 +14626,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E168A56-6341-4406-8D41-CC351A3A492A}">
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66:F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.54296875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -15865,6 +15871,42 @@
         <v>88</v>
       </c>
       <c r="F66" s="19"/>
+    </row>
+    <row r="67" spans="1:6" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A67" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C67" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D67" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="E67" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="F67" s="19"/>
+    </row>
+    <row r="68" spans="1:6" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A68" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C68" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D68" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E68" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="F68" s="19"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E66" xr:uid="{3E168A56-6341-4406-8D41-CC351A3A492A}"/>

--- a/Input/FantaSPL_Milano.xlsx
+++ b/Input/FantaSPL_Milano.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Local_Docs\Admin\Other\Kit\SPL\SPL_v_0.2\SPL_Regional\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD384A9-5247-419B-9C00-CF32AABAB62F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F5F399-66BA-4DE1-9337-687612991976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{05F018D4-855F-4570-8D15-9B4DD092A228}"/>
+    <workbookView xWindow="-110" yWindow="10690" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{05F018D4-855F-4570-8D15-9B4DD092A228}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="11" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Players!$A$1:$E$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Points!$A$1:$J$436</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Points!$A$1:$J$422</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="113">
   <si>
     <t>Parameter</t>
   </si>
@@ -515,7 +515,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -585,24 +585,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -959,14 +941,14 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -980,7 +962,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>4</v>
       </c>
@@ -994,7 +976,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>5</v>
       </c>
@@ -1008,7 +990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>109</v>
       </c>
@@ -1022,7 +1004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>6</v>
       </c>
@@ -1036,7 +1018,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>7</v>
       </c>
@@ -1050,7 +1032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>8</v>
       </c>
@@ -1064,7 +1046,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>9</v>
       </c>
@@ -1078,7 +1060,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>10</v>
       </c>
@@ -1092,7 +1074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>11</v>
       </c>
@@ -1106,7 +1088,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>20</v>
       </c>
@@ -1120,7 +1102,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>107</v>
       </c>
@@ -1134,7 +1116,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
         <v>12</v>
       </c>
@@ -1156,19 +1138,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A29AA2D-3F32-45F2-B719-A1F62E0F1A5F}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
+      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="17.1796875" style="1"/>
+    <col min="1" max="3" width="17.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>13</v>
       </c>
@@ -1179,7 +1161,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>44938</v>
       </c>
@@ -1190,7 +1172,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>44945</v>
       </c>
@@ -1201,7 +1183,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>44952</v>
       </c>
@@ -1212,7 +1194,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>44959</v>
       </c>
@@ -1223,7 +1205,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>44966</v>
       </c>
@@ -1234,7 +1216,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>44980</v>
       </c>
@@ -1245,7 +1227,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>44987</v>
       </c>
@@ -1256,7 +1238,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>44994</v>
       </c>
@@ -1267,7 +1249,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>45001</v>
       </c>
@@ -1278,7 +1260,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>45008</v>
       </c>
@@ -1289,7 +1271,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>45015</v>
       </c>
@@ -1300,7 +1282,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>45022</v>
       </c>
@@ -1311,7 +1293,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>45030</v>
       </c>
@@ -1322,7 +1304,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>45050</v>
       </c>
@@ -1333,7 +1315,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>45057</v>
       </c>
@@ -1344,7 +1326,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>45064</v>
       </c>
@@ -1355,7 +1337,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>45071</v>
       </c>
@@ -1366,7 +1348,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>45078</v>
       </c>
@@ -1377,7 +1359,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>45085</v>
       </c>
@@ -1388,7 +1370,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>45092</v>
       </c>
@@ -1399,7 +1381,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>45099</v>
       </c>
@@ -1410,7 +1392,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>45106</v>
       </c>
@@ -1421,7 +1403,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>45113</v>
       </c>
@@ -1432,7 +1414,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>45114</v>
       </c>
@@ -1443,7 +1425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>45115</v>
       </c>
@@ -1454,7 +1436,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>45116</v>
       </c>
@@ -1465,7 +1447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>45117</v>
       </c>
@@ -1476,7 +1458,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>45118</v>
       </c>
@@ -1487,7 +1469,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>45119</v>
       </c>
@@ -1496,28 +1478,6 @@
       </c>
       <c r="C30" s="15">
         <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="26">
-        <v>45176</v>
-      </c>
-      <c r="B31" s="27">
-        <v>7</v>
-      </c>
-      <c r="C31" s="27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="31">
-        <v>45183</v>
-      </c>
-      <c r="B32" s="15">
-        <v>18</v>
-      </c>
-      <c r="C32" s="15">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1527,27 +1487,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F55E8A24-46F9-4225-A2C2-A9164F13364A}">
-  <dimension ref="A1:J449"/>
+  <dimension ref="A1:J422"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A430" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H442" sqref="H442"/>
+      <pane ySplit="1" topLeftCell="A406" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B428" sqref="B428"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="17.1796875" style="3"/>
+    <col min="8" max="8" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="17.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
@@ -1579,7 +1539,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>44938</v>
       </c>
@@ -1608,7 +1568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>44938</v>
       </c>
@@ -1640,7 +1600,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>44938</v>
       </c>
@@ -1669,7 +1629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>44938</v>
       </c>
@@ -1698,7 +1658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>44938</v>
       </c>
@@ -1727,7 +1687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>44938</v>
       </c>
@@ -1756,7 +1716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>44938</v>
       </c>
@@ -1785,7 +1745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>44938</v>
       </c>
@@ -1814,7 +1774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>44938</v>
       </c>
@@ -1843,7 +1803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>44938</v>
       </c>
@@ -1872,7 +1832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>44938</v>
       </c>
@@ -1901,7 +1861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>44938</v>
       </c>
@@ -1930,7 +1890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>44938</v>
       </c>
@@ -1959,7 +1919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>44938</v>
       </c>
@@ -1988,7 +1948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>44945</v>
       </c>
@@ -2017,7 +1977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>44945</v>
       </c>
@@ -2046,7 +2006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>44945</v>
       </c>
@@ -2075,7 +2035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>44945</v>
       </c>
@@ -2104,7 +2064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>44945</v>
       </c>
@@ -2133,7 +2093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>44945</v>
       </c>
@@ -2162,7 +2122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>44945</v>
       </c>
@@ -2191,7 +2151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>44945</v>
       </c>
@@ -2220,7 +2180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>44945</v>
       </c>
@@ -2249,7 +2209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>44945</v>
       </c>
@@ -2278,7 +2238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>44945</v>
       </c>
@@ -2307,7 +2267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>44945</v>
       </c>
@@ -2336,7 +2296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>44945</v>
       </c>
@@ -2365,7 +2325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>44945</v>
       </c>
@@ -2394,7 +2354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>44945</v>
       </c>
@@ -2423,7 +2383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>44945</v>
       </c>
@@ -2452,7 +2412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>44945</v>
       </c>
@@ -2481,7 +2441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>44945</v>
       </c>
@@ -2510,7 +2470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>44945</v>
       </c>
@@ -2539,7 +2499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>44945</v>
       </c>
@@ -2571,7 +2531,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>44945</v>
       </c>
@@ -2600,7 +2560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>44945</v>
       </c>
@@ -2629,7 +2589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>44952</v>
       </c>
@@ -2658,7 +2618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>44952</v>
       </c>
@@ -2687,7 +2647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>44952</v>
       </c>
@@ -2716,7 +2676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>44952</v>
       </c>
@@ -2745,7 +2705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>44952</v>
       </c>
@@ -2774,7 +2734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>44952</v>
       </c>
@@ -2803,7 +2763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>44952</v>
       </c>
@@ -2832,7 +2792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>44952</v>
       </c>
@@ -2861,7 +2821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>44952</v>
       </c>
@@ -2890,7 +2850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>44952</v>
       </c>
@@ -2919,7 +2879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>44952</v>
       </c>
@@ -2948,7 +2908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>44952</v>
       </c>
@@ -2977,7 +2937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>44952</v>
       </c>
@@ -3006,7 +2966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <v>44952</v>
       </c>
@@ -3035,7 +2995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
         <v>44952</v>
       </c>
@@ -3064,7 +3024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>44952</v>
       </c>
@@ -3093,7 +3053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <v>44959</v>
       </c>
@@ -3122,7 +3082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>44959</v>
       </c>
@@ -3151,7 +3111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
         <v>44959</v>
       </c>
@@ -3180,7 +3140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <v>44959</v>
       </c>
@@ -3209,7 +3169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="7">
         <v>44959</v>
       </c>
@@ -3238,7 +3198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
         <v>44959</v>
       </c>
@@ -3267,7 +3227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="7">
         <v>44959</v>
       </c>
@@ -3296,7 +3256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
         <v>44959</v>
       </c>
@@ -3325,7 +3285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="7">
         <v>44959</v>
       </c>
@@ -3354,7 +3314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="7">
         <v>44959</v>
       </c>
@@ -3383,7 +3343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="7">
         <v>44959</v>
       </c>
@@ -3412,7 +3372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="7">
         <v>44959</v>
       </c>
@@ -3441,7 +3401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="7">
         <v>44959</v>
       </c>
@@ -3470,7 +3430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="7">
         <v>44959</v>
       </c>
@@ -3499,7 +3459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="7">
         <v>44966</v>
       </c>
@@ -3528,7 +3488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="7">
         <v>44966</v>
       </c>
@@ -3557,7 +3517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="7">
         <v>44966</v>
       </c>
@@ -3586,7 +3546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="7">
         <v>44966</v>
       </c>
@@ -3615,7 +3575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="7">
         <v>44966</v>
       </c>
@@ -3644,7 +3604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="7">
         <v>44966</v>
       </c>
@@ -3673,7 +3633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="7">
         <v>44966</v>
       </c>
@@ -3702,7 +3662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="7">
         <v>44966</v>
       </c>
@@ -3731,7 +3691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="7">
         <v>44966</v>
       </c>
@@ -3760,7 +3720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="7">
         <v>44966</v>
       </c>
@@ -3789,7 +3749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="7">
         <v>44966</v>
       </c>
@@ -3818,7 +3778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="7">
         <v>44966</v>
       </c>
@@ -3847,7 +3807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="7">
         <v>44966</v>
       </c>
@@ -3876,7 +3836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="7">
         <v>44966</v>
       </c>
@@ -3905,7 +3865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="7">
         <v>44980</v>
       </c>
@@ -3934,7 +3894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="7">
         <v>44980</v>
       </c>
@@ -3963,7 +3923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="7">
         <v>44980</v>
       </c>
@@ -3992,7 +3952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="7">
         <v>44980</v>
       </c>
@@ -4021,7 +3981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="7">
         <v>44980</v>
       </c>
@@ -4050,7 +4010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="7">
         <v>44980</v>
       </c>
@@ -4079,7 +4039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="7">
         <v>44980</v>
       </c>
@@ -4108,7 +4068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="7">
         <v>44980</v>
       </c>
@@ -4137,7 +4097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="7">
         <v>44980</v>
       </c>
@@ -4166,7 +4126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="7">
         <v>44980</v>
       </c>
@@ -4195,7 +4155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="7">
         <v>44980</v>
       </c>
@@ -4224,7 +4184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="7">
         <v>44980</v>
       </c>
@@ -4253,7 +4213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="7">
         <v>44980</v>
       </c>
@@ -4282,7 +4242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="7">
         <v>44980</v>
       </c>
@@ -4311,7 +4271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="7">
         <v>44980</v>
       </c>
@@ -4340,7 +4300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="7">
         <v>44980</v>
       </c>
@@ -4369,7 +4329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="7">
         <v>44987</v>
       </c>
@@ -4398,7 +4358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="7">
         <v>44987</v>
       </c>
@@ -4427,7 +4387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="7">
         <v>44987</v>
       </c>
@@ -4456,7 +4416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="7">
         <v>44987</v>
       </c>
@@ -4485,7 +4445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="7">
         <v>44987</v>
       </c>
@@ -4514,7 +4474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="7">
         <v>44987</v>
       </c>
@@ -4543,7 +4503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="7">
         <v>44987</v>
       </c>
@@ -4572,7 +4532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="7">
         <v>44987</v>
       </c>
@@ -4601,7 +4561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="7">
         <v>44987</v>
       </c>
@@ -4630,7 +4590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="7">
         <v>44987</v>
       </c>
@@ -4659,7 +4619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="7">
         <v>44987</v>
       </c>
@@ -4688,7 +4648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="7">
         <v>44987</v>
       </c>
@@ -4717,7 +4677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="7">
         <v>44987</v>
       </c>
@@ -4746,7 +4706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="7">
         <v>44987</v>
       </c>
@@ -4775,7 +4735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="7">
         <v>44994</v>
       </c>
@@ -4804,7 +4764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="7">
         <v>44994</v>
       </c>
@@ -4833,7 +4793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="7">
         <v>44994</v>
       </c>
@@ -4862,7 +4822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="7">
         <v>44994</v>
       </c>
@@ -4891,7 +4851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="7">
         <v>44994</v>
       </c>
@@ -4920,7 +4880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="7">
         <v>44994</v>
       </c>
@@ -4949,7 +4909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="7">
         <v>44994</v>
       </c>
@@ -4978,7 +4938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="7">
         <v>44994</v>
       </c>
@@ -5007,7 +4967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="7">
         <v>44994</v>
       </c>
@@ -5036,7 +4996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="7">
         <v>44994</v>
       </c>
@@ -5065,7 +5025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="7">
         <v>44994</v>
       </c>
@@ -5094,7 +5054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="7">
         <v>44994</v>
       </c>
@@ -5123,7 +5083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="7">
         <v>44994</v>
       </c>
@@ -5152,7 +5112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="7">
         <v>44994</v>
       </c>
@@ -5181,7 +5141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="7">
         <v>45001</v>
       </c>
@@ -5210,7 +5170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="7">
         <v>45001</v>
       </c>
@@ -5239,7 +5199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="7">
         <v>45001</v>
       </c>
@@ -5268,7 +5228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="7">
         <v>45001</v>
       </c>
@@ -5297,7 +5257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="7">
         <v>45001</v>
       </c>
@@ -5326,7 +5286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="7">
         <v>45001</v>
       </c>
@@ -5355,7 +5315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="7">
         <v>45001</v>
       </c>
@@ -5384,7 +5344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="7">
         <v>45001</v>
       </c>
@@ -5413,7 +5373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="7">
         <v>45001</v>
       </c>
@@ -5442,7 +5402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="7">
         <v>45001</v>
       </c>
@@ -5471,7 +5431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="7">
         <v>45001</v>
       </c>
@@ -5500,7 +5460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="7">
         <v>45001</v>
       </c>
@@ -5529,7 +5489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="7">
         <v>45001</v>
       </c>
@@ -5558,7 +5518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="7">
         <v>45001</v>
       </c>
@@ -5587,7 +5547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="7">
         <v>45008</v>
       </c>
@@ -5616,7 +5576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="7">
         <v>45008</v>
       </c>
@@ -5645,7 +5605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="7">
         <v>45008</v>
       </c>
@@ -5674,7 +5634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="7">
         <v>45008</v>
       </c>
@@ -5703,7 +5663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="7">
         <v>45008</v>
       </c>
@@ -5732,7 +5692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="7">
         <v>45008</v>
       </c>
@@ -5761,7 +5721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="7">
         <v>45008</v>
       </c>
@@ -5790,7 +5750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="7">
         <v>45008</v>
       </c>
@@ -5819,7 +5779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="7">
         <v>45008</v>
       </c>
@@ -5848,7 +5808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="7">
         <v>45008</v>
       </c>
@@ -5877,7 +5837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="7">
         <v>45008</v>
       </c>
@@ -5906,7 +5866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="7">
         <v>45008</v>
       </c>
@@ -5935,7 +5895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="7">
         <v>45008</v>
       </c>
@@ -5964,7 +5924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="7">
         <v>45008</v>
       </c>
@@ -5993,7 +5953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="7">
         <v>45015</v>
       </c>
@@ -6022,7 +5982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="7">
         <v>45015</v>
       </c>
@@ -6051,7 +6011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="7">
         <v>45015</v>
       </c>
@@ -6080,7 +6040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="7">
         <v>45015</v>
       </c>
@@ -6109,7 +6069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="7">
         <v>45015</v>
       </c>
@@ -6138,7 +6098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="7">
         <v>45015</v>
       </c>
@@ -6167,7 +6127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="7">
         <v>45015</v>
       </c>
@@ -6196,7 +6156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="7">
         <v>45015</v>
       </c>
@@ -6225,7 +6185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="7">
         <v>45015</v>
       </c>
@@ -6254,7 +6214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="7">
         <v>45015</v>
       </c>
@@ -6283,7 +6243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="7">
         <v>45015</v>
       </c>
@@ -6312,7 +6272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="7">
         <v>45015</v>
       </c>
@@ -6341,7 +6301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="7">
         <v>45015</v>
       </c>
@@ -6370,7 +6330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="7">
         <v>45015</v>
       </c>
@@ -6399,7 +6359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="7">
         <v>45022</v>
       </c>
@@ -6428,7 +6388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="7">
         <v>45022</v>
       </c>
@@ -6457,7 +6417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="7">
         <v>45022</v>
       </c>
@@ -6486,7 +6446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="7">
         <v>45022</v>
       </c>
@@ -6515,7 +6475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="7">
         <v>45022</v>
       </c>
@@ -6544,7 +6504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="7">
         <v>45022</v>
       </c>
@@ -6573,7 +6533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="7">
         <v>45022</v>
       </c>
@@ -6602,7 +6562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="7">
         <v>45022</v>
       </c>
@@ -6631,7 +6591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="7">
         <v>45022</v>
       </c>
@@ -6660,7 +6620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="7">
         <v>45022</v>
       </c>
@@ -6689,7 +6649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="7">
         <v>45022</v>
       </c>
@@ -6718,7 +6678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="7">
         <v>45022</v>
       </c>
@@ -6747,7 +6707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="7">
         <v>45022</v>
       </c>
@@ -6776,7 +6736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="7">
         <v>45022</v>
       </c>
@@ -6805,7 +6765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="7">
         <v>45030</v>
       </c>
@@ -6834,7 +6794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="7">
         <v>45030</v>
       </c>
@@ -6863,7 +6823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="7">
         <v>45030</v>
       </c>
@@ -6892,7 +6852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="7">
         <v>45030</v>
       </c>
@@ -6921,7 +6881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="7">
         <v>45030</v>
       </c>
@@ -6950,7 +6910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="7">
         <v>45030</v>
       </c>
@@ -6979,7 +6939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="7">
         <v>45030</v>
       </c>
@@ -7008,7 +6968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="7">
         <v>45030</v>
       </c>
@@ -7037,7 +6997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="7">
         <v>45030</v>
       </c>
@@ -7066,7 +7026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="7">
         <v>45030</v>
       </c>
@@ -7095,7 +7055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="7">
         <v>45030</v>
       </c>
@@ -7124,7 +7084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="7">
         <v>45030</v>
       </c>
@@ -7153,7 +7113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="7">
         <v>45030</v>
       </c>
@@ -7182,7 +7142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="7">
         <v>45030</v>
       </c>
@@ -7211,7 +7171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="7">
         <v>45030</v>
       </c>
@@ -7240,7 +7200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="7">
         <v>45030</v>
       </c>
@@ -7269,7 +7229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="7">
         <v>45030</v>
       </c>
@@ -7298,7 +7258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="7">
         <v>45030</v>
       </c>
@@ -7327,7 +7287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="7">
         <v>45030</v>
       </c>
@@ -7356,7 +7316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="7">
         <v>45030</v>
       </c>
@@ -7385,7 +7345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="7">
         <v>45030</v>
       </c>
@@ -7414,7 +7374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="7">
         <v>45030</v>
       </c>
@@ -7443,7 +7403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="7">
         <v>45050</v>
       </c>
@@ -7472,7 +7432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="7">
         <v>45050</v>
       </c>
@@ -7501,7 +7461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="7">
         <v>45050</v>
       </c>
@@ -7530,7 +7490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="7">
         <v>45050</v>
       </c>
@@ -7559,7 +7519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="7">
         <v>45050</v>
       </c>
@@ -7588,7 +7548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="7">
         <v>45050</v>
       </c>
@@ -7617,7 +7577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="7">
         <v>45050</v>
       </c>
@@ -7646,7 +7606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="7">
         <v>45050</v>
       </c>
@@ -7675,7 +7635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="7">
         <v>45050</v>
       </c>
@@ -7704,7 +7664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="7">
         <v>45050</v>
       </c>
@@ -7733,7 +7693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="7">
         <v>45050</v>
       </c>
@@ -7762,7 +7722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="7">
         <v>45050</v>
       </c>
@@ -7791,7 +7751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="7">
         <v>45050</v>
       </c>
@@ -7820,7 +7780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="7">
         <v>45050</v>
       </c>
@@ -7849,7 +7809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="7">
         <v>45050</v>
       </c>
@@ -7878,7 +7838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="7">
         <v>45050</v>
       </c>
@@ -7907,7 +7867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="7">
         <v>45057</v>
       </c>
@@ -7936,7 +7896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="7">
         <v>45057</v>
       </c>
@@ -7965,7 +7925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="7">
         <v>45057</v>
       </c>
@@ -7994,7 +7954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="7">
         <v>45057</v>
       </c>
@@ -8023,7 +7983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="7">
         <v>45057</v>
       </c>
@@ -8052,7 +8012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="7">
         <v>45057</v>
       </c>
@@ -8081,7 +8041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="7">
         <v>45057</v>
       </c>
@@ -8110,7 +8070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="7">
         <v>45057</v>
       </c>
@@ -8139,7 +8099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="7">
         <v>45057</v>
       </c>
@@ -8168,7 +8128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="7">
         <v>45057</v>
       </c>
@@ -8197,7 +8157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="7">
         <v>45057</v>
       </c>
@@ -8226,7 +8186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="7">
         <v>45057</v>
       </c>
@@ -8255,7 +8215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="7">
         <v>45057</v>
       </c>
@@ -8284,7 +8244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="7">
         <v>45057</v>
       </c>
@@ -8313,7 +8273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="7">
         <v>45064</v>
       </c>
@@ -8342,7 +8302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="7">
         <v>45064</v>
       </c>
@@ -8371,7 +8331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="7">
         <v>45064</v>
       </c>
@@ -8400,7 +8360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="7">
         <v>45064</v>
       </c>
@@ -8429,7 +8389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="7">
         <v>45064</v>
       </c>
@@ -8458,7 +8418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="7">
         <v>45064</v>
       </c>
@@ -8487,7 +8447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" s="7">
         <v>45064</v>
       </c>
@@ -8516,7 +8476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" s="7">
         <v>45064</v>
       </c>
@@ -8545,7 +8505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" s="7">
         <v>45064</v>
       </c>
@@ -8574,7 +8534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" s="7">
         <v>45064</v>
       </c>
@@ -8603,7 +8563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" s="7">
         <v>45064</v>
       </c>
@@ -8632,7 +8592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" s="7">
         <v>45064</v>
       </c>
@@ -8661,7 +8621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="7">
         <v>45064</v>
       </c>
@@ -8690,7 +8650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="7">
         <v>45064</v>
       </c>
@@ -8719,7 +8679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="7">
         <v>45064</v>
       </c>
@@ -8748,7 +8708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="7">
         <v>45064</v>
       </c>
@@ -8777,7 +8737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="7">
         <v>45071</v>
       </c>
@@ -8806,7 +8766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" s="7">
         <v>45071</v>
       </c>
@@ -8835,7 +8795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" s="7">
         <v>45071</v>
       </c>
@@ -8864,7 +8824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" s="7">
         <v>45071</v>
       </c>
@@ -8893,7 +8853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" s="7">
         <v>45071</v>
       </c>
@@ -8922,7 +8882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" s="7">
         <v>45071</v>
       </c>
@@ -8951,7 +8911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" s="7">
         <v>45071</v>
       </c>
@@ -8980,7 +8940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" s="7">
         <v>45071</v>
       </c>
@@ -9009,7 +8969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" s="7">
         <v>45071</v>
       </c>
@@ -9038,7 +8998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" s="7">
         <v>45071</v>
       </c>
@@ -9067,7 +9027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" s="7">
         <v>45071</v>
       </c>
@@ -9096,7 +9056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" s="7">
         <v>45071</v>
       </c>
@@ -9125,7 +9085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" s="7">
         <v>45071</v>
       </c>
@@ -9154,7 +9114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" s="7">
         <v>45071</v>
       </c>
@@ -9183,7 +9143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" s="7">
         <v>45078</v>
       </c>
@@ -9212,7 +9172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" s="7">
         <v>45078</v>
       </c>
@@ -9241,7 +9201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" s="7">
         <v>45078</v>
       </c>
@@ -9270,7 +9230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" s="7">
         <v>45078</v>
       </c>
@@ -9299,7 +9259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" s="7">
         <v>45078</v>
       </c>
@@ -9328,7 +9288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" s="7">
         <v>45078</v>
       </c>
@@ -9357,7 +9317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" s="7">
         <v>45078</v>
       </c>
@@ -9386,7 +9346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" s="7">
         <v>45078</v>
       </c>
@@ -9415,7 +9375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" s="7">
         <v>45078</v>
       </c>
@@ -9444,7 +9404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" s="7">
         <v>45078</v>
       </c>
@@ -9473,7 +9433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" s="7">
         <v>45078</v>
       </c>
@@ -9502,7 +9462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="7">
         <v>45078</v>
       </c>
@@ -9531,7 +9491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" s="7">
         <v>45078</v>
       </c>
@@ -9560,7 +9520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="7">
         <v>45078</v>
       </c>
@@ -9589,7 +9549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" s="7">
         <v>45085</v>
       </c>
@@ -9618,7 +9578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" s="7">
         <v>45085</v>
       </c>
@@ -9647,7 +9607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" s="7">
         <v>45085</v>
       </c>
@@ -9676,7 +9636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" s="7">
         <v>45085</v>
       </c>
@@ -9705,7 +9665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" s="7">
         <v>45085</v>
       </c>
@@ -9734,7 +9694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" s="7">
         <v>45085</v>
       </c>
@@ -9763,7 +9723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" s="7">
         <v>45085</v>
       </c>
@@ -9792,7 +9752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" s="7">
         <v>45085</v>
       </c>
@@ -9821,7 +9781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" s="7">
         <v>45085</v>
       </c>
@@ -9850,7 +9810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" s="7">
         <v>45085</v>
       </c>
@@ -9879,7 +9839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" s="7">
         <v>45085</v>
       </c>
@@ -9908,7 +9868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" s="7">
         <v>45085</v>
       </c>
@@ -9937,7 +9897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" s="7">
         <v>45085</v>
       </c>
@@ -9966,7 +9926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" s="7">
         <v>45085</v>
       </c>
@@ -9995,7 +9955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" s="7">
         <v>45092</v>
       </c>
@@ -10024,7 +9984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" s="7">
         <v>45092</v>
       </c>
@@ -10053,7 +10013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" s="7">
         <v>45092</v>
       </c>
@@ -10082,7 +10042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" s="7">
         <v>45092</v>
       </c>
@@ -10111,7 +10071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" s="7">
         <v>45092</v>
       </c>
@@ -10140,7 +10100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" s="7">
         <v>45092</v>
       </c>
@@ -10169,7 +10129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" s="7">
         <v>45092</v>
       </c>
@@ -10198,7 +10158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" s="7">
         <v>45092</v>
       </c>
@@ -10227,7 +10187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" s="7">
         <v>45092</v>
       </c>
@@ -10256,7 +10216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" s="7">
         <v>45092</v>
       </c>
@@ -10285,7 +10245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" s="7">
         <v>45092</v>
       </c>
@@ -10314,7 +10274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" s="7">
         <v>45092</v>
       </c>
@@ -10343,7 +10303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" s="7">
         <v>45092</v>
       </c>
@@ -10372,7 +10332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" s="7">
         <v>45092</v>
       </c>
@@ -10401,7 +10361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" s="7">
         <v>45092</v>
       </c>
@@ -10430,7 +10390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" s="7">
         <v>45092</v>
       </c>
@@ -10459,7 +10419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" s="7">
         <v>45099</v>
       </c>
@@ -10488,7 +10448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" s="7">
         <v>45099</v>
       </c>
@@ -10517,7 +10477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310" s="7">
         <v>45099</v>
       </c>
@@ -10546,7 +10506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" s="7">
         <v>45099</v>
       </c>
@@ -10575,7 +10535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" s="7">
         <v>45099</v>
       </c>
@@ -10604,7 +10564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313" s="7">
         <v>45099</v>
       </c>
@@ -10633,7 +10593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" s="7">
         <v>45099</v>
       </c>
@@ -10662,7 +10622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" s="7">
         <v>45099</v>
       </c>
@@ -10691,7 +10651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" s="7">
         <v>45099</v>
       </c>
@@ -10720,7 +10680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" s="7">
         <v>45099</v>
       </c>
@@ -10749,7 +10709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318" s="7">
         <v>45099</v>
       </c>
@@ -10778,7 +10738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319" s="7">
         <v>45099</v>
       </c>
@@ -10807,7 +10767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320" s="7">
         <v>45099</v>
       </c>
@@ -10836,7 +10796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321" s="7">
         <v>45099</v>
       </c>
@@ -10865,7 +10825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322" s="7">
         <v>45099</v>
       </c>
@@ -10894,7 +10854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" s="7">
         <v>45099</v>
       </c>
@@ -10923,7 +10883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324" s="7">
         <v>45106</v>
       </c>
@@ -10952,7 +10912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" s="7">
         <v>45106</v>
       </c>
@@ -10981,7 +10941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326" s="7">
         <v>45106</v>
       </c>
@@ -11010,7 +10970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327" s="7">
         <v>45106</v>
       </c>
@@ -11039,7 +10999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328" s="7">
         <v>45106</v>
       </c>
@@ -11068,7 +11028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329" s="7">
         <v>45106</v>
       </c>
@@ -11097,7 +11057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330" s="7">
         <v>45106</v>
       </c>
@@ -11126,7 +11086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331" s="7">
         <v>45106</v>
       </c>
@@ -11155,7 +11115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332" s="7">
         <v>45106</v>
       </c>
@@ -11184,7 +11144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333" s="7">
         <v>45106</v>
       </c>
@@ -11213,7 +11173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334" s="7">
         <v>45106</v>
       </c>
@@ -11242,7 +11202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335" s="7">
         <v>45106</v>
       </c>
@@ -11271,7 +11231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336" s="7">
         <v>45106</v>
       </c>
@@ -11300,7 +11260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337" s="7">
         <v>45106</v>
       </c>
@@ -11329,7 +11289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338" s="7">
         <v>45106</v>
       </c>
@@ -11358,7 +11318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339" s="7">
         <v>45106</v>
       </c>
@@ -11387,7 +11347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340" s="7">
         <v>45113</v>
       </c>
@@ -11416,7 +11376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341" s="7">
         <v>45113</v>
       </c>
@@ -11445,7 +11405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A342" s="7">
         <v>45113</v>
       </c>
@@ -11474,7 +11434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A343" s="7">
         <v>45113</v>
       </c>
@@ -11503,7 +11463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A344" s="7">
         <v>45113</v>
       </c>
@@ -11532,7 +11492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345" s="7">
         <v>45113</v>
       </c>
@@ -11561,7 +11521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A346" s="7">
         <v>45113</v>
       </c>
@@ -11590,7 +11550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A347" s="7">
         <v>45113</v>
       </c>
@@ -11619,7 +11579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A348" s="7">
         <v>45113</v>
       </c>
@@ -11648,7 +11608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A349" s="7">
         <v>45113</v>
       </c>
@@ -11677,7 +11637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A350" s="7">
         <v>45113</v>
       </c>
@@ -11706,7 +11666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A351" s="7">
         <v>45113</v>
       </c>
@@ -11735,7 +11695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A352" s="7">
         <v>45113</v>
       </c>
@@ -11764,7 +11724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A353" s="7">
         <v>45113</v>
       </c>
@@ -11793,7 +11753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A354" s="7">
         <v>45114</v>
       </c>
@@ -11822,7 +11782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A355" s="7">
         <v>45114</v>
       </c>
@@ -11851,7 +11811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A356" s="7">
         <v>45114</v>
       </c>
@@ -11880,7 +11840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A357" s="7">
         <v>45114</v>
       </c>
@@ -11909,7 +11869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A358" s="7">
         <v>45114</v>
       </c>
@@ -11938,7 +11898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A359" s="7">
         <v>45114</v>
       </c>
@@ -11967,7 +11927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A360" s="7">
         <v>45114</v>
       </c>
@@ -11996,7 +11956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A361" s="7">
         <v>45114</v>
       </c>
@@ -12025,7 +11985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A362" s="7">
         <v>45114</v>
       </c>
@@ -12054,7 +12014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A363" s="7">
         <v>45114</v>
       </c>
@@ -12083,7 +12043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A364" s="7">
         <v>45114</v>
       </c>
@@ -12112,7 +12072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A365" s="7">
         <v>45114</v>
       </c>
@@ -12141,7 +12101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A366" s="7">
         <v>45114</v>
       </c>
@@ -12170,7 +12130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A367" s="7">
         <v>45115</v>
       </c>
@@ -12199,7 +12159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A368" s="7">
         <v>45115</v>
       </c>
@@ -12228,7 +12188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A369" s="7">
         <v>45115</v>
       </c>
@@ -12257,7 +12217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A370" s="7">
         <v>45115</v>
       </c>
@@ -12286,7 +12246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A371" s="7">
         <v>45115</v>
       </c>
@@ -12315,7 +12275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A372" s="7">
         <v>45115</v>
       </c>
@@ -12344,7 +12304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A373" s="7">
         <v>45115</v>
       </c>
@@ -12373,7 +12333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A374" s="7">
         <v>45115</v>
       </c>
@@ -12402,7 +12362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A375" s="7">
         <v>45115</v>
       </c>
@@ -12431,7 +12391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A376" s="7">
         <v>45115</v>
       </c>
@@ -12460,7 +12420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A377" s="7">
         <v>45116</v>
       </c>
@@ -12489,7 +12449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A378" s="7">
         <v>45116</v>
       </c>
@@ -12518,7 +12478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A379" s="7">
         <v>45116</v>
       </c>
@@ -12547,7 +12507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A380" s="7">
         <v>45116</v>
       </c>
@@ -12576,7 +12536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A381" s="7">
         <v>45116</v>
       </c>
@@ -12605,7 +12565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A382" s="7">
         <v>45116</v>
       </c>
@@ -12634,7 +12594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A383" s="7">
         <v>45116</v>
       </c>
@@ -12663,7 +12623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A384" s="7">
         <v>45116</v>
       </c>
@@ -12692,7 +12652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A385" s="7">
         <v>45116</v>
       </c>
@@ -12721,7 +12681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A386" s="7">
         <v>45116</v>
       </c>
@@ -12750,7 +12710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A387" s="7">
         <v>45116</v>
       </c>
@@ -12779,7 +12739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A388" s="7">
         <v>45116</v>
       </c>
@@ -12808,7 +12768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A389" s="7">
         <v>45116</v>
       </c>
@@ -12837,7 +12797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A390" s="7">
         <v>45116</v>
       </c>
@@ -12866,7 +12826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A391" s="7">
         <v>45117</v>
       </c>
@@ -12895,7 +12855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A392" s="7">
         <v>45117</v>
       </c>
@@ -12924,7 +12884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A393" s="7">
         <v>45117</v>
       </c>
@@ -12953,7 +12913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A394" s="7">
         <v>45117</v>
       </c>
@@ -12982,7 +12942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A395" s="7">
         <v>45117</v>
       </c>
@@ -13011,7 +12971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A396" s="7">
         <v>45117</v>
       </c>
@@ -13040,7 +13000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A397" s="7">
         <v>45117</v>
       </c>
@@ -13069,7 +13029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A398" s="7">
         <v>45117</v>
       </c>
@@ -13098,7 +13058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A399" s="7">
         <v>45117</v>
       </c>
@@ -13127,7 +13087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A400" s="7">
         <v>45118</v>
       </c>
@@ -13156,7 +13116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A401" s="7">
         <v>45118</v>
       </c>
@@ -13185,7 +13145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A402" s="7">
         <v>45118</v>
       </c>
@@ -13214,7 +13174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A403" s="7">
         <v>45118</v>
       </c>
@@ -13243,7 +13203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A404" s="7">
         <v>45118</v>
       </c>
@@ -13272,7 +13232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A405" s="7">
         <v>45118</v>
       </c>
@@ -13301,7 +13261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A406" s="7">
         <v>45118</v>
       </c>
@@ -13330,7 +13290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A407" s="7">
         <v>45118</v>
       </c>
@@ -13359,7 +13319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A408" s="7">
         <v>45118</v>
       </c>
@@ -13388,7 +13348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A409" s="7">
         <v>45118</v>
       </c>
@@ -13417,7 +13377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A410" s="7">
         <v>45118</v>
       </c>
@@ -13446,7 +13406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A411" s="7">
         <v>45118</v>
       </c>
@@ -13475,7 +13435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A412" s="7">
         <v>45118</v>
       </c>
@@ -13504,7 +13464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A413" s="7">
         <v>45118</v>
       </c>
@@ -13533,7 +13493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A414" s="7">
         <v>45119</v>
       </c>
@@ -13562,7 +13522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A415" s="7">
         <v>45119</v>
       </c>
@@ -13591,7 +13551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A416" s="7">
         <v>45119</v>
       </c>
@@ -13620,7 +13580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A417" s="7">
         <v>45119</v>
       </c>
@@ -13649,7 +13609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A418" s="7">
         <v>45119</v>
       </c>
@@ -13678,7 +13638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A419" s="7">
         <v>45119</v>
       </c>
@@ -13707,7 +13667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A420" s="7">
         <v>45119</v>
       </c>
@@ -13736,7 +13696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A421" s="7">
         <v>45119</v>
       </c>
@@ -13765,7 +13725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A422" s="7">
         <v>45119</v>
       </c>
@@ -13794,801 +13754,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A423" s="28">
-        <v>45176</v>
-      </c>
-      <c r="B423" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="C423" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D423" s="30">
-        <v>0</v>
-      </c>
-      <c r="E423" s="30">
-        <v>0</v>
-      </c>
-      <c r="F423" s="30">
-        <v>0</v>
-      </c>
-      <c r="G423" s="30">
-        <v>0</v>
-      </c>
-      <c r="H423" s="30">
-        <v>0</v>
-      </c>
-      <c r="I423" s="30">
-        <v>0</v>
-      </c>
-      <c r="J423" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A424" s="28">
-        <v>45176</v>
-      </c>
-      <c r="B424" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C424" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D424" s="30">
-        <v>1</v>
-      </c>
-      <c r="E424" s="30">
-        <v>0</v>
-      </c>
-      <c r="F424" s="30">
-        <v>0</v>
-      </c>
-      <c r="G424" s="30">
-        <v>0</v>
-      </c>
-      <c r="H424" s="30">
-        <v>0</v>
-      </c>
-      <c r="I424" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A425" s="28">
-        <v>45176</v>
-      </c>
-      <c r="B425" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="C425" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D425" s="30">
-        <v>4</v>
-      </c>
-      <c r="E425" s="30">
-        <v>0</v>
-      </c>
-      <c r="F425" s="30">
-        <v>0</v>
-      </c>
-      <c r="G425" s="30">
-        <v>0</v>
-      </c>
-      <c r="H425" s="30">
-        <v>0</v>
-      </c>
-      <c r="I425" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A426" s="28">
-        <v>45176</v>
-      </c>
-      <c r="B426" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="C426" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D426" s="30">
-        <v>0</v>
-      </c>
-      <c r="E426" s="30">
-        <v>0</v>
-      </c>
-      <c r="F426" s="30">
-        <v>0</v>
-      </c>
-      <c r="G426" s="30">
-        <v>0</v>
-      </c>
-      <c r="H426" s="30">
-        <v>0</v>
-      </c>
-      <c r="I426" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A427" s="28">
-        <v>45176</v>
-      </c>
-      <c r="B427" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="C427" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D427" s="30">
-        <v>1</v>
-      </c>
-      <c r="E427" s="30">
-        <v>0</v>
-      </c>
-      <c r="F427" s="30">
-        <v>0</v>
-      </c>
-      <c r="G427" s="30">
-        <v>0</v>
-      </c>
-      <c r="H427" s="30">
-        <v>0</v>
-      </c>
-      <c r="I427" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A428" s="28">
-        <v>45176</v>
-      </c>
-      <c r="B428" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C428" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D428" s="30">
-        <v>0</v>
-      </c>
-      <c r="E428" s="30">
-        <v>0</v>
-      </c>
-      <c r="F428" s="30">
-        <v>1</v>
-      </c>
-      <c r="G428" s="30">
-        <v>0</v>
-      </c>
-      <c r="H428" s="30">
-        <v>0</v>
-      </c>
-      <c r="I428" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A429" s="28">
-        <v>45176</v>
-      </c>
-      <c r="B429" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="C429" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D429" s="30">
-        <v>0</v>
-      </c>
-      <c r="E429" s="30">
-        <v>1</v>
-      </c>
-      <c r="F429" s="30">
-        <v>0</v>
-      </c>
-      <c r="G429" s="30">
-        <v>0</v>
-      </c>
-      <c r="H429" s="30">
-        <v>2</v>
-      </c>
-      <c r="I429" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A430" s="28">
-        <v>45176</v>
-      </c>
-      <c r="B430" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="C430" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D430" s="30">
-        <v>0</v>
-      </c>
-      <c r="E430" s="30">
-        <v>0</v>
-      </c>
-      <c r="F430" s="30">
-        <v>0</v>
-      </c>
-      <c r="G430" s="30">
-        <v>0</v>
-      </c>
-      <c r="H430" s="30">
-        <v>0</v>
-      </c>
-      <c r="I430" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A431" s="28">
-        <v>45176</v>
-      </c>
-      <c r="B431" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C431" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D431" s="30">
-        <v>2</v>
-      </c>
-      <c r="E431" s="30">
-        <v>0</v>
-      </c>
-      <c r="F431" s="30">
-        <v>0</v>
-      </c>
-      <c r="G431" s="30">
-        <v>0</v>
-      </c>
-      <c r="H431" s="30">
-        <v>0</v>
-      </c>
-      <c r="I431" s="30">
-        <v>0</v>
-      </c>
-      <c r="J431" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A432" s="28">
-        <v>45176</v>
-      </c>
-      <c r="B432" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C432" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D432" s="30">
-        <v>0</v>
-      </c>
-      <c r="E432" s="30">
-        <v>0</v>
-      </c>
-      <c r="F432" s="30">
-        <v>0</v>
-      </c>
-      <c r="G432" s="30">
-        <v>0</v>
-      </c>
-      <c r="H432" s="30">
-        <v>0</v>
-      </c>
-      <c r="I432" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A433" s="28">
-        <v>45176</v>
-      </c>
-      <c r="B433" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C433" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D433" s="30">
-        <v>0</v>
-      </c>
-      <c r="E433" s="30">
-        <v>0</v>
-      </c>
-      <c r="F433" s="30">
-        <v>0</v>
-      </c>
-      <c r="G433" s="30">
-        <v>0</v>
-      </c>
-      <c r="H433" s="30">
-        <v>0</v>
-      </c>
-      <c r="I433" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A434" s="28">
-        <v>45176</v>
-      </c>
-      <c r="B434" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="C434" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D434" s="30">
-        <v>1</v>
-      </c>
-      <c r="E434" s="30">
-        <v>0</v>
-      </c>
-      <c r="F434" s="30">
-        <v>0</v>
-      </c>
-      <c r="G434" s="30">
-        <v>1</v>
-      </c>
-      <c r="H434" s="30">
-        <v>0</v>
-      </c>
-      <c r="I434" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A435" s="28">
-        <v>45176</v>
-      </c>
-      <c r="B435" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="C435" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D435" s="30">
-        <v>0</v>
-      </c>
-      <c r="E435" s="30">
-        <v>0</v>
-      </c>
-      <c r="F435" s="30">
-        <v>0</v>
-      </c>
-      <c r="G435" s="30">
-        <v>0</v>
-      </c>
-      <c r="H435" s="30">
-        <v>0</v>
-      </c>
-      <c r="I435" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A436" s="28">
-        <v>45176</v>
-      </c>
-      <c r="B436" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C436" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D436" s="30">
-        <v>0</v>
-      </c>
-      <c r="E436" s="30">
-        <v>0</v>
-      </c>
-      <c r="F436" s="30">
-        <v>0</v>
-      </c>
-      <c r="G436" s="30">
-        <v>0</v>
-      </c>
-      <c r="H436" s="30">
-        <v>0</v>
-      </c>
-      <c r="I436" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A437" s="31">
-        <v>45183</v>
-      </c>
-      <c r="B437" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C437" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D437" s="9">
-        <v>0</v>
-      </c>
-      <c r="E437" s="9">
-        <v>0</v>
-      </c>
-      <c r="F437" s="9">
-        <v>1</v>
-      </c>
-      <c r="G437" s="9">
-        <v>0</v>
-      </c>
-      <c r="H437" s="9">
-        <v>0</v>
-      </c>
-      <c r="I437" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A438" s="31">
-        <v>45183</v>
-      </c>
-      <c r="B438" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C438" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D438" s="9">
-        <v>2</v>
-      </c>
-      <c r="E438" s="9">
-        <v>1</v>
-      </c>
-      <c r="F438" s="9">
-        <v>0</v>
-      </c>
-      <c r="G438" s="9">
-        <v>0</v>
-      </c>
-      <c r="H438" s="9">
-        <v>0</v>
-      </c>
-      <c r="I438" s="9">
-        <v>0</v>
-      </c>
-      <c r="J438" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A439" s="31">
-        <v>45183</v>
-      </c>
-      <c r="B439" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C439" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D439" s="9">
-        <v>0</v>
-      </c>
-      <c r="E439" s="9">
-        <v>0</v>
-      </c>
-      <c r="F439" s="9">
-        <v>0</v>
-      </c>
-      <c r="G439" s="9">
-        <v>0</v>
-      </c>
-      <c r="H439" s="9">
-        <v>0</v>
-      </c>
-      <c r="I439" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A440" s="31">
-        <v>45183</v>
-      </c>
-      <c r="B440" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C440" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D440" s="9">
-        <v>3</v>
-      </c>
-      <c r="E440" s="9">
-        <v>0</v>
-      </c>
-      <c r="F440" s="9">
-        <v>0</v>
-      </c>
-      <c r="G440" s="9">
-        <v>0</v>
-      </c>
-      <c r="H440" s="9">
-        <v>0</v>
-      </c>
-      <c r="I440" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A441" s="31">
-        <v>45183</v>
-      </c>
-      <c r="B441" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C441" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D441" s="9">
-        <v>7</v>
-      </c>
-      <c r="E441" s="9">
-        <v>0</v>
-      </c>
-      <c r="F441" s="9">
-        <v>0</v>
-      </c>
-      <c r="G441" s="9">
-        <v>0</v>
-      </c>
-      <c r="H441" s="9">
-        <v>1</v>
-      </c>
-      <c r="I441" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A442" s="31">
-        <v>45183</v>
-      </c>
-      <c r="B442" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C442" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D442" s="9">
-        <v>1</v>
-      </c>
-      <c r="E442" s="9">
-        <v>0</v>
-      </c>
-      <c r="F442" s="9">
-        <v>0</v>
-      </c>
-      <c r="G442" s="9">
-        <v>0</v>
-      </c>
-      <c r="H442" s="9">
-        <v>0</v>
-      </c>
-      <c r="I442" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A443" s="31">
-        <v>45183</v>
-      </c>
-      <c r="B443" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C443" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D443" s="9">
-        <v>0</v>
-      </c>
-      <c r="E443" s="9">
-        <v>0</v>
-      </c>
-      <c r="F443" s="9">
-        <v>0</v>
-      </c>
-      <c r="G443" s="9">
-        <v>0</v>
-      </c>
-      <c r="H443" s="9">
-        <v>0</v>
-      </c>
-      <c r="I443" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A444" s="31">
-        <v>45183</v>
-      </c>
-      <c r="B444" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C444" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D444" s="9">
-        <v>0</v>
-      </c>
-      <c r="E444" s="9">
-        <v>0</v>
-      </c>
-      <c r="F444" s="9">
-        <v>0</v>
-      </c>
-      <c r="G444" s="9">
-        <v>0</v>
-      </c>
-      <c r="H444" s="9">
-        <v>0</v>
-      </c>
-      <c r="I444" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A445" s="31">
-        <v>45183</v>
-      </c>
-      <c r="B445" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C445" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D445" s="9">
-        <v>5</v>
-      </c>
-      <c r="E445" s="9">
-        <v>0</v>
-      </c>
-      <c r="F445" s="9">
-        <v>0</v>
-      </c>
-      <c r="G445" s="9">
-        <v>0</v>
-      </c>
-      <c r="H445" s="9">
-        <v>0</v>
-      </c>
-      <c r="I445" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A446" s="31">
-        <v>45183</v>
-      </c>
-      <c r="B446" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C446" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D446" s="9">
-        <v>1</v>
-      </c>
-      <c r="E446" s="9">
-        <v>0</v>
-      </c>
-      <c r="F446" s="9">
-        <v>0</v>
-      </c>
-      <c r="G446" s="9">
-        <v>0</v>
-      </c>
-      <c r="H446" s="9">
-        <v>0</v>
-      </c>
-      <c r="I446" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A447" s="31">
-        <v>45183</v>
-      </c>
-      <c r="B447" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C447" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D447" s="9">
-        <v>1</v>
-      </c>
-      <c r="E447" s="9">
-        <v>0</v>
-      </c>
-      <c r="F447" s="9">
-        <v>0</v>
-      </c>
-      <c r="G447" s="9">
-        <v>0</v>
-      </c>
-      <c r="H447" s="9">
-        <v>0</v>
-      </c>
-      <c r="I447" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A448" s="31">
-        <v>45183</v>
-      </c>
-      <c r="B448" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C448" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D448" s="9">
-        <v>2</v>
-      </c>
-      <c r="E448" s="9">
-        <v>0</v>
-      </c>
-      <c r="F448" s="9">
-        <v>0</v>
-      </c>
-      <c r="G448" s="9">
-        <v>0</v>
-      </c>
-      <c r="H448" s="9">
-        <v>0</v>
-      </c>
-      <c r="I448" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A449" s="31">
-        <v>45183</v>
-      </c>
-      <c r="B449" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C449" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D449" s="9">
-        <v>6</v>
-      </c>
-      <c r="E449" s="9">
-        <v>0</v>
-      </c>
-      <c r="F449" s="9">
-        <v>0</v>
-      </c>
-      <c r="G449" s="9">
-        <v>0</v>
-      </c>
-      <c r="H449" s="9">
-        <v>0</v>
-      </c>
-      <c r="I449" s="9">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:J436" xr:uid="{F55E8A24-46F9-4225-A2C2-A9164F13364A}"/>
-  <conditionalFormatting sqref="C2:C449">
+  <autoFilter ref="A1:J422" xr:uid="{F55E8A24-46F9-4225-A2C2-A9164F13364A}"/>
+  <conditionalFormatting sqref="C2:C422">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Scuri"</formula>
     </cfRule>
@@ -14597,13 +13765,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H449 D2:E449" xr:uid="{A2364708-0661-4544-87F1-D3FDEABF18B6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H422 D2:E422" xr:uid="{A2364708-0661-4544-87F1-D3FDEABF18B6}">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I449" xr:uid="{3C35827F-D598-4F40-B064-7FA732E53B67}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I422" xr:uid="{3C35827F-D598-4F40-B064-7FA732E53B67}">
       <formula1>"0, 1, 2, 3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G449" xr:uid="{2FE2E49C-6CC7-4B84-9D73-A960B8BAAF9A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G422" xr:uid="{2FE2E49C-6CC7-4B84-9D73-A960B8BAAF9A}">
       <formula1>"0, 1"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14632,15 +13800,15 @@
       <selection activeCell="F66" sqref="F66:F68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.54296875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="25.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="25.54296875" style="20"/>
-    <col min="3" max="5" width="25.54296875" style="22"/>
-    <col min="6" max="6" width="25.54296875" style="20"/>
-    <col min="7" max="16384" width="25.54296875" style="17"/>
+    <col min="1" max="2" width="25.5703125" style="20"/>
+    <col min="3" max="5" width="25.5703125" style="22"/>
+    <col min="6" max="6" width="25.5703125" style="20"/>
+    <col min="7" max="16384" width="25.5703125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>16</v>
       </c>
@@ -14660,7 +13828,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>74</v>
       </c>
@@ -14680,7 +13848,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>58</v>
       </c>
@@ -14700,7 +13868,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
         <v>68</v>
       </c>
@@ -14718,7 +13886,7 @@
       </c>
       <c r="F4" s="19"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>42</v>
       </c>
@@ -14736,7 +13904,7 @@
       </c>
       <c r="F5" s="19"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
         <v>71</v>
       </c>
@@ -14756,7 +13924,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
         <v>70</v>
       </c>
@@ -14774,7 +13942,7 @@
       </c>
       <c r="F7" s="19"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
         <v>78</v>
       </c>
@@ -14792,7 +13960,7 @@
       </c>
       <c r="F8" s="19"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
         <v>21</v>
       </c>
@@ -14810,7 +13978,7 @@
       </c>
       <c r="F9" s="19"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
         <v>80</v>
       </c>
@@ -14828,7 +13996,7 @@
       </c>
       <c r="F10" s="19"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
         <v>39</v>
       </c>
@@ -14846,7 +14014,7 @@
       </c>
       <c r="F11" s="19"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
         <v>64</v>
       </c>
@@ -14864,7 +14032,7 @@
       </c>
       <c r="F12" s="19"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
         <v>31</v>
       </c>
@@ -14882,7 +14050,7 @@
       </c>
       <c r="F13" s="19"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
         <v>28</v>
       </c>
@@ -14900,7 +14068,7 @@
       </c>
       <c r="F14" s="19"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
         <v>73</v>
       </c>
@@ -14918,7 +14086,7 @@
       </c>
       <c r="F15" s="19"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
         <v>110</v>
       </c>
@@ -14938,7 +14106,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="19" t="s">
         <v>52</v>
       </c>
@@ -14958,7 +14126,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="s">
         <v>33</v>
       </c>
@@ -14976,7 +14144,7 @@
       </c>
       <c r="F18" s="19"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="19" t="s">
         <v>94</v>
       </c>
@@ -14994,7 +14162,7 @@
       </c>
       <c r="F19" s="19"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="19" t="s">
         <v>95</v>
       </c>
@@ -15014,7 +14182,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
         <v>57</v>
       </c>
@@ -15034,7 +14202,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
         <v>79</v>
       </c>
@@ -15052,7 +14220,7 @@
       </c>
       <c r="F22" s="19"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="19" t="s">
         <v>96</v>
       </c>
@@ -15072,7 +14240,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="19" t="s">
         <v>43</v>
       </c>
@@ -15090,7 +14258,7 @@
       </c>
       <c r="F24" s="19"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="19" t="s">
         <v>51</v>
       </c>
@@ -15110,7 +14278,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
         <v>29</v>
       </c>
@@ -15128,7 +14296,7 @@
       </c>
       <c r="F26" s="19"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="19" t="s">
         <v>38</v>
       </c>
@@ -15146,7 +14314,7 @@
       </c>
       <c r="F27" s="19"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="19" t="s">
         <v>99</v>
       </c>
@@ -15166,7 +14334,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="19" t="s">
         <v>35</v>
       </c>
@@ -15184,7 +14352,7 @@
       </c>
       <c r="F29" s="19"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="19" t="s">
         <v>41</v>
       </c>
@@ -15202,7 +14370,7 @@
       </c>
       <c r="F30" s="19"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="19" t="s">
         <v>47</v>
       </c>
@@ -15220,7 +14388,7 @@
       </c>
       <c r="F31" s="19"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="18" t="s">
         <v>72</v>
       </c>
@@ -15240,7 +14408,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="19" t="s">
         <v>49</v>
       </c>
@@ -15258,7 +14426,7 @@
       </c>
       <c r="F33" s="19"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="19" t="s">
         <v>36</v>
       </c>
@@ -15276,7 +14444,7 @@
       </c>
       <c r="F34" s="19"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="19" t="s">
         <v>56</v>
       </c>
@@ -15296,7 +14464,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="19" t="s">
         <v>32</v>
       </c>
@@ -15314,7 +14482,7 @@
       </c>
       <c r="F36" s="19"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="19" t="s">
         <v>55</v>
       </c>
@@ -15334,7 +14502,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="18" t="s">
         <v>66</v>
       </c>
@@ -15352,7 +14520,7 @@
       </c>
       <c r="F38" s="19"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="19" t="s">
         <v>44</v>
       </c>
@@ -15370,7 +14538,7 @@
       </c>
       <c r="F39" s="19"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="19" t="s">
         <v>50</v>
       </c>
@@ -15390,7 +14558,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="19" t="s">
         <v>61</v>
       </c>
@@ -15410,7 +14578,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="19" t="s">
         <v>63</v>
       </c>
@@ -15428,7 +14596,7 @@
       </c>
       <c r="F42" s="19"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="19" t="s">
         <v>23</v>
       </c>
@@ -15446,7 +14614,7 @@
       </c>
       <c r="F43" s="19"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="18" t="s">
         <v>60</v>
       </c>
@@ -15464,7 +14632,7 @@
       </c>
       <c r="F44" s="19"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="19" t="s">
         <v>25</v>
       </c>
@@ -15482,7 +14650,7 @@
       </c>
       <c r="F45" s="19"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="18" t="s">
         <v>69</v>
       </c>
@@ -15502,7 +14670,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="19" t="s">
         <v>53</v>
       </c>
@@ -15522,7 +14690,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="19" t="s">
         <v>76</v>
       </c>
@@ -15540,7 +14708,7 @@
       </c>
       <c r="F48" s="19"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="19" t="s">
         <v>62</v>
       </c>
@@ -15558,7 +14726,7 @@
       </c>
       <c r="F49" s="19"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="19" t="s">
         <v>26</v>
       </c>
@@ -15576,7 +14744,7 @@
       </c>
       <c r="F50" s="19"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="19" t="s">
         <v>48</v>
       </c>
@@ -15594,7 +14762,7 @@
       </c>
       <c r="F51" s="19"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="19" t="s">
         <v>54</v>
       </c>
@@ -15612,7 +14780,7 @@
       </c>
       <c r="F52" s="19"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="18" t="s">
         <v>67</v>
       </c>
@@ -15630,7 +14798,7 @@
       </c>
       <c r="F53" s="19"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="19" t="s">
         <v>24</v>
       </c>
@@ -15648,7 +14816,7 @@
       </c>
       <c r="F54" s="19"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="19" t="s">
         <v>46</v>
       </c>
@@ -15668,7 +14836,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="18" t="s">
         <v>59</v>
       </c>
@@ -15686,7 +14854,7 @@
       </c>
       <c r="F56" s="19"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="19" t="s">
         <v>103</v>
       </c>
@@ -15704,7 +14872,7 @@
       </c>
       <c r="F57" s="19"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="19" t="s">
         <v>40</v>
       </c>
@@ -15724,7 +14892,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="19" t="s">
         <v>27</v>
       </c>
@@ -15742,7 +14910,7 @@
       </c>
       <c r="F59" s="19"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="19" t="s">
         <v>45</v>
       </c>
@@ -15760,7 +14928,7 @@
       </c>
       <c r="F60" s="19"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="19" t="s">
         <v>104</v>
       </c>
@@ -15780,7 +14948,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="19" t="s">
         <v>105</v>
       </c>
@@ -15800,7 +14968,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="19" t="s">
         <v>77</v>
       </c>
@@ -15818,7 +14986,7 @@
       </c>
       <c r="F63" s="19"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="19" t="s">
         <v>34</v>
       </c>
@@ -15836,7 +15004,7 @@
       </c>
       <c r="F64" s="19"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="19" t="s">
         <v>75</v>
       </c>
@@ -15854,7 +15022,7 @@
       </c>
       <c r="F65" s="19"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="19" t="s">
         <v>65</v>
       </c>
@@ -15872,7 +15040,7 @@
       </c>
       <c r="F66" s="19"/>
     </row>
-    <row r="67" spans="1:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
         <v>111</v>
       </c>
@@ -15890,7 +15058,7 @@
       </c>
       <c r="F67" s="19"/>
     </row>
-    <row r="68" spans="1:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
         <v>112</v>
       </c>
@@ -15925,42 +15093,42 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>88</v>
       </c>

--- a/Input/FantaSPL_Milano.xlsx
+++ b/Input/FantaSPL_Milano.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Local_Docs\Admin\Other\Kit\SPL\SPL_v_0.2\SPL_Regional\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F5F399-66BA-4DE1-9337-687612991976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0547C8-1913-4015-96A0-9B3F53793E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="10690" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{05F018D4-855F-4570-8D15-9B4DD092A228}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{05F018D4-855F-4570-8D15-9B4DD092A228}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="11" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="113">
   <si>
     <t>Parameter</t>
   </si>
@@ -515,7 +515,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -585,6 +585,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -941,14 +944,14 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -962,7 +965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="24" t="s">
         <v>4</v>
       </c>
@@ -976,7 +979,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="24" t="s">
         <v>5</v>
       </c>
@@ -990,7 +993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="24" t="s">
         <v>109</v>
       </c>
@@ -1004,7 +1007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
         <v>6</v>
       </c>
@@ -1018,7 +1021,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="24" t="s">
         <v>7</v>
       </c>
@@ -1032,7 +1035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="24" t="s">
         <v>8</v>
       </c>
@@ -1046,7 +1049,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="24" t="s">
         <v>9</v>
       </c>
@@ -1060,7 +1063,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="24" t="s">
         <v>10</v>
       </c>
@@ -1074,7 +1077,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="24" t="s">
         <v>11</v>
       </c>
@@ -1088,7 +1091,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="24" t="s">
         <v>20</v>
       </c>
@@ -1102,7 +1105,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="24" t="s">
         <v>107</v>
       </c>
@@ -1116,7 +1119,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="24" t="s">
         <v>12</v>
       </c>
@@ -1138,19 +1141,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A29AA2D-3F32-45F2-B719-A1F62E0F1A5F}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
+      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="17.140625" style="1"/>
+    <col min="1" max="3" width="17.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>13</v>
       </c>
@@ -1161,7 +1164,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="14">
         <v>44938</v>
       </c>
@@ -1172,7 +1175,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="14">
         <v>44945</v>
       </c>
@@ -1183,7 +1186,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="14">
         <v>44952</v>
       </c>
@@ -1194,7 +1197,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>44959</v>
       </c>
@@ -1205,7 +1208,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>44966</v>
       </c>
@@ -1216,7 +1219,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <v>44980</v>
       </c>
@@ -1227,7 +1230,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>44987</v>
       </c>
@@ -1238,7 +1241,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>44994</v>
       </c>
@@ -1249,7 +1252,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="14">
         <v>45001</v>
       </c>
@@ -1260,7 +1263,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="14">
         <v>45008</v>
       </c>
@@ -1271,7 +1274,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="14">
         <v>45015</v>
       </c>
@@ -1282,7 +1285,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="14">
         <v>45022</v>
       </c>
@@ -1293,7 +1296,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="14">
         <v>45030</v>
       </c>
@@ -1304,7 +1307,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="14">
         <v>45050</v>
       </c>
@@ -1315,7 +1318,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="14">
         <v>45057</v>
       </c>
@@ -1326,7 +1329,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="14">
         <v>45064</v>
       </c>
@@ -1337,7 +1340,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="14">
         <v>45071</v>
       </c>
@@ -1348,7 +1351,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="14">
         <v>45078</v>
       </c>
@@ -1359,7 +1362,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="14">
         <v>45085</v>
       </c>
@@ -1370,7 +1373,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="14">
         <v>45092</v>
       </c>
@@ -1381,7 +1384,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="14">
         <v>45099</v>
       </c>
@@ -1392,7 +1395,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="14">
         <v>45106</v>
       </c>
@@ -1403,7 +1406,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="14">
         <v>45113</v>
       </c>
@@ -1414,7 +1417,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="14">
         <v>45114</v>
       </c>
@@ -1425,7 +1428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="14">
         <v>45115</v>
       </c>
@@ -1436,7 +1439,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="14">
         <v>45116</v>
       </c>
@@ -1447,7 +1450,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="14">
         <v>45117</v>
       </c>
@@ -1458,7 +1461,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="14">
         <v>45118</v>
       </c>
@@ -1469,7 +1472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="14">
         <v>45119</v>
       </c>
@@ -1478,6 +1481,17 @@
       </c>
       <c r="C30" s="15">
         <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="26">
+        <v>45176</v>
+      </c>
+      <c r="B31" s="1">
+        <v>10</v>
+      </c>
+      <c r="C31" s="1">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1487,27 +1501,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F55E8A24-46F9-4225-A2C2-A9164F13364A}">
-  <dimension ref="A1:J422"/>
+  <dimension ref="A1:J436"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A406" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B428" sqref="B428"/>
+      <pane ySplit="1" topLeftCell="A415" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L432" sqref="L432"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="17.140625" style="3"/>
+    <col min="8" max="8" width="15.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="17.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
@@ -1539,7 +1553,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="7">
         <v>44938</v>
       </c>
@@ -1568,7 +1582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>44938</v>
       </c>
@@ -1600,7 +1614,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>44938</v>
       </c>
@@ -1629,7 +1643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>44938</v>
       </c>
@@ -1658,7 +1672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>44938</v>
       </c>
@@ -1687,7 +1701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>44938</v>
       </c>
@@ -1716,7 +1730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>44938</v>
       </c>
@@ -1745,7 +1759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>44938</v>
       </c>
@@ -1774,7 +1788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>44938</v>
       </c>
@@ -1803,7 +1817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>44938</v>
       </c>
@@ -1832,7 +1846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>44938</v>
       </c>
@@ -1861,7 +1875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>44938</v>
       </c>
@@ -1890,7 +1904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <v>44938</v>
       </c>
@@ -1919,7 +1933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
         <v>44938</v>
       </c>
@@ -1948,7 +1962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <v>44945</v>
       </c>
@@ -1977,7 +1991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
         <v>44945</v>
       </c>
@@ -2006,7 +2020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
         <v>44945</v>
       </c>
@@ -2035,7 +2049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
         <v>44945</v>
       </c>
@@ -2064,7 +2078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
         <v>44945</v>
       </c>
@@ -2093,7 +2107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="7">
         <v>44945</v>
       </c>
@@ -2122,7 +2136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="7">
         <v>44945</v>
       </c>
@@ -2151,7 +2165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="7">
         <v>44945</v>
       </c>
@@ -2180,7 +2194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="7">
         <v>44945</v>
       </c>
@@ -2209,7 +2223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="7">
         <v>44945</v>
       </c>
@@ -2238,7 +2252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="7">
         <v>44945</v>
       </c>
@@ -2267,7 +2281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="7">
         <v>44945</v>
       </c>
@@ -2296,7 +2310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="7">
         <v>44945</v>
       </c>
@@ -2325,7 +2339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="7">
         <v>44945</v>
       </c>
@@ -2354,7 +2368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="7">
         <v>44945</v>
       </c>
@@ -2383,7 +2397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="7">
         <v>44945</v>
       </c>
@@ -2412,7 +2426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="7">
         <v>44945</v>
       </c>
@@ -2441,7 +2455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="7">
         <v>44945</v>
       </c>
@@ -2470,7 +2484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="7">
         <v>44945</v>
       </c>
@@ -2499,7 +2513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="7">
         <v>44945</v>
       </c>
@@ -2531,7 +2545,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="7">
         <v>44945</v>
       </c>
@@ -2560,7 +2574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="7">
         <v>44945</v>
       </c>
@@ -2589,7 +2603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="7">
         <v>44952</v>
       </c>
@@ -2618,7 +2632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="7">
         <v>44952</v>
       </c>
@@ -2647,7 +2661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="7">
         <v>44952</v>
       </c>
@@ -2676,7 +2690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="7">
         <v>44952</v>
       </c>
@@ -2705,7 +2719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="7">
         <v>44952</v>
       </c>
@@ -2734,7 +2748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="7">
         <v>44952</v>
       </c>
@@ -2763,7 +2777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="7">
         <v>44952</v>
       </c>
@@ -2792,7 +2806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="7">
         <v>44952</v>
       </c>
@@ -2821,7 +2835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="7">
         <v>44952</v>
       </c>
@@ -2850,7 +2864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="7">
         <v>44952</v>
       </c>
@@ -2879,7 +2893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="7">
         <v>44952</v>
       </c>
@@ -2908,7 +2922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="7">
         <v>44952</v>
       </c>
@@ -2937,7 +2951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="7">
         <v>44952</v>
       </c>
@@ -2966,7 +2980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="7">
         <v>44952</v>
       </c>
@@ -2995,7 +3009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="7">
         <v>44952</v>
       </c>
@@ -3024,7 +3038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="7">
         <v>44952</v>
       </c>
@@ -3053,7 +3067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="7">
         <v>44959</v>
       </c>
@@ -3082,7 +3096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="7">
         <v>44959</v>
       </c>
@@ -3111,7 +3125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="7">
         <v>44959</v>
       </c>
@@ -3140,7 +3154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="7">
         <v>44959</v>
       </c>
@@ -3169,7 +3183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="7">
         <v>44959</v>
       </c>
@@ -3198,7 +3212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="7">
         <v>44959</v>
       </c>
@@ -3227,7 +3241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="7">
         <v>44959</v>
       </c>
@@ -3256,7 +3270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="7">
         <v>44959</v>
       </c>
@@ -3285,7 +3299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="7">
         <v>44959</v>
       </c>
@@ -3314,7 +3328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="7">
         <v>44959</v>
       </c>
@@ -3343,7 +3357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="7">
         <v>44959</v>
       </c>
@@ -3372,7 +3386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="7">
         <v>44959</v>
       </c>
@@ -3401,7 +3415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="7">
         <v>44959</v>
       </c>
@@ -3430,7 +3444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="7">
         <v>44959</v>
       </c>
@@ -3459,7 +3473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="7">
         <v>44966</v>
       </c>
@@ -3488,7 +3502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="7">
         <v>44966</v>
       </c>
@@ -3517,7 +3531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="7">
         <v>44966</v>
       </c>
@@ -3546,7 +3560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="7">
         <v>44966</v>
       </c>
@@ -3575,7 +3589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="7">
         <v>44966</v>
       </c>
@@ -3604,7 +3618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="7">
         <v>44966</v>
       </c>
@@ -3633,7 +3647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="7">
         <v>44966</v>
       </c>
@@ -3662,7 +3676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="7">
         <v>44966</v>
       </c>
@@ -3691,7 +3705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="7">
         <v>44966</v>
       </c>
@@ -3720,7 +3734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="7">
         <v>44966</v>
       </c>
@@ -3749,7 +3763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="7">
         <v>44966</v>
       </c>
@@ -3778,7 +3792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="7">
         <v>44966</v>
       </c>
@@ -3807,7 +3821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="7">
         <v>44966</v>
       </c>
@@ -3836,7 +3850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="7">
         <v>44966</v>
       </c>
@@ -3865,7 +3879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="7">
         <v>44980</v>
       </c>
@@ -3894,7 +3908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="7">
         <v>44980</v>
       </c>
@@ -3923,7 +3937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="7">
         <v>44980</v>
       </c>
@@ -3952,7 +3966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="7">
         <v>44980</v>
       </c>
@@ -3981,7 +3995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="7">
         <v>44980</v>
       </c>
@@ -4010,7 +4024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="7">
         <v>44980</v>
       </c>
@@ -4039,7 +4053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="7">
         <v>44980</v>
       </c>
@@ -4068,7 +4082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="7">
         <v>44980</v>
       </c>
@@ -4097,7 +4111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="7">
         <v>44980</v>
       </c>
@@ -4126,7 +4140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="7">
         <v>44980</v>
       </c>
@@ -4155,7 +4169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="7">
         <v>44980</v>
       </c>
@@ -4184,7 +4198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="7">
         <v>44980</v>
       </c>
@@ -4213,7 +4227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="7">
         <v>44980</v>
       </c>
@@ -4242,7 +4256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="7">
         <v>44980</v>
       </c>
@@ -4271,7 +4285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" s="7">
         <v>44980</v>
       </c>
@@ -4300,7 +4314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" s="7">
         <v>44980</v>
       </c>
@@ -4329,7 +4343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" s="7">
         <v>44987</v>
       </c>
@@ -4358,7 +4372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" s="7">
         <v>44987</v>
       </c>
@@ -4387,7 +4401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" s="7">
         <v>44987</v>
       </c>
@@ -4416,7 +4430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" s="7">
         <v>44987</v>
       </c>
@@ -4445,7 +4459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" s="7">
         <v>44987</v>
       </c>
@@ -4474,7 +4488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" s="7">
         <v>44987</v>
       </c>
@@ -4503,7 +4517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" s="7">
         <v>44987</v>
       </c>
@@ -4532,7 +4546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" s="7">
         <v>44987</v>
       </c>
@@ -4561,7 +4575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" s="7">
         <v>44987</v>
       </c>
@@ -4590,7 +4604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" s="7">
         <v>44987</v>
       </c>
@@ -4619,7 +4633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" s="7">
         <v>44987</v>
       </c>
@@ -4648,7 +4662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" s="7">
         <v>44987</v>
       </c>
@@ -4677,7 +4691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" s="7">
         <v>44987</v>
       </c>
@@ -4706,7 +4720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" s="7">
         <v>44987</v>
       </c>
@@ -4735,7 +4749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" s="7">
         <v>44994</v>
       </c>
@@ -4764,7 +4778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" s="7">
         <v>44994</v>
       </c>
@@ -4793,7 +4807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" s="7">
         <v>44994</v>
       </c>
@@ -4822,7 +4836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" s="7">
         <v>44994</v>
       </c>
@@ -4851,7 +4865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" s="7">
         <v>44994</v>
       </c>
@@ -4880,7 +4894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" s="7">
         <v>44994</v>
       </c>
@@ -4909,7 +4923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" s="7">
         <v>44994</v>
       </c>
@@ -4938,7 +4952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" s="7">
         <v>44994</v>
       </c>
@@ -4967,7 +4981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" s="7">
         <v>44994</v>
       </c>
@@ -4996,7 +5010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" s="7">
         <v>44994</v>
       </c>
@@ -5025,7 +5039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" s="7">
         <v>44994</v>
       </c>
@@ -5054,7 +5068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" s="7">
         <v>44994</v>
       </c>
@@ -5083,7 +5097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" s="7">
         <v>44994</v>
       </c>
@@ -5112,7 +5126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" s="7">
         <v>44994</v>
       </c>
@@ -5141,7 +5155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" s="7">
         <v>45001</v>
       </c>
@@ -5170,7 +5184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" s="7">
         <v>45001</v>
       </c>
@@ -5199,7 +5213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" s="7">
         <v>45001</v>
       </c>
@@ -5228,7 +5242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" s="7">
         <v>45001</v>
       </c>
@@ -5257,7 +5271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" s="7">
         <v>45001</v>
       </c>
@@ -5286,7 +5300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" s="7">
         <v>45001</v>
       </c>
@@ -5315,7 +5329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" s="7">
         <v>45001</v>
       </c>
@@ -5344,7 +5358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" s="7">
         <v>45001</v>
       </c>
@@ -5373,7 +5387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" s="7">
         <v>45001</v>
       </c>
@@ -5402,7 +5416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" s="7">
         <v>45001</v>
       </c>
@@ -5431,7 +5445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" s="7">
         <v>45001</v>
       </c>
@@ -5460,7 +5474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" s="7">
         <v>45001</v>
       </c>
@@ -5489,7 +5503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" s="7">
         <v>45001</v>
       </c>
@@ -5518,7 +5532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" s="7">
         <v>45001</v>
       </c>
@@ -5547,7 +5561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" s="7">
         <v>45008</v>
       </c>
@@ -5576,7 +5590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" s="7">
         <v>45008</v>
       </c>
@@ -5605,7 +5619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" s="7">
         <v>45008</v>
       </c>
@@ -5634,7 +5648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" s="7">
         <v>45008</v>
       </c>
@@ -5663,7 +5677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" s="7">
         <v>45008</v>
       </c>
@@ -5692,7 +5706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" s="7">
         <v>45008</v>
       </c>
@@ -5721,7 +5735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" s="7">
         <v>45008</v>
       </c>
@@ -5750,7 +5764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" s="7">
         <v>45008</v>
       </c>
@@ -5779,7 +5793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" s="7">
         <v>45008</v>
       </c>
@@ -5808,7 +5822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" s="7">
         <v>45008</v>
       </c>
@@ -5837,7 +5851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" s="7">
         <v>45008</v>
       </c>
@@ -5866,7 +5880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" s="7">
         <v>45008</v>
       </c>
@@ -5895,7 +5909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" s="7">
         <v>45008</v>
       </c>
@@ -5924,7 +5938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" s="7">
         <v>45008</v>
       </c>
@@ -5953,7 +5967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" s="7">
         <v>45015</v>
       </c>
@@ -5982,7 +5996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" s="7">
         <v>45015</v>
       </c>
@@ -6011,7 +6025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156" s="7">
         <v>45015</v>
       </c>
@@ -6040,7 +6054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157" s="7">
         <v>45015</v>
       </c>
@@ -6069,7 +6083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" s="7">
         <v>45015</v>
       </c>
@@ -6098,7 +6112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159" s="7">
         <v>45015</v>
       </c>
@@ -6127,7 +6141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160" s="7">
         <v>45015</v>
       </c>
@@ -6156,7 +6170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" s="7">
         <v>45015</v>
       </c>
@@ -6185,7 +6199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162" s="7">
         <v>45015</v>
       </c>
@@ -6214,7 +6228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163" s="7">
         <v>45015</v>
       </c>
@@ -6243,7 +6257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164" s="7">
         <v>45015</v>
       </c>
@@ -6272,7 +6286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165" s="7">
         <v>45015</v>
       </c>
@@ -6301,7 +6315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166" s="7">
         <v>45015</v>
       </c>
@@ -6330,7 +6344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167" s="7">
         <v>45015</v>
       </c>
@@ -6359,7 +6373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168" s="7">
         <v>45022</v>
       </c>
@@ -6388,7 +6402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169" s="7">
         <v>45022</v>
       </c>
@@ -6417,7 +6431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A170" s="7">
         <v>45022</v>
       </c>
@@ -6446,7 +6460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A171" s="7">
         <v>45022</v>
       </c>
@@ -6475,7 +6489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A172" s="7">
         <v>45022</v>
       </c>
@@ -6504,7 +6518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A173" s="7">
         <v>45022</v>
       </c>
@@ -6533,7 +6547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A174" s="7">
         <v>45022</v>
       </c>
@@ -6562,7 +6576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A175" s="7">
         <v>45022</v>
       </c>
@@ -6591,7 +6605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A176" s="7">
         <v>45022</v>
       </c>
@@ -6620,7 +6634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177" s="7">
         <v>45022</v>
       </c>
@@ -6649,7 +6663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A178" s="7">
         <v>45022</v>
       </c>
@@ -6678,7 +6692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A179" s="7">
         <v>45022</v>
       </c>
@@ -6707,7 +6721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A180" s="7">
         <v>45022</v>
       </c>
@@ -6736,7 +6750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A181" s="7">
         <v>45022</v>
       </c>
@@ -6765,7 +6779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A182" s="7">
         <v>45030</v>
       </c>
@@ -6794,7 +6808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A183" s="7">
         <v>45030</v>
       </c>
@@ -6823,7 +6837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A184" s="7">
         <v>45030</v>
       </c>
@@ -6852,7 +6866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A185" s="7">
         <v>45030</v>
       </c>
@@ -6881,7 +6895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A186" s="7">
         <v>45030</v>
       </c>
@@ -6910,7 +6924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A187" s="7">
         <v>45030</v>
       </c>
@@ -6939,7 +6953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A188" s="7">
         <v>45030</v>
       </c>
@@ -6968,7 +6982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A189" s="7">
         <v>45030</v>
       </c>
@@ -6997,7 +7011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A190" s="7">
         <v>45030</v>
       </c>
@@ -7026,7 +7040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A191" s="7">
         <v>45030</v>
       </c>
@@ -7055,7 +7069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A192" s="7">
         <v>45030</v>
       </c>
@@ -7084,7 +7098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A193" s="7">
         <v>45030</v>
       </c>
@@ -7113,7 +7127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A194" s="7">
         <v>45030</v>
       </c>
@@ -7142,7 +7156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A195" s="7">
         <v>45030</v>
       </c>
@@ -7171,7 +7185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A196" s="7">
         <v>45030</v>
       </c>
@@ -7200,7 +7214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A197" s="7">
         <v>45030</v>
       </c>
@@ -7229,7 +7243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A198" s="7">
         <v>45030</v>
       </c>
@@ -7258,7 +7272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A199" s="7">
         <v>45030</v>
       </c>
@@ -7287,7 +7301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A200" s="7">
         <v>45030</v>
       </c>
@@ -7316,7 +7330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A201" s="7">
         <v>45030</v>
       </c>
@@ -7345,7 +7359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A202" s="7">
         <v>45030</v>
       </c>
@@ -7374,7 +7388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A203" s="7">
         <v>45030</v>
       </c>
@@ -7403,7 +7417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A204" s="7">
         <v>45050</v>
       </c>
@@ -7432,7 +7446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A205" s="7">
         <v>45050</v>
       </c>
@@ -7461,7 +7475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A206" s="7">
         <v>45050</v>
       </c>
@@ -7490,7 +7504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A207" s="7">
         <v>45050</v>
       </c>
@@ -7519,7 +7533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A208" s="7">
         <v>45050</v>
       </c>
@@ -7548,7 +7562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A209" s="7">
         <v>45050</v>
       </c>
@@ -7577,7 +7591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A210" s="7">
         <v>45050</v>
       </c>
@@ -7606,7 +7620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A211" s="7">
         <v>45050</v>
       </c>
@@ -7635,7 +7649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A212" s="7">
         <v>45050</v>
       </c>
@@ -7664,7 +7678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A213" s="7">
         <v>45050</v>
       </c>
@@ -7693,7 +7707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A214" s="7">
         <v>45050</v>
       </c>
@@ -7722,7 +7736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A215" s="7">
         <v>45050</v>
       </c>
@@ -7751,7 +7765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A216" s="7">
         <v>45050</v>
       </c>
@@ -7780,7 +7794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A217" s="7">
         <v>45050</v>
       </c>
@@ -7809,7 +7823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A218" s="7">
         <v>45050</v>
       </c>
@@ -7838,7 +7852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A219" s="7">
         <v>45050</v>
       </c>
@@ -7867,7 +7881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A220" s="7">
         <v>45057</v>
       </c>
@@ -7896,7 +7910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A221" s="7">
         <v>45057</v>
       </c>
@@ -7925,7 +7939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A222" s="7">
         <v>45057</v>
       </c>
@@ -7954,7 +7968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A223" s="7">
         <v>45057</v>
       </c>
@@ -7983,7 +7997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A224" s="7">
         <v>45057</v>
       </c>
@@ -8012,7 +8026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A225" s="7">
         <v>45057</v>
       </c>
@@ -8041,7 +8055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A226" s="7">
         <v>45057</v>
       </c>
@@ -8070,7 +8084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A227" s="7">
         <v>45057</v>
       </c>
@@ -8099,7 +8113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A228" s="7">
         <v>45057</v>
       </c>
@@ -8128,7 +8142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A229" s="7">
         <v>45057</v>
       </c>
@@ -8157,7 +8171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A230" s="7">
         <v>45057</v>
       </c>
@@ -8186,7 +8200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A231" s="7">
         <v>45057</v>
       </c>
@@ -8215,7 +8229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A232" s="7">
         <v>45057</v>
       </c>
@@ -8244,7 +8258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A233" s="7">
         <v>45057</v>
       </c>
@@ -8273,7 +8287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A234" s="7">
         <v>45064</v>
       </c>
@@ -8302,7 +8316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A235" s="7">
         <v>45064</v>
       </c>
@@ -8331,7 +8345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A236" s="7">
         <v>45064</v>
       </c>
@@ -8360,7 +8374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A237" s="7">
         <v>45064</v>
       </c>
@@ -8389,7 +8403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A238" s="7">
         <v>45064</v>
       </c>
@@ -8418,7 +8432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A239" s="7">
         <v>45064</v>
       </c>
@@ -8447,7 +8461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A240" s="7">
         <v>45064</v>
       </c>
@@ -8476,7 +8490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A241" s="7">
         <v>45064</v>
       </c>
@@ -8505,7 +8519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A242" s="7">
         <v>45064</v>
       </c>
@@ -8534,7 +8548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A243" s="7">
         <v>45064</v>
       </c>
@@ -8563,7 +8577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A244" s="7">
         <v>45064</v>
       </c>
@@ -8592,7 +8606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A245" s="7">
         <v>45064</v>
       </c>
@@ -8621,7 +8635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A246" s="7">
         <v>45064</v>
       </c>
@@ -8650,7 +8664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A247" s="7">
         <v>45064</v>
       </c>
@@ -8679,7 +8693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A248" s="7">
         <v>45064</v>
       </c>
@@ -8708,7 +8722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A249" s="7">
         <v>45064</v>
       </c>
@@ -8737,7 +8751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A250" s="7">
         <v>45071</v>
       </c>
@@ -8766,7 +8780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A251" s="7">
         <v>45071</v>
       </c>
@@ -8795,7 +8809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A252" s="7">
         <v>45071</v>
       </c>
@@ -8824,7 +8838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A253" s="7">
         <v>45071</v>
       </c>
@@ -8853,7 +8867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A254" s="7">
         <v>45071</v>
       </c>
@@ -8882,7 +8896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A255" s="7">
         <v>45071</v>
       </c>
@@ -8911,7 +8925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A256" s="7">
         <v>45071</v>
       </c>
@@ -8940,7 +8954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A257" s="7">
         <v>45071</v>
       </c>
@@ -8969,7 +8983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A258" s="7">
         <v>45071</v>
       </c>
@@ -8998,7 +9012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A259" s="7">
         <v>45071</v>
       </c>
@@ -9027,7 +9041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A260" s="7">
         <v>45071</v>
       </c>
@@ -9056,7 +9070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A261" s="7">
         <v>45071</v>
       </c>
@@ -9085,7 +9099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A262" s="7">
         <v>45071</v>
       </c>
@@ -9114,7 +9128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A263" s="7">
         <v>45071</v>
       </c>
@@ -9143,7 +9157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A264" s="7">
         <v>45078</v>
       </c>
@@ -9172,7 +9186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A265" s="7">
         <v>45078</v>
       </c>
@@ -9201,7 +9215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A266" s="7">
         <v>45078</v>
       </c>
@@ -9230,7 +9244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A267" s="7">
         <v>45078</v>
       </c>
@@ -9259,7 +9273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A268" s="7">
         <v>45078</v>
       </c>
@@ -9288,7 +9302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A269" s="7">
         <v>45078</v>
       </c>
@@ -9317,7 +9331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A270" s="7">
         <v>45078</v>
       </c>
@@ -9346,7 +9360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A271" s="7">
         <v>45078</v>
       </c>
@@ -9375,7 +9389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A272" s="7">
         <v>45078</v>
       </c>
@@ -9404,7 +9418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A273" s="7">
         <v>45078</v>
       </c>
@@ -9433,7 +9447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A274" s="7">
         <v>45078</v>
       </c>
@@ -9462,7 +9476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A275" s="7">
         <v>45078</v>
       </c>
@@ -9491,7 +9505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A276" s="7">
         <v>45078</v>
       </c>
@@ -9520,7 +9534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A277" s="7">
         <v>45078</v>
       </c>
@@ -9549,7 +9563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A278" s="7">
         <v>45085</v>
       </c>
@@ -9578,7 +9592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A279" s="7">
         <v>45085</v>
       </c>
@@ -9607,7 +9621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A280" s="7">
         <v>45085</v>
       </c>
@@ -9636,7 +9650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A281" s="7">
         <v>45085</v>
       </c>
@@ -9665,7 +9679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A282" s="7">
         <v>45085</v>
       </c>
@@ -9694,7 +9708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A283" s="7">
         <v>45085</v>
       </c>
@@ -9723,7 +9737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A284" s="7">
         <v>45085</v>
       </c>
@@ -9752,7 +9766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A285" s="7">
         <v>45085</v>
       </c>
@@ -9781,7 +9795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A286" s="7">
         <v>45085</v>
       </c>
@@ -9810,7 +9824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A287" s="7">
         <v>45085</v>
       </c>
@@ -9839,7 +9853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A288" s="7">
         <v>45085</v>
       </c>
@@ -9868,7 +9882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A289" s="7">
         <v>45085</v>
       </c>
@@ -9897,7 +9911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A290" s="7">
         <v>45085</v>
       </c>
@@ -9926,7 +9940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A291" s="7">
         <v>45085</v>
       </c>
@@ -9955,7 +9969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A292" s="7">
         <v>45092</v>
       </c>
@@ -9984,7 +9998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A293" s="7">
         <v>45092</v>
       </c>
@@ -10013,7 +10027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A294" s="7">
         <v>45092</v>
       </c>
@@ -10042,7 +10056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A295" s="7">
         <v>45092</v>
       </c>
@@ -10071,7 +10085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A296" s="7">
         <v>45092</v>
       </c>
@@ -10100,7 +10114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A297" s="7">
         <v>45092</v>
       </c>
@@ -10129,7 +10143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A298" s="7">
         <v>45092</v>
       </c>
@@ -10158,7 +10172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A299" s="7">
         <v>45092</v>
       </c>
@@ -10187,7 +10201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A300" s="7">
         <v>45092</v>
       </c>
@@ -10216,7 +10230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A301" s="7">
         <v>45092</v>
       </c>
@@ -10245,7 +10259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A302" s="7">
         <v>45092</v>
       </c>
@@ -10274,7 +10288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A303" s="7">
         <v>45092</v>
       </c>
@@ -10303,7 +10317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A304" s="7">
         <v>45092</v>
       </c>
@@ -10332,7 +10346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A305" s="7">
         <v>45092</v>
       </c>
@@ -10361,7 +10375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A306" s="7">
         <v>45092</v>
       </c>
@@ -10390,7 +10404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A307" s="7">
         <v>45092</v>
       </c>
@@ -10419,7 +10433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A308" s="7">
         <v>45099</v>
       </c>
@@ -10448,7 +10462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A309" s="7">
         <v>45099</v>
       </c>
@@ -10477,7 +10491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A310" s="7">
         <v>45099</v>
       </c>
@@ -10506,7 +10520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A311" s="7">
         <v>45099</v>
       </c>
@@ -10535,7 +10549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A312" s="7">
         <v>45099</v>
       </c>
@@ -10564,7 +10578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A313" s="7">
         <v>45099</v>
       </c>
@@ -10593,7 +10607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A314" s="7">
         <v>45099</v>
       </c>
@@ -10622,7 +10636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A315" s="7">
         <v>45099</v>
       </c>
@@ -10651,7 +10665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A316" s="7">
         <v>45099</v>
       </c>
@@ -10680,7 +10694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A317" s="7">
         <v>45099</v>
       </c>
@@ -10709,7 +10723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A318" s="7">
         <v>45099</v>
       </c>
@@ -10738,7 +10752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A319" s="7">
         <v>45099</v>
       </c>
@@ -10767,7 +10781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A320" s="7">
         <v>45099</v>
       </c>
@@ -10796,7 +10810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A321" s="7">
         <v>45099</v>
       </c>
@@ -10825,7 +10839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A322" s="7">
         <v>45099</v>
       </c>
@@ -10854,7 +10868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A323" s="7">
         <v>45099</v>
       </c>
@@ -10883,7 +10897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A324" s="7">
         <v>45106</v>
       </c>
@@ -10912,7 +10926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A325" s="7">
         <v>45106</v>
       </c>
@@ -10941,7 +10955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A326" s="7">
         <v>45106</v>
       </c>
@@ -10970,7 +10984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A327" s="7">
         <v>45106</v>
       </c>
@@ -10999,7 +11013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A328" s="7">
         <v>45106</v>
       </c>
@@ -11028,7 +11042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A329" s="7">
         <v>45106</v>
       </c>
@@ -11057,7 +11071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A330" s="7">
         <v>45106</v>
       </c>
@@ -11086,7 +11100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A331" s="7">
         <v>45106</v>
       </c>
@@ -11115,7 +11129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A332" s="7">
         <v>45106</v>
       </c>
@@ -11144,7 +11158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A333" s="7">
         <v>45106</v>
       </c>
@@ -11173,7 +11187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A334" s="7">
         <v>45106</v>
       </c>
@@ -11202,7 +11216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A335" s="7">
         <v>45106</v>
       </c>
@@ -11231,7 +11245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A336" s="7">
         <v>45106</v>
       </c>
@@ -11260,7 +11274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A337" s="7">
         <v>45106</v>
       </c>
@@ -11289,7 +11303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A338" s="7">
         <v>45106</v>
       </c>
@@ -11318,7 +11332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A339" s="7">
         <v>45106</v>
       </c>
@@ -11347,7 +11361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A340" s="7">
         <v>45113</v>
       </c>
@@ -11376,7 +11390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A341" s="7">
         <v>45113</v>
       </c>
@@ -11405,7 +11419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A342" s="7">
         <v>45113</v>
       </c>
@@ -11434,7 +11448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A343" s="7">
         <v>45113</v>
       </c>
@@ -11463,7 +11477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A344" s="7">
         <v>45113</v>
       </c>
@@ -11492,7 +11506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A345" s="7">
         <v>45113</v>
       </c>
@@ -11521,7 +11535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A346" s="7">
         <v>45113</v>
       </c>
@@ -11550,7 +11564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A347" s="7">
         <v>45113</v>
       </c>
@@ -11579,7 +11593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A348" s="7">
         <v>45113</v>
       </c>
@@ -11608,7 +11622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A349" s="7">
         <v>45113</v>
       </c>
@@ -11637,7 +11651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A350" s="7">
         <v>45113</v>
       </c>
@@ -11666,7 +11680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A351" s="7">
         <v>45113</v>
       </c>
@@ -11695,7 +11709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A352" s="7">
         <v>45113</v>
       </c>
@@ -11724,7 +11738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A353" s="7">
         <v>45113</v>
       </c>
@@ -11753,7 +11767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A354" s="7">
         <v>45114</v>
       </c>
@@ -11782,7 +11796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A355" s="7">
         <v>45114</v>
       </c>
@@ -11811,7 +11825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A356" s="7">
         <v>45114</v>
       </c>
@@ -11840,7 +11854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A357" s="7">
         <v>45114</v>
       </c>
@@ -11869,7 +11883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A358" s="7">
         <v>45114</v>
       </c>
@@ -11898,7 +11912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A359" s="7">
         <v>45114</v>
       </c>
@@ -11927,7 +11941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A360" s="7">
         <v>45114</v>
       </c>
@@ -11956,7 +11970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A361" s="7">
         <v>45114</v>
       </c>
@@ -11985,7 +11999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A362" s="7">
         <v>45114</v>
       </c>
@@ -12014,7 +12028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A363" s="7">
         <v>45114</v>
       </c>
@@ -12043,7 +12057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A364" s="7">
         <v>45114</v>
       </c>
@@ -12072,7 +12086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A365" s="7">
         <v>45114</v>
       </c>
@@ -12101,7 +12115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A366" s="7">
         <v>45114</v>
       </c>
@@ -12130,7 +12144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A367" s="7">
         <v>45115</v>
       </c>
@@ -12159,7 +12173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A368" s="7">
         <v>45115</v>
       </c>
@@ -12188,7 +12202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A369" s="7">
         <v>45115</v>
       </c>
@@ -12217,7 +12231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A370" s="7">
         <v>45115</v>
       </c>
@@ -12246,7 +12260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A371" s="7">
         <v>45115</v>
       </c>
@@ -12275,7 +12289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A372" s="7">
         <v>45115</v>
       </c>
@@ -12304,7 +12318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A373" s="7">
         <v>45115</v>
       </c>
@@ -12333,7 +12347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A374" s="7">
         <v>45115</v>
       </c>
@@ -12362,7 +12376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A375" s="7">
         <v>45115</v>
       </c>
@@ -12391,7 +12405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A376" s="7">
         <v>45115</v>
       </c>
@@ -12420,7 +12434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A377" s="7">
         <v>45116</v>
       </c>
@@ -12449,7 +12463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A378" s="7">
         <v>45116</v>
       </c>
@@ -12478,7 +12492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A379" s="7">
         <v>45116</v>
       </c>
@@ -12507,7 +12521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A380" s="7">
         <v>45116</v>
       </c>
@@ -12536,7 +12550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A381" s="7">
         <v>45116</v>
       </c>
@@ -12565,7 +12579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A382" s="7">
         <v>45116</v>
       </c>
@@ -12594,7 +12608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A383" s="7">
         <v>45116</v>
       </c>
@@ -12623,7 +12637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A384" s="7">
         <v>45116</v>
       </c>
@@ -12652,7 +12666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A385" s="7">
         <v>45116</v>
       </c>
@@ -12681,7 +12695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A386" s="7">
         <v>45116</v>
       </c>
@@ -12710,7 +12724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A387" s="7">
         <v>45116</v>
       </c>
@@ -12739,7 +12753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A388" s="7">
         <v>45116</v>
       </c>
@@ -12768,7 +12782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A389" s="7">
         <v>45116</v>
       </c>
@@ -12797,7 +12811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A390" s="7">
         <v>45116</v>
       </c>
@@ -12826,7 +12840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A391" s="7">
         <v>45117</v>
       </c>
@@ -12855,7 +12869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A392" s="7">
         <v>45117</v>
       </c>
@@ -12884,7 +12898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A393" s="7">
         <v>45117</v>
       </c>
@@ -12913,7 +12927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A394" s="7">
         <v>45117</v>
       </c>
@@ -12942,7 +12956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A395" s="7">
         <v>45117</v>
       </c>
@@ -12971,7 +12985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A396" s="7">
         <v>45117</v>
       </c>
@@ -13000,7 +13014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A397" s="7">
         <v>45117</v>
       </c>
@@ -13029,7 +13043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A398" s="7">
         <v>45117</v>
       </c>
@@ -13058,7 +13072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A399" s="7">
         <v>45117</v>
       </c>
@@ -13087,7 +13101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A400" s="7">
         <v>45118</v>
       </c>
@@ -13116,7 +13130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A401" s="7">
         <v>45118</v>
       </c>
@@ -13145,7 +13159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A402" s="7">
         <v>45118</v>
       </c>
@@ -13174,7 +13188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A403" s="7">
         <v>45118</v>
       </c>
@@ -13203,7 +13217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A404" s="7">
         <v>45118</v>
       </c>
@@ -13232,7 +13246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A405" s="7">
         <v>45118</v>
       </c>
@@ -13261,7 +13275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A406" s="7">
         <v>45118</v>
       </c>
@@ -13290,7 +13304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A407" s="7">
         <v>45118</v>
       </c>
@@ -13319,7 +13333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A408" s="7">
         <v>45118</v>
       </c>
@@ -13348,7 +13362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A409" s="7">
         <v>45118</v>
       </c>
@@ -13377,7 +13391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A410" s="7">
         <v>45118</v>
       </c>
@@ -13406,7 +13420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A411" s="7">
         <v>45118</v>
       </c>
@@ -13435,7 +13449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A412" s="7">
         <v>45118</v>
       </c>
@@ -13464,7 +13478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A413" s="7">
         <v>45118</v>
       </c>
@@ -13493,7 +13507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A414" s="7">
         <v>45119</v>
       </c>
@@ -13522,7 +13536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A415" s="7">
         <v>45119</v>
       </c>
@@ -13551,7 +13565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A416" s="7">
         <v>45119</v>
       </c>
@@ -13580,7 +13594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A417" s="7">
         <v>45119</v>
       </c>
@@ -13609,7 +13623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A418" s="7">
         <v>45119</v>
       </c>
@@ -13638,7 +13652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A419" s="7">
         <v>45119</v>
       </c>
@@ -13667,7 +13681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A420" s="7">
         <v>45119</v>
       </c>
@@ -13696,7 +13710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A421" s="7">
         <v>45119</v>
       </c>
@@ -13725,7 +13739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A422" s="7">
         <v>45119</v>
       </c>
@@ -13754,9 +13768,457 @@
         <v>0</v>
       </c>
     </row>
+    <row r="423" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A423" s="26">
+        <v>45176</v>
+      </c>
+      <c r="B423" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C423" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D423" s="9">
+        <v>1</v>
+      </c>
+      <c r="E423" s="9">
+        <v>0</v>
+      </c>
+      <c r="F423" s="9">
+        <v>1</v>
+      </c>
+      <c r="G423" s="9">
+        <v>0</v>
+      </c>
+      <c r="H423" s="9">
+        <v>0</v>
+      </c>
+      <c r="I423" s="9">
+        <v>0</v>
+      </c>
+      <c r="J423" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="424" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A424" s="26">
+        <v>45176</v>
+      </c>
+      <c r="B424" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C424" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D424" s="9">
+        <v>3</v>
+      </c>
+      <c r="E424" s="9">
+        <v>0</v>
+      </c>
+      <c r="F424" s="9">
+        <v>0</v>
+      </c>
+      <c r="G424" s="9">
+        <v>0</v>
+      </c>
+      <c r="H424" s="9">
+        <v>0</v>
+      </c>
+      <c r="I424" s="9">
+        <v>0</v>
+      </c>
+      <c r="J424" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="425" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A425" s="26">
+        <v>45176</v>
+      </c>
+      <c r="B425" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C425" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D425" s="9">
+        <v>1</v>
+      </c>
+      <c r="E425" s="9">
+        <v>0</v>
+      </c>
+      <c r="F425" s="9">
+        <v>0</v>
+      </c>
+      <c r="G425" s="9">
+        <v>0</v>
+      </c>
+      <c r="H425" s="9">
+        <v>0</v>
+      </c>
+      <c r="I425" s="9">
+        <v>0</v>
+      </c>
+      <c r="J425" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="426" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A426" s="26">
+        <v>45176</v>
+      </c>
+      <c r="B426" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C426" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D426" s="9">
+        <v>1</v>
+      </c>
+      <c r="E426" s="9">
+        <v>0</v>
+      </c>
+      <c r="F426" s="9">
+        <v>0</v>
+      </c>
+      <c r="G426" s="9">
+        <v>1</v>
+      </c>
+      <c r="H426" s="9">
+        <v>0</v>
+      </c>
+      <c r="I426" s="9">
+        <v>0</v>
+      </c>
+      <c r="J426" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="427" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A427" s="26">
+        <v>45176</v>
+      </c>
+      <c r="B427" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C427" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D427" s="9">
+        <v>0</v>
+      </c>
+      <c r="E427" s="9">
+        <v>0</v>
+      </c>
+      <c r="F427" s="9">
+        <v>0</v>
+      </c>
+      <c r="G427" s="9">
+        <v>0</v>
+      </c>
+      <c r="H427" s="9">
+        <v>0</v>
+      </c>
+      <c r="I427" s="9">
+        <v>0</v>
+      </c>
+      <c r="J427" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="428" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A428" s="26">
+        <v>45176</v>
+      </c>
+      <c r="B428" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C428" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D428" s="9">
+        <v>2</v>
+      </c>
+      <c r="E428" s="9">
+        <v>0</v>
+      </c>
+      <c r="F428" s="9">
+        <v>0</v>
+      </c>
+      <c r="G428" s="9">
+        <v>0</v>
+      </c>
+      <c r="H428" s="9">
+        <v>0</v>
+      </c>
+      <c r="I428" s="9">
+        <v>0</v>
+      </c>
+      <c r="J428" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="429" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A429" s="26">
+        <v>45176</v>
+      </c>
+      <c r="B429" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C429" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D429" s="9">
+        <v>2</v>
+      </c>
+      <c r="E429" s="9">
+        <v>0</v>
+      </c>
+      <c r="F429" s="9">
+        <v>0</v>
+      </c>
+      <c r="G429" s="9">
+        <v>0</v>
+      </c>
+      <c r="H429" s="9">
+        <v>0</v>
+      </c>
+      <c r="I429" s="9">
+        <v>0</v>
+      </c>
+      <c r="J429" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="430" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A430" s="26">
+        <v>45176</v>
+      </c>
+      <c r="B430" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C430" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D430" s="9">
+        <v>2</v>
+      </c>
+      <c r="E430" s="9">
+        <v>0</v>
+      </c>
+      <c r="F430" s="9">
+        <v>0</v>
+      </c>
+      <c r="G430" s="9">
+        <v>0</v>
+      </c>
+      <c r="H430" s="9">
+        <v>0</v>
+      </c>
+      <c r="I430" s="9">
+        <v>0</v>
+      </c>
+      <c r="J430" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="431" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A431" s="26">
+        <v>45176</v>
+      </c>
+      <c r="B431" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C431" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D431" s="9">
+        <v>0</v>
+      </c>
+      <c r="E431" s="9">
+        <v>0</v>
+      </c>
+      <c r="F431" s="9">
+        <v>0</v>
+      </c>
+      <c r="G431" s="9">
+        <v>0</v>
+      </c>
+      <c r="H431" s="9">
+        <v>0</v>
+      </c>
+      <c r="I431" s="9">
+        <v>0</v>
+      </c>
+      <c r="J431" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="432" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A432" s="26">
+        <v>45176</v>
+      </c>
+      <c r="B432" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C432" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D432" s="9">
+        <v>0</v>
+      </c>
+      <c r="E432" s="9">
+        <v>0</v>
+      </c>
+      <c r="F432" s="9">
+        <v>0</v>
+      </c>
+      <c r="G432" s="9">
+        <v>0</v>
+      </c>
+      <c r="H432" s="9">
+        <v>0</v>
+      </c>
+      <c r="I432" s="9">
+        <v>0</v>
+      </c>
+      <c r="J432" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="433" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A433" s="26">
+        <v>45176</v>
+      </c>
+      <c r="B433" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C433" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D433" s="9">
+        <v>0</v>
+      </c>
+      <c r="E433" s="9">
+        <v>0</v>
+      </c>
+      <c r="F433" s="9">
+        <v>0</v>
+      </c>
+      <c r="G433" s="9">
+        <v>0</v>
+      </c>
+      <c r="H433" s="9">
+        <v>0</v>
+      </c>
+      <c r="I433" s="9">
+        <v>0</v>
+      </c>
+      <c r="J433" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="434" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A434" s="26">
+        <v>45176</v>
+      </c>
+      <c r="B434" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C434" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D434" s="9">
+        <v>0</v>
+      </c>
+      <c r="E434" s="9">
+        <v>0</v>
+      </c>
+      <c r="F434" s="9">
+        <v>0</v>
+      </c>
+      <c r="G434" s="9">
+        <v>0</v>
+      </c>
+      <c r="H434" s="9">
+        <v>0</v>
+      </c>
+      <c r="I434" s="9">
+        <v>0</v>
+      </c>
+      <c r="J434" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="435" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A435" s="26">
+        <v>45176</v>
+      </c>
+      <c r="B435" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C435" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D435" s="9">
+        <v>3</v>
+      </c>
+      <c r="E435" s="9">
+        <v>0</v>
+      </c>
+      <c r="F435" s="9">
+        <v>0</v>
+      </c>
+      <c r="G435" s="9">
+        <v>0</v>
+      </c>
+      <c r="H435" s="9">
+        <v>0</v>
+      </c>
+      <c r="I435" s="9">
+        <v>0</v>
+      </c>
+      <c r="J435" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="436" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A436" s="26">
+        <v>45176</v>
+      </c>
+      <c r="B436" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C436" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D436" s="9">
+        <v>1</v>
+      </c>
+      <c r="E436" s="9">
+        <v>0</v>
+      </c>
+      <c r="F436" s="9">
+        <v>0</v>
+      </c>
+      <c r="G436" s="9">
+        <v>0</v>
+      </c>
+      <c r="H436" s="9">
+        <v>0</v>
+      </c>
+      <c r="I436" s="9">
+        <v>0</v>
+      </c>
+      <c r="J436" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J422" xr:uid="{F55E8A24-46F9-4225-A2C2-A9164F13364A}"/>
-  <conditionalFormatting sqref="C2:C422">
+  <conditionalFormatting sqref="C2:C436">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Scuri"</formula>
     </cfRule>
@@ -13765,13 +14227,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H422 D2:E422" xr:uid="{A2364708-0661-4544-87F1-D3FDEABF18B6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H436 D2:E436" xr:uid="{A2364708-0661-4544-87F1-D3FDEABF18B6}">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I422" xr:uid="{3C35827F-D598-4F40-B064-7FA732E53B67}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I436" xr:uid="{3C35827F-D598-4F40-B064-7FA732E53B67}">
       <formula1>"0, 1, 2, 3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G422" xr:uid="{2FE2E49C-6CC7-4B84-9D73-A960B8BAAF9A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G436" xr:uid="{2FE2E49C-6CC7-4B84-9D73-A960B8BAAF9A}">
       <formula1>"0, 1"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13797,18 +14259,18 @@
   <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66:F68"/>
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="25.54296875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.5703125" style="20"/>
-    <col min="3" max="5" width="25.5703125" style="22"/>
-    <col min="6" max="6" width="25.5703125" style="20"/>
-    <col min="7" max="16384" width="25.5703125" style="17"/>
+    <col min="1" max="2" width="25.54296875" style="20"/>
+    <col min="3" max="5" width="25.54296875" style="22"/>
+    <col min="6" max="6" width="25.54296875" style="20"/>
+    <col min="7" max="16384" width="25.54296875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>16</v>
       </c>
@@ -13828,7 +14290,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>74</v>
       </c>
@@ -13848,7 +14310,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>58</v>
       </c>
@@ -13868,7 +14330,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>68</v>
       </c>
@@ -13886,7 +14348,7 @@
       </c>
       <c r="F4" s="19"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>42</v>
       </c>
@@ -13904,7 +14366,7 @@
       </c>
       <c r="F5" s="19"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>71</v>
       </c>
@@ -13924,7 +14386,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>70</v>
       </c>
@@ -13942,7 +14404,7 @@
       </c>
       <c r="F7" s="19"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>78</v>
       </c>
@@ -13960,7 +14422,7 @@
       </c>
       <c r="F8" s="19"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
         <v>21</v>
       </c>
@@ -13978,7 +14440,7 @@
       </c>
       <c r="F9" s="19"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>80</v>
       </c>
@@ -13996,7 +14458,7 @@
       </c>
       <c r="F10" s="19"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
         <v>39</v>
       </c>
@@ -14014,7 +14476,7 @@
       </c>
       <c r="F11" s="19"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="19" t="s">
         <v>64</v>
       </c>
@@ -14032,7 +14494,7 @@
       </c>
       <c r="F12" s="19"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
         <v>31</v>
       </c>
@@ -14050,7 +14512,7 @@
       </c>
       <c r="F13" s="19"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
         <v>28</v>
       </c>
@@ -14068,7 +14530,7 @@
       </c>
       <c r="F14" s="19"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
         <v>73</v>
       </c>
@@ -14086,7 +14548,7 @@
       </c>
       <c r="F15" s="19"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
         <v>110</v>
       </c>
@@ -14106,7 +14568,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="19" t="s">
         <v>52</v>
       </c>
@@ -14126,7 +14588,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="19" t="s">
         <v>33</v>
       </c>
@@ -14144,7 +14606,7 @@
       </c>
       <c r="F18" s="19"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="19" t="s">
         <v>94</v>
       </c>
@@ -14162,7 +14624,7 @@
       </c>
       <c r="F19" s="19"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="19" t="s">
         <v>95</v>
       </c>
@@ -14182,7 +14644,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="19" t="s">
         <v>57</v>
       </c>
@@ -14202,7 +14664,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="19" t="s">
         <v>79</v>
       </c>
@@ -14220,7 +14682,7 @@
       </c>
       <c r="F22" s="19"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="19" t="s">
         <v>96</v>
       </c>
@@ -14240,7 +14702,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="19" t="s">
         <v>43</v>
       </c>
@@ -14258,7 +14720,7 @@
       </c>
       <c r="F24" s="19"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="19" t="s">
         <v>51</v>
       </c>
@@ -14278,7 +14740,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="19" t="s">
         <v>29</v>
       </c>
@@ -14296,7 +14758,7 @@
       </c>
       <c r="F26" s="19"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="19" t="s">
         <v>38</v>
       </c>
@@ -14314,7 +14776,7 @@
       </c>
       <c r="F27" s="19"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="19" t="s">
         <v>99</v>
       </c>
@@ -14334,7 +14796,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="19" t="s">
         <v>35</v>
       </c>
@@ -14352,7 +14814,7 @@
       </c>
       <c r="F29" s="19"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="19" t="s">
         <v>41</v>
       </c>
@@ -14370,7 +14832,7 @@
       </c>
       <c r="F30" s="19"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="19" t="s">
         <v>47</v>
       </c>
@@ -14388,7 +14850,7 @@
       </c>
       <c r="F31" s="19"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="18" t="s">
         <v>72</v>
       </c>
@@ -14408,7 +14870,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="19" t="s">
         <v>49</v>
       </c>
@@ -14426,7 +14888,7 @@
       </c>
       <c r="F33" s="19"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="19" t="s">
         <v>36</v>
       </c>
@@ -14444,7 +14906,7 @@
       </c>
       <c r="F34" s="19"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="19" t="s">
         <v>56</v>
       </c>
@@ -14464,7 +14926,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="19" t="s">
         <v>32</v>
       </c>
@@ -14482,7 +14944,7 @@
       </c>
       <c r="F36" s="19"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="19" t="s">
         <v>55</v>
       </c>
@@ -14502,7 +14964,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="18" t="s">
         <v>66</v>
       </c>
@@ -14520,7 +14982,7 @@
       </c>
       <c r="F38" s="19"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="19" t="s">
         <v>44</v>
       </c>
@@ -14538,7 +15000,7 @@
       </c>
       <c r="F39" s="19"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="19" t="s">
         <v>50</v>
       </c>
@@ -14558,7 +15020,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="19" t="s">
         <v>61</v>
       </c>
@@ -14578,7 +15040,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="19" t="s">
         <v>63</v>
       </c>
@@ -14596,7 +15058,7 @@
       </c>
       <c r="F42" s="19"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="19" t="s">
         <v>23</v>
       </c>
@@ -14614,7 +15076,7 @@
       </c>
       <c r="F43" s="19"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="18" t="s">
         <v>60</v>
       </c>
@@ -14632,7 +15094,7 @@
       </c>
       <c r="F44" s="19"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="19" t="s">
         <v>25</v>
       </c>
@@ -14650,7 +15112,7 @@
       </c>
       <c r="F45" s="19"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="18" t="s">
         <v>69</v>
       </c>
@@ -14670,7 +15132,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="19" t="s">
         <v>53</v>
       </c>
@@ -14690,7 +15152,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="19" t="s">
         <v>76</v>
       </c>
@@ -14708,7 +15170,7 @@
       </c>
       <c r="F48" s="19"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="19" t="s">
         <v>62</v>
       </c>
@@ -14726,7 +15188,7 @@
       </c>
       <c r="F49" s="19"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="19" t="s">
         <v>26</v>
       </c>
@@ -14744,7 +15206,7 @@
       </c>
       <c r="F50" s="19"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="19" t="s">
         <v>48</v>
       </c>
@@ -14762,7 +15224,7 @@
       </c>
       <c r="F51" s="19"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="19" t="s">
         <v>54</v>
       </c>
@@ -14780,7 +15242,7 @@
       </c>
       <c r="F52" s="19"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="18" t="s">
         <v>67</v>
       </c>
@@ -14798,7 +15260,7 @@
       </c>
       <c r="F53" s="19"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="19" t="s">
         <v>24</v>
       </c>
@@ -14816,7 +15278,7 @@
       </c>
       <c r="F54" s="19"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="19" t="s">
         <v>46</v>
       </c>
@@ -14836,7 +15298,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="18" t="s">
         <v>59</v>
       </c>
@@ -14854,7 +15316,7 @@
       </c>
       <c r="F56" s="19"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="19" t="s">
         <v>103</v>
       </c>
@@ -14872,7 +15334,7 @@
       </c>
       <c r="F57" s="19"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="19" t="s">
         <v>40</v>
       </c>
@@ -14892,7 +15354,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="19" t="s">
         <v>27</v>
       </c>
@@ -14910,7 +15372,7 @@
       </c>
       <c r="F59" s="19"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="19" t="s">
         <v>45</v>
       </c>
@@ -14928,7 +15390,7 @@
       </c>
       <c r="F60" s="19"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="19" t="s">
         <v>104</v>
       </c>
@@ -14948,7 +15410,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="19" t="s">
         <v>105</v>
       </c>
@@ -14968,7 +15430,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="19" t="s">
         <v>77</v>
       </c>
@@ -14986,7 +15448,7 @@
       </c>
       <c r="F63" s="19"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="19" t="s">
         <v>34</v>
       </c>
@@ -15004,7 +15466,7 @@
       </c>
       <c r="F64" s="19"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="19" t="s">
         <v>75</v>
       </c>
@@ -15022,7 +15484,7 @@
       </c>
       <c r="F65" s="19"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="19" t="s">
         <v>65</v>
       </c>
@@ -15040,7 +15502,7 @@
       </c>
       <c r="F66" s="19"/>
     </row>
-    <row r="67" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A67" s="8" t="s">
         <v>111</v>
       </c>
@@ -15058,7 +15520,7 @@
       </c>
       <c r="F67" s="19"/>
     </row>
-    <row r="68" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A68" s="8" t="s">
         <v>112</v>
       </c>
@@ -15093,42 +15555,42 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
         <v>88</v>
       </c>

--- a/Input/FantaSPL_Milano.xlsx
+++ b/Input/FantaSPL_Milano.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Local_Docs\Admin\Other\Kit\SPL\SPL_v_0.2\SPL_Regional\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0547C8-1913-4015-96A0-9B3F53793E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E544EB5E-E919-4986-91E4-E738E18D3B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{05F018D4-855F-4570-8D15-9B4DD092A228}"/>
   </bookViews>
@@ -1505,7 +1505,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A415" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L432" sqref="L432"/>
+      <selection pane="bottomLeft" activeCell="G424" sqref="G424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -13820,7 +13820,7 @@
         <v>0</v>
       </c>
       <c r="G424" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H424" s="9">
         <v>0</v>
@@ -13884,7 +13884,7 @@
         <v>0</v>
       </c>
       <c r="G426" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H426" s="9">
         <v>0</v>

--- a/Input/FantaSPL_Milano.xlsx
+++ b/Input/FantaSPL_Milano.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Local_Docs\Admin\Other\Kit\SPL\SPL_v_0.2\SPL_Regional\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E544EB5E-E919-4986-91E4-E738E18D3B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD41BF4B-C2B6-427E-9B0B-DE6D847C8507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{05F018D4-855F-4570-8D15-9B4DD092A228}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{05F018D4-855F-4570-8D15-9B4DD092A228}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="11" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="114">
   <si>
     <t>Parameter</t>
   </si>
@@ -383,6 +383,9 @@
   </si>
   <si>
     <t>Gian Pareo</t>
+  </si>
+  <si>
+    <t>Rocco</t>
   </si>
 </sst>
 </file>
@@ -944,14 +947,14 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -965,7 +968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>4</v>
       </c>
@@ -979,7 +982,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>5</v>
       </c>
@@ -993,7 +996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>109</v>
       </c>
@@ -1007,7 +1010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>6</v>
       </c>
@@ -1021,7 +1024,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>7</v>
       </c>
@@ -1035,7 +1038,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>8</v>
       </c>
@@ -1049,7 +1052,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>9</v>
       </c>
@@ -1063,7 +1066,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>10</v>
       </c>
@@ -1077,7 +1080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>11</v>
       </c>
@@ -1091,7 +1094,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>20</v>
       </c>
@@ -1105,7 +1108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>107</v>
       </c>
@@ -1119,7 +1122,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
         <v>12</v>
       </c>
@@ -1141,19 +1144,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A29AA2D-3F32-45F2-B719-A1F62E0F1A5F}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="17.1796875" style="1"/>
+    <col min="1" max="3" width="17.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>13</v>
       </c>
@@ -1164,7 +1167,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>44938</v>
       </c>
@@ -1175,7 +1178,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>44945</v>
       </c>
@@ -1186,7 +1189,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>44952</v>
       </c>
@@ -1197,7 +1200,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>44959</v>
       </c>
@@ -1208,7 +1211,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>44966</v>
       </c>
@@ -1219,7 +1222,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>44980</v>
       </c>
@@ -1230,7 +1233,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>44987</v>
       </c>
@@ -1241,7 +1244,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>44994</v>
       </c>
@@ -1252,7 +1255,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>45001</v>
       </c>
@@ -1263,7 +1266,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>45008</v>
       </c>
@@ -1274,7 +1277,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>45015</v>
       </c>
@@ -1285,7 +1288,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>45022</v>
       </c>
@@ -1296,7 +1299,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>45030</v>
       </c>
@@ -1307,7 +1310,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>45050</v>
       </c>
@@ -1318,7 +1321,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>45057</v>
       </c>
@@ -1329,7 +1332,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>45064</v>
       </c>
@@ -1340,7 +1343,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>45071</v>
       </c>
@@ -1351,7 +1354,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>45078</v>
       </c>
@@ -1362,7 +1365,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>45085</v>
       </c>
@@ -1373,7 +1376,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>45092</v>
       </c>
@@ -1384,7 +1387,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>45099</v>
       </c>
@@ -1395,7 +1398,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>45106</v>
       </c>
@@ -1406,7 +1409,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>45113</v>
       </c>
@@ -1417,7 +1420,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>45114</v>
       </c>
@@ -1428,7 +1431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>45115</v>
       </c>
@@ -1439,7 +1442,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>45116</v>
       </c>
@@ -1450,7 +1453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>45117</v>
       </c>
@@ -1461,7 +1464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>45118</v>
       </c>
@@ -1472,7 +1475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>45119</v>
       </c>
@@ -1483,7 +1486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="26">
         <v>45176</v>
       </c>
@@ -1492,6 +1495,17 @@
       </c>
       <c r="C31" s="1">
         <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="26">
+        <v>45183</v>
+      </c>
+      <c r="B32" s="1">
+        <v>10</v>
+      </c>
+      <c r="C32" s="1">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1501,27 +1515,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F55E8A24-46F9-4225-A2C2-A9164F13364A}">
-  <dimension ref="A1:J436"/>
+  <dimension ref="A1:J450"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A415" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G424" sqref="G424"/>
+      <selection pane="bottomLeft" activeCell="A437" sqref="A437:J450"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="17.1796875" style="3"/>
+    <col min="8" max="8" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="17.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
@@ -1553,7 +1567,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>44938</v>
       </c>
@@ -1582,7 +1596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>44938</v>
       </c>
@@ -1614,7 +1628,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>44938</v>
       </c>
@@ -1643,7 +1657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>44938</v>
       </c>
@@ -1672,7 +1686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>44938</v>
       </c>
@@ -1701,7 +1715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>44938</v>
       </c>
@@ -1730,7 +1744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>44938</v>
       </c>
@@ -1759,7 +1773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>44938</v>
       </c>
@@ -1788,7 +1802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>44938</v>
       </c>
@@ -1817,7 +1831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>44938</v>
       </c>
@@ -1846,7 +1860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>44938</v>
       </c>
@@ -1875,7 +1889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>44938</v>
       </c>
@@ -1904,7 +1918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>44938</v>
       </c>
@@ -1933,7 +1947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>44938</v>
       </c>
@@ -1962,7 +1976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>44945</v>
       </c>
@@ -1991,7 +2005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>44945</v>
       </c>
@@ -2020,7 +2034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>44945</v>
       </c>
@@ -2049,7 +2063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>44945</v>
       </c>
@@ -2078,7 +2092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>44945</v>
       </c>
@@ -2107,7 +2121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>44945</v>
       </c>
@@ -2136,7 +2150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>44945</v>
       </c>
@@ -2165,7 +2179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>44945</v>
       </c>
@@ -2194,7 +2208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>44945</v>
       </c>
@@ -2223,7 +2237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>44945</v>
       </c>
@@ -2252,7 +2266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>44945</v>
       </c>
@@ -2281,7 +2295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>44945</v>
       </c>
@@ -2310,7 +2324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>44945</v>
       </c>
@@ -2339,7 +2353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>44945</v>
       </c>
@@ -2368,7 +2382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>44945</v>
       </c>
@@ -2397,7 +2411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>44945</v>
       </c>
@@ -2426,7 +2440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>44945</v>
       </c>
@@ -2455,7 +2469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>44945</v>
       </c>
@@ -2484,7 +2498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>44945</v>
       </c>
@@ -2513,7 +2527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>44945</v>
       </c>
@@ -2545,7 +2559,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>44945</v>
       </c>
@@ -2574,7 +2588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>44945</v>
       </c>
@@ -2603,7 +2617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>44952</v>
       </c>
@@ -2632,7 +2646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>44952</v>
       </c>
@@ -2661,7 +2675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>44952</v>
       </c>
@@ -2690,7 +2704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>44952</v>
       </c>
@@ -2719,7 +2733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>44952</v>
       </c>
@@ -2748,7 +2762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>44952</v>
       </c>
@@ -2777,7 +2791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>44952</v>
       </c>
@@ -2806,7 +2820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>44952</v>
       </c>
@@ -2835,7 +2849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>44952</v>
       </c>
@@ -2864,7 +2878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>44952</v>
       </c>
@@ -2893,7 +2907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>44952</v>
       </c>
@@ -2922,7 +2936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>44952</v>
       </c>
@@ -2951,7 +2965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>44952</v>
       </c>
@@ -2980,7 +2994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <v>44952</v>
       </c>
@@ -3009,7 +3023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
         <v>44952</v>
       </c>
@@ -3038,7 +3052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>44952</v>
       </c>
@@ -3067,7 +3081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <v>44959</v>
       </c>
@@ -3096,7 +3110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>44959</v>
       </c>
@@ -3125,7 +3139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
         <v>44959</v>
       </c>
@@ -3154,7 +3168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <v>44959</v>
       </c>
@@ -3183,7 +3197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="7">
         <v>44959</v>
       </c>
@@ -3212,7 +3226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
         <v>44959</v>
       </c>
@@ -3241,7 +3255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="7">
         <v>44959</v>
       </c>
@@ -3270,7 +3284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
         <v>44959</v>
       </c>
@@ -3299,7 +3313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="7">
         <v>44959</v>
       </c>
@@ -3328,7 +3342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="7">
         <v>44959</v>
       </c>
@@ -3357,7 +3371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="7">
         <v>44959</v>
       </c>
@@ -3386,7 +3400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="7">
         <v>44959</v>
       </c>
@@ -3415,7 +3429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="7">
         <v>44959</v>
       </c>
@@ -3444,7 +3458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="7">
         <v>44959</v>
       </c>
@@ -3473,7 +3487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="7">
         <v>44966</v>
       </c>
@@ -3502,7 +3516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="7">
         <v>44966</v>
       </c>
@@ -3531,7 +3545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="7">
         <v>44966</v>
       </c>
@@ -3560,7 +3574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="7">
         <v>44966</v>
       </c>
@@ -3589,7 +3603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="7">
         <v>44966</v>
       </c>
@@ -3618,7 +3632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="7">
         <v>44966</v>
       </c>
@@ -3647,7 +3661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="7">
         <v>44966</v>
       </c>
@@ -3676,7 +3690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="7">
         <v>44966</v>
       </c>
@@ -3705,7 +3719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="7">
         <v>44966</v>
       </c>
@@ -3734,7 +3748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="7">
         <v>44966</v>
       </c>
@@ -3763,7 +3777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="7">
         <v>44966</v>
       </c>
@@ -3792,7 +3806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="7">
         <v>44966</v>
       </c>
@@ -3821,7 +3835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="7">
         <v>44966</v>
       </c>
@@ -3850,7 +3864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="7">
         <v>44966</v>
       </c>
@@ -3879,7 +3893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="7">
         <v>44980</v>
       </c>
@@ -3908,7 +3922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="7">
         <v>44980</v>
       </c>
@@ -3937,7 +3951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="7">
         <v>44980</v>
       </c>
@@ -3966,7 +3980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="7">
         <v>44980</v>
       </c>
@@ -3995,7 +4009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="7">
         <v>44980</v>
       </c>
@@ -4024,7 +4038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="7">
         <v>44980</v>
       </c>
@@ -4053,7 +4067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="7">
         <v>44980</v>
       </c>
@@ -4082,7 +4096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="7">
         <v>44980</v>
       </c>
@@ -4111,7 +4125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="7">
         <v>44980</v>
       </c>
@@ -4140,7 +4154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="7">
         <v>44980</v>
       </c>
@@ -4169,7 +4183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="7">
         <v>44980</v>
       </c>
@@ -4198,7 +4212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="7">
         <v>44980</v>
       </c>
@@ -4227,7 +4241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="7">
         <v>44980</v>
       </c>
@@ -4256,7 +4270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="7">
         <v>44980</v>
       </c>
@@ -4285,7 +4299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="7">
         <v>44980</v>
       </c>
@@ -4314,7 +4328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="7">
         <v>44980</v>
       </c>
@@ -4343,7 +4357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="7">
         <v>44987</v>
       </c>
@@ -4372,7 +4386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="7">
         <v>44987</v>
       </c>
@@ -4401,7 +4415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="7">
         <v>44987</v>
       </c>
@@ -4430,7 +4444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="7">
         <v>44987</v>
       </c>
@@ -4459,7 +4473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="7">
         <v>44987</v>
       </c>
@@ -4488,7 +4502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="7">
         <v>44987</v>
       </c>
@@ -4517,7 +4531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="7">
         <v>44987</v>
       </c>
@@ -4546,7 +4560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="7">
         <v>44987</v>
       </c>
@@ -4575,7 +4589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="7">
         <v>44987</v>
       </c>
@@ -4604,7 +4618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="7">
         <v>44987</v>
       </c>
@@ -4633,7 +4647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="7">
         <v>44987</v>
       </c>
@@ -4662,7 +4676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="7">
         <v>44987</v>
       </c>
@@ -4691,7 +4705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="7">
         <v>44987</v>
       </c>
@@ -4720,7 +4734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="7">
         <v>44987</v>
       </c>
@@ -4749,7 +4763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="7">
         <v>44994</v>
       </c>
@@ -4778,7 +4792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="7">
         <v>44994</v>
       </c>
@@ -4807,7 +4821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="7">
         <v>44994</v>
       </c>
@@ -4836,7 +4850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="7">
         <v>44994</v>
       </c>
@@ -4865,7 +4879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="7">
         <v>44994</v>
       </c>
@@ -4894,7 +4908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="7">
         <v>44994</v>
       </c>
@@ -4923,7 +4937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="7">
         <v>44994</v>
       </c>
@@ -4952,7 +4966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="7">
         <v>44994</v>
       </c>
@@ -4981,7 +4995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="7">
         <v>44994</v>
       </c>
@@ -5010,7 +5024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="7">
         <v>44994</v>
       </c>
@@ -5039,7 +5053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="7">
         <v>44994</v>
       </c>
@@ -5068,7 +5082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="7">
         <v>44994</v>
       </c>
@@ -5097,7 +5111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="7">
         <v>44994</v>
       </c>
@@ -5126,7 +5140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="7">
         <v>44994</v>
       </c>
@@ -5155,7 +5169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="7">
         <v>45001</v>
       </c>
@@ -5184,7 +5198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="7">
         <v>45001</v>
       </c>
@@ -5213,7 +5227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="7">
         <v>45001</v>
       </c>
@@ -5242,7 +5256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="7">
         <v>45001</v>
       </c>
@@ -5271,7 +5285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="7">
         <v>45001</v>
       </c>
@@ -5300,7 +5314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="7">
         <v>45001</v>
       </c>
@@ -5329,7 +5343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="7">
         <v>45001</v>
       </c>
@@ -5358,7 +5372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="7">
         <v>45001</v>
       </c>
@@ -5387,7 +5401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="7">
         <v>45001</v>
       </c>
@@ -5416,7 +5430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="7">
         <v>45001</v>
       </c>
@@ -5445,7 +5459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="7">
         <v>45001</v>
       </c>
@@ -5474,7 +5488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="7">
         <v>45001</v>
       </c>
@@ -5503,7 +5517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="7">
         <v>45001</v>
       </c>
@@ -5532,7 +5546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="7">
         <v>45001</v>
       </c>
@@ -5561,7 +5575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="7">
         <v>45008</v>
       </c>
@@ -5590,7 +5604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="7">
         <v>45008</v>
       </c>
@@ -5619,7 +5633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="7">
         <v>45008</v>
       </c>
@@ -5648,7 +5662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="7">
         <v>45008</v>
       </c>
@@ -5677,7 +5691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="7">
         <v>45008</v>
       </c>
@@ -5706,7 +5720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="7">
         <v>45008</v>
       </c>
@@ -5735,7 +5749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="7">
         <v>45008</v>
       </c>
@@ -5764,7 +5778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="7">
         <v>45008</v>
       </c>
@@ -5793,7 +5807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="7">
         <v>45008</v>
       </c>
@@ -5822,7 +5836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="7">
         <v>45008</v>
       </c>
@@ -5851,7 +5865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="7">
         <v>45008</v>
       </c>
@@ -5880,7 +5894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="7">
         <v>45008</v>
       </c>
@@ -5909,7 +5923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="7">
         <v>45008</v>
       </c>
@@ -5938,7 +5952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="7">
         <v>45008</v>
       </c>
@@ -5967,7 +5981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="7">
         <v>45015</v>
       </c>
@@ -5996,7 +6010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="7">
         <v>45015</v>
       </c>
@@ -6025,7 +6039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="7">
         <v>45015</v>
       </c>
@@ -6054,7 +6068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="7">
         <v>45015</v>
       </c>
@@ -6083,7 +6097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="7">
         <v>45015</v>
       </c>
@@ -6112,7 +6126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="7">
         <v>45015</v>
       </c>
@@ -6141,7 +6155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="7">
         <v>45015</v>
       </c>
@@ -6170,7 +6184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="7">
         <v>45015</v>
       </c>
@@ -6199,7 +6213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="7">
         <v>45015</v>
       </c>
@@ -6228,7 +6242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="7">
         <v>45015</v>
       </c>
@@ -6257,7 +6271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="7">
         <v>45015</v>
       </c>
@@ -6286,7 +6300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="7">
         <v>45015</v>
       </c>
@@ -6315,7 +6329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="7">
         <v>45015</v>
       </c>
@@ -6344,7 +6358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="7">
         <v>45015</v>
       </c>
@@ -6373,7 +6387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="7">
         <v>45022</v>
       </c>
@@ -6402,7 +6416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="7">
         <v>45022</v>
       </c>
@@ -6431,7 +6445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="7">
         <v>45022</v>
       </c>
@@ -6460,7 +6474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="7">
         <v>45022</v>
       </c>
@@ -6489,7 +6503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="7">
         <v>45022</v>
       </c>
@@ -6518,7 +6532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="7">
         <v>45022</v>
       </c>
@@ -6547,7 +6561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="7">
         <v>45022</v>
       </c>
@@ -6576,7 +6590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="7">
         <v>45022</v>
       </c>
@@ -6605,7 +6619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="7">
         <v>45022</v>
       </c>
@@ -6634,7 +6648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="7">
         <v>45022</v>
       </c>
@@ -6663,7 +6677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="7">
         <v>45022</v>
       </c>
@@ -6692,7 +6706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="7">
         <v>45022</v>
       </c>
@@ -6721,7 +6735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="7">
         <v>45022</v>
       </c>
@@ -6750,7 +6764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="7">
         <v>45022</v>
       </c>
@@ -6779,7 +6793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="7">
         <v>45030</v>
       </c>
@@ -6808,7 +6822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="7">
         <v>45030</v>
       </c>
@@ -6837,7 +6851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="7">
         <v>45030</v>
       </c>
@@ -6866,7 +6880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="7">
         <v>45030</v>
       </c>
@@ -6895,7 +6909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="7">
         <v>45030</v>
       </c>
@@ -6924,7 +6938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="7">
         <v>45030</v>
       </c>
@@ -6953,7 +6967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="7">
         <v>45030</v>
       </c>
@@ -6982,7 +6996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="7">
         <v>45030</v>
       </c>
@@ -7011,7 +7025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="7">
         <v>45030</v>
       </c>
@@ -7040,7 +7054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="7">
         <v>45030</v>
       </c>
@@ -7069,7 +7083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="7">
         <v>45030</v>
       </c>
@@ -7098,7 +7112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="7">
         <v>45030</v>
       </c>
@@ -7127,7 +7141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="7">
         <v>45030</v>
       </c>
@@ -7156,7 +7170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="7">
         <v>45030</v>
       </c>
@@ -7185,7 +7199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="7">
         <v>45030</v>
       </c>
@@ -7214,7 +7228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="7">
         <v>45030</v>
       </c>
@@ -7243,7 +7257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="7">
         <v>45030</v>
       </c>
@@ -7272,7 +7286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="7">
         <v>45030</v>
       </c>
@@ -7301,7 +7315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="7">
         <v>45030</v>
       </c>
@@ -7330,7 +7344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="7">
         <v>45030</v>
       </c>
@@ -7359,7 +7373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="7">
         <v>45030</v>
       </c>
@@ -7388,7 +7402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="7">
         <v>45030</v>
       </c>
@@ -7417,7 +7431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="7">
         <v>45050</v>
       </c>
@@ -7446,7 +7460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="7">
         <v>45050</v>
       </c>
@@ -7475,7 +7489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="7">
         <v>45050</v>
       </c>
@@ -7504,7 +7518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="7">
         <v>45050</v>
       </c>
@@ -7533,7 +7547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="7">
         <v>45050</v>
       </c>
@@ -7562,7 +7576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="7">
         <v>45050</v>
       </c>
@@ -7591,7 +7605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="7">
         <v>45050</v>
       </c>
@@ -7620,7 +7634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="7">
         <v>45050</v>
       </c>
@@ -7649,7 +7663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="7">
         <v>45050</v>
       </c>
@@ -7678,7 +7692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="7">
         <v>45050</v>
       </c>
@@ -7707,7 +7721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="7">
         <v>45050</v>
       </c>
@@ -7736,7 +7750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="7">
         <v>45050</v>
       </c>
@@ -7765,7 +7779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="7">
         <v>45050</v>
       </c>
@@ -7794,7 +7808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="7">
         <v>45050</v>
       </c>
@@ -7823,7 +7837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="7">
         <v>45050</v>
       </c>
@@ -7852,7 +7866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="7">
         <v>45050</v>
       </c>
@@ -7881,7 +7895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="7">
         <v>45057</v>
       </c>
@@ -7910,7 +7924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="7">
         <v>45057</v>
       </c>
@@ -7939,7 +7953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="7">
         <v>45057</v>
       </c>
@@ -7968,7 +7982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="7">
         <v>45057</v>
       </c>
@@ -7997,7 +8011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="7">
         <v>45057</v>
       </c>
@@ -8026,7 +8040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="7">
         <v>45057</v>
       </c>
@@ -8055,7 +8069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="7">
         <v>45057</v>
       </c>
@@ -8084,7 +8098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="7">
         <v>45057</v>
       </c>
@@ -8113,7 +8127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="7">
         <v>45057</v>
       </c>
@@ -8142,7 +8156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="7">
         <v>45057</v>
       </c>
@@ -8171,7 +8185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="7">
         <v>45057</v>
       </c>
@@ -8200,7 +8214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="7">
         <v>45057</v>
       </c>
@@ -8229,7 +8243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="7">
         <v>45057</v>
       </c>
@@ -8258,7 +8272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="7">
         <v>45057</v>
       </c>
@@ -8287,7 +8301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="7">
         <v>45064</v>
       </c>
@@ -8316,7 +8330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="7">
         <v>45064</v>
       </c>
@@ -8345,7 +8359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="7">
         <v>45064</v>
       </c>
@@ -8374,7 +8388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="7">
         <v>45064</v>
       </c>
@@ -8403,7 +8417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="7">
         <v>45064</v>
       </c>
@@ -8432,7 +8446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="7">
         <v>45064</v>
       </c>
@@ -8461,7 +8475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" s="7">
         <v>45064</v>
       </c>
@@ -8490,7 +8504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" s="7">
         <v>45064</v>
       </c>
@@ -8519,7 +8533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" s="7">
         <v>45064</v>
       </c>
@@ -8548,7 +8562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" s="7">
         <v>45064</v>
       </c>
@@ -8577,7 +8591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" s="7">
         <v>45064</v>
       </c>
@@ -8606,7 +8620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" s="7">
         <v>45064</v>
       </c>
@@ -8635,7 +8649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="7">
         <v>45064</v>
       </c>
@@ -8664,7 +8678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="7">
         <v>45064</v>
       </c>
@@ -8693,7 +8707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="7">
         <v>45064</v>
       </c>
@@ -8722,7 +8736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="7">
         <v>45064</v>
       </c>
@@ -8751,7 +8765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="7">
         <v>45071</v>
       </c>
@@ -8780,7 +8794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" s="7">
         <v>45071</v>
       </c>
@@ -8809,7 +8823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" s="7">
         <v>45071</v>
       </c>
@@ -8838,7 +8852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" s="7">
         <v>45071</v>
       </c>
@@ -8867,7 +8881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" s="7">
         <v>45071</v>
       </c>
@@ -8896,7 +8910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" s="7">
         <v>45071</v>
       </c>
@@ -8925,7 +8939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" s="7">
         <v>45071</v>
       </c>
@@ -8954,7 +8968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" s="7">
         <v>45071</v>
       </c>
@@ -8983,7 +8997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" s="7">
         <v>45071</v>
       </c>
@@ -9012,7 +9026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" s="7">
         <v>45071</v>
       </c>
@@ -9041,7 +9055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" s="7">
         <v>45071</v>
       </c>
@@ -9070,7 +9084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" s="7">
         <v>45071</v>
       </c>
@@ -9099,7 +9113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" s="7">
         <v>45071</v>
       </c>
@@ -9128,7 +9142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" s="7">
         <v>45071</v>
       </c>
@@ -9157,7 +9171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" s="7">
         <v>45078</v>
       </c>
@@ -9186,7 +9200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" s="7">
         <v>45078</v>
       </c>
@@ -9215,7 +9229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" s="7">
         <v>45078</v>
       </c>
@@ -9244,7 +9258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" s="7">
         <v>45078</v>
       </c>
@@ -9273,7 +9287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" s="7">
         <v>45078</v>
       </c>
@@ -9302,7 +9316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" s="7">
         <v>45078</v>
       </c>
@@ -9331,7 +9345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" s="7">
         <v>45078</v>
       </c>
@@ -9360,7 +9374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" s="7">
         <v>45078</v>
       </c>
@@ -9389,7 +9403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" s="7">
         <v>45078</v>
       </c>
@@ -9418,7 +9432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" s="7">
         <v>45078</v>
       </c>
@@ -9447,7 +9461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" s="7">
         <v>45078</v>
       </c>
@@ -9476,7 +9490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="7">
         <v>45078</v>
       </c>
@@ -9505,7 +9519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" s="7">
         <v>45078</v>
       </c>
@@ -9534,7 +9548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="7">
         <v>45078</v>
       </c>
@@ -9563,7 +9577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" s="7">
         <v>45085</v>
       </c>
@@ -9592,7 +9606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" s="7">
         <v>45085</v>
       </c>
@@ -9621,7 +9635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" s="7">
         <v>45085</v>
       </c>
@@ -9650,7 +9664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" s="7">
         <v>45085</v>
       </c>
@@ -9679,7 +9693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" s="7">
         <v>45085</v>
       </c>
@@ -9708,7 +9722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" s="7">
         <v>45085</v>
       </c>
@@ -9737,7 +9751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" s="7">
         <v>45085</v>
       </c>
@@ -9766,7 +9780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" s="7">
         <v>45085</v>
       </c>
@@ -9795,7 +9809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" s="7">
         <v>45085</v>
       </c>
@@ -9824,7 +9838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" s="7">
         <v>45085</v>
       </c>
@@ -9853,7 +9867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" s="7">
         <v>45085</v>
       </c>
@@ -9882,7 +9896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" s="7">
         <v>45085</v>
       </c>
@@ -9911,7 +9925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" s="7">
         <v>45085</v>
       </c>
@@ -9940,7 +9954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" s="7">
         <v>45085</v>
       </c>
@@ -9969,7 +9983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" s="7">
         <v>45092</v>
       </c>
@@ -9998,7 +10012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" s="7">
         <v>45092</v>
       </c>
@@ -10027,7 +10041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" s="7">
         <v>45092</v>
       </c>
@@ -10056,7 +10070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" s="7">
         <v>45092</v>
       </c>
@@ -10085,7 +10099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" s="7">
         <v>45092</v>
       </c>
@@ -10114,7 +10128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" s="7">
         <v>45092</v>
       </c>
@@ -10143,7 +10157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" s="7">
         <v>45092</v>
       </c>
@@ -10172,7 +10186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" s="7">
         <v>45092</v>
       </c>
@@ -10201,7 +10215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" s="7">
         <v>45092</v>
       </c>
@@ -10230,7 +10244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" s="7">
         <v>45092</v>
       </c>
@@ -10259,7 +10273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" s="7">
         <v>45092</v>
       </c>
@@ -10288,7 +10302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" s="7">
         <v>45092</v>
       </c>
@@ -10317,7 +10331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" s="7">
         <v>45092</v>
       </c>
@@ -10346,7 +10360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" s="7">
         <v>45092</v>
       </c>
@@ -10375,7 +10389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" s="7">
         <v>45092</v>
       </c>
@@ -10404,7 +10418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" s="7">
         <v>45092</v>
       </c>
@@ -10433,7 +10447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" s="7">
         <v>45099</v>
       </c>
@@ -10462,7 +10476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" s="7">
         <v>45099</v>
       </c>
@@ -10491,7 +10505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310" s="7">
         <v>45099</v>
       </c>
@@ -10520,7 +10534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" s="7">
         <v>45099</v>
       </c>
@@ -10549,7 +10563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" s="7">
         <v>45099</v>
       </c>
@@ -10578,7 +10592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313" s="7">
         <v>45099</v>
       </c>
@@ -10607,7 +10621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" s="7">
         <v>45099</v>
       </c>
@@ -10636,7 +10650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" s="7">
         <v>45099</v>
       </c>
@@ -10665,7 +10679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" s="7">
         <v>45099</v>
       </c>
@@ -10694,7 +10708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" s="7">
         <v>45099</v>
       </c>
@@ -10723,7 +10737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318" s="7">
         <v>45099</v>
       </c>
@@ -10752,7 +10766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319" s="7">
         <v>45099</v>
       </c>
@@ -10781,7 +10795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320" s="7">
         <v>45099</v>
       </c>
@@ -10810,7 +10824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321" s="7">
         <v>45099</v>
       </c>
@@ -10839,7 +10853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322" s="7">
         <v>45099</v>
       </c>
@@ -10868,7 +10882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" s="7">
         <v>45099</v>
       </c>
@@ -10897,7 +10911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324" s="7">
         <v>45106</v>
       </c>
@@ -10926,7 +10940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" s="7">
         <v>45106</v>
       </c>
@@ -10955,7 +10969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326" s="7">
         <v>45106</v>
       </c>
@@ -10984,7 +10998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327" s="7">
         <v>45106</v>
       </c>
@@ -11013,7 +11027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328" s="7">
         <v>45106</v>
       </c>
@@ -11042,7 +11056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329" s="7">
         <v>45106</v>
       </c>
@@ -11071,7 +11085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330" s="7">
         <v>45106</v>
       </c>
@@ -11100,7 +11114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331" s="7">
         <v>45106</v>
       </c>
@@ -11129,7 +11143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332" s="7">
         <v>45106</v>
       </c>
@@ -11158,7 +11172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333" s="7">
         <v>45106</v>
       </c>
@@ -11187,7 +11201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334" s="7">
         <v>45106</v>
       </c>
@@ -11216,7 +11230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335" s="7">
         <v>45106</v>
       </c>
@@ -11245,7 +11259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336" s="7">
         <v>45106</v>
       </c>
@@ -11274,7 +11288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337" s="7">
         <v>45106</v>
       </c>
@@ -11303,7 +11317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338" s="7">
         <v>45106</v>
       </c>
@@ -11332,7 +11346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339" s="7">
         <v>45106</v>
       </c>
@@ -11361,7 +11375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340" s="7">
         <v>45113</v>
       </c>
@@ -11390,7 +11404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341" s="7">
         <v>45113</v>
       </c>
@@ -11419,7 +11433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A342" s="7">
         <v>45113</v>
       </c>
@@ -11448,7 +11462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A343" s="7">
         <v>45113</v>
       </c>
@@ -11477,7 +11491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A344" s="7">
         <v>45113</v>
       </c>
@@ -11506,7 +11520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345" s="7">
         <v>45113</v>
       </c>
@@ -11535,7 +11549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A346" s="7">
         <v>45113</v>
       </c>
@@ -11564,7 +11578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A347" s="7">
         <v>45113</v>
       </c>
@@ -11593,7 +11607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A348" s="7">
         <v>45113</v>
       </c>
@@ -11622,7 +11636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A349" s="7">
         <v>45113</v>
       </c>
@@ -11651,7 +11665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A350" s="7">
         <v>45113</v>
       </c>
@@ -11680,7 +11694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A351" s="7">
         <v>45113</v>
       </c>
@@ -11709,7 +11723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A352" s="7">
         <v>45113</v>
       </c>
@@ -11738,7 +11752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A353" s="7">
         <v>45113</v>
       </c>
@@ -11767,7 +11781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A354" s="7">
         <v>45114</v>
       </c>
@@ -11796,7 +11810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A355" s="7">
         <v>45114</v>
       </c>
@@ -11825,7 +11839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A356" s="7">
         <v>45114</v>
       </c>
@@ -11854,7 +11868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A357" s="7">
         <v>45114</v>
       </c>
@@ -11883,7 +11897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A358" s="7">
         <v>45114</v>
       </c>
@@ -11912,7 +11926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A359" s="7">
         <v>45114</v>
       </c>
@@ -11941,7 +11955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A360" s="7">
         <v>45114</v>
       </c>
@@ -11970,7 +11984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A361" s="7">
         <v>45114</v>
       </c>
@@ -11999,7 +12013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A362" s="7">
         <v>45114</v>
       </c>
@@ -12028,7 +12042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A363" s="7">
         <v>45114</v>
       </c>
@@ -12057,7 +12071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A364" s="7">
         <v>45114</v>
       </c>
@@ -12086,7 +12100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A365" s="7">
         <v>45114</v>
       </c>
@@ -12115,7 +12129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A366" s="7">
         <v>45114</v>
       </c>
@@ -12144,7 +12158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A367" s="7">
         <v>45115</v>
       </c>
@@ -12173,7 +12187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A368" s="7">
         <v>45115</v>
       </c>
@@ -12202,7 +12216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A369" s="7">
         <v>45115</v>
       </c>
@@ -12231,7 +12245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A370" s="7">
         <v>45115</v>
       </c>
@@ -12260,7 +12274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A371" s="7">
         <v>45115</v>
       </c>
@@ -12289,7 +12303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A372" s="7">
         <v>45115</v>
       </c>
@@ -12318,7 +12332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A373" s="7">
         <v>45115</v>
       </c>
@@ -12347,7 +12361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A374" s="7">
         <v>45115</v>
       </c>
@@ -12376,7 +12390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A375" s="7">
         <v>45115</v>
       </c>
@@ -12405,7 +12419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A376" s="7">
         <v>45115</v>
       </c>
@@ -12434,7 +12448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A377" s="7">
         <v>45116</v>
       </c>
@@ -12463,7 +12477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A378" s="7">
         <v>45116</v>
       </c>
@@ -12492,7 +12506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A379" s="7">
         <v>45116</v>
       </c>
@@ -12521,7 +12535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A380" s="7">
         <v>45116</v>
       </c>
@@ -12550,7 +12564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A381" s="7">
         <v>45116</v>
       </c>
@@ -12579,7 +12593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A382" s="7">
         <v>45116</v>
       </c>
@@ -12608,7 +12622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A383" s="7">
         <v>45116</v>
       </c>
@@ -12637,7 +12651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A384" s="7">
         <v>45116</v>
       </c>
@@ -12666,7 +12680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A385" s="7">
         <v>45116</v>
       </c>
@@ -12695,7 +12709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A386" s="7">
         <v>45116</v>
       </c>
@@ -12724,7 +12738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A387" s="7">
         <v>45116</v>
       </c>
@@ -12753,7 +12767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A388" s="7">
         <v>45116</v>
       </c>
@@ -12782,7 +12796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A389" s="7">
         <v>45116</v>
       </c>
@@ -12811,7 +12825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A390" s="7">
         <v>45116</v>
       </c>
@@ -12840,7 +12854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A391" s="7">
         <v>45117</v>
       </c>
@@ -12869,7 +12883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A392" s="7">
         <v>45117</v>
       </c>
@@ -12898,7 +12912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A393" s="7">
         <v>45117</v>
       </c>
@@ -12927,7 +12941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A394" s="7">
         <v>45117</v>
       </c>
@@ -12956,7 +12970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A395" s="7">
         <v>45117</v>
       </c>
@@ -12985,7 +12999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A396" s="7">
         <v>45117</v>
       </c>
@@ -13014,7 +13028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A397" s="7">
         <v>45117</v>
       </c>
@@ -13043,7 +13057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A398" s="7">
         <v>45117</v>
       </c>
@@ -13072,7 +13086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A399" s="7">
         <v>45117</v>
       </c>
@@ -13101,7 +13115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A400" s="7">
         <v>45118</v>
       </c>
@@ -13130,7 +13144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A401" s="7">
         <v>45118</v>
       </c>
@@ -13159,7 +13173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A402" s="7">
         <v>45118</v>
       </c>
@@ -13188,7 +13202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A403" s="7">
         <v>45118</v>
       </c>
@@ -13217,7 +13231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A404" s="7">
         <v>45118</v>
       </c>
@@ -13246,7 +13260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A405" s="7">
         <v>45118</v>
       </c>
@@ -13275,7 +13289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A406" s="7">
         <v>45118</v>
       </c>
@@ -13304,7 +13318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A407" s="7">
         <v>45118</v>
       </c>
@@ -13333,7 +13347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A408" s="7">
         <v>45118</v>
       </c>
@@ -13362,7 +13376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A409" s="7">
         <v>45118</v>
       </c>
@@ -13391,7 +13405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A410" s="7">
         <v>45118</v>
       </c>
@@ -13420,7 +13434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A411" s="7">
         <v>45118</v>
       </c>
@@ -13449,7 +13463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A412" s="7">
         <v>45118</v>
       </c>
@@ -13478,7 +13492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A413" s="7">
         <v>45118</v>
       </c>
@@ -13507,7 +13521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A414" s="7">
         <v>45119</v>
       </c>
@@ -13536,7 +13550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A415" s="7">
         <v>45119</v>
       </c>
@@ -13565,7 +13579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A416" s="7">
         <v>45119</v>
       </c>
@@ -13594,7 +13608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A417" s="7">
         <v>45119</v>
       </c>
@@ -13623,7 +13637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A418" s="7">
         <v>45119</v>
       </c>
@@ -13652,7 +13666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A419" s="7">
         <v>45119</v>
       </c>
@@ -13681,7 +13695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A420" s="7">
         <v>45119</v>
       </c>
@@ -13710,7 +13724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A421" s="7">
         <v>45119</v>
       </c>
@@ -13739,7 +13753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A422" s="7">
         <v>45119</v>
       </c>
@@ -13768,7 +13782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A423" s="26">
         <v>45176</v>
       </c>
@@ -13800,7 +13814,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A424" s="26">
         <v>45176</v>
       </c>
@@ -13832,7 +13846,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A425" s="26">
         <v>45176</v>
       </c>
@@ -13864,7 +13878,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A426" s="26">
         <v>45176</v>
       </c>
@@ -13896,7 +13910,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A427" s="26">
         <v>45176</v>
       </c>
@@ -13928,7 +13942,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A428" s="26">
         <v>45176</v>
       </c>
@@ -13960,7 +13974,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A429" s="26">
         <v>45176</v>
       </c>
@@ -13992,7 +14006,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A430" s="26">
         <v>45176</v>
       </c>
@@ -14024,7 +14038,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A431" s="26">
         <v>45176</v>
       </c>
@@ -14056,7 +14070,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A432" s="26">
         <v>45176</v>
       </c>
@@ -14088,7 +14102,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A433" s="26">
         <v>45176</v>
       </c>
@@ -14120,7 +14134,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A434" s="26">
         <v>45176</v>
       </c>
@@ -14152,7 +14166,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A435" s="26">
         <v>45176</v>
       </c>
@@ -14184,7 +14198,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A436" s="26">
         <v>45176</v>
       </c>
@@ -14216,9 +14230,457 @@
         <v>87</v>
       </c>
     </row>
+    <row r="437" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A437" s="26">
+        <v>45183</v>
+      </c>
+      <c r="B437" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C437" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D437" s="9">
+        <v>2</v>
+      </c>
+      <c r="E437" s="9">
+        <v>0</v>
+      </c>
+      <c r="F437" s="9">
+        <v>0</v>
+      </c>
+      <c r="G437" s="9">
+        <v>0</v>
+      </c>
+      <c r="H437" s="9">
+        <v>0</v>
+      </c>
+      <c r="I437" s="9">
+        <v>0</v>
+      </c>
+      <c r="J437" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="438" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A438" s="26">
+        <v>45183</v>
+      </c>
+      <c r="B438" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C438" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D438" s="9">
+        <v>2</v>
+      </c>
+      <c r="E438" s="9">
+        <v>0</v>
+      </c>
+      <c r="F438" s="9">
+        <v>0</v>
+      </c>
+      <c r="G438" s="9">
+        <v>0</v>
+      </c>
+      <c r="H438" s="9">
+        <v>0</v>
+      </c>
+      <c r="I438" s="9">
+        <v>0</v>
+      </c>
+      <c r="J438" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="439" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A439" s="26">
+        <v>45183</v>
+      </c>
+      <c r="B439" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C439" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D439" s="9">
+        <v>1</v>
+      </c>
+      <c r="E439" s="9">
+        <v>0</v>
+      </c>
+      <c r="F439" s="9">
+        <v>0</v>
+      </c>
+      <c r="G439" s="9">
+        <v>0</v>
+      </c>
+      <c r="H439" s="9">
+        <v>0</v>
+      </c>
+      <c r="I439" s="9">
+        <v>0</v>
+      </c>
+      <c r="J439" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="440" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A440" s="26">
+        <v>45183</v>
+      </c>
+      <c r="B440" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C440" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D440" s="9">
+        <v>0</v>
+      </c>
+      <c r="E440" s="9">
+        <v>0</v>
+      </c>
+      <c r="F440" s="9">
+        <v>1</v>
+      </c>
+      <c r="G440" s="9">
+        <v>0</v>
+      </c>
+      <c r="H440" s="9">
+        <v>0</v>
+      </c>
+      <c r="I440" s="9">
+        <v>0</v>
+      </c>
+      <c r="J440" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="441" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A441" s="26">
+        <v>45183</v>
+      </c>
+      <c r="B441" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C441" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D441" s="9">
+        <v>1</v>
+      </c>
+      <c r="E441" s="9">
+        <v>0</v>
+      </c>
+      <c r="F441" s="9">
+        <v>0</v>
+      </c>
+      <c r="G441" s="9">
+        <v>0</v>
+      </c>
+      <c r="H441" s="9">
+        <v>0</v>
+      </c>
+      <c r="I441" s="9">
+        <v>0</v>
+      </c>
+      <c r="J441" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="442" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A442" s="26">
+        <v>45183</v>
+      </c>
+      <c r="B442" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C442" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D442" s="9">
+        <v>1</v>
+      </c>
+      <c r="E442" s="9">
+        <v>1</v>
+      </c>
+      <c r="F442" s="9">
+        <v>0</v>
+      </c>
+      <c r="G442" s="9">
+        <v>1</v>
+      </c>
+      <c r="H442" s="9">
+        <v>0</v>
+      </c>
+      <c r="I442" s="9">
+        <v>0</v>
+      </c>
+      <c r="J442" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="443" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A443" s="26">
+        <v>45183</v>
+      </c>
+      <c r="B443" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C443" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D443" s="9">
+        <v>2</v>
+      </c>
+      <c r="E443" s="9">
+        <v>0</v>
+      </c>
+      <c r="F443" s="9">
+        <v>0</v>
+      </c>
+      <c r="G443" s="9">
+        <v>0</v>
+      </c>
+      <c r="H443" s="9">
+        <v>0</v>
+      </c>
+      <c r="I443" s="9">
+        <v>0</v>
+      </c>
+      <c r="J443" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="444" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A444" s="26">
+        <v>45183</v>
+      </c>
+      <c r="B444" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C444" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D444" s="9">
+        <v>0</v>
+      </c>
+      <c r="E444" s="9">
+        <v>1</v>
+      </c>
+      <c r="F444" s="9">
+        <v>0</v>
+      </c>
+      <c r="G444" s="9">
+        <v>0</v>
+      </c>
+      <c r="H444" s="9">
+        <v>0</v>
+      </c>
+      <c r="I444" s="9">
+        <v>0</v>
+      </c>
+      <c r="J444" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="445" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A445" s="26">
+        <v>45183</v>
+      </c>
+      <c r="B445" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C445" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D445" s="9">
+        <v>1</v>
+      </c>
+      <c r="E445" s="9">
+        <v>0</v>
+      </c>
+      <c r="F445" s="9">
+        <v>0</v>
+      </c>
+      <c r="G445" s="9">
+        <v>0</v>
+      </c>
+      <c r="H445" s="9">
+        <v>0</v>
+      </c>
+      <c r="I445" s="9">
+        <v>0</v>
+      </c>
+      <c r="J445" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="446" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A446" s="26">
+        <v>45183</v>
+      </c>
+      <c r="B446" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C446" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D446" s="9">
+        <v>1</v>
+      </c>
+      <c r="E446" s="9">
+        <v>0</v>
+      </c>
+      <c r="F446" s="9">
+        <v>0</v>
+      </c>
+      <c r="G446" s="9">
+        <v>0</v>
+      </c>
+      <c r="H446" s="9">
+        <v>0</v>
+      </c>
+      <c r="I446" s="9">
+        <v>0</v>
+      </c>
+      <c r="J446" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="447" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A447" s="26">
+        <v>45183</v>
+      </c>
+      <c r="B447" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C447" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D447" s="9">
+        <v>2</v>
+      </c>
+      <c r="E447" s="9">
+        <v>0</v>
+      </c>
+      <c r="F447" s="9">
+        <v>0</v>
+      </c>
+      <c r="G447" s="9">
+        <v>0</v>
+      </c>
+      <c r="H447" s="9">
+        <v>0</v>
+      </c>
+      <c r="I447" s="9">
+        <v>0</v>
+      </c>
+      <c r="J447" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="448" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A448" s="26">
+        <v>45183</v>
+      </c>
+      <c r="B448" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C448" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D448" s="9">
+        <v>1</v>
+      </c>
+      <c r="E448" s="9">
+        <v>0</v>
+      </c>
+      <c r="F448" s="9">
+        <v>0</v>
+      </c>
+      <c r="G448" s="9">
+        <v>0</v>
+      </c>
+      <c r="H448" s="9">
+        <v>0</v>
+      </c>
+      <c r="I448" s="9">
+        <v>0</v>
+      </c>
+      <c r="J448" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="449" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A449" s="26">
+        <v>45183</v>
+      </c>
+      <c r="B449" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C449" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D449" s="9">
+        <v>1</v>
+      </c>
+      <c r="E449" s="9">
+        <v>0</v>
+      </c>
+      <c r="F449" s="9">
+        <v>0</v>
+      </c>
+      <c r="G449" s="9">
+        <v>0</v>
+      </c>
+      <c r="H449" s="9">
+        <v>0</v>
+      </c>
+      <c r="I449" s="9">
+        <v>0</v>
+      </c>
+      <c r="J449" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="450" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A450" s="26">
+        <v>45183</v>
+      </c>
+      <c r="B450" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C450" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D450" s="9">
+        <v>2</v>
+      </c>
+      <c r="E450" s="9">
+        <v>0</v>
+      </c>
+      <c r="F450" s="9">
+        <v>0</v>
+      </c>
+      <c r="G450" s="9">
+        <v>0</v>
+      </c>
+      <c r="H450" s="9">
+        <v>0</v>
+      </c>
+      <c r="I450" s="9">
+        <v>0</v>
+      </c>
+      <c r="J450" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J422" xr:uid="{F55E8A24-46F9-4225-A2C2-A9164F13364A}"/>
-  <conditionalFormatting sqref="C2:C436">
+  <conditionalFormatting sqref="C2:C450">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Scuri"</formula>
     </cfRule>
@@ -14227,13 +14689,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H436 D2:E436" xr:uid="{A2364708-0661-4544-87F1-D3FDEABF18B6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H450 D2:E450" xr:uid="{A2364708-0661-4544-87F1-D3FDEABF18B6}">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I436" xr:uid="{3C35827F-D598-4F40-B064-7FA732E53B67}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I450" xr:uid="{3C35827F-D598-4F40-B064-7FA732E53B67}">
       <formula1>"0, 1, 2, 3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G436" xr:uid="{2FE2E49C-6CC7-4B84-9D73-A960B8BAAF9A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G450" xr:uid="{2FE2E49C-6CC7-4B84-9D73-A960B8BAAF9A}">
       <formula1>"0, 1"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14256,21 +14718,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E168A56-6341-4406-8D41-CC351A3A492A}">
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.54296875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="25.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="25.54296875" style="20"/>
-    <col min="3" max="5" width="25.54296875" style="22"/>
-    <col min="6" max="6" width="25.54296875" style="20"/>
-    <col min="7" max="16384" width="25.54296875" style="17"/>
+    <col min="1" max="2" width="25.5703125" style="20"/>
+    <col min="3" max="5" width="25.5703125" style="22"/>
+    <col min="6" max="6" width="25.5703125" style="20"/>
+    <col min="7" max="16384" width="25.5703125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>16</v>
       </c>
@@ -14290,7 +14752,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>74</v>
       </c>
@@ -14310,7 +14772,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>58</v>
       </c>
@@ -14330,7 +14792,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
         <v>68</v>
       </c>
@@ -14348,7 +14810,7 @@
       </c>
       <c r="F4" s="19"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>42</v>
       </c>
@@ -14366,7 +14828,7 @@
       </c>
       <c r="F5" s="19"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
         <v>71</v>
       </c>
@@ -14386,7 +14848,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
         <v>70</v>
       </c>
@@ -14404,7 +14866,7 @@
       </c>
       <c r="F7" s="19"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
         <v>78</v>
       </c>
@@ -14422,7 +14884,7 @@
       </c>
       <c r="F8" s="19"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
         <v>21</v>
       </c>
@@ -14440,7 +14902,7 @@
       </c>
       <c r="F9" s="19"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
         <v>80</v>
       </c>
@@ -14458,7 +14920,7 @@
       </c>
       <c r="F10" s="19"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
         <v>39</v>
       </c>
@@ -14476,7 +14938,7 @@
       </c>
       <c r="F11" s="19"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
         <v>64</v>
       </c>
@@ -14494,7 +14956,7 @@
       </c>
       <c r="F12" s="19"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
         <v>31</v>
       </c>
@@ -14512,7 +14974,7 @@
       </c>
       <c r="F13" s="19"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
         <v>28</v>
       </c>
@@ -14530,7 +14992,7 @@
       </c>
       <c r="F14" s="19"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
         <v>73</v>
       </c>
@@ -14548,7 +15010,7 @@
       </c>
       <c r="F15" s="19"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
         <v>110</v>
       </c>
@@ -14568,7 +15030,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="19" t="s">
         <v>52</v>
       </c>
@@ -14588,7 +15050,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="s">
         <v>33</v>
       </c>
@@ -14606,7 +15068,7 @@
       </c>
       <c r="F18" s="19"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="19" t="s">
         <v>94</v>
       </c>
@@ -14624,7 +15086,7 @@
       </c>
       <c r="F19" s="19"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="19" t="s">
         <v>95</v>
       </c>
@@ -14644,7 +15106,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
         <v>57</v>
       </c>
@@ -14664,7 +15126,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
         <v>79</v>
       </c>
@@ -14682,7 +15144,7 @@
       </c>
       <c r="F22" s="19"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="19" t="s">
         <v>96</v>
       </c>
@@ -14702,7 +15164,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="19" t="s">
         <v>43</v>
       </c>
@@ -14720,7 +15182,7 @@
       </c>
       <c r="F24" s="19"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="19" t="s">
         <v>51</v>
       </c>
@@ -14740,7 +15202,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
         <v>29</v>
       </c>
@@ -14758,7 +15220,7 @@
       </c>
       <c r="F26" s="19"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="19" t="s">
         <v>38</v>
       </c>
@@ -14776,7 +15238,7 @@
       </c>
       <c r="F27" s="19"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="19" t="s">
         <v>99</v>
       </c>
@@ -14796,7 +15258,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="19" t="s">
         <v>35</v>
       </c>
@@ -14814,7 +15276,7 @@
       </c>
       <c r="F29" s="19"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="19" t="s">
         <v>41</v>
       </c>
@@ -14832,7 +15294,7 @@
       </c>
       <c r="F30" s="19"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="19" t="s">
         <v>47</v>
       </c>
@@ -14850,7 +15312,7 @@
       </c>
       <c r="F31" s="19"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="18" t="s">
         <v>72</v>
       </c>
@@ -14870,7 +15332,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="19" t="s">
         <v>49</v>
       </c>
@@ -14888,7 +15350,7 @@
       </c>
       <c r="F33" s="19"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="19" t="s">
         <v>36</v>
       </c>
@@ -14906,7 +15368,7 @@
       </c>
       <c r="F34" s="19"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="19" t="s">
         <v>56</v>
       </c>
@@ -14926,7 +15388,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="19" t="s">
         <v>32</v>
       </c>
@@ -14944,7 +15406,7 @@
       </c>
       <c r="F36" s="19"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="19" t="s">
         <v>55</v>
       </c>
@@ -14964,7 +15426,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="18" t="s">
         <v>66</v>
       </c>
@@ -14982,7 +15444,7 @@
       </c>
       <c r="F38" s="19"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="19" t="s">
         <v>44</v>
       </c>
@@ -15000,7 +15462,7 @@
       </c>
       <c r="F39" s="19"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="19" t="s">
         <v>50</v>
       </c>
@@ -15020,7 +15482,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="19" t="s">
         <v>61</v>
       </c>
@@ -15040,7 +15502,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="19" t="s">
         <v>63</v>
       </c>
@@ -15058,7 +15520,7 @@
       </c>
       <c r="F42" s="19"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="19" t="s">
         <v>23</v>
       </c>
@@ -15076,7 +15538,7 @@
       </c>
       <c r="F43" s="19"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="18" t="s">
         <v>60</v>
       </c>
@@ -15094,7 +15556,7 @@
       </c>
       <c r="F44" s="19"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="19" t="s">
         <v>25</v>
       </c>
@@ -15112,7 +15574,7 @@
       </c>
       <c r="F45" s="19"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="18" t="s">
         <v>69</v>
       </c>
@@ -15132,7 +15594,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="19" t="s">
         <v>53</v>
       </c>
@@ -15152,7 +15614,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="19" t="s">
         <v>76</v>
       </c>
@@ -15170,7 +15632,7 @@
       </c>
       <c r="F48" s="19"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="19" t="s">
         <v>62</v>
       </c>
@@ -15188,7 +15650,7 @@
       </c>
       <c r="F49" s="19"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="19" t="s">
         <v>26</v>
       </c>
@@ -15206,7 +15668,7 @@
       </c>
       <c r="F50" s="19"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="19" t="s">
         <v>48</v>
       </c>
@@ -15224,7 +15686,7 @@
       </c>
       <c r="F51" s="19"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="19" t="s">
         <v>54</v>
       </c>
@@ -15242,7 +15704,7 @@
       </c>
       <c r="F52" s="19"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="18" t="s">
         <v>67</v>
       </c>
@@ -15260,7 +15722,7 @@
       </c>
       <c r="F53" s="19"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="19" t="s">
         <v>24</v>
       </c>
@@ -15278,7 +15740,7 @@
       </c>
       <c r="F54" s="19"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="19" t="s">
         <v>46</v>
       </c>
@@ -15298,7 +15760,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="18" t="s">
         <v>59</v>
       </c>
@@ -15316,7 +15778,7 @@
       </c>
       <c r="F56" s="19"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="19" t="s">
         <v>103</v>
       </c>
@@ -15334,7 +15796,7 @@
       </c>
       <c r="F57" s="19"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="19" t="s">
         <v>40</v>
       </c>
@@ -15354,7 +15816,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="19" t="s">
         <v>27</v>
       </c>
@@ -15372,7 +15834,7 @@
       </c>
       <c r="F59" s="19"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="19" t="s">
         <v>45</v>
       </c>
@@ -15390,7 +15852,7 @@
       </c>
       <c r="F60" s="19"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="19" t="s">
         <v>104</v>
       </c>
@@ -15410,7 +15872,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="19" t="s">
         <v>105</v>
       </c>
@@ -15430,7 +15892,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="19" t="s">
         <v>77</v>
       </c>
@@ -15448,7 +15910,7 @@
       </c>
       <c r="F63" s="19"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="19" t="s">
         <v>34</v>
       </c>
@@ -15466,7 +15928,7 @@
       </c>
       <c r="F64" s="19"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="19" t="s">
         <v>75</v>
       </c>
@@ -15484,7 +15946,7 @@
       </c>
       <c r="F65" s="19"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="19" t="s">
         <v>65</v>
       </c>
@@ -15502,11 +15964,11 @@
       </c>
       <c r="F66" s="19"/>
     </row>
-    <row r="67" spans="1:6" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A67" s="8" t="s">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="19" t="s">
         <v>111</v>
       </c>
       <c r="C67" s="21" t="s">
@@ -15520,11 +15982,11 @@
       </c>
       <c r="F67" s="19"/>
     </row>
-    <row r="68" spans="1:6" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A68" s="8" t="s">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="19" t="s">
         <v>112</v>
       </c>
       <c r="C68" s="21" t="s">
@@ -15537,6 +15999,24 @@
         <v>88</v>
       </c>
       <c r="F68" s="19"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B69" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="C69" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D69" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="E69" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="F69" s="19"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E66" xr:uid="{3E168A56-6341-4406-8D41-CC351A3A492A}"/>
@@ -15555,42 +16035,42 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>88</v>
       </c>

--- a/Input/FantaSPL_Milano.xlsx
+++ b/Input/FantaSPL_Milano.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Local_Docs\Admin\Other\Kit\SPL\SPL_v_0.2\SPL_Regional\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD41BF4B-C2B6-427E-9B0B-DE6D847C8507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4856AE5-2CDA-410F-B3F2-36D606D8D142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{05F018D4-855F-4570-8D15-9B4DD092A228}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="2" xr2:uid="{05F018D4-855F-4570-8D15-9B4DD092A228}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="11" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="115">
   <si>
     <t>Parameter</t>
   </si>
@@ -386,6 +386,9 @@
   </si>
   <si>
     <t>Rocco</t>
+  </si>
+  <si>
+    <t>Fabio (Mario)</t>
   </si>
 </sst>
 </file>
@@ -947,14 +950,14 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -968,7 +971,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="24" t="s">
         <v>4</v>
       </c>
@@ -982,7 +985,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="24" t="s">
         <v>5</v>
       </c>
@@ -996,7 +999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="24" t="s">
         <v>109</v>
       </c>
@@ -1010,7 +1013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
         <v>6</v>
       </c>
@@ -1024,7 +1027,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="24" t="s">
         <v>7</v>
       </c>
@@ -1038,7 +1041,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="24" t="s">
         <v>8</v>
       </c>
@@ -1052,7 +1055,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="24" t="s">
         <v>9</v>
       </c>
@@ -1066,7 +1069,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="24" t="s">
         <v>10</v>
       </c>
@@ -1080,7 +1083,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="24" t="s">
         <v>11</v>
       </c>
@@ -1094,7 +1097,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="24" t="s">
         <v>20</v>
       </c>
@@ -1108,7 +1111,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="24" t="s">
         <v>107</v>
       </c>
@@ -1122,7 +1125,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="24" t="s">
         <v>12</v>
       </c>
@@ -1144,19 +1147,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A29AA2D-3F32-45F2-B719-A1F62E0F1A5F}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
+      <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="17.140625" style="1"/>
+    <col min="1" max="3" width="17.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>13</v>
       </c>
@@ -1167,7 +1170,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="14">
         <v>44938</v>
       </c>
@@ -1178,7 +1181,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="14">
         <v>44945</v>
       </c>
@@ -1189,7 +1192,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="14">
         <v>44952</v>
       </c>
@@ -1200,7 +1203,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>44959</v>
       </c>
@@ -1211,7 +1214,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>44966</v>
       </c>
@@ -1222,7 +1225,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <v>44980</v>
       </c>
@@ -1233,7 +1236,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>44987</v>
       </c>
@@ -1244,7 +1247,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>44994</v>
       </c>
@@ -1255,7 +1258,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="14">
         <v>45001</v>
       </c>
@@ -1266,7 +1269,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="14">
         <v>45008</v>
       </c>
@@ -1277,7 +1280,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="14">
         <v>45015</v>
       </c>
@@ -1288,7 +1291,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="14">
         <v>45022</v>
       </c>
@@ -1299,7 +1302,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="14">
         <v>45030</v>
       </c>
@@ -1310,7 +1313,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="14">
         <v>45050</v>
       </c>
@@ -1321,7 +1324,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="14">
         <v>45057</v>
       </c>
@@ -1332,7 +1335,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="14">
         <v>45064</v>
       </c>
@@ -1343,7 +1346,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="14">
         <v>45071</v>
       </c>
@@ -1354,7 +1357,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="14">
         <v>45078</v>
       </c>
@@ -1365,7 +1368,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="14">
         <v>45085</v>
       </c>
@@ -1376,7 +1379,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="14">
         <v>45092</v>
       </c>
@@ -1387,7 +1390,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="14">
         <v>45099</v>
       </c>
@@ -1398,7 +1401,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="14">
         <v>45106</v>
       </c>
@@ -1409,7 +1412,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="14">
         <v>45113</v>
       </c>
@@ -1420,7 +1423,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="14">
         <v>45114</v>
       </c>
@@ -1431,7 +1434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="14">
         <v>45115</v>
       </c>
@@ -1442,7 +1445,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="14">
         <v>45116</v>
       </c>
@@ -1453,7 +1456,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="14">
         <v>45117</v>
       </c>
@@ -1464,7 +1467,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="14">
         <v>45118</v>
       </c>
@@ -1475,7 +1478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="14">
         <v>45119</v>
       </c>
@@ -1486,7 +1489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="26">
         <v>45176</v>
       </c>
@@ -1497,7 +1500,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="26">
         <v>45183</v>
       </c>
@@ -1506,6 +1509,17 @@
       </c>
       <c r="C32" s="1">
         <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="26">
+        <v>45190</v>
+      </c>
+      <c r="B33" s="1">
+        <v>6</v>
+      </c>
+      <c r="C33" s="1">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1515,27 +1529,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F55E8A24-46F9-4225-A2C2-A9164F13364A}">
-  <dimension ref="A1:J450"/>
+  <dimension ref="A1:J464"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A415" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A437" sqref="A437:J450"/>
+      <pane ySplit="1" topLeftCell="A445" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J456" sqref="J456"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="17.140625" style="3"/>
+    <col min="8" max="8" width="15.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="17.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
@@ -1567,7 +1581,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="7">
         <v>44938</v>
       </c>
@@ -1596,7 +1610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>44938</v>
       </c>
@@ -1628,7 +1642,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>44938</v>
       </c>
@@ -1657,7 +1671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>44938</v>
       </c>
@@ -1686,7 +1700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>44938</v>
       </c>
@@ -1715,7 +1729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>44938</v>
       </c>
@@ -1744,7 +1758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>44938</v>
       </c>
@@ -1773,7 +1787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>44938</v>
       </c>
@@ -1802,7 +1816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>44938</v>
       </c>
@@ -1831,7 +1845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>44938</v>
       </c>
@@ -1860,7 +1874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>44938</v>
       </c>
@@ -1889,7 +1903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>44938</v>
       </c>
@@ -1918,7 +1932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <v>44938</v>
       </c>
@@ -1947,7 +1961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
         <v>44938</v>
       </c>
@@ -1976,7 +1990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <v>44945</v>
       </c>
@@ -2005,7 +2019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
         <v>44945</v>
       </c>
@@ -2034,7 +2048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
         <v>44945</v>
       </c>
@@ -2063,7 +2077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
         <v>44945</v>
       </c>
@@ -2092,7 +2106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
         <v>44945</v>
       </c>
@@ -2121,7 +2135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="7">
         <v>44945</v>
       </c>
@@ -2150,7 +2164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="7">
         <v>44945</v>
       </c>
@@ -2179,7 +2193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="7">
         <v>44945</v>
       </c>
@@ -2208,7 +2222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="7">
         <v>44945</v>
       </c>
@@ -2237,7 +2251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="7">
         <v>44945</v>
       </c>
@@ -2266,7 +2280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="7">
         <v>44945</v>
       </c>
@@ -2295,7 +2309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="7">
         <v>44945</v>
       </c>
@@ -2324,7 +2338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="7">
         <v>44945</v>
       </c>
@@ -2353,7 +2367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="7">
         <v>44945</v>
       </c>
@@ -2382,7 +2396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="7">
         <v>44945</v>
       </c>
@@ -2411,7 +2425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="7">
         <v>44945</v>
       </c>
@@ -2440,7 +2454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="7">
         <v>44945</v>
       </c>
@@ -2469,7 +2483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="7">
         <v>44945</v>
       </c>
@@ -2498,7 +2512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="7">
         <v>44945</v>
       </c>
@@ -2527,7 +2541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="7">
         <v>44945</v>
       </c>
@@ -2559,7 +2573,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="7">
         <v>44945</v>
       </c>
@@ -2588,7 +2602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="7">
         <v>44945</v>
       </c>
@@ -2617,7 +2631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="7">
         <v>44952</v>
       </c>
@@ -2646,7 +2660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="7">
         <v>44952</v>
       </c>
@@ -2675,7 +2689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="7">
         <v>44952</v>
       </c>
@@ -2704,7 +2718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="7">
         <v>44952</v>
       </c>
@@ -2733,7 +2747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="7">
         <v>44952</v>
       </c>
@@ -2762,7 +2776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="7">
         <v>44952</v>
       </c>
@@ -2791,7 +2805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="7">
         <v>44952</v>
       </c>
@@ -2820,7 +2834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="7">
         <v>44952</v>
       </c>
@@ -2849,7 +2863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="7">
         <v>44952</v>
       </c>
@@ -2878,7 +2892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="7">
         <v>44952</v>
       </c>
@@ -2907,7 +2921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="7">
         <v>44952</v>
       </c>
@@ -2936,7 +2950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="7">
         <v>44952</v>
       </c>
@@ -2965,7 +2979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="7">
         <v>44952</v>
       </c>
@@ -2994,7 +3008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="7">
         <v>44952</v>
       </c>
@@ -3023,7 +3037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="7">
         <v>44952</v>
       </c>
@@ -3052,7 +3066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="7">
         <v>44952</v>
       </c>
@@ -3081,7 +3095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="7">
         <v>44959</v>
       </c>
@@ -3110,7 +3124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="7">
         <v>44959</v>
       </c>
@@ -3139,7 +3153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="7">
         <v>44959</v>
       </c>
@@ -3168,7 +3182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="7">
         <v>44959</v>
       </c>
@@ -3197,7 +3211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="7">
         <v>44959</v>
       </c>
@@ -3226,7 +3240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="7">
         <v>44959</v>
       </c>
@@ -3255,7 +3269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="7">
         <v>44959</v>
       </c>
@@ -3284,7 +3298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="7">
         <v>44959</v>
       </c>
@@ -3313,7 +3327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="7">
         <v>44959</v>
       </c>
@@ -3342,7 +3356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="7">
         <v>44959</v>
       </c>
@@ -3371,7 +3385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="7">
         <v>44959</v>
       </c>
@@ -3400,7 +3414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="7">
         <v>44959</v>
       </c>
@@ -3429,7 +3443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="7">
         <v>44959</v>
       </c>
@@ -3458,7 +3472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="7">
         <v>44959</v>
       </c>
@@ -3487,7 +3501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="7">
         <v>44966</v>
       </c>
@@ -3516,7 +3530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="7">
         <v>44966</v>
       </c>
@@ -3545,7 +3559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="7">
         <v>44966</v>
       </c>
@@ -3574,7 +3588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="7">
         <v>44966</v>
       </c>
@@ -3603,7 +3617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="7">
         <v>44966</v>
       </c>
@@ -3632,7 +3646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="7">
         <v>44966</v>
       </c>
@@ -3661,7 +3675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="7">
         <v>44966</v>
       </c>
@@ -3690,7 +3704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="7">
         <v>44966</v>
       </c>
@@ -3719,7 +3733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="7">
         <v>44966</v>
       </c>
@@ -3748,7 +3762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="7">
         <v>44966</v>
       </c>
@@ -3777,7 +3791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="7">
         <v>44966</v>
       </c>
@@ -3806,7 +3820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="7">
         <v>44966</v>
       </c>
@@ -3835,7 +3849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="7">
         <v>44966</v>
       </c>
@@ -3864,7 +3878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="7">
         <v>44966</v>
       </c>
@@ -3893,7 +3907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="7">
         <v>44980</v>
       </c>
@@ -3922,7 +3936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="7">
         <v>44980</v>
       </c>
@@ -3951,7 +3965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="7">
         <v>44980</v>
       </c>
@@ -3980,7 +3994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="7">
         <v>44980</v>
       </c>
@@ -4009,7 +4023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="7">
         <v>44980</v>
       </c>
@@ -4038,7 +4052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="7">
         <v>44980</v>
       </c>
@@ -4067,7 +4081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="7">
         <v>44980</v>
       </c>
@@ -4096,7 +4110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="7">
         <v>44980</v>
       </c>
@@ -4125,7 +4139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="7">
         <v>44980</v>
       </c>
@@ -4154,7 +4168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="7">
         <v>44980</v>
       </c>
@@ -4183,7 +4197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="7">
         <v>44980</v>
       </c>
@@ -4212,7 +4226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="7">
         <v>44980</v>
       </c>
@@ -4241,7 +4255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="7">
         <v>44980</v>
       </c>
@@ -4270,7 +4284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="7">
         <v>44980</v>
       </c>
@@ -4299,7 +4313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" s="7">
         <v>44980</v>
       </c>
@@ -4328,7 +4342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" s="7">
         <v>44980</v>
       </c>
@@ -4357,7 +4371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" s="7">
         <v>44987</v>
       </c>
@@ -4386,7 +4400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" s="7">
         <v>44987</v>
       </c>
@@ -4415,7 +4429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" s="7">
         <v>44987</v>
       </c>
@@ -4444,7 +4458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" s="7">
         <v>44987</v>
       </c>
@@ -4473,7 +4487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" s="7">
         <v>44987</v>
       </c>
@@ -4502,7 +4516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" s="7">
         <v>44987</v>
       </c>
@@ -4531,7 +4545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" s="7">
         <v>44987</v>
       </c>
@@ -4560,7 +4574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" s="7">
         <v>44987</v>
       </c>
@@ -4589,7 +4603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" s="7">
         <v>44987</v>
       </c>
@@ -4618,7 +4632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" s="7">
         <v>44987</v>
       </c>
@@ -4647,7 +4661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" s="7">
         <v>44987</v>
       </c>
@@ -4676,7 +4690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" s="7">
         <v>44987</v>
       </c>
@@ -4705,7 +4719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" s="7">
         <v>44987</v>
       </c>
@@ -4734,7 +4748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" s="7">
         <v>44987</v>
       </c>
@@ -4763,7 +4777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" s="7">
         <v>44994</v>
       </c>
@@ -4792,7 +4806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" s="7">
         <v>44994</v>
       </c>
@@ -4821,7 +4835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" s="7">
         <v>44994</v>
       </c>
@@ -4850,7 +4864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" s="7">
         <v>44994</v>
       </c>
@@ -4879,7 +4893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" s="7">
         <v>44994</v>
       </c>
@@ -4908,7 +4922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" s="7">
         <v>44994</v>
       </c>
@@ -4937,7 +4951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" s="7">
         <v>44994</v>
       </c>
@@ -4966,7 +4980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" s="7">
         <v>44994</v>
       </c>
@@ -4995,7 +5009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" s="7">
         <v>44994</v>
       </c>
@@ -5024,7 +5038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" s="7">
         <v>44994</v>
       </c>
@@ -5053,7 +5067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" s="7">
         <v>44994</v>
       </c>
@@ -5082,7 +5096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" s="7">
         <v>44994</v>
       </c>
@@ -5111,7 +5125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" s="7">
         <v>44994</v>
       </c>
@@ -5140,7 +5154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" s="7">
         <v>44994</v>
       </c>
@@ -5169,7 +5183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" s="7">
         <v>45001</v>
       </c>
@@ -5198,7 +5212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" s="7">
         <v>45001</v>
       </c>
@@ -5227,7 +5241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" s="7">
         <v>45001</v>
       </c>
@@ -5256,7 +5270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" s="7">
         <v>45001</v>
       </c>
@@ -5285,7 +5299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" s="7">
         <v>45001</v>
       </c>
@@ -5314,7 +5328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" s="7">
         <v>45001</v>
       </c>
@@ -5343,7 +5357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" s="7">
         <v>45001</v>
       </c>
@@ -5372,7 +5386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" s="7">
         <v>45001</v>
       </c>
@@ -5401,7 +5415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" s="7">
         <v>45001</v>
       </c>
@@ -5430,7 +5444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" s="7">
         <v>45001</v>
       </c>
@@ -5459,7 +5473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" s="7">
         <v>45001</v>
       </c>
@@ -5488,7 +5502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" s="7">
         <v>45001</v>
       </c>
@@ -5517,7 +5531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" s="7">
         <v>45001</v>
       </c>
@@ -5546,7 +5560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" s="7">
         <v>45001</v>
       </c>
@@ -5575,7 +5589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" s="7">
         <v>45008</v>
       </c>
@@ -5604,7 +5618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" s="7">
         <v>45008</v>
       </c>
@@ -5633,7 +5647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" s="7">
         <v>45008</v>
       </c>
@@ -5662,7 +5676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" s="7">
         <v>45008</v>
       </c>
@@ -5691,7 +5705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" s="7">
         <v>45008</v>
       </c>
@@ -5720,7 +5734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" s="7">
         <v>45008</v>
       </c>
@@ -5749,7 +5763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" s="7">
         <v>45008</v>
       </c>
@@ -5778,7 +5792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" s="7">
         <v>45008</v>
       </c>
@@ -5807,7 +5821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" s="7">
         <v>45008</v>
       </c>
@@ -5836,7 +5850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" s="7">
         <v>45008</v>
       </c>
@@ -5865,7 +5879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" s="7">
         <v>45008</v>
       </c>
@@ -5894,7 +5908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" s="7">
         <v>45008</v>
       </c>
@@ -5923,7 +5937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" s="7">
         <v>45008</v>
       </c>
@@ -5952,7 +5966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" s="7">
         <v>45008</v>
       </c>
@@ -5981,7 +5995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" s="7">
         <v>45015</v>
       </c>
@@ -6010,7 +6024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" s="7">
         <v>45015</v>
       </c>
@@ -6039,7 +6053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156" s="7">
         <v>45015</v>
       </c>
@@ -6068,7 +6082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157" s="7">
         <v>45015</v>
       </c>
@@ -6097,7 +6111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" s="7">
         <v>45015</v>
       </c>
@@ -6126,7 +6140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159" s="7">
         <v>45015</v>
       </c>
@@ -6155,7 +6169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160" s="7">
         <v>45015</v>
       </c>
@@ -6184,7 +6198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" s="7">
         <v>45015</v>
       </c>
@@ -6213,7 +6227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162" s="7">
         <v>45015</v>
       </c>
@@ -6242,7 +6256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163" s="7">
         <v>45015</v>
       </c>
@@ -6271,7 +6285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164" s="7">
         <v>45015</v>
       </c>
@@ -6300,7 +6314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165" s="7">
         <v>45015</v>
       </c>
@@ -6329,7 +6343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166" s="7">
         <v>45015</v>
       </c>
@@ -6358,7 +6372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167" s="7">
         <v>45015</v>
       </c>
@@ -6387,7 +6401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168" s="7">
         <v>45022</v>
       </c>
@@ -6416,7 +6430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169" s="7">
         <v>45022</v>
       </c>
@@ -6445,7 +6459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A170" s="7">
         <v>45022</v>
       </c>
@@ -6474,7 +6488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A171" s="7">
         <v>45022</v>
       </c>
@@ -6503,7 +6517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A172" s="7">
         <v>45022</v>
       </c>
@@ -6532,7 +6546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A173" s="7">
         <v>45022</v>
       </c>
@@ -6561,7 +6575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A174" s="7">
         <v>45022</v>
       </c>
@@ -6590,7 +6604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A175" s="7">
         <v>45022</v>
       </c>
@@ -6619,7 +6633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A176" s="7">
         <v>45022</v>
       </c>
@@ -6648,7 +6662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177" s="7">
         <v>45022</v>
       </c>
@@ -6677,7 +6691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A178" s="7">
         <v>45022</v>
       </c>
@@ -6706,7 +6720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A179" s="7">
         <v>45022</v>
       </c>
@@ -6735,7 +6749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A180" s="7">
         <v>45022</v>
       </c>
@@ -6764,7 +6778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A181" s="7">
         <v>45022</v>
       </c>
@@ -6793,7 +6807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A182" s="7">
         <v>45030</v>
       </c>
@@ -6822,7 +6836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A183" s="7">
         <v>45030</v>
       </c>
@@ -6851,7 +6865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A184" s="7">
         <v>45030</v>
       </c>
@@ -6880,7 +6894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A185" s="7">
         <v>45030</v>
       </c>
@@ -6909,7 +6923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A186" s="7">
         <v>45030</v>
       </c>
@@ -6938,7 +6952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A187" s="7">
         <v>45030</v>
       </c>
@@ -6967,7 +6981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A188" s="7">
         <v>45030</v>
       </c>
@@ -6996,7 +7010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A189" s="7">
         <v>45030</v>
       </c>
@@ -7025,7 +7039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A190" s="7">
         <v>45030</v>
       </c>
@@ -7054,7 +7068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A191" s="7">
         <v>45030</v>
       </c>
@@ -7083,7 +7097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A192" s="7">
         <v>45030</v>
       </c>
@@ -7112,7 +7126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A193" s="7">
         <v>45030</v>
       </c>
@@ -7141,7 +7155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A194" s="7">
         <v>45030</v>
       </c>
@@ -7170,7 +7184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A195" s="7">
         <v>45030</v>
       </c>
@@ -7199,7 +7213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A196" s="7">
         <v>45030</v>
       </c>
@@ -7228,7 +7242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A197" s="7">
         <v>45030</v>
       </c>
@@ -7257,7 +7271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A198" s="7">
         <v>45030</v>
       </c>
@@ -7286,7 +7300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A199" s="7">
         <v>45030</v>
       </c>
@@ -7315,7 +7329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A200" s="7">
         <v>45030</v>
       </c>
@@ -7344,7 +7358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A201" s="7">
         <v>45030</v>
       </c>
@@ -7373,7 +7387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A202" s="7">
         <v>45030</v>
       </c>
@@ -7402,7 +7416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A203" s="7">
         <v>45030</v>
       </c>
@@ -7431,7 +7445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A204" s="7">
         <v>45050</v>
       </c>
@@ -7460,7 +7474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A205" s="7">
         <v>45050</v>
       </c>
@@ -7489,7 +7503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A206" s="7">
         <v>45050</v>
       </c>
@@ -7518,7 +7532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A207" s="7">
         <v>45050</v>
       </c>
@@ -7547,7 +7561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A208" s="7">
         <v>45050</v>
       </c>
@@ -7576,7 +7590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A209" s="7">
         <v>45050</v>
       </c>
@@ -7605,7 +7619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A210" s="7">
         <v>45050</v>
       </c>
@@ -7634,7 +7648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A211" s="7">
         <v>45050</v>
       </c>
@@ -7663,7 +7677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A212" s="7">
         <v>45050</v>
       </c>
@@ -7692,7 +7706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A213" s="7">
         <v>45050</v>
       </c>
@@ -7721,7 +7735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A214" s="7">
         <v>45050</v>
       </c>
@@ -7750,7 +7764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A215" s="7">
         <v>45050</v>
       </c>
@@ -7779,7 +7793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A216" s="7">
         <v>45050</v>
       </c>
@@ -7808,7 +7822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A217" s="7">
         <v>45050</v>
       </c>
@@ -7837,7 +7851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A218" s="7">
         <v>45050</v>
       </c>
@@ -7866,7 +7880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A219" s="7">
         <v>45050</v>
       </c>
@@ -7895,7 +7909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A220" s="7">
         <v>45057</v>
       </c>
@@ -7924,7 +7938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A221" s="7">
         <v>45057</v>
       </c>
@@ -7953,7 +7967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A222" s="7">
         <v>45057</v>
       </c>
@@ -7982,7 +7996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A223" s="7">
         <v>45057</v>
       </c>
@@ -8011,7 +8025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A224" s="7">
         <v>45057</v>
       </c>
@@ -8040,7 +8054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A225" s="7">
         <v>45057</v>
       </c>
@@ -8069,7 +8083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A226" s="7">
         <v>45057</v>
       </c>
@@ -8098,7 +8112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A227" s="7">
         <v>45057</v>
       </c>
@@ -8127,7 +8141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A228" s="7">
         <v>45057</v>
       </c>
@@ -8156,7 +8170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A229" s="7">
         <v>45057</v>
       </c>
@@ -8185,7 +8199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A230" s="7">
         <v>45057</v>
       </c>
@@ -8214,7 +8228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A231" s="7">
         <v>45057</v>
       </c>
@@ -8243,7 +8257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A232" s="7">
         <v>45057</v>
       </c>
@@ -8272,7 +8286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A233" s="7">
         <v>45057</v>
       </c>
@@ -8301,7 +8315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A234" s="7">
         <v>45064</v>
       </c>
@@ -8330,7 +8344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A235" s="7">
         <v>45064</v>
       </c>
@@ -8359,7 +8373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A236" s="7">
         <v>45064</v>
       </c>
@@ -8388,7 +8402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A237" s="7">
         <v>45064</v>
       </c>
@@ -8417,7 +8431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A238" s="7">
         <v>45064</v>
       </c>
@@ -8446,7 +8460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A239" s="7">
         <v>45064</v>
       </c>
@@ -8475,7 +8489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A240" s="7">
         <v>45064</v>
       </c>
@@ -8504,7 +8518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A241" s="7">
         <v>45064</v>
       </c>
@@ -8533,7 +8547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A242" s="7">
         <v>45064</v>
       </c>
@@ -8562,7 +8576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A243" s="7">
         <v>45064</v>
       </c>
@@ -8591,7 +8605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A244" s="7">
         <v>45064</v>
       </c>
@@ -8620,7 +8634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A245" s="7">
         <v>45064</v>
       </c>
@@ -8649,7 +8663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A246" s="7">
         <v>45064</v>
       </c>
@@ -8678,7 +8692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A247" s="7">
         <v>45064</v>
       </c>
@@ -8707,7 +8721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A248" s="7">
         <v>45064</v>
       </c>
@@ -8736,7 +8750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A249" s="7">
         <v>45064</v>
       </c>
@@ -8765,7 +8779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A250" s="7">
         <v>45071</v>
       </c>
@@ -8794,7 +8808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A251" s="7">
         <v>45071</v>
       </c>
@@ -8823,7 +8837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A252" s="7">
         <v>45071</v>
       </c>
@@ -8852,7 +8866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A253" s="7">
         <v>45071</v>
       </c>
@@ -8881,7 +8895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A254" s="7">
         <v>45071</v>
       </c>
@@ -8910,7 +8924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A255" s="7">
         <v>45071</v>
       </c>
@@ -8939,7 +8953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A256" s="7">
         <v>45071</v>
       </c>
@@ -8968,7 +8982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A257" s="7">
         <v>45071</v>
       </c>
@@ -8997,7 +9011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A258" s="7">
         <v>45071</v>
       </c>
@@ -9026,7 +9040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A259" s="7">
         <v>45071</v>
       </c>
@@ -9055,7 +9069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A260" s="7">
         <v>45071</v>
       </c>
@@ -9084,7 +9098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A261" s="7">
         <v>45071</v>
       </c>
@@ -9113,7 +9127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A262" s="7">
         <v>45071</v>
       </c>
@@ -9142,7 +9156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A263" s="7">
         <v>45071</v>
       </c>
@@ -9171,7 +9185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A264" s="7">
         <v>45078</v>
       </c>
@@ -9200,7 +9214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A265" s="7">
         <v>45078</v>
       </c>
@@ -9229,7 +9243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A266" s="7">
         <v>45078</v>
       </c>
@@ -9258,7 +9272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A267" s="7">
         <v>45078</v>
       </c>
@@ -9287,7 +9301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A268" s="7">
         <v>45078</v>
       </c>
@@ -9316,7 +9330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A269" s="7">
         <v>45078</v>
       </c>
@@ -9345,7 +9359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A270" s="7">
         <v>45078</v>
       </c>
@@ -9374,7 +9388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A271" s="7">
         <v>45078</v>
       </c>
@@ -9403,7 +9417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A272" s="7">
         <v>45078</v>
       </c>
@@ -9432,7 +9446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A273" s="7">
         <v>45078</v>
       </c>
@@ -9461,7 +9475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A274" s="7">
         <v>45078</v>
       </c>
@@ -9490,7 +9504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A275" s="7">
         <v>45078</v>
       </c>
@@ -9519,7 +9533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A276" s="7">
         <v>45078</v>
       </c>
@@ -9548,7 +9562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A277" s="7">
         <v>45078</v>
       </c>
@@ -9577,7 +9591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A278" s="7">
         <v>45085</v>
       </c>
@@ -9606,7 +9620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A279" s="7">
         <v>45085</v>
       </c>
@@ -9635,7 +9649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A280" s="7">
         <v>45085</v>
       </c>
@@ -9664,7 +9678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A281" s="7">
         <v>45085</v>
       </c>
@@ -9693,7 +9707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A282" s="7">
         <v>45085</v>
       </c>
@@ -9722,7 +9736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A283" s="7">
         <v>45085</v>
       </c>
@@ -9751,7 +9765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A284" s="7">
         <v>45085</v>
       </c>
@@ -9780,7 +9794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A285" s="7">
         <v>45085</v>
       </c>
@@ -9809,7 +9823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A286" s="7">
         <v>45085</v>
       </c>
@@ -9838,7 +9852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A287" s="7">
         <v>45085</v>
       </c>
@@ -9867,7 +9881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A288" s="7">
         <v>45085</v>
       </c>
@@ -9896,7 +9910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A289" s="7">
         <v>45085</v>
       </c>
@@ -9925,7 +9939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A290" s="7">
         <v>45085</v>
       </c>
@@ -9954,7 +9968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A291" s="7">
         <v>45085</v>
       </c>
@@ -9983,7 +9997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A292" s="7">
         <v>45092</v>
       </c>
@@ -10012,7 +10026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A293" s="7">
         <v>45092</v>
       </c>
@@ -10041,7 +10055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A294" s="7">
         <v>45092</v>
       </c>
@@ -10070,7 +10084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A295" s="7">
         <v>45092</v>
       </c>
@@ -10099,7 +10113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A296" s="7">
         <v>45092</v>
       </c>
@@ -10128,7 +10142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A297" s="7">
         <v>45092</v>
       </c>
@@ -10157,7 +10171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A298" s="7">
         <v>45092</v>
       </c>
@@ -10186,7 +10200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A299" s="7">
         <v>45092</v>
       </c>
@@ -10215,7 +10229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A300" s="7">
         <v>45092</v>
       </c>
@@ -10244,7 +10258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A301" s="7">
         <v>45092</v>
       </c>
@@ -10273,7 +10287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A302" s="7">
         <v>45092</v>
       </c>
@@ -10302,7 +10316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A303" s="7">
         <v>45092</v>
       </c>
@@ -10331,7 +10345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A304" s="7">
         <v>45092</v>
       </c>
@@ -10360,7 +10374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A305" s="7">
         <v>45092</v>
       </c>
@@ -10389,7 +10403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A306" s="7">
         <v>45092</v>
       </c>
@@ -10418,7 +10432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A307" s="7">
         <v>45092</v>
       </c>
@@ -10447,7 +10461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A308" s="7">
         <v>45099</v>
       </c>
@@ -10476,7 +10490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A309" s="7">
         <v>45099</v>
       </c>
@@ -10505,7 +10519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A310" s="7">
         <v>45099</v>
       </c>
@@ -10534,7 +10548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A311" s="7">
         <v>45099</v>
       </c>
@@ -10563,7 +10577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A312" s="7">
         <v>45099</v>
       </c>
@@ -10592,7 +10606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A313" s="7">
         <v>45099</v>
       </c>
@@ -10621,7 +10635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A314" s="7">
         <v>45099</v>
       </c>
@@ -10650,7 +10664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A315" s="7">
         <v>45099</v>
       </c>
@@ -10679,7 +10693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A316" s="7">
         <v>45099</v>
       </c>
@@ -10708,7 +10722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A317" s="7">
         <v>45099</v>
       </c>
@@ -10737,7 +10751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A318" s="7">
         <v>45099</v>
       </c>
@@ -10766,7 +10780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A319" s="7">
         <v>45099</v>
       </c>
@@ -10795,7 +10809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A320" s="7">
         <v>45099</v>
       </c>
@@ -10824,7 +10838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A321" s="7">
         <v>45099</v>
       </c>
@@ -10853,7 +10867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A322" s="7">
         <v>45099</v>
       </c>
@@ -10882,7 +10896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A323" s="7">
         <v>45099</v>
       </c>
@@ -10911,7 +10925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A324" s="7">
         <v>45106</v>
       </c>
@@ -10940,7 +10954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A325" s="7">
         <v>45106</v>
       </c>
@@ -10969,7 +10983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A326" s="7">
         <v>45106</v>
       </c>
@@ -10998,7 +11012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A327" s="7">
         <v>45106</v>
       </c>
@@ -11027,7 +11041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A328" s="7">
         <v>45106</v>
       </c>
@@ -11056,7 +11070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A329" s="7">
         <v>45106</v>
       </c>
@@ -11085,7 +11099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A330" s="7">
         <v>45106</v>
       </c>
@@ -11114,7 +11128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A331" s="7">
         <v>45106</v>
       </c>
@@ -11143,7 +11157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A332" s="7">
         <v>45106</v>
       </c>
@@ -11172,7 +11186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A333" s="7">
         <v>45106</v>
       </c>
@@ -11201,7 +11215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A334" s="7">
         <v>45106</v>
       </c>
@@ -11230,7 +11244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A335" s="7">
         <v>45106</v>
       </c>
@@ -11259,7 +11273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A336" s="7">
         <v>45106</v>
       </c>
@@ -11288,7 +11302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A337" s="7">
         <v>45106</v>
       </c>
@@ -11317,7 +11331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A338" s="7">
         <v>45106</v>
       </c>
@@ -11346,7 +11360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A339" s="7">
         <v>45106</v>
       </c>
@@ -11375,7 +11389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A340" s="7">
         <v>45113</v>
       </c>
@@ -11404,7 +11418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A341" s="7">
         <v>45113</v>
       </c>
@@ -11433,7 +11447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A342" s="7">
         <v>45113</v>
       </c>
@@ -11462,7 +11476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A343" s="7">
         <v>45113</v>
       </c>
@@ -11491,7 +11505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A344" s="7">
         <v>45113</v>
       </c>
@@ -11520,7 +11534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A345" s="7">
         <v>45113</v>
       </c>
@@ -11549,7 +11563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A346" s="7">
         <v>45113</v>
       </c>
@@ -11578,7 +11592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A347" s="7">
         <v>45113</v>
       </c>
@@ -11607,7 +11621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A348" s="7">
         <v>45113</v>
       </c>
@@ -11636,7 +11650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A349" s="7">
         <v>45113</v>
       </c>
@@ -11665,7 +11679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A350" s="7">
         <v>45113</v>
       </c>
@@ -11694,7 +11708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A351" s="7">
         <v>45113</v>
       </c>
@@ -11723,7 +11737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A352" s="7">
         <v>45113</v>
       </c>
@@ -11752,7 +11766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A353" s="7">
         <v>45113</v>
       </c>
@@ -11781,7 +11795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A354" s="7">
         <v>45114</v>
       </c>
@@ -11810,7 +11824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A355" s="7">
         <v>45114</v>
       </c>
@@ -11839,7 +11853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A356" s="7">
         <v>45114</v>
       </c>
@@ -11868,7 +11882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A357" s="7">
         <v>45114</v>
       </c>
@@ -11897,7 +11911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A358" s="7">
         <v>45114</v>
       </c>
@@ -11926,7 +11940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A359" s="7">
         <v>45114</v>
       </c>
@@ -11955,7 +11969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A360" s="7">
         <v>45114</v>
       </c>
@@ -11984,7 +11998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A361" s="7">
         <v>45114</v>
       </c>
@@ -12013,7 +12027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A362" s="7">
         <v>45114</v>
       </c>
@@ -12042,7 +12056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A363" s="7">
         <v>45114</v>
       </c>
@@ -12071,7 +12085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A364" s="7">
         <v>45114</v>
       </c>
@@ -12100,7 +12114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A365" s="7">
         <v>45114</v>
       </c>
@@ -12129,7 +12143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A366" s="7">
         <v>45114</v>
       </c>
@@ -12158,7 +12172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A367" s="7">
         <v>45115</v>
       </c>
@@ -12187,7 +12201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A368" s="7">
         <v>45115</v>
       </c>
@@ -12216,7 +12230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A369" s="7">
         <v>45115</v>
       </c>
@@ -12245,7 +12259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A370" s="7">
         <v>45115</v>
       </c>
@@ -12274,7 +12288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A371" s="7">
         <v>45115</v>
       </c>
@@ -12303,7 +12317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A372" s="7">
         <v>45115</v>
       </c>
@@ -12332,7 +12346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A373" s="7">
         <v>45115</v>
       </c>
@@ -12361,7 +12375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A374" s="7">
         <v>45115</v>
       </c>
@@ -12390,7 +12404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A375" s="7">
         <v>45115</v>
       </c>
@@ -12419,7 +12433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A376" s="7">
         <v>45115</v>
       </c>
@@ -12448,7 +12462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A377" s="7">
         <v>45116</v>
       </c>
@@ -12477,7 +12491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A378" s="7">
         <v>45116</v>
       </c>
@@ -12506,7 +12520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A379" s="7">
         <v>45116</v>
       </c>
@@ -12535,7 +12549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A380" s="7">
         <v>45116</v>
       </c>
@@ -12564,7 +12578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A381" s="7">
         <v>45116</v>
       </c>
@@ -12593,7 +12607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A382" s="7">
         <v>45116</v>
       </c>
@@ -12622,7 +12636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A383" s="7">
         <v>45116</v>
       </c>
@@ -12651,7 +12665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A384" s="7">
         <v>45116</v>
       </c>
@@ -12680,7 +12694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A385" s="7">
         <v>45116</v>
       </c>
@@ -12709,7 +12723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A386" s="7">
         <v>45116</v>
       </c>
@@ -12738,7 +12752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A387" s="7">
         <v>45116</v>
       </c>
@@ -12767,7 +12781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A388" s="7">
         <v>45116</v>
       </c>
@@ -12796,7 +12810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A389" s="7">
         <v>45116</v>
       </c>
@@ -12825,7 +12839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A390" s="7">
         <v>45116</v>
       </c>
@@ -12854,7 +12868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A391" s="7">
         <v>45117</v>
       </c>
@@ -12883,7 +12897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A392" s="7">
         <v>45117</v>
       </c>
@@ -12912,7 +12926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A393" s="7">
         <v>45117</v>
       </c>
@@ -12941,7 +12955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A394" s="7">
         <v>45117</v>
       </c>
@@ -12970,7 +12984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A395" s="7">
         <v>45117</v>
       </c>
@@ -12999,7 +13013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A396" s="7">
         <v>45117</v>
       </c>
@@ -13028,7 +13042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A397" s="7">
         <v>45117</v>
       </c>
@@ -13057,7 +13071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A398" s="7">
         <v>45117</v>
       </c>
@@ -13086,7 +13100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A399" s="7">
         <v>45117</v>
       </c>
@@ -13115,7 +13129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A400" s="7">
         <v>45118</v>
       </c>
@@ -13144,7 +13158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A401" s="7">
         <v>45118</v>
       </c>
@@ -13173,7 +13187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A402" s="7">
         <v>45118</v>
       </c>
@@ -13202,7 +13216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A403" s="7">
         <v>45118</v>
       </c>
@@ -13231,7 +13245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A404" s="7">
         <v>45118</v>
       </c>
@@ -13260,7 +13274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A405" s="7">
         <v>45118</v>
       </c>
@@ -13289,7 +13303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A406" s="7">
         <v>45118</v>
       </c>
@@ -13318,7 +13332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A407" s="7">
         <v>45118</v>
       </c>
@@ -13347,7 +13361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A408" s="7">
         <v>45118</v>
       </c>
@@ -13376,7 +13390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A409" s="7">
         <v>45118</v>
       </c>
@@ -13405,7 +13419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A410" s="7">
         <v>45118</v>
       </c>
@@ -13434,7 +13448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A411" s="7">
         <v>45118</v>
       </c>
@@ -13463,7 +13477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A412" s="7">
         <v>45118</v>
       </c>
@@ -13492,7 +13506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A413" s="7">
         <v>45118</v>
       </c>
@@ -13521,7 +13535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A414" s="7">
         <v>45119</v>
       </c>
@@ -13550,7 +13564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A415" s="7">
         <v>45119</v>
       </c>
@@ -13579,7 +13593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A416" s="7">
         <v>45119</v>
       </c>
@@ -13608,7 +13622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A417" s="7">
         <v>45119</v>
       </c>
@@ -13637,7 +13651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A418" s="7">
         <v>45119</v>
       </c>
@@ -13666,7 +13680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A419" s="7">
         <v>45119</v>
       </c>
@@ -13695,7 +13709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A420" s="7">
         <v>45119</v>
       </c>
@@ -13724,7 +13738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A421" s="7">
         <v>45119</v>
       </c>
@@ -13753,7 +13767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A422" s="7">
         <v>45119</v>
       </c>
@@ -13782,7 +13796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A423" s="26">
         <v>45176</v>
       </c>
@@ -13814,7 +13828,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A424" s="26">
         <v>45176</v>
       </c>
@@ -13846,7 +13860,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A425" s="26">
         <v>45176</v>
       </c>
@@ -13878,7 +13892,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A426" s="26">
         <v>45176</v>
       </c>
@@ -13910,7 +13924,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A427" s="26">
         <v>45176</v>
       </c>
@@ -13942,7 +13956,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A428" s="26">
         <v>45176</v>
       </c>
@@ -13974,7 +13988,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A429" s="26">
         <v>45176</v>
       </c>
@@ -14006,7 +14020,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A430" s="26">
         <v>45176</v>
       </c>
@@ -14038,7 +14052,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A431" s="26">
         <v>45176</v>
       </c>
@@ -14070,7 +14084,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A432" s="26">
         <v>45176</v>
       </c>
@@ -14102,7 +14116,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A433" s="26">
         <v>45176</v>
       </c>
@@ -14134,7 +14148,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A434" s="26">
         <v>45176</v>
       </c>
@@ -14166,7 +14180,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A435" s="26">
         <v>45176</v>
       </c>
@@ -14198,7 +14212,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A436" s="26">
         <v>45176</v>
       </c>
@@ -14230,7 +14244,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A437" s="26">
         <v>45183</v>
       </c>
@@ -14262,7 +14276,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A438" s="26">
         <v>45183</v>
       </c>
@@ -14294,7 +14308,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A439" s="26">
         <v>45183</v>
       </c>
@@ -14326,7 +14340,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A440" s="26">
         <v>45183</v>
       </c>
@@ -14358,7 +14372,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A441" s="26">
         <v>45183</v>
       </c>
@@ -14390,7 +14404,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A442" s="26">
         <v>45183</v>
       </c>
@@ -14422,7 +14436,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A443" s="26">
         <v>45183</v>
       </c>
@@ -14454,7 +14468,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A444" s="26">
         <v>45183</v>
       </c>
@@ -14486,7 +14500,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A445" s="26">
         <v>45183</v>
       </c>
@@ -14518,7 +14532,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A446" s="26">
         <v>45183</v>
       </c>
@@ -14550,7 +14564,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A447" s="26">
         <v>45183</v>
       </c>
@@ -14582,7 +14596,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A448" s="26">
         <v>45183</v>
       </c>
@@ -14614,7 +14628,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A449" s="26">
         <v>45183</v>
       </c>
@@ -14646,7 +14660,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A450" s="26">
         <v>45183</v>
       </c>
@@ -14678,9 +14692,418 @@
         <v>90</v>
       </c>
     </row>
+    <row r="451" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A451" s="26">
+        <v>45190</v>
+      </c>
+      <c r="B451" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C451" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D451" s="9">
+        <v>0</v>
+      </c>
+      <c r="E451" s="9">
+        <v>0</v>
+      </c>
+      <c r="F451" s="9">
+        <v>0</v>
+      </c>
+      <c r="G451" s="9">
+        <v>0</v>
+      </c>
+      <c r="H451" s="9">
+        <v>0</v>
+      </c>
+      <c r="I451" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A452" s="26">
+        <v>45190</v>
+      </c>
+      <c r="B452" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C452" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D452" s="9">
+        <v>0</v>
+      </c>
+      <c r="E452" s="9">
+        <v>0</v>
+      </c>
+      <c r="F452" s="9">
+        <v>0</v>
+      </c>
+      <c r="G452" s="9">
+        <v>1</v>
+      </c>
+      <c r="H452" s="9">
+        <v>0</v>
+      </c>
+      <c r="I452" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A453" s="26">
+        <v>45190</v>
+      </c>
+      <c r="B453" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C453" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D453" s="9">
+        <v>0</v>
+      </c>
+      <c r="E453" s="9">
+        <v>0</v>
+      </c>
+      <c r="F453" s="9">
+        <v>0</v>
+      </c>
+      <c r="G453" s="9">
+        <v>0</v>
+      </c>
+      <c r="H453" s="9">
+        <v>0</v>
+      </c>
+      <c r="I453" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A454" s="26">
+        <v>45190</v>
+      </c>
+      <c r="B454" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C454" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D454" s="9">
+        <v>3</v>
+      </c>
+      <c r="E454" s="9">
+        <v>0</v>
+      </c>
+      <c r="F454" s="9">
+        <v>0</v>
+      </c>
+      <c r="G454" s="9">
+        <v>0</v>
+      </c>
+      <c r="H454" s="9">
+        <v>0</v>
+      </c>
+      <c r="I454" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A455" s="26">
+        <v>45190</v>
+      </c>
+      <c r="B455" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C455" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D455" s="9">
+        <v>3</v>
+      </c>
+      <c r="E455" s="9">
+        <v>0</v>
+      </c>
+      <c r="F455" s="9">
+        <v>0</v>
+      </c>
+      <c r="G455" s="9">
+        <v>0</v>
+      </c>
+      <c r="H455" s="9">
+        <v>0</v>
+      </c>
+      <c r="I455" s="9">
+        <v>0</v>
+      </c>
+      <c r="J455" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="456" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A456" s="26">
+        <v>45190</v>
+      </c>
+      <c r="B456" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C456" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D456" s="9">
+        <v>0</v>
+      </c>
+      <c r="E456" s="9">
+        <v>0</v>
+      </c>
+      <c r="F456" s="9">
+        <v>0</v>
+      </c>
+      <c r="G456" s="9">
+        <v>0</v>
+      </c>
+      <c r="H456" s="9">
+        <v>0</v>
+      </c>
+      <c r="I456" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A457" s="26">
+        <v>45190</v>
+      </c>
+      <c r="B457" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C457" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D457" s="9">
+        <v>0</v>
+      </c>
+      <c r="E457" s="9">
+        <v>0</v>
+      </c>
+      <c r="F457" s="9">
+        <v>0</v>
+      </c>
+      <c r="G457" s="9">
+        <v>0</v>
+      </c>
+      <c r="H457" s="9">
+        <v>0</v>
+      </c>
+      <c r="I457" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A458" s="26">
+        <v>45190</v>
+      </c>
+      <c r="B458" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C458" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D458" s="9">
+        <v>0</v>
+      </c>
+      <c r="E458" s="9">
+        <v>0</v>
+      </c>
+      <c r="F458" s="9">
+        <v>0</v>
+      </c>
+      <c r="G458" s="9">
+        <v>0</v>
+      </c>
+      <c r="H458" s="9">
+        <v>0</v>
+      </c>
+      <c r="I458" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A459" s="26">
+        <v>45190</v>
+      </c>
+      <c r="B459" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C459" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D459" s="9">
+        <v>0</v>
+      </c>
+      <c r="E459" s="9">
+        <v>0</v>
+      </c>
+      <c r="F459" s="9">
+        <v>0</v>
+      </c>
+      <c r="G459" s="9">
+        <v>0</v>
+      </c>
+      <c r="H459" s="9">
+        <v>0</v>
+      </c>
+      <c r="I459" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A460" s="26">
+        <v>45190</v>
+      </c>
+      <c r="B460" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C460" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D460" s="9">
+        <v>0</v>
+      </c>
+      <c r="E460" s="9">
+        <v>0</v>
+      </c>
+      <c r="F460" s="9">
+        <v>0</v>
+      </c>
+      <c r="G460" s="9">
+        <v>0</v>
+      </c>
+      <c r="H460" s="9">
+        <v>0</v>
+      </c>
+      <c r="I460" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A461" s="26">
+        <v>45190</v>
+      </c>
+      <c r="B461" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C461" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D461" s="9">
+        <v>0</v>
+      </c>
+      <c r="E461" s="9">
+        <v>0</v>
+      </c>
+      <c r="F461" s="9">
+        <v>0</v>
+      </c>
+      <c r="G461" s="9">
+        <v>0</v>
+      </c>
+      <c r="H461" s="9">
+        <v>0</v>
+      </c>
+      <c r="I461" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A462" s="26">
+        <v>45190</v>
+      </c>
+      <c r="B462" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C462" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D462" s="9">
+        <v>0</v>
+      </c>
+      <c r="E462" s="9">
+        <v>0</v>
+      </c>
+      <c r="F462" s="9">
+        <v>0</v>
+      </c>
+      <c r="G462" s="9">
+        <v>0</v>
+      </c>
+      <c r="H462" s="9">
+        <v>0</v>
+      </c>
+      <c r="I462" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A463" s="26">
+        <v>45190</v>
+      </c>
+      <c r="B463" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C463" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D463" s="9">
+        <v>0</v>
+      </c>
+      <c r="E463" s="9">
+        <v>0</v>
+      </c>
+      <c r="F463" s="9">
+        <v>0</v>
+      </c>
+      <c r="G463" s="9">
+        <v>0</v>
+      </c>
+      <c r="H463" s="9">
+        <v>0</v>
+      </c>
+      <c r="I463" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A464" s="26">
+        <v>45190</v>
+      </c>
+      <c r="B464" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C464" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D464" s="9">
+        <v>2</v>
+      </c>
+      <c r="E464" s="9">
+        <v>0</v>
+      </c>
+      <c r="F464" s="9">
+        <v>0</v>
+      </c>
+      <c r="G464" s="9">
+        <v>0</v>
+      </c>
+      <c r="H464" s="9">
+        <v>1</v>
+      </c>
+      <c r="I464" s="9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J422" xr:uid="{F55E8A24-46F9-4225-A2C2-A9164F13364A}"/>
-  <conditionalFormatting sqref="C2:C450">
+  <conditionalFormatting sqref="C2:C464">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Scuri"</formula>
     </cfRule>
@@ -14689,13 +15112,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H450 D2:E450" xr:uid="{A2364708-0661-4544-87F1-D3FDEABF18B6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:E464 H2:H464" xr:uid="{A2364708-0661-4544-87F1-D3FDEABF18B6}">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I450" xr:uid="{3C35827F-D598-4F40-B064-7FA732E53B67}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I464" xr:uid="{3C35827F-D598-4F40-B064-7FA732E53B67}">
       <formula1>"0, 1, 2, 3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G450" xr:uid="{2FE2E49C-6CC7-4B84-9D73-A960B8BAAF9A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G464" xr:uid="{2FE2E49C-6CC7-4B84-9D73-A960B8BAAF9A}">
       <formula1>"0, 1"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14718,21 +15141,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E168A56-6341-4406-8D41-CC351A3A492A}">
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView topLeftCell="A60" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="25.54296875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.5703125" style="20"/>
-    <col min="3" max="5" width="25.5703125" style="22"/>
-    <col min="6" max="6" width="25.5703125" style="20"/>
-    <col min="7" max="16384" width="25.5703125" style="17"/>
+    <col min="1" max="2" width="25.54296875" style="20"/>
+    <col min="3" max="5" width="25.54296875" style="22"/>
+    <col min="6" max="6" width="25.54296875" style="20"/>
+    <col min="7" max="16384" width="25.54296875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>16</v>
       </c>
@@ -14752,7 +15175,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>74</v>
       </c>
@@ -14772,7 +15195,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>58</v>
       </c>
@@ -14792,7 +15215,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>68</v>
       </c>
@@ -14810,7 +15233,7 @@
       </c>
       <c r="F4" s="19"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>42</v>
       </c>
@@ -14828,7 +15251,7 @@
       </c>
       <c r="F5" s="19"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>71</v>
       </c>
@@ -14848,7 +15271,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>70</v>
       </c>
@@ -14866,7 +15289,7 @@
       </c>
       <c r="F7" s="19"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>78</v>
       </c>
@@ -14884,7 +15307,7 @@
       </c>
       <c r="F8" s="19"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
         <v>21</v>
       </c>
@@ -14902,7 +15325,7 @@
       </c>
       <c r="F9" s="19"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>80</v>
       </c>
@@ -14920,7 +15343,7 @@
       </c>
       <c r="F10" s="19"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
         <v>39</v>
       </c>
@@ -14938,7 +15361,7 @@
       </c>
       <c r="F11" s="19"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="19" t="s">
         <v>64</v>
       </c>
@@ -14956,7 +15379,7 @@
       </c>
       <c r="F12" s="19"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
         <v>31</v>
       </c>
@@ -14974,7 +15397,7 @@
       </c>
       <c r="F13" s="19"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
         <v>28</v>
       </c>
@@ -14992,7 +15415,7 @@
       </c>
       <c r="F14" s="19"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
         <v>73</v>
       </c>
@@ -15010,7 +15433,7 @@
       </c>
       <c r="F15" s="19"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
         <v>110</v>
       </c>
@@ -15030,7 +15453,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="19" t="s">
         <v>52</v>
       </c>
@@ -15050,7 +15473,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="19" t="s">
         <v>33</v>
       </c>
@@ -15068,7 +15491,7 @@
       </c>
       <c r="F18" s="19"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="19" t="s">
         <v>94</v>
       </c>
@@ -15086,7 +15509,7 @@
       </c>
       <c r="F19" s="19"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="19" t="s">
         <v>95</v>
       </c>
@@ -15106,7 +15529,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="19" t="s">
         <v>57</v>
       </c>
@@ -15126,7 +15549,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="19" t="s">
         <v>79</v>
       </c>
@@ -15144,7 +15567,7 @@
       </c>
       <c r="F22" s="19"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="19" t="s">
         <v>96</v>
       </c>
@@ -15164,7 +15587,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="19" t="s">
         <v>43</v>
       </c>
@@ -15182,7 +15605,7 @@
       </c>
       <c r="F24" s="19"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="19" t="s">
         <v>51</v>
       </c>
@@ -15202,7 +15625,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="19" t="s">
         <v>29</v>
       </c>
@@ -15220,7 +15643,7 @@
       </c>
       <c r="F26" s="19"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="19" t="s">
         <v>38</v>
       </c>
@@ -15238,7 +15661,7 @@
       </c>
       <c r="F27" s="19"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="19" t="s">
         <v>99</v>
       </c>
@@ -15258,7 +15681,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="19" t="s">
         <v>35</v>
       </c>
@@ -15276,7 +15699,7 @@
       </c>
       <c r="F29" s="19"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="19" t="s">
         <v>41</v>
       </c>
@@ -15294,7 +15717,7 @@
       </c>
       <c r="F30" s="19"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="19" t="s">
         <v>47</v>
       </c>
@@ -15312,7 +15735,7 @@
       </c>
       <c r="F31" s="19"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="18" t="s">
         <v>72</v>
       </c>
@@ -15332,7 +15755,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="19" t="s">
         <v>49</v>
       </c>
@@ -15350,7 +15773,7 @@
       </c>
       <c r="F33" s="19"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="19" t="s">
         <v>36</v>
       </c>
@@ -15368,7 +15791,7 @@
       </c>
       <c r="F34" s="19"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="19" t="s">
         <v>56</v>
       </c>
@@ -15388,7 +15811,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="19" t="s">
         <v>32</v>
       </c>
@@ -15406,7 +15829,7 @@
       </c>
       <c r="F36" s="19"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="19" t="s">
         <v>55</v>
       </c>
@@ -15426,7 +15849,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="18" t="s">
         <v>66</v>
       </c>
@@ -15444,7 +15867,7 @@
       </c>
       <c r="F38" s="19"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="19" t="s">
         <v>44</v>
       </c>
@@ -15462,7 +15885,7 @@
       </c>
       <c r="F39" s="19"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="19" t="s">
         <v>50</v>
       </c>
@@ -15482,7 +15905,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="19" t="s">
         <v>61</v>
       </c>
@@ -15502,7 +15925,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="19" t="s">
         <v>63</v>
       </c>
@@ -15520,7 +15943,7 @@
       </c>
       <c r="F42" s="19"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="19" t="s">
         <v>23</v>
       </c>
@@ -15538,7 +15961,7 @@
       </c>
       <c r="F43" s="19"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="18" t="s">
         <v>60</v>
       </c>
@@ -15556,7 +15979,7 @@
       </c>
       <c r="F44" s="19"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="19" t="s">
         <v>25</v>
       </c>
@@ -15574,7 +15997,7 @@
       </c>
       <c r="F45" s="19"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="18" t="s">
         <v>69</v>
       </c>
@@ -15594,7 +16017,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="19" t="s">
         <v>53</v>
       </c>
@@ -15614,7 +16037,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="19" t="s">
         <v>76</v>
       </c>
@@ -15632,7 +16055,7 @@
       </c>
       <c r="F48" s="19"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="19" t="s">
         <v>62</v>
       </c>
@@ -15650,7 +16073,7 @@
       </c>
       <c r="F49" s="19"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="19" t="s">
         <v>26</v>
       </c>
@@ -15668,7 +16091,7 @@
       </c>
       <c r="F50" s="19"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="19" t="s">
         <v>48</v>
       </c>
@@ -15686,7 +16109,7 @@
       </c>
       <c r="F51" s="19"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="19" t="s">
         <v>54</v>
       </c>
@@ -15704,7 +16127,7 @@
       </c>
       <c r="F52" s="19"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="18" t="s">
         <v>67</v>
       </c>
@@ -15722,7 +16145,7 @@
       </c>
       <c r="F53" s="19"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="19" t="s">
         <v>24</v>
       </c>
@@ -15740,7 +16163,7 @@
       </c>
       <c r="F54" s="19"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="19" t="s">
         <v>46</v>
       </c>
@@ -15760,7 +16183,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="18" t="s">
         <v>59</v>
       </c>
@@ -15778,7 +16201,7 @@
       </c>
       <c r="F56" s="19"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="19" t="s">
         <v>103</v>
       </c>
@@ -15796,7 +16219,7 @@
       </c>
       <c r="F57" s="19"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="19" t="s">
         <v>40</v>
       </c>
@@ -15816,7 +16239,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="19" t="s">
         <v>27</v>
       </c>
@@ -15834,7 +16257,7 @@
       </c>
       <c r="F59" s="19"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="19" t="s">
         <v>45</v>
       </c>
@@ -15852,7 +16275,7 @@
       </c>
       <c r="F60" s="19"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="19" t="s">
         <v>104</v>
       </c>
@@ -15872,7 +16295,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="19" t="s">
         <v>105</v>
       </c>
@@ -15892,7 +16315,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="19" t="s">
         <v>77</v>
       </c>
@@ -15910,7 +16333,7 @@
       </c>
       <c r="F63" s="19"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="19" t="s">
         <v>34</v>
       </c>
@@ -15928,7 +16351,7 @@
       </c>
       <c r="F64" s="19"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="19" t="s">
         <v>75</v>
       </c>
@@ -15946,7 +16369,7 @@
       </c>
       <c r="F65" s="19"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="19" t="s">
         <v>65</v>
       </c>
@@ -15964,7 +16387,7 @@
       </c>
       <c r="F66" s="19"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="19" t="s">
         <v>111</v>
       </c>
@@ -15982,7 +16405,7 @@
       </c>
       <c r="F67" s="19"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="19" t="s">
         <v>112</v>
       </c>
@@ -16000,7 +16423,7 @@
       </c>
       <c r="F68" s="19"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="19" t="s">
         <v>113</v>
       </c>
@@ -16017,6 +16440,24 @@
         <v>88</v>
       </c>
       <c r="F69" s="19"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="B70" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C70" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D70" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="E70" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="F70" s="19"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E66" xr:uid="{3E168A56-6341-4406-8D41-CC351A3A492A}"/>
@@ -16035,42 +16476,42 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
         <v>88</v>
       </c>

--- a/Input/FantaSPL_Milano.xlsx
+++ b/Input/FantaSPL_Milano.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Local_Docs\Admin\Other\Kit\SPL\SPL_v_0.2\SPL_Regional\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4856AE5-2CDA-410F-B3F2-36D606D8D142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F01E21E-BA7F-42A4-97D3-A48640DD3F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="2" xr2:uid="{05F018D4-855F-4570-8D15-9B4DD092A228}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{05F018D4-855F-4570-8D15-9B4DD092A228}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="11" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Players!$A$1:$E$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Points!$A$1:$J$422</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Points!$A$1:$J$478</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="116">
   <si>
     <t>Parameter</t>
   </si>
@@ -389,6 +389,9 @@
   </si>
   <si>
     <t>Fabio (Mario)</t>
+  </si>
+  <si>
+    <t>Stefano (Cava)</t>
   </si>
 </sst>
 </file>
@@ -950,14 +953,14 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -971,7 +974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>4</v>
       </c>
@@ -985,7 +988,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>5</v>
       </c>
@@ -999,7 +1002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>109</v>
       </c>
@@ -1013,7 +1016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>6</v>
       </c>
@@ -1027,7 +1030,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>7</v>
       </c>
@@ -1041,7 +1044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>8</v>
       </c>
@@ -1055,7 +1058,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>9</v>
       </c>
@@ -1069,7 +1072,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>10</v>
       </c>
@@ -1083,7 +1086,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>11</v>
       </c>
@@ -1097,7 +1100,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>20</v>
       </c>
@@ -1111,7 +1114,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>107</v>
       </c>
@@ -1125,7 +1128,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
         <v>12</v>
       </c>
@@ -1147,19 +1150,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A29AA2D-3F32-45F2-B719-A1F62E0F1A5F}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
+      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="17.1796875" style="1"/>
+    <col min="1" max="3" width="17.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>13</v>
       </c>
@@ -1170,7 +1173,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>44938</v>
       </c>
@@ -1181,7 +1184,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>44945</v>
       </c>
@@ -1192,7 +1195,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>44952</v>
       </c>
@@ -1203,7 +1206,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>44959</v>
       </c>
@@ -1214,7 +1217,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>44966</v>
       </c>
@@ -1225,7 +1228,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>44980</v>
       </c>
@@ -1236,7 +1239,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>44987</v>
       </c>
@@ -1247,7 +1250,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>44994</v>
       </c>
@@ -1258,7 +1261,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>45001</v>
       </c>
@@ -1269,7 +1272,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>45008</v>
       </c>
@@ -1280,7 +1283,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>45015</v>
       </c>
@@ -1291,7 +1294,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>45022</v>
       </c>
@@ -1302,7 +1305,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>45030</v>
       </c>
@@ -1313,7 +1316,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>45050</v>
       </c>
@@ -1324,7 +1327,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>45057</v>
       </c>
@@ -1335,7 +1338,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>45064</v>
       </c>
@@ -1346,7 +1349,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>45071</v>
       </c>
@@ -1357,7 +1360,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>45078</v>
       </c>
@@ -1368,7 +1371,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>45085</v>
       </c>
@@ -1379,7 +1382,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>45092</v>
       </c>
@@ -1390,7 +1393,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>45099</v>
       </c>
@@ -1401,7 +1404,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>45106</v>
       </c>
@@ -1412,7 +1415,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>45113</v>
       </c>
@@ -1423,7 +1426,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>45114</v>
       </c>
@@ -1434,7 +1437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>45115</v>
       </c>
@@ -1445,7 +1448,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>45116</v>
       </c>
@@ -1456,7 +1459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>45117</v>
       </c>
@@ -1467,7 +1470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>45118</v>
       </c>
@@ -1478,7 +1481,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>45119</v>
       </c>
@@ -1489,7 +1492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="26">
         <v>45176</v>
       </c>
@@ -1500,7 +1503,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="26">
         <v>45183</v>
       </c>
@@ -1511,7 +1514,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="26">
         <v>45190</v>
       </c>
@@ -1520,6 +1523,17 @@
       </c>
       <c r="C33" s="1">
         <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="26">
+        <v>45197</v>
+      </c>
+      <c r="B34" s="1">
+        <v>3</v>
+      </c>
+      <c r="C34" s="1">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1529,27 +1543,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F55E8A24-46F9-4225-A2C2-A9164F13364A}">
-  <dimension ref="A1:J464"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:J478"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A445" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J456" sqref="J456"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A465" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H481" sqref="H481"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="17.1796875" style="3"/>
+    <col min="8" max="8" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="17.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
@@ -1581,7 +1596,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>44938</v>
       </c>
@@ -1610,7 +1625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>44938</v>
       </c>
@@ -1642,7 +1657,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>44938</v>
       </c>
@@ -1671,7 +1686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>44938</v>
       </c>
@@ -1700,7 +1715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>44938</v>
       </c>
@@ -1729,7 +1744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>44938</v>
       </c>
@@ -1758,7 +1773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>44938</v>
       </c>
@@ -1787,7 +1802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>44938</v>
       </c>
@@ -1816,7 +1831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>44938</v>
       </c>
@@ -1845,7 +1860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>44938</v>
       </c>
@@ -1874,7 +1889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>44938</v>
       </c>
@@ -1903,7 +1918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>44938</v>
       </c>
@@ -1932,7 +1947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>44938</v>
       </c>
@@ -1961,7 +1976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>44938</v>
       </c>
@@ -1990,7 +2005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>44945</v>
       </c>
@@ -2019,7 +2034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>44945</v>
       </c>
@@ -2048,7 +2063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>44945</v>
       </c>
@@ -2077,7 +2092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>44945</v>
       </c>
@@ -2106,7 +2121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>44945</v>
       </c>
@@ -2135,7 +2150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>44945</v>
       </c>
@@ -2164,7 +2179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>44945</v>
       </c>
@@ -2193,7 +2208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>44945</v>
       </c>
@@ -2222,7 +2237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>44945</v>
       </c>
@@ -2251,7 +2266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>44945</v>
       </c>
@@ -2280,7 +2295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>44945</v>
       </c>
@@ -2309,7 +2324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>44945</v>
       </c>
@@ -2338,7 +2353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>44945</v>
       </c>
@@ -2367,7 +2382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>44945</v>
       </c>
@@ -2396,7 +2411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>44945</v>
       </c>
@@ -2425,7 +2440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>44945</v>
       </c>
@@ -2454,7 +2469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>44945</v>
       </c>
@@ -2483,7 +2498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>44945</v>
       </c>
@@ -2512,7 +2527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>44945</v>
       </c>
@@ -2541,7 +2556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>44945</v>
       </c>
@@ -2573,7 +2588,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>44945</v>
       </c>
@@ -2602,7 +2617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>44945</v>
       </c>
@@ -2631,7 +2646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>44952</v>
       </c>
@@ -2660,7 +2675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>44952</v>
       </c>
@@ -2689,7 +2704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>44952</v>
       </c>
@@ -2718,7 +2733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>44952</v>
       </c>
@@ -2747,7 +2762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>44952</v>
       </c>
@@ -2776,7 +2791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>44952</v>
       </c>
@@ -2805,7 +2820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>44952</v>
       </c>
@@ -2834,7 +2849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>44952</v>
       </c>
@@ -2863,7 +2878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>44952</v>
       </c>
@@ -2892,7 +2907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>44952</v>
       </c>
@@ -2921,7 +2936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>44952</v>
       </c>
@@ -2950,7 +2965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>44952</v>
       </c>
@@ -2979,7 +2994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>44952</v>
       </c>
@@ -3008,7 +3023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <v>44952</v>
       </c>
@@ -3037,7 +3052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
         <v>44952</v>
       </c>
@@ -3066,7 +3081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>44952</v>
       </c>
@@ -3095,7 +3110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <v>44959</v>
       </c>
@@ -3124,7 +3139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>44959</v>
       </c>
@@ -3153,7 +3168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
         <v>44959</v>
       </c>
@@ -3182,7 +3197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <v>44959</v>
       </c>
@@ -3211,7 +3226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7">
         <v>44959</v>
       </c>
@@ -3240,7 +3255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
         <v>44959</v>
       </c>
@@ -3269,7 +3284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7">
         <v>44959</v>
       </c>
@@ -3298,7 +3313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
         <v>44959</v>
       </c>
@@ -3327,7 +3342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7">
         <v>44959</v>
       </c>
@@ -3356,7 +3371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7">
         <v>44959</v>
       </c>
@@ -3385,7 +3400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7">
         <v>44959</v>
       </c>
@@ -3414,7 +3429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7">
         <v>44959</v>
       </c>
@@ -3443,7 +3458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7">
         <v>44959</v>
       </c>
@@ -3472,7 +3487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7">
         <v>44959</v>
       </c>
@@ -3501,7 +3516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7">
         <v>44966</v>
       </c>
@@ -3530,7 +3545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7">
         <v>44966</v>
       </c>
@@ -3559,7 +3574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="7">
         <v>44966</v>
       </c>
@@ -3588,7 +3603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7">
         <v>44966</v>
       </c>
@@ -3617,7 +3632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7">
         <v>44966</v>
       </c>
@@ -3646,7 +3661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7">
         <v>44966</v>
       </c>
@@ -3675,7 +3690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7">
         <v>44966</v>
       </c>
@@ -3704,7 +3719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="7">
         <v>44966</v>
       </c>
@@ -3733,7 +3748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="7">
         <v>44966</v>
       </c>
@@ -3762,7 +3777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="7">
         <v>44966</v>
       </c>
@@ -3791,7 +3806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="7">
         <v>44966</v>
       </c>
@@ -3820,7 +3835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="7">
         <v>44966</v>
       </c>
@@ -3849,7 +3864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="7">
         <v>44966</v>
       </c>
@@ -3878,7 +3893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="7">
         <v>44966</v>
       </c>
@@ -3907,7 +3922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="7">
         <v>44980</v>
       </c>
@@ -3936,7 +3951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="7">
         <v>44980</v>
       </c>
@@ -3965,7 +3980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="7">
         <v>44980</v>
       </c>
@@ -3994,7 +4009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="7">
         <v>44980</v>
       </c>
@@ -4023,7 +4038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="7">
         <v>44980</v>
       </c>
@@ -4052,7 +4067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="7">
         <v>44980</v>
       </c>
@@ -4081,7 +4096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="7">
         <v>44980</v>
       </c>
@@ -4110,7 +4125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="7">
         <v>44980</v>
       </c>
@@ -4139,7 +4154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="7">
         <v>44980</v>
       </c>
@@ -4168,7 +4183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="7">
         <v>44980</v>
       </c>
@@ -4197,7 +4212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="7">
         <v>44980</v>
       </c>
@@ -4226,7 +4241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="7">
         <v>44980</v>
       </c>
@@ -4255,7 +4270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="7">
         <v>44980</v>
       </c>
@@ -4284,7 +4299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="7">
         <v>44980</v>
       </c>
@@ -4313,7 +4328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="7">
         <v>44980</v>
       </c>
@@ -4342,7 +4357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="7">
         <v>44980</v>
       </c>
@@ -4371,7 +4386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="7">
         <v>44987</v>
       </c>
@@ -4400,7 +4415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="7">
         <v>44987</v>
       </c>
@@ -4429,7 +4444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="7">
         <v>44987</v>
       </c>
@@ -4458,7 +4473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="7">
         <v>44987</v>
       </c>
@@ -4487,7 +4502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="7">
         <v>44987</v>
       </c>
@@ -4516,7 +4531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="7">
         <v>44987</v>
       </c>
@@ -4545,7 +4560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="7">
         <v>44987</v>
       </c>
@@ -4574,7 +4589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="7">
         <v>44987</v>
       </c>
@@ -4603,7 +4618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="7">
         <v>44987</v>
       </c>
@@ -4632,7 +4647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="7">
         <v>44987</v>
       </c>
@@ -4661,7 +4676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="7">
         <v>44987</v>
       </c>
@@ -4690,7 +4705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="7">
         <v>44987</v>
       </c>
@@ -4719,7 +4734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="7">
         <v>44987</v>
       </c>
@@ -4748,7 +4763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="7">
         <v>44987</v>
       </c>
@@ -4777,7 +4792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="7">
         <v>44994</v>
       </c>
@@ -4806,7 +4821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="7">
         <v>44994</v>
       </c>
@@ -4835,7 +4850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="7">
         <v>44994</v>
       </c>
@@ -4864,7 +4879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="7">
         <v>44994</v>
       </c>
@@ -4893,7 +4908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="7">
         <v>44994</v>
       </c>
@@ -4922,7 +4937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="7">
         <v>44994</v>
       </c>
@@ -4951,7 +4966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="7">
         <v>44994</v>
       </c>
@@ -4980,7 +4995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="7">
         <v>44994</v>
       </c>
@@ -5009,7 +5024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="7">
         <v>44994</v>
       </c>
@@ -5038,7 +5053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="7">
         <v>44994</v>
       </c>
@@ -5067,7 +5082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="7">
         <v>44994</v>
       </c>
@@ -5096,7 +5111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="7">
         <v>44994</v>
       </c>
@@ -5125,7 +5140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="7">
         <v>44994</v>
       </c>
@@ -5154,7 +5169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="7">
         <v>44994</v>
       </c>
@@ -5183,7 +5198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="7">
         <v>45001</v>
       </c>
@@ -5212,7 +5227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="7">
         <v>45001</v>
       </c>
@@ -5241,7 +5256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="7">
         <v>45001</v>
       </c>
@@ -5270,7 +5285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="7">
         <v>45001</v>
       </c>
@@ -5299,7 +5314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="7">
         <v>45001</v>
       </c>
@@ -5328,7 +5343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="7">
         <v>45001</v>
       </c>
@@ -5357,7 +5372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="7">
         <v>45001</v>
       </c>
@@ -5386,7 +5401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="7">
         <v>45001</v>
       </c>
@@ -5415,7 +5430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="7">
         <v>45001</v>
       </c>
@@ -5444,7 +5459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="7">
         <v>45001</v>
       </c>
@@ -5473,7 +5488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="7">
         <v>45001</v>
       </c>
@@ -5502,7 +5517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="7">
         <v>45001</v>
       </c>
@@ -5531,7 +5546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="7">
         <v>45001</v>
       </c>
@@ -5560,7 +5575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="7">
         <v>45001</v>
       </c>
@@ -5589,7 +5604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="7">
         <v>45008</v>
       </c>
@@ -5618,7 +5633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="7">
         <v>45008</v>
       </c>
@@ -5647,7 +5662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="7">
         <v>45008</v>
       </c>
@@ -5676,7 +5691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="7">
         <v>45008</v>
       </c>
@@ -5705,7 +5720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="7">
         <v>45008</v>
       </c>
@@ -5734,7 +5749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="7">
         <v>45008</v>
       </c>
@@ -5763,7 +5778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="7">
         <v>45008</v>
       </c>
@@ -5792,7 +5807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="7">
         <v>45008</v>
       </c>
@@ -5821,7 +5836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="7">
         <v>45008</v>
       </c>
@@ -5850,7 +5865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="7">
         <v>45008</v>
       </c>
@@ -5879,7 +5894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="7">
         <v>45008</v>
       </c>
@@ -5908,7 +5923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="7">
         <v>45008</v>
       </c>
@@ -5937,7 +5952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="7">
         <v>45008</v>
       </c>
@@ -5966,7 +5981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="7">
         <v>45008</v>
       </c>
@@ -5995,7 +6010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="7">
         <v>45015</v>
       </c>
@@ -6024,7 +6039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="7">
         <v>45015</v>
       </c>
@@ -6053,7 +6068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="7">
         <v>45015</v>
       </c>
@@ -6082,7 +6097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="7">
         <v>45015</v>
       </c>
@@ -6111,7 +6126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="7">
         <v>45015</v>
       </c>
@@ -6140,7 +6155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="7">
         <v>45015</v>
       </c>
@@ -6169,7 +6184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="7">
         <v>45015</v>
       </c>
@@ -6198,7 +6213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="7">
         <v>45015</v>
       </c>
@@ -6227,7 +6242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="7">
         <v>45015</v>
       </c>
@@ -6256,7 +6271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="7">
         <v>45015</v>
       </c>
@@ -6285,7 +6300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="7">
         <v>45015</v>
       </c>
@@ -6314,7 +6329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="7">
         <v>45015</v>
       </c>
@@ -6343,7 +6358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="7">
         <v>45015</v>
       </c>
@@ -6372,7 +6387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="7">
         <v>45015</v>
       </c>
@@ -6401,7 +6416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="7">
         <v>45022</v>
       </c>
@@ -6430,7 +6445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="7">
         <v>45022</v>
       </c>
@@ -6459,7 +6474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="7">
         <v>45022</v>
       </c>
@@ -6488,7 +6503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="7">
         <v>45022</v>
       </c>
@@ -6517,7 +6532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="7">
         <v>45022</v>
       </c>
@@ -6546,7 +6561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="7">
         <v>45022</v>
       </c>
@@ -6575,7 +6590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="7">
         <v>45022</v>
       </c>
@@ -6604,7 +6619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="7">
         <v>45022</v>
       </c>
@@ -6633,7 +6648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="7">
         <v>45022</v>
       </c>
@@ -6662,7 +6677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="7">
         <v>45022</v>
       </c>
@@ -6691,7 +6706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="7">
         <v>45022</v>
       </c>
@@ -6720,7 +6735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="7">
         <v>45022</v>
       </c>
@@ -6749,7 +6764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="7">
         <v>45022</v>
       </c>
@@ -6778,7 +6793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="7">
         <v>45022</v>
       </c>
@@ -6807,7 +6822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="7">
         <v>45030</v>
       </c>
@@ -6836,7 +6851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="7">
         <v>45030</v>
       </c>
@@ -6865,7 +6880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="7">
         <v>45030</v>
       </c>
@@ -6894,7 +6909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="7">
         <v>45030</v>
       </c>
@@ -6923,7 +6938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="7">
         <v>45030</v>
       </c>
@@ -6952,7 +6967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="7">
         <v>45030</v>
       </c>
@@ -6981,7 +6996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="7">
         <v>45030</v>
       </c>
@@ -7010,7 +7025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="7">
         <v>45030</v>
       </c>
@@ -7039,7 +7054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="7">
         <v>45030</v>
       </c>
@@ -7068,7 +7083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="7">
         <v>45030</v>
       </c>
@@ -7097,7 +7112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="7">
         <v>45030</v>
       </c>
@@ -7126,7 +7141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="7">
         <v>45030</v>
       </c>
@@ -7155,7 +7170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="7">
         <v>45030</v>
       </c>
@@ -7184,7 +7199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="7">
         <v>45030</v>
       </c>
@@ -7213,7 +7228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="7">
         <v>45030</v>
       </c>
@@ -7242,7 +7257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="7">
         <v>45030</v>
       </c>
@@ -7271,7 +7286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="7">
         <v>45030</v>
       </c>
@@ -7300,7 +7315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="7">
         <v>45030</v>
       </c>
@@ -7329,7 +7344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="7">
         <v>45030</v>
       </c>
@@ -7358,7 +7373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="7">
         <v>45030</v>
       </c>
@@ -7387,7 +7402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="7">
         <v>45030</v>
       </c>
@@ -7416,7 +7431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="7">
         <v>45030</v>
       </c>
@@ -7445,7 +7460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="7">
         <v>45050</v>
       </c>
@@ -7474,7 +7489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="7">
         <v>45050</v>
       </c>
@@ -7503,7 +7518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="7">
         <v>45050</v>
       </c>
@@ -7532,7 +7547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="7">
         <v>45050</v>
       </c>
@@ -7561,7 +7576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="7">
         <v>45050</v>
       </c>
@@ -7590,7 +7605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="7">
         <v>45050</v>
       </c>
@@ -7619,7 +7634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="7">
         <v>45050</v>
       </c>
@@ -7648,7 +7663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="7">
         <v>45050</v>
       </c>
@@ -7677,7 +7692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="7">
         <v>45050</v>
       </c>
@@ -7706,7 +7721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="7">
         <v>45050</v>
       </c>
@@ -7735,7 +7750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="7">
         <v>45050</v>
       </c>
@@ -7764,7 +7779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="7">
         <v>45050</v>
       </c>
@@ -7793,7 +7808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="7">
         <v>45050</v>
       </c>
@@ -7822,7 +7837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="7">
         <v>45050</v>
       </c>
@@ -7851,7 +7866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="7">
         <v>45050</v>
       </c>
@@ -7880,7 +7895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="7">
         <v>45050</v>
       </c>
@@ -7909,7 +7924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="7">
         <v>45057</v>
       </c>
@@ -7938,7 +7953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="7">
         <v>45057</v>
       </c>
@@ -7967,7 +7982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="7">
         <v>45057</v>
       </c>
@@ -7996,7 +8011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="7">
         <v>45057</v>
       </c>
@@ -8025,7 +8040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="7">
         <v>45057</v>
       </c>
@@ -8054,7 +8069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="7">
         <v>45057</v>
       </c>
@@ -8083,7 +8098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="7">
         <v>45057</v>
       </c>
@@ -8112,7 +8127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="7">
         <v>45057</v>
       </c>
@@ -8141,7 +8156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="7">
         <v>45057</v>
       </c>
@@ -8170,7 +8185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="7">
         <v>45057</v>
       </c>
@@ -8199,7 +8214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="7">
         <v>45057</v>
       </c>
@@ -8228,7 +8243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="7">
         <v>45057</v>
       </c>
@@ -8257,7 +8272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="7">
         <v>45057</v>
       </c>
@@ -8286,7 +8301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="7">
         <v>45057</v>
       </c>
@@ -8315,7 +8330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="7">
         <v>45064</v>
       </c>
@@ -8344,7 +8359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="7">
         <v>45064</v>
       </c>
@@ -8373,7 +8388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="7">
         <v>45064</v>
       </c>
@@ -8402,7 +8417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="7">
         <v>45064</v>
       </c>
@@ -8431,7 +8446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="7">
         <v>45064</v>
       </c>
@@ -8460,7 +8475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="7">
         <v>45064</v>
       </c>
@@ -8489,7 +8504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="7">
         <v>45064</v>
       </c>
@@ -8518,7 +8533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="7">
         <v>45064</v>
       </c>
@@ -8547,7 +8562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="7">
         <v>45064</v>
       </c>
@@ -8576,7 +8591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="7">
         <v>45064</v>
       </c>
@@ -8605,7 +8620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="7">
         <v>45064</v>
       </c>
@@ -8634,7 +8649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="7">
         <v>45064</v>
       </c>
@@ -8663,7 +8678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="7">
         <v>45064</v>
       </c>
@@ -8692,7 +8707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="7">
         <v>45064</v>
       </c>
@@ -8721,7 +8736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="7">
         <v>45064</v>
       </c>
@@ -8750,7 +8765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="7">
         <v>45064</v>
       </c>
@@ -8779,7 +8794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="7">
         <v>45071</v>
       </c>
@@ -8808,7 +8823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="7">
         <v>45071</v>
       </c>
@@ -8837,7 +8852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="7">
         <v>45071</v>
       </c>
@@ -8866,7 +8881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="7">
         <v>45071</v>
       </c>
@@ -8895,7 +8910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="7">
         <v>45071</v>
       </c>
@@ -8924,7 +8939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="7">
         <v>45071</v>
       </c>
@@ -8953,7 +8968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="7">
         <v>45071</v>
       </c>
@@ -8982,7 +8997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="7">
         <v>45071</v>
       </c>
@@ -9011,7 +9026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="7">
         <v>45071</v>
       </c>
@@ -9040,7 +9055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="7">
         <v>45071</v>
       </c>
@@ -9069,7 +9084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="7">
         <v>45071</v>
       </c>
@@ -9098,7 +9113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="7">
         <v>45071</v>
       </c>
@@ -9127,7 +9142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="7">
         <v>45071</v>
       </c>
@@ -9156,7 +9171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="7">
         <v>45071</v>
       </c>
@@ -9185,7 +9200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="7">
         <v>45078</v>
       </c>
@@ -9214,7 +9229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="7">
         <v>45078</v>
       </c>
@@ -9243,7 +9258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="7">
         <v>45078</v>
       </c>
@@ -9272,7 +9287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="7">
         <v>45078</v>
       </c>
@@ -9301,7 +9316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="7">
         <v>45078</v>
       </c>
@@ -9330,7 +9345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="7">
         <v>45078</v>
       </c>
@@ -9359,7 +9374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="7">
         <v>45078</v>
       </c>
@@ -9388,7 +9403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="7">
         <v>45078</v>
       </c>
@@ -9417,7 +9432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="7">
         <v>45078</v>
       </c>
@@ -9446,7 +9461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="7">
         <v>45078</v>
       </c>
@@ -9475,7 +9490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="7">
         <v>45078</v>
       </c>
@@ -9504,7 +9519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="7">
         <v>45078</v>
       </c>
@@ -9533,7 +9548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="7">
         <v>45078</v>
       </c>
@@ -9562,7 +9577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="7">
         <v>45078</v>
       </c>
@@ -9591,7 +9606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="7">
         <v>45085</v>
       </c>
@@ -9620,7 +9635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="7">
         <v>45085</v>
       </c>
@@ -9649,7 +9664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="7">
         <v>45085</v>
       </c>
@@ -9678,7 +9693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="7">
         <v>45085</v>
       </c>
@@ -9707,7 +9722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="7">
         <v>45085</v>
       </c>
@@ -9736,7 +9751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="7">
         <v>45085</v>
       </c>
@@ -9765,7 +9780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="7">
         <v>45085</v>
       </c>
@@ -9794,7 +9809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="7">
         <v>45085</v>
       </c>
@@ -9823,7 +9838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="7">
         <v>45085</v>
       </c>
@@ -9852,7 +9867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="7">
         <v>45085</v>
       </c>
@@ -9881,7 +9896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="7">
         <v>45085</v>
       </c>
@@ -9910,7 +9925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="7">
         <v>45085</v>
       </c>
@@ -9939,7 +9954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="7">
         <v>45085</v>
       </c>
@@ -9968,7 +9983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="7">
         <v>45085</v>
       </c>
@@ -9997,7 +10012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="7">
         <v>45092</v>
       </c>
@@ -10026,7 +10041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="7">
         <v>45092</v>
       </c>
@@ -10055,7 +10070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="7">
         <v>45092</v>
       </c>
@@ -10084,7 +10099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="7">
         <v>45092</v>
       </c>
@@ -10113,7 +10128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="7">
         <v>45092</v>
       </c>
@@ -10142,7 +10157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="7">
         <v>45092</v>
       </c>
@@ -10171,7 +10186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="7">
         <v>45092</v>
       </c>
@@ -10200,7 +10215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="7">
         <v>45092</v>
       </c>
@@ -10229,7 +10244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="7">
         <v>45092</v>
       </c>
@@ -10258,7 +10273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="7">
         <v>45092</v>
       </c>
@@ -10287,7 +10302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="7">
         <v>45092</v>
       </c>
@@ -10316,7 +10331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="7">
         <v>45092</v>
       </c>
@@ -10345,7 +10360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="7">
         <v>45092</v>
       </c>
@@ -10374,7 +10389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="7">
         <v>45092</v>
       </c>
@@ -10403,7 +10418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="7">
         <v>45092</v>
       </c>
@@ -10432,7 +10447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="7">
         <v>45092</v>
       </c>
@@ -10461,7 +10476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="7">
         <v>45099</v>
       </c>
@@ -10490,7 +10505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="7">
         <v>45099</v>
       </c>
@@ -10519,7 +10534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="7">
         <v>45099</v>
       </c>
@@ -10548,7 +10563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="7">
         <v>45099</v>
       </c>
@@ -10577,7 +10592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="7">
         <v>45099</v>
       </c>
@@ -10606,7 +10621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="7">
         <v>45099</v>
       </c>
@@ -10635,7 +10650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="7">
         <v>45099</v>
       </c>
@@ -10664,7 +10679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="7">
         <v>45099</v>
       </c>
@@ -10693,7 +10708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="7">
         <v>45099</v>
       </c>
@@ -10722,7 +10737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="7">
         <v>45099</v>
       </c>
@@ -10751,7 +10766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="7">
         <v>45099</v>
       </c>
@@ -10780,7 +10795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="7">
         <v>45099</v>
       </c>
@@ -10809,7 +10824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="7">
         <v>45099</v>
       </c>
@@ -10838,7 +10853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="7">
         <v>45099</v>
       </c>
@@ -10867,7 +10882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="7">
         <v>45099</v>
       </c>
@@ -10896,7 +10911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="7">
         <v>45099</v>
       </c>
@@ -10925,7 +10940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="7">
         <v>45106</v>
       </c>
@@ -10954,7 +10969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="7">
         <v>45106</v>
       </c>
@@ -10983,7 +10998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="7">
         <v>45106</v>
       </c>
@@ -11012,7 +11027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="7">
         <v>45106</v>
       </c>
@@ -11041,7 +11056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="7">
         <v>45106</v>
       </c>
@@ -11070,7 +11085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="7">
         <v>45106</v>
       </c>
@@ -11099,7 +11114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="7">
         <v>45106</v>
       </c>
@@ -11128,7 +11143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="7">
         <v>45106</v>
       </c>
@@ -11157,7 +11172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="7">
         <v>45106</v>
       </c>
@@ -11186,7 +11201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="7">
         <v>45106</v>
       </c>
@@ -11215,7 +11230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="7">
         <v>45106</v>
       </c>
@@ -11244,7 +11259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="7">
         <v>45106</v>
       </c>
@@ -11273,7 +11288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="7">
         <v>45106</v>
       </c>
@@ -11302,7 +11317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="7">
         <v>45106</v>
       </c>
@@ -11331,7 +11346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="7">
         <v>45106</v>
       </c>
@@ -11360,7 +11375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="7">
         <v>45106</v>
       </c>
@@ -11389,7 +11404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="7">
         <v>45113</v>
       </c>
@@ -11418,7 +11433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="7">
         <v>45113</v>
       </c>
@@ -11447,7 +11462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="7">
         <v>45113</v>
       </c>
@@ -11476,7 +11491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="7">
         <v>45113</v>
       </c>
@@ -11505,7 +11520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="7">
         <v>45113</v>
       </c>
@@ -11534,7 +11549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="7">
         <v>45113</v>
       </c>
@@ -11563,7 +11578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="7">
         <v>45113</v>
       </c>
@@ -11592,7 +11607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="7">
         <v>45113</v>
       </c>
@@ -11621,7 +11636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="7">
         <v>45113</v>
       </c>
@@ -11650,7 +11665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="7">
         <v>45113</v>
       </c>
@@ -11679,7 +11694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="7">
         <v>45113</v>
       </c>
@@ -11708,7 +11723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="7">
         <v>45113</v>
       </c>
@@ -11737,7 +11752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="7">
         <v>45113</v>
       </c>
@@ -11766,7 +11781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="7">
         <v>45113</v>
       </c>
@@ -11795,7 +11810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="7">
         <v>45114</v>
       </c>
@@ -11824,7 +11839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="7">
         <v>45114</v>
       </c>
@@ -11853,7 +11868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="7">
         <v>45114</v>
       </c>
@@ -11882,7 +11897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="7">
         <v>45114</v>
       </c>
@@ -11911,7 +11926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="7">
         <v>45114</v>
       </c>
@@ -11940,7 +11955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="7">
         <v>45114</v>
       </c>
@@ -11969,7 +11984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="7">
         <v>45114</v>
       </c>
@@ -11998,7 +12013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="7">
         <v>45114</v>
       </c>
@@ -12027,7 +12042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="7">
         <v>45114</v>
       </c>
@@ -12056,7 +12071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="7">
         <v>45114</v>
       </c>
@@ -12085,7 +12100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="7">
         <v>45114</v>
       </c>
@@ -12114,7 +12129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="7">
         <v>45114</v>
       </c>
@@ -12143,7 +12158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="7">
         <v>45114</v>
       </c>
@@ -12172,7 +12187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="7">
         <v>45115</v>
       </c>
@@ -12201,7 +12216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="7">
         <v>45115</v>
       </c>
@@ -12230,7 +12245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="7">
         <v>45115</v>
       </c>
@@ -12259,7 +12274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="7">
         <v>45115</v>
       </c>
@@ -12288,7 +12303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="7">
         <v>45115</v>
       </c>
@@ -12317,7 +12332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="7">
         <v>45115</v>
       </c>
@@ -12346,7 +12361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="7">
         <v>45115</v>
       </c>
@@ -12375,7 +12390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="7">
         <v>45115</v>
       </c>
@@ -12404,7 +12419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="7">
         <v>45115</v>
       </c>
@@ -12433,7 +12448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="7">
         <v>45115</v>
       </c>
@@ -12462,7 +12477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="7">
         <v>45116</v>
       </c>
@@ -12491,7 +12506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="7">
         <v>45116</v>
       </c>
@@ -12520,7 +12535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="7">
         <v>45116</v>
       </c>
@@ -12549,7 +12564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="7">
         <v>45116</v>
       </c>
@@ -12578,7 +12593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="7">
         <v>45116</v>
       </c>
@@ -12607,7 +12622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="7">
         <v>45116</v>
       </c>
@@ -12636,7 +12651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="7">
         <v>45116</v>
       </c>
@@ -12665,7 +12680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="7">
         <v>45116</v>
       </c>
@@ -12694,7 +12709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="7">
         <v>45116</v>
       </c>
@@ -12723,7 +12738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="7">
         <v>45116</v>
       </c>
@@ -12752,7 +12767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="7">
         <v>45116</v>
       </c>
@@ -12781,7 +12796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="7">
         <v>45116</v>
       </c>
@@ -12810,7 +12825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="7">
         <v>45116</v>
       </c>
@@ -12839,7 +12854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="7">
         <v>45116</v>
       </c>
@@ -12868,7 +12883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="7">
         <v>45117</v>
       </c>
@@ -12897,7 +12912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="7">
         <v>45117</v>
       </c>
@@ -12926,7 +12941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="7">
         <v>45117</v>
       </c>
@@ -12955,7 +12970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="7">
         <v>45117</v>
       </c>
@@ -12984,7 +12999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="7">
         <v>45117</v>
       </c>
@@ -13013,7 +13028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="7">
         <v>45117</v>
       </c>
@@ -13042,7 +13057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="7">
         <v>45117</v>
       </c>
@@ -13071,7 +13086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="7">
         <v>45117</v>
       </c>
@@ -13100,7 +13115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="7">
         <v>45117</v>
       </c>
@@ -13129,7 +13144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="7">
         <v>45118</v>
       </c>
@@ -13158,7 +13173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="7">
         <v>45118</v>
       </c>
@@ -13187,7 +13202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="7">
         <v>45118</v>
       </c>
@@ -13216,7 +13231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="7">
         <v>45118</v>
       </c>
@@ -13245,7 +13260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="7">
         <v>45118</v>
       </c>
@@ -13274,7 +13289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="7">
         <v>45118</v>
       </c>
@@ -13303,7 +13318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="7">
         <v>45118</v>
       </c>
@@ -13332,7 +13347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="7">
         <v>45118</v>
       </c>
@@ -13361,7 +13376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="7">
         <v>45118</v>
       </c>
@@ -13390,7 +13405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="7">
         <v>45118</v>
       </c>
@@ -13419,7 +13434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="7">
         <v>45118</v>
       </c>
@@ -13448,7 +13463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="7">
         <v>45118</v>
       </c>
@@ -13477,7 +13492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="7">
         <v>45118</v>
       </c>
@@ -13506,7 +13521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="7">
         <v>45118</v>
       </c>
@@ -13535,7 +13550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="7">
         <v>45119</v>
       </c>
@@ -13564,7 +13579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="7">
         <v>45119</v>
       </c>
@@ -13593,7 +13608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="7">
         <v>45119</v>
       </c>
@@ -13622,7 +13637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="7">
         <v>45119</v>
       </c>
@@ -13651,7 +13666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="7">
         <v>45119</v>
       </c>
@@ -13680,7 +13695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="7">
         <v>45119</v>
       </c>
@@ -13709,7 +13724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="7">
         <v>45119</v>
       </c>
@@ -13738,7 +13753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="7">
         <v>45119</v>
       </c>
@@ -13767,7 +13782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="7">
         <v>45119</v>
       </c>
@@ -13796,7 +13811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" s="26">
         <v>45176</v>
       </c>
@@ -13828,7 +13843,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" s="26">
         <v>45176</v>
       </c>
@@ -13860,7 +13875,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" s="26">
         <v>45176</v>
       </c>
@@ -13892,7 +13907,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" s="26">
         <v>45176</v>
       </c>
@@ -13924,7 +13939,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" s="26">
         <v>45176</v>
       </c>
@@ -13956,7 +13971,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" s="26">
         <v>45176</v>
       </c>
@@ -13988,7 +14003,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" s="26">
         <v>45176</v>
       </c>
@@ -14020,7 +14035,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" s="26">
         <v>45176</v>
       </c>
@@ -14052,7 +14067,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="26">
         <v>45176</v>
       </c>
@@ -14084,7 +14099,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" s="26">
         <v>45176</v>
       </c>
@@ -14116,7 +14131,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" s="26">
         <v>45176</v>
       </c>
@@ -14148,7 +14163,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" s="26">
         <v>45176</v>
       </c>
@@ -14180,7 +14195,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" s="26">
         <v>45176</v>
       </c>
@@ -14212,7 +14227,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" s="26">
         <v>45176</v>
       </c>
@@ -14244,7 +14259,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" s="26">
         <v>45183</v>
       </c>
@@ -14276,7 +14291,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" s="26">
         <v>45183</v>
       </c>
@@ -14308,7 +14323,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="26">
         <v>45183</v>
       </c>
@@ -14340,7 +14355,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" s="26">
         <v>45183</v>
       </c>
@@ -14372,7 +14387,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" s="26">
         <v>45183</v>
       </c>
@@ -14404,7 +14419,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" s="26">
         <v>45183</v>
       </c>
@@ -14436,7 +14451,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" s="26">
         <v>45183</v>
       </c>
@@ -14468,7 +14483,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" s="26">
         <v>45183</v>
       </c>
@@ -14500,7 +14515,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" s="26">
         <v>45183</v>
       </c>
@@ -14532,7 +14547,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" s="26">
         <v>45183</v>
       </c>
@@ -14564,7 +14579,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" s="26">
         <v>45183</v>
       </c>
@@ -14596,7 +14611,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" s="26">
         <v>45183</v>
       </c>
@@ -14628,7 +14643,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" s="26">
         <v>45183</v>
       </c>
@@ -14660,7 +14675,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" s="26">
         <v>45183</v>
       </c>
@@ -14692,7 +14707,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" s="26">
         <v>45190</v>
       </c>
@@ -14721,7 +14736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" s="26">
         <v>45190</v>
       </c>
@@ -14750,7 +14765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" s="26">
         <v>45190</v>
       </c>
@@ -14779,7 +14794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" s="26">
         <v>45190</v>
       </c>
@@ -14808,7 +14823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" s="26">
         <v>45190</v>
       </c>
@@ -14840,7 +14855,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" s="26">
         <v>45190</v>
       </c>
@@ -14869,7 +14884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" s="26">
         <v>45190</v>
       </c>
@@ -14898,7 +14913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" s="26">
         <v>45190</v>
       </c>
@@ -14927,7 +14942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" s="26">
         <v>45190</v>
       </c>
@@ -14956,7 +14971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" s="26">
         <v>45190</v>
       </c>
@@ -14985,7 +15000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" s="26">
         <v>45190</v>
       </c>
@@ -15014,7 +15029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" s="26">
         <v>45190</v>
       </c>
@@ -15043,7 +15058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" s="26">
         <v>45190</v>
       </c>
@@ -15072,7 +15087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" s="26">
         <v>45190</v>
       </c>
@@ -15101,9 +15116,463 @@
         <v>0</v>
       </c>
     </row>
+    <row r="465" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A465" s="26">
+        <v>45197</v>
+      </c>
+      <c r="B465" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C465" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D465" s="9">
+        <v>0</v>
+      </c>
+      <c r="E465" s="9">
+        <v>0</v>
+      </c>
+      <c r="F465" s="9">
+        <v>0</v>
+      </c>
+      <c r="G465" s="9">
+        <v>0</v>
+      </c>
+      <c r="H465" s="9">
+        <v>0</v>
+      </c>
+      <c r="I465" s="9">
+        <v>0</v>
+      </c>
+      <c r="J465" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="466" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A466" s="26">
+        <v>45197</v>
+      </c>
+      <c r="B466" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C466" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D466" s="9">
+        <v>0</v>
+      </c>
+      <c r="E466" s="9">
+        <v>0</v>
+      </c>
+      <c r="F466" s="9">
+        <v>0</v>
+      </c>
+      <c r="G466" s="9">
+        <v>0</v>
+      </c>
+      <c r="H466" s="9">
+        <v>0</v>
+      </c>
+      <c r="I466" s="9">
+        <v>0</v>
+      </c>
+      <c r="J466" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="467" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A467" s="26">
+        <v>45197</v>
+      </c>
+      <c r="B467" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C467" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D467" s="9">
+        <v>1</v>
+      </c>
+      <c r="E467" s="9">
+        <v>0</v>
+      </c>
+      <c r="F467" s="9">
+        <v>0</v>
+      </c>
+      <c r="G467" s="9">
+        <v>0</v>
+      </c>
+      <c r="H467" s="9">
+        <v>0</v>
+      </c>
+      <c r="I467" s="9">
+        <v>0</v>
+      </c>
+      <c r="J467" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="468" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A468" s="26">
+        <v>45197</v>
+      </c>
+      <c r="B468" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C468" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D468" s="9">
+        <v>0</v>
+      </c>
+      <c r="E468" s="9">
+        <v>0</v>
+      </c>
+      <c r="F468" s="9">
+        <v>0</v>
+      </c>
+      <c r="G468" s="9">
+        <v>0</v>
+      </c>
+      <c r="H468" s="9">
+        <v>0</v>
+      </c>
+      <c r="I468" s="9">
+        <v>0</v>
+      </c>
+      <c r="J468" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="469" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A469" s="26">
+        <v>45197</v>
+      </c>
+      <c r="B469" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C469" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D469" s="9">
+        <v>0</v>
+      </c>
+      <c r="E469" s="9">
+        <v>0</v>
+      </c>
+      <c r="F469" s="9">
+        <v>0</v>
+      </c>
+      <c r="G469" s="9">
+        <v>0</v>
+      </c>
+      <c r="H469" s="9">
+        <v>0</v>
+      </c>
+      <c r="I469" s="9">
+        <v>0</v>
+      </c>
+      <c r="J469" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="470" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A470" s="26">
+        <v>45197</v>
+      </c>
+      <c r="B470" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C470" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D470" s="9">
+        <v>1</v>
+      </c>
+      <c r="E470" s="9">
+        <v>0</v>
+      </c>
+      <c r="F470" s="9">
+        <v>1</v>
+      </c>
+      <c r="G470" s="9">
+        <v>0</v>
+      </c>
+      <c r="H470" s="9">
+        <v>0</v>
+      </c>
+      <c r="I470" s="9">
+        <v>0</v>
+      </c>
+      <c r="J470" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="471" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A471" s="26">
+        <v>45197</v>
+      </c>
+      <c r="B471" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C471" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D471" s="9">
+        <v>1</v>
+      </c>
+      <c r="E471" s="9">
+        <v>0</v>
+      </c>
+      <c r="F471" s="9">
+        <v>0</v>
+      </c>
+      <c r="G471" s="9">
+        <v>0</v>
+      </c>
+      <c r="H471" s="9">
+        <v>0</v>
+      </c>
+      <c r="I471" s="9">
+        <v>0</v>
+      </c>
+      <c r="J471" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="472" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A472" s="26">
+        <v>45197</v>
+      </c>
+      <c r="B472" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C472" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D472" s="9">
+        <v>1</v>
+      </c>
+      <c r="E472" s="9">
+        <v>0</v>
+      </c>
+      <c r="F472" s="9">
+        <v>0</v>
+      </c>
+      <c r="G472" s="9">
+        <v>0</v>
+      </c>
+      <c r="H472" s="9">
+        <v>0</v>
+      </c>
+      <c r="I472" s="9">
+        <v>0</v>
+      </c>
+      <c r="J472" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="473" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A473" s="26">
+        <v>45197</v>
+      </c>
+      <c r="B473" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C473" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D473" s="9">
+        <v>0</v>
+      </c>
+      <c r="E473" s="9">
+        <v>0</v>
+      </c>
+      <c r="F473" s="9">
+        <v>0</v>
+      </c>
+      <c r="G473" s="9">
+        <v>0</v>
+      </c>
+      <c r="H473" s="9">
+        <v>0</v>
+      </c>
+      <c r="I473" s="9">
+        <v>0</v>
+      </c>
+      <c r="J473" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="474" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A474" s="26">
+        <v>45197</v>
+      </c>
+      <c r="B474" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C474" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D474" s="9">
+        <v>3</v>
+      </c>
+      <c r="E474" s="9">
+        <v>0</v>
+      </c>
+      <c r="F474" s="9">
+        <v>0</v>
+      </c>
+      <c r="G474" s="9">
+        <v>0</v>
+      </c>
+      <c r="H474" s="9">
+        <v>1</v>
+      </c>
+      <c r="I474" s="9">
+        <v>0</v>
+      </c>
+      <c r="J474" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="475" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A475" s="26">
+        <v>45197</v>
+      </c>
+      <c r="B475" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C475" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D475" s="9">
+        <v>1</v>
+      </c>
+      <c r="E475" s="9">
+        <v>0</v>
+      </c>
+      <c r="F475" s="9">
+        <v>0</v>
+      </c>
+      <c r="G475" s="9">
+        <v>0</v>
+      </c>
+      <c r="H475" s="9">
+        <v>0</v>
+      </c>
+      <c r="I475" s="9">
+        <v>0</v>
+      </c>
+      <c r="J475" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="476" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A476" s="26">
+        <v>45197</v>
+      </c>
+      <c r="B476" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C476" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D476" s="9">
+        <v>2</v>
+      </c>
+      <c r="E476" s="9">
+        <v>0</v>
+      </c>
+      <c r="F476" s="9">
+        <v>0</v>
+      </c>
+      <c r="G476" s="9">
+        <v>0</v>
+      </c>
+      <c r="H476" s="9">
+        <v>0</v>
+      </c>
+      <c r="I476" s="9">
+        <v>0</v>
+      </c>
+      <c r="J476" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="477" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A477" s="26">
+        <v>45197</v>
+      </c>
+      <c r="B477" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C477" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D477" s="9">
+        <v>3</v>
+      </c>
+      <c r="E477" s="9">
+        <v>0</v>
+      </c>
+      <c r="F477" s="9">
+        <v>0</v>
+      </c>
+      <c r="G477" s="9">
+        <v>0</v>
+      </c>
+      <c r="H477" s="9">
+        <v>0</v>
+      </c>
+      <c r="I477" s="9">
+        <v>0</v>
+      </c>
+      <c r="J477" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="478" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A478" s="26">
+        <v>45197</v>
+      </c>
+      <c r="B478" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C478" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D478" s="9">
+        <v>2</v>
+      </c>
+      <c r="E478" s="9">
+        <v>0</v>
+      </c>
+      <c r="F478" s="9">
+        <v>0</v>
+      </c>
+      <c r="G478" s="9">
+        <v>1</v>
+      </c>
+      <c r="H478" s="9">
+        <v>0</v>
+      </c>
+      <c r="I478" s="9">
+        <v>0</v>
+      </c>
+      <c r="J478" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J422" xr:uid="{F55E8A24-46F9-4225-A2C2-A9164F13364A}"/>
-  <conditionalFormatting sqref="C2:C464">
+  <autoFilter ref="A1:J478" xr:uid="{F55E8A24-46F9-4225-A2C2-A9164F13364A}">
+    <filterColumn colId="0">
+      <filters>
+        <dateGroupItem year="2023" month="9" day="28" dateTimeGrouping="day"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="C2:C478">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Scuri"</formula>
     </cfRule>
@@ -15112,13 +15581,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:E464 H2:H464" xr:uid="{A2364708-0661-4544-87F1-D3FDEABF18B6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:E478 H2:H478" xr:uid="{A2364708-0661-4544-87F1-D3FDEABF18B6}">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I464" xr:uid="{3C35827F-D598-4F40-B064-7FA732E53B67}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I478" xr:uid="{3C35827F-D598-4F40-B064-7FA732E53B67}">
       <formula1>"0, 1, 2, 3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G464" xr:uid="{2FE2E49C-6CC7-4B84-9D73-A960B8BAAF9A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G478" xr:uid="{2FE2E49C-6CC7-4B84-9D73-A960B8BAAF9A}">
       <formula1>"0, 1"</formula1>
     </dataValidation>
   </dataValidations>
@@ -15141,21 +15610,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E168A56-6341-4406-8D41-CC351A3A492A}">
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+    <sheetView topLeftCell="A57" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.54296875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="25.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="25.54296875" style="20"/>
-    <col min="3" max="5" width="25.54296875" style="22"/>
-    <col min="6" max="6" width="25.54296875" style="20"/>
-    <col min="7" max="16384" width="25.54296875" style="17"/>
+    <col min="1" max="2" width="25.5703125" style="20"/>
+    <col min="3" max="5" width="25.5703125" style="22"/>
+    <col min="6" max="6" width="25.5703125" style="20"/>
+    <col min="7" max="16384" width="25.5703125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>16</v>
       </c>
@@ -15175,7 +15644,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>74</v>
       </c>
@@ -15195,7 +15664,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>58</v>
       </c>
@@ -15215,7 +15684,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
         <v>68</v>
       </c>
@@ -15233,7 +15702,7 @@
       </c>
       <c r="F4" s="19"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>42</v>
       </c>
@@ -15251,7 +15720,7 @@
       </c>
       <c r="F5" s="19"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
         <v>71</v>
       </c>
@@ -15271,7 +15740,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
         <v>70</v>
       </c>
@@ -15289,7 +15758,7 @@
       </c>
       <c r="F7" s="19"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
         <v>78</v>
       </c>
@@ -15307,7 +15776,7 @@
       </c>
       <c r="F8" s="19"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
         <v>21</v>
       </c>
@@ -15325,7 +15794,7 @@
       </c>
       <c r="F9" s="19"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
         <v>80</v>
       </c>
@@ -15343,7 +15812,7 @@
       </c>
       <c r="F10" s="19"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
         <v>39</v>
       </c>
@@ -15361,7 +15830,7 @@
       </c>
       <c r="F11" s="19"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
         <v>64</v>
       </c>
@@ -15379,7 +15848,7 @@
       </c>
       <c r="F12" s="19"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
         <v>31</v>
       </c>
@@ -15397,7 +15866,7 @@
       </c>
       <c r="F13" s="19"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
         <v>28</v>
       </c>
@@ -15415,7 +15884,7 @@
       </c>
       <c r="F14" s="19"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
         <v>73</v>
       </c>
@@ -15433,7 +15902,7 @@
       </c>
       <c r="F15" s="19"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
         <v>110</v>
       </c>
@@ -15453,7 +15922,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="19" t="s">
         <v>52</v>
       </c>
@@ -15473,7 +15942,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="s">
         <v>33</v>
       </c>
@@ -15491,7 +15960,7 @@
       </c>
       <c r="F18" s="19"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="19" t="s">
         <v>94</v>
       </c>
@@ -15509,7 +15978,7 @@
       </c>
       <c r="F19" s="19"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="19" t="s">
         <v>95</v>
       </c>
@@ -15529,7 +15998,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
         <v>57</v>
       </c>
@@ -15549,7 +16018,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
         <v>79</v>
       </c>
@@ -15567,7 +16036,7 @@
       </c>
       <c r="F22" s="19"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="19" t="s">
         <v>96</v>
       </c>
@@ -15587,7 +16056,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="19" t="s">
         <v>43</v>
       </c>
@@ -15605,7 +16074,7 @@
       </c>
       <c r="F24" s="19"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="19" t="s">
         <v>51</v>
       </c>
@@ -15625,7 +16094,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
         <v>29</v>
       </c>
@@ -15643,7 +16112,7 @@
       </c>
       <c r="F26" s="19"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="19" t="s">
         <v>38</v>
       </c>
@@ -15661,7 +16130,7 @@
       </c>
       <c r="F27" s="19"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="19" t="s">
         <v>99</v>
       </c>
@@ -15681,7 +16150,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="19" t="s">
         <v>35</v>
       </c>
@@ -15699,7 +16168,7 @@
       </c>
       <c r="F29" s="19"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="19" t="s">
         <v>41</v>
       </c>
@@ -15717,7 +16186,7 @@
       </c>
       <c r="F30" s="19"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="19" t="s">
         <v>47</v>
       </c>
@@ -15735,7 +16204,7 @@
       </c>
       <c r="F31" s="19"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="18" t="s">
         <v>72</v>
       </c>
@@ -15755,7 +16224,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="19" t="s">
         <v>49</v>
       </c>
@@ -15773,7 +16242,7 @@
       </c>
       <c r="F33" s="19"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="19" t="s">
         <v>36</v>
       </c>
@@ -15791,7 +16260,7 @@
       </c>
       <c r="F34" s="19"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="19" t="s">
         <v>56</v>
       </c>
@@ -15811,7 +16280,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="19" t="s">
         <v>32</v>
       </c>
@@ -15829,7 +16298,7 @@
       </c>
       <c r="F36" s="19"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="19" t="s">
         <v>55</v>
       </c>
@@ -15849,7 +16318,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="18" t="s">
         <v>66</v>
       </c>
@@ -15867,7 +16336,7 @@
       </c>
       <c r="F38" s="19"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="19" t="s">
         <v>44</v>
       </c>
@@ -15885,7 +16354,7 @@
       </c>
       <c r="F39" s="19"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="19" t="s">
         <v>50</v>
       </c>
@@ -15905,7 +16374,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="19" t="s">
         <v>61</v>
       </c>
@@ -15925,7 +16394,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="19" t="s">
         <v>63</v>
       </c>
@@ -15943,7 +16412,7 @@
       </c>
       <c r="F42" s="19"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="19" t="s">
         <v>23</v>
       </c>
@@ -15961,7 +16430,7 @@
       </c>
       <c r="F43" s="19"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="18" t="s">
         <v>60</v>
       </c>
@@ -15979,7 +16448,7 @@
       </c>
       <c r="F44" s="19"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="19" t="s">
         <v>25</v>
       </c>
@@ -15997,7 +16466,7 @@
       </c>
       <c r="F45" s="19"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="18" t="s">
         <v>69</v>
       </c>
@@ -16017,7 +16486,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="19" t="s">
         <v>53</v>
       </c>
@@ -16037,7 +16506,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="19" t="s">
         <v>76</v>
       </c>
@@ -16055,7 +16524,7 @@
       </c>
       <c r="F48" s="19"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="19" t="s">
         <v>62</v>
       </c>
@@ -16073,7 +16542,7 @@
       </c>
       <c r="F49" s="19"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="19" t="s">
         <v>26</v>
       </c>
@@ -16091,7 +16560,7 @@
       </c>
       <c r="F50" s="19"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="19" t="s">
         <v>48</v>
       </c>
@@ -16109,7 +16578,7 @@
       </c>
       <c r="F51" s="19"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="19" t="s">
         <v>54</v>
       </c>
@@ -16127,7 +16596,7 @@
       </c>
       <c r="F52" s="19"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="18" t="s">
         <v>67</v>
       </c>
@@ -16145,7 +16614,7 @@
       </c>
       <c r="F53" s="19"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="19" t="s">
         <v>24</v>
       </c>
@@ -16163,7 +16632,7 @@
       </c>
       <c r="F54" s="19"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="19" t="s">
         <v>46</v>
       </c>
@@ -16183,7 +16652,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="18" t="s">
         <v>59</v>
       </c>
@@ -16201,7 +16670,7 @@
       </c>
       <c r="F56" s="19"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="19" t="s">
         <v>103</v>
       </c>
@@ -16219,7 +16688,7 @@
       </c>
       <c r="F57" s="19"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="19" t="s">
         <v>40</v>
       </c>
@@ -16239,7 +16708,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="19" t="s">
         <v>27</v>
       </c>
@@ -16257,7 +16726,7 @@
       </c>
       <c r="F59" s="19"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="19" t="s">
         <v>45</v>
       </c>
@@ -16275,7 +16744,7 @@
       </c>
       <c r="F60" s="19"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="19" t="s">
         <v>104</v>
       </c>
@@ -16295,7 +16764,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="19" t="s">
         <v>105</v>
       </c>
@@ -16315,7 +16784,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="19" t="s">
         <v>77</v>
       </c>
@@ -16333,7 +16802,7 @@
       </c>
       <c r="F63" s="19"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="19" t="s">
         <v>34</v>
       </c>
@@ -16351,7 +16820,7 @@
       </c>
       <c r="F64" s="19"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="19" t="s">
         <v>75</v>
       </c>
@@ -16369,7 +16838,7 @@
       </c>
       <c r="F65" s="19"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="19" t="s">
         <v>65</v>
       </c>
@@ -16387,7 +16856,7 @@
       </c>
       <c r="F66" s="19"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="19" t="s">
         <v>111</v>
       </c>
@@ -16405,7 +16874,7 @@
       </c>
       <c r="F67" s="19"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="19" t="s">
         <v>112</v>
       </c>
@@ -16423,7 +16892,7 @@
       </c>
       <c r="F68" s="19"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="19" t="s">
         <v>113</v>
       </c>
@@ -16441,7 +16910,7 @@
       </c>
       <c r="F69" s="19"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="20" t="s">
         <v>114</v>
       </c>
@@ -16458,6 +16927,24 @@
         <v>88</v>
       </c>
       <c r="F70" s="19"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="B71" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C71" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D71" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E71" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="F71" s="19"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E66" xr:uid="{3E168A56-6341-4406-8D41-CC351A3A492A}"/>
@@ -16476,42 +16963,42 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>88</v>
       </c>

--- a/Input/FantaSPL_Milano.xlsx
+++ b/Input/FantaSPL_Milano.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Local_Docs\Admin\Other\Kit\SPL\SPL_v_0.2\SPL_Regional\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F01E21E-BA7F-42A4-97D3-A48640DD3F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE80609-8FD9-4BE8-96C5-5850CBBE58A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{05F018D4-855F-4570-8D15-9B4DD092A228}"/>
+    <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{05F018D4-855F-4570-8D15-9B4DD092A228}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="11" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="116">
   <si>
     <t>Parameter</t>
   </si>
@@ -1150,9 +1150,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A29AA2D-3F32-45F2-B719-A1F62E0F1A5F}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
     </sheetView>
@@ -1536,6 +1536,17 @@
         <v>12</v>
       </c>
     </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="26">
+        <v>45204</v>
+      </c>
+      <c r="B35" s="1">
+        <v>8</v>
+      </c>
+      <c r="C35" s="1">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1544,11 +1555,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F55E8A24-46F9-4225-A2C2-A9164F13364A}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:J478"/>
+  <dimension ref="A1:J494"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A465" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H481" sqref="H481"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A478" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A480" sqref="A480:A494"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -15564,6 +15575,518 @@
         <v>90</v>
       </c>
     </row>
+    <row r="479" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A479" s="26">
+        <v>45204</v>
+      </c>
+      <c r="B479" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C479" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D479" s="9">
+        <v>0</v>
+      </c>
+      <c r="E479" s="9">
+        <v>0</v>
+      </c>
+      <c r="F479" s="9">
+        <v>0</v>
+      </c>
+      <c r="G479" s="9">
+        <v>0</v>
+      </c>
+      <c r="H479" s="9">
+        <v>0</v>
+      </c>
+      <c r="I479" s="9">
+        <v>0</v>
+      </c>
+      <c r="J479" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="480" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A480" s="26">
+        <v>45204</v>
+      </c>
+      <c r="B480" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C480" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D480" s="9">
+        <v>0</v>
+      </c>
+      <c r="E480" s="9">
+        <v>0</v>
+      </c>
+      <c r="F480" s="9">
+        <v>0</v>
+      </c>
+      <c r="G480" s="9">
+        <v>0</v>
+      </c>
+      <c r="H480" s="9">
+        <v>0</v>
+      </c>
+      <c r="I480" s="9">
+        <v>0</v>
+      </c>
+      <c r="J480" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="481" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A481" s="26">
+        <v>45204</v>
+      </c>
+      <c r="B481" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C481" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D481" s="9">
+        <v>0</v>
+      </c>
+      <c r="E481" s="9">
+        <v>0</v>
+      </c>
+      <c r="F481" s="9">
+        <v>1</v>
+      </c>
+      <c r="G481" s="9">
+        <v>0</v>
+      </c>
+      <c r="H481" s="9">
+        <v>0</v>
+      </c>
+      <c r="I481" s="9">
+        <v>0</v>
+      </c>
+      <c r="J481" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="482" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A482" s="26">
+        <v>45204</v>
+      </c>
+      <c r="B482" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C482" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D482" s="9">
+        <v>0</v>
+      </c>
+      <c r="E482" s="9">
+        <v>0</v>
+      </c>
+      <c r="F482" s="9">
+        <v>0</v>
+      </c>
+      <c r="G482" s="9">
+        <v>0</v>
+      </c>
+      <c r="H482" s="9">
+        <v>0</v>
+      </c>
+      <c r="I482" s="9">
+        <v>0</v>
+      </c>
+      <c r="J482" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="483" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A483" s="26">
+        <v>45204</v>
+      </c>
+      <c r="B483" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C483" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D483" s="9">
+        <v>2</v>
+      </c>
+      <c r="E483" s="9">
+        <v>0</v>
+      </c>
+      <c r="F483" s="9">
+        <v>0</v>
+      </c>
+      <c r="G483" s="9">
+        <v>0</v>
+      </c>
+      <c r="H483" s="9">
+        <v>0</v>
+      </c>
+      <c r="I483" s="9">
+        <v>0</v>
+      </c>
+      <c r="J483" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="484" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A484" s="26">
+        <v>45204</v>
+      </c>
+      <c r="B484" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C484" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D484" s="9">
+        <v>1</v>
+      </c>
+      <c r="E484" s="9">
+        <v>0</v>
+      </c>
+      <c r="F484" s="9">
+        <v>0</v>
+      </c>
+      <c r="G484" s="9">
+        <v>0</v>
+      </c>
+      <c r="H484" s="9">
+        <v>0</v>
+      </c>
+      <c r="I484" s="9">
+        <v>0</v>
+      </c>
+      <c r="J484" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="485" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A485" s="26">
+        <v>45204</v>
+      </c>
+      <c r="B485" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C485" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D485" s="9">
+        <v>4</v>
+      </c>
+      <c r="E485" s="9">
+        <v>0</v>
+      </c>
+      <c r="F485" s="9">
+        <v>0</v>
+      </c>
+      <c r="G485" s="9">
+        <v>0</v>
+      </c>
+      <c r="H485" s="9">
+        <v>0</v>
+      </c>
+      <c r="I485" s="9">
+        <v>0</v>
+      </c>
+      <c r="J485" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="486" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A486" s="26">
+        <v>45204</v>
+      </c>
+      <c r="B486" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C486" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D486" s="9">
+        <v>1</v>
+      </c>
+      <c r="E486" s="9">
+        <v>0</v>
+      </c>
+      <c r="F486" s="9">
+        <v>0</v>
+      </c>
+      <c r="G486" s="9">
+        <v>1</v>
+      </c>
+      <c r="H486" s="9">
+        <v>0</v>
+      </c>
+      <c r="I486" s="9">
+        <v>0</v>
+      </c>
+      <c r="J486" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="487" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A487" s="26">
+        <v>45204</v>
+      </c>
+      <c r="B487" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C487" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D487" s="9">
+        <v>0</v>
+      </c>
+      <c r="E487" s="9">
+        <v>0</v>
+      </c>
+      <c r="F487" s="9">
+        <v>0</v>
+      </c>
+      <c r="G487" s="9">
+        <v>0</v>
+      </c>
+      <c r="H487" s="9">
+        <v>0</v>
+      </c>
+      <c r="I487" s="9">
+        <v>0</v>
+      </c>
+      <c r="J487" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="488" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A488" s="26">
+        <v>45204</v>
+      </c>
+      <c r="B488" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C488" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D488" s="9">
+        <v>2</v>
+      </c>
+      <c r="E488" s="9">
+        <v>0</v>
+      </c>
+      <c r="F488" s="9">
+        <v>0</v>
+      </c>
+      <c r="G488" s="9">
+        <v>0</v>
+      </c>
+      <c r="H488" s="9">
+        <v>0</v>
+      </c>
+      <c r="I488" s="9">
+        <v>0</v>
+      </c>
+      <c r="J488" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="489" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A489" s="26">
+        <v>45204</v>
+      </c>
+      <c r="B489" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C489" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D489" s="9">
+        <v>0</v>
+      </c>
+      <c r="E489" s="9">
+        <v>0</v>
+      </c>
+      <c r="F489" s="9">
+        <v>0</v>
+      </c>
+      <c r="G489" s="9">
+        <v>0</v>
+      </c>
+      <c r="H489" s="9">
+        <v>0</v>
+      </c>
+      <c r="I489" s="9">
+        <v>0</v>
+      </c>
+      <c r="J489" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="490" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A490" s="26">
+        <v>45204</v>
+      </c>
+      <c r="B490" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C490" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D490" s="9">
+        <v>1</v>
+      </c>
+      <c r="E490" s="9">
+        <v>0</v>
+      </c>
+      <c r="F490" s="9">
+        <v>0</v>
+      </c>
+      <c r="G490" s="9">
+        <v>0</v>
+      </c>
+      <c r="H490" s="9">
+        <v>0</v>
+      </c>
+      <c r="I490" s="9">
+        <v>0</v>
+      </c>
+      <c r="J490" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="491" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A491" s="26">
+        <v>45204</v>
+      </c>
+      <c r="B491" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C491" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D491" s="9">
+        <v>0</v>
+      </c>
+      <c r="E491" s="9">
+        <v>0</v>
+      </c>
+      <c r="F491" s="9">
+        <v>0</v>
+      </c>
+      <c r="G491" s="9">
+        <v>0</v>
+      </c>
+      <c r="H491" s="9">
+        <v>0</v>
+      </c>
+      <c r="I491" s="9">
+        <v>0</v>
+      </c>
+      <c r="J491" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="492" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A492" s="26">
+        <v>45204</v>
+      </c>
+      <c r="B492" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C492" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D492" s="9">
+        <v>0</v>
+      </c>
+      <c r="E492" s="9">
+        <v>0</v>
+      </c>
+      <c r="F492" s="9">
+        <v>0</v>
+      </c>
+      <c r="G492" s="9">
+        <v>0</v>
+      </c>
+      <c r="H492" s="9">
+        <v>0</v>
+      </c>
+      <c r="I492" s="9">
+        <v>0</v>
+      </c>
+      <c r="J492" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="493" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A493" s="26">
+        <v>45204</v>
+      </c>
+      <c r="B493" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C493" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D493" s="9">
+        <v>1</v>
+      </c>
+      <c r="E493" s="9">
+        <v>0</v>
+      </c>
+      <c r="F493" s="9">
+        <v>0</v>
+      </c>
+      <c r="G493" s="9">
+        <v>0</v>
+      </c>
+      <c r="H493" s="9">
+        <v>0</v>
+      </c>
+      <c r="I493" s="9">
+        <v>0</v>
+      </c>
+      <c r="J493" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="494" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A494" s="26">
+        <v>45204</v>
+      </c>
+      <c r="B494" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C494" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D494" s="9">
+        <v>2</v>
+      </c>
+      <c r="E494" s="9">
+        <v>0</v>
+      </c>
+      <c r="F494" s="9">
+        <v>0</v>
+      </c>
+      <c r="G494" s="9">
+        <v>0</v>
+      </c>
+      <c r="H494" s="9">
+        <v>0</v>
+      </c>
+      <c r="I494" s="9">
+        <v>0</v>
+      </c>
+      <c r="J494" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J478" xr:uid="{F55E8A24-46F9-4225-A2C2-A9164F13364A}">
     <filterColumn colId="0">
@@ -15572,7 +16095,7 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="C2:C478">
+  <conditionalFormatting sqref="C2:C494">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Scuri"</formula>
     </cfRule>
@@ -15581,13 +16104,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:E478 H2:H478" xr:uid="{A2364708-0661-4544-87F1-D3FDEABF18B6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H494 D2:E494" xr:uid="{A2364708-0661-4544-87F1-D3FDEABF18B6}">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I478" xr:uid="{3C35827F-D598-4F40-B064-7FA732E53B67}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I494" xr:uid="{3C35827F-D598-4F40-B064-7FA732E53B67}">
       <formula1>"0, 1, 2, 3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G478" xr:uid="{2FE2E49C-6CC7-4B84-9D73-A960B8BAAF9A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G494" xr:uid="{2FE2E49C-6CC7-4B84-9D73-A960B8BAAF9A}">
       <formula1>"0, 1"</formula1>
     </dataValidation>
   </dataValidations>
@@ -15612,7 +16135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E168A56-6341-4406-8D41-CC351A3A492A}">
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A54" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>

--- a/Input/FantaSPL_Milano.xlsx
+++ b/Input/FantaSPL_Milano.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Local_Docs\Admin\Other\Kit\SPL\SPL_v_0.2\SPL_Regional\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE80609-8FD9-4BE8-96C5-5850CBBE58A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD2640A-3CAA-48D5-9BA7-0292949E72DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{05F018D4-855F-4570-8D15-9B4DD092A228}"/>
+    <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{05F018D4-855F-4570-8D15-9B4DD092A228}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="11" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="118">
   <si>
     <t>Parameter</t>
   </si>
@@ -393,6 +393,12 @@
   <si>
     <t>Stefano (Cava)</t>
   </si>
+  <si>
+    <t>Mirko (Cava)</t>
+  </si>
+  <si>
+    <t>Claudio</t>
+  </si>
 </sst>
 </file>
 
@@ -605,7 +611,30 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{E7CD139D-1D99-4C7E-8D34-B9A08519CFB1}"/>
     <cellStyle name="Percent 2" xfId="3" xr:uid="{703E7767-9E09-4E14-BDA5-FA956747F242}"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.749961851863155"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1150,11 +1179,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A29AA2D-3F32-45F2-B719-A1F62E0F1A5F}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
+      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1547,6 +1576,17 @@
         <v>6</v>
       </c>
     </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="26">
+        <v>45211</v>
+      </c>
+      <c r="B36" s="1">
+        <v>8</v>
+      </c>
+      <c r="C36" s="1">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1555,11 +1595,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F55E8A24-46F9-4225-A2C2-A9164F13364A}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:J494"/>
+  <dimension ref="A1:J510"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A478" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A480" sqref="A480:A494"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A488" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F506" sqref="F506"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -16087,6 +16127,518 @@
         <v>87</v>
       </c>
     </row>
+    <row r="495" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A495" s="26">
+        <v>45211</v>
+      </c>
+      <c r="B495" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C495" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D495" s="9">
+        <v>0</v>
+      </c>
+      <c r="E495" s="9">
+        <v>0</v>
+      </c>
+      <c r="F495" s="9">
+        <v>0</v>
+      </c>
+      <c r="G495" s="9">
+        <v>0</v>
+      </c>
+      <c r="H495" s="9">
+        <v>0</v>
+      </c>
+      <c r="I495" s="9">
+        <v>0</v>
+      </c>
+      <c r="J495" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="496" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A496" s="26">
+        <v>45211</v>
+      </c>
+      <c r="B496" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C496" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D496" s="9">
+        <v>1</v>
+      </c>
+      <c r="E496" s="9">
+        <v>0</v>
+      </c>
+      <c r="F496" s="9">
+        <v>0</v>
+      </c>
+      <c r="G496" s="9">
+        <v>0</v>
+      </c>
+      <c r="H496" s="9">
+        <v>0</v>
+      </c>
+      <c r="I496" s="9">
+        <v>0</v>
+      </c>
+      <c r="J496" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="497" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A497" s="26">
+        <v>45211</v>
+      </c>
+      <c r="B497" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C497" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D497" s="9">
+        <v>1</v>
+      </c>
+      <c r="E497" s="9">
+        <v>0</v>
+      </c>
+      <c r="F497" s="9">
+        <v>1</v>
+      </c>
+      <c r="G497" s="9">
+        <v>0</v>
+      </c>
+      <c r="H497" s="9">
+        <v>0</v>
+      </c>
+      <c r="I497" s="9">
+        <v>0</v>
+      </c>
+      <c r="J497" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="498" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A498" s="26">
+        <v>45211</v>
+      </c>
+      <c r="B498" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C498" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D498" s="9">
+        <v>2</v>
+      </c>
+      <c r="E498" s="9">
+        <v>0</v>
+      </c>
+      <c r="F498" s="9">
+        <v>0</v>
+      </c>
+      <c r="G498" s="9">
+        <v>0</v>
+      </c>
+      <c r="H498" s="9">
+        <v>0</v>
+      </c>
+      <c r="I498" s="9">
+        <v>0</v>
+      </c>
+      <c r="J498" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="499" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A499" s="26">
+        <v>45211</v>
+      </c>
+      <c r="B499" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C499" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D499" s="9">
+        <v>0</v>
+      </c>
+      <c r="E499" s="9">
+        <v>0</v>
+      </c>
+      <c r="F499" s="9">
+        <v>0</v>
+      </c>
+      <c r="G499" s="9">
+        <v>0</v>
+      </c>
+      <c r="H499" s="9">
+        <v>0</v>
+      </c>
+      <c r="I499" s="9">
+        <v>0</v>
+      </c>
+      <c r="J499" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="500" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A500" s="26">
+        <v>45211</v>
+      </c>
+      <c r="B500" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C500" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D500" s="9">
+        <v>2</v>
+      </c>
+      <c r="E500" s="9">
+        <v>0</v>
+      </c>
+      <c r="F500" s="9">
+        <v>0</v>
+      </c>
+      <c r="G500" s="9">
+        <v>0</v>
+      </c>
+      <c r="H500" s="9">
+        <v>0</v>
+      </c>
+      <c r="I500" s="9">
+        <v>0</v>
+      </c>
+      <c r="J500" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="501" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A501" s="26">
+        <v>45211</v>
+      </c>
+      <c r="B501" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C501" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D501" s="9">
+        <v>0</v>
+      </c>
+      <c r="E501" s="9">
+        <v>0</v>
+      </c>
+      <c r="F501" s="9">
+        <v>0</v>
+      </c>
+      <c r="G501" s="9">
+        <v>0</v>
+      </c>
+      <c r="H501" s="9">
+        <v>0</v>
+      </c>
+      <c r="I501" s="9">
+        <v>0</v>
+      </c>
+      <c r="J501" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="502" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A502" s="26">
+        <v>45211</v>
+      </c>
+      <c r="B502" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C502" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D502" s="9">
+        <v>1</v>
+      </c>
+      <c r="E502" s="9">
+        <v>0</v>
+      </c>
+      <c r="F502" s="9">
+        <v>0</v>
+      </c>
+      <c r="G502" s="9">
+        <v>0</v>
+      </c>
+      <c r="H502" s="9">
+        <v>0</v>
+      </c>
+      <c r="I502" s="9">
+        <v>0</v>
+      </c>
+      <c r="J502" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="503" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A503" s="26">
+        <v>45211</v>
+      </c>
+      <c r="B503" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C503" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D503" s="9">
+        <v>0</v>
+      </c>
+      <c r="E503" s="9">
+        <v>0</v>
+      </c>
+      <c r="F503" s="9">
+        <v>0</v>
+      </c>
+      <c r="G503" s="9">
+        <v>0</v>
+      </c>
+      <c r="H503" s="9">
+        <v>0</v>
+      </c>
+      <c r="I503" s="9">
+        <v>0</v>
+      </c>
+      <c r="J503" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="504" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A504" s="26">
+        <v>45211</v>
+      </c>
+      <c r="B504" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C504" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D504" s="9">
+        <v>1</v>
+      </c>
+      <c r="E504" s="9">
+        <v>0</v>
+      </c>
+      <c r="F504" s="9">
+        <v>0</v>
+      </c>
+      <c r="G504" s="9">
+        <v>0</v>
+      </c>
+      <c r="H504" s="9">
+        <v>0</v>
+      </c>
+      <c r="I504" s="9">
+        <v>0</v>
+      </c>
+      <c r="J504" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="505" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A505" s="26">
+        <v>45211</v>
+      </c>
+      <c r="B505" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C505" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D505" s="9">
+        <v>5</v>
+      </c>
+      <c r="E505" s="9">
+        <v>0</v>
+      </c>
+      <c r="F505" s="9">
+        <v>0</v>
+      </c>
+      <c r="G505" s="9">
+        <v>0</v>
+      </c>
+      <c r="H505" s="9">
+        <v>0</v>
+      </c>
+      <c r="I505" s="9">
+        <v>0</v>
+      </c>
+      <c r="J505" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="506" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A506" s="26">
+        <v>45211</v>
+      </c>
+      <c r="B506" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C506" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D506" s="9">
+        <v>0</v>
+      </c>
+      <c r="E506" s="9">
+        <v>0</v>
+      </c>
+      <c r="F506" s="9">
+        <v>0</v>
+      </c>
+      <c r="G506" s="9">
+        <v>0</v>
+      </c>
+      <c r="H506" s="9">
+        <v>0</v>
+      </c>
+      <c r="I506" s="9">
+        <v>0</v>
+      </c>
+      <c r="J506" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="507" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A507" s="26">
+        <v>45211</v>
+      </c>
+      <c r="B507" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C507" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D507" s="9">
+        <v>2</v>
+      </c>
+      <c r="E507" s="9">
+        <v>0</v>
+      </c>
+      <c r="F507" s="9">
+        <v>0</v>
+      </c>
+      <c r="G507" s="9">
+        <v>0</v>
+      </c>
+      <c r="H507" s="9">
+        <v>0</v>
+      </c>
+      <c r="I507" s="9">
+        <v>0</v>
+      </c>
+      <c r="J507" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="508" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A508" s="26">
+        <v>45211</v>
+      </c>
+      <c r="B508" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C508" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D508" s="9">
+        <v>0</v>
+      </c>
+      <c r="E508" s="9">
+        <v>1</v>
+      </c>
+      <c r="F508" s="9">
+        <v>0</v>
+      </c>
+      <c r="G508" s="9">
+        <v>1</v>
+      </c>
+      <c r="H508" s="9">
+        <v>0</v>
+      </c>
+      <c r="I508" s="9">
+        <v>0</v>
+      </c>
+      <c r="J508" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="509" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A509" s="26">
+        <v>45211</v>
+      </c>
+      <c r="B509" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C509" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D509" s="9">
+        <v>1</v>
+      </c>
+      <c r="E509" s="9">
+        <v>0</v>
+      </c>
+      <c r="F509" s="9">
+        <v>0</v>
+      </c>
+      <c r="G509" s="9">
+        <v>0</v>
+      </c>
+      <c r="H509" s="9">
+        <v>1</v>
+      </c>
+      <c r="I509" s="9">
+        <v>0</v>
+      </c>
+      <c r="J509" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="510" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A510" s="26">
+        <v>45211</v>
+      </c>
+      <c r="B510" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C510" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D510" s="9">
+        <v>0</v>
+      </c>
+      <c r="E510" s="9">
+        <v>0</v>
+      </c>
+      <c r="F510" s="9">
+        <v>0</v>
+      </c>
+      <c r="G510" s="9">
+        <v>0</v>
+      </c>
+      <c r="H510" s="9">
+        <v>0</v>
+      </c>
+      <c r="I510" s="9">
+        <v>0</v>
+      </c>
+      <c r="J510" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J478" xr:uid="{F55E8A24-46F9-4225-A2C2-A9164F13364A}">
     <filterColumn colId="0">
@@ -16096,6 +16648,14 @@
     </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="C2:C494">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"Scuri"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"Bianchi"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C495:C510">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Scuri"</formula>
     </cfRule>
@@ -16104,13 +16664,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H494 D2:E494" xr:uid="{A2364708-0661-4544-87F1-D3FDEABF18B6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H510 D2:E510" xr:uid="{A2364708-0661-4544-87F1-D3FDEABF18B6}">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I494" xr:uid="{3C35827F-D598-4F40-B064-7FA732E53B67}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I510" xr:uid="{3C35827F-D598-4F40-B064-7FA732E53B67}">
       <formula1>"0, 1, 2, 3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G494" xr:uid="{2FE2E49C-6CC7-4B84-9D73-A960B8BAAF9A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G510" xr:uid="{2FE2E49C-6CC7-4B84-9D73-A960B8BAAF9A}">
       <formula1>"0, 1"</formula1>
     </dataValidation>
   </dataValidations>
@@ -16133,10 +16693,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E168A56-6341-4406-8D41-CC351A3A492A}">
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView topLeftCell="A54" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17468,6 +18028,40 @@
         <v>88</v>
       </c>
       <c r="F71" s="19"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="B72" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C72" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D72" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E72" s="21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="B73" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C73" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D73" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E73" s="21" t="s">
+        <v>88</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E66" xr:uid="{3E168A56-6341-4406-8D41-CC351A3A492A}"/>

--- a/Input/FantaSPL_Milano.xlsx
+++ b/Input/FantaSPL_Milano.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Local_Docs\Admin\Other\Kit\SPL\SPL_v_0.2\SPL_Regional\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mcainsh\Desktop\Scripts\Other\SPL\SPL_Regional\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD2640A-3CAA-48D5-9BA7-0292949E72DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA086A75-2749-43B5-A216-3A359459E5B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{05F018D4-855F-4570-8D15-9B4DD092A228}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{05F018D4-855F-4570-8D15-9B4DD092A228}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="11" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Players!$A$1:$E$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Points!$A$1:$J$478</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Points!$A$1:$J$526</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1571" uniqueCount="119">
   <si>
     <t>Parameter</t>
   </si>
@@ -399,6 +399,9 @@
   <si>
     <t>Claudio</t>
   </si>
+  <si>
+    <t>Gian Scotti</t>
+  </si>
 </sst>
 </file>
 
@@ -611,30 +614,7 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{E7CD139D-1D99-4C7E-8D34-B9A08519CFB1}"/>
     <cellStyle name="Percent 2" xfId="3" xr:uid="{703E7767-9E09-4E14-BDA5-FA956747F242}"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <b/>
@@ -982,14 +962,14 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -1003,7 +983,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
         <v>4</v>
       </c>
@@ -1017,7 +997,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>5</v>
       </c>
@@ -1031,7 +1011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>109</v>
       </c>
@@ -1045,7 +1025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
         <v>6</v>
       </c>
@@ -1059,7 +1039,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
         <v>7</v>
       </c>
@@ -1073,7 +1053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
         <v>8</v>
       </c>
@@ -1087,7 +1067,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
         <v>9</v>
       </c>
@@ -1101,7 +1081,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="24" t="s">
         <v>10</v>
       </c>
@@ -1115,7 +1095,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="24" t="s">
         <v>11</v>
       </c>
@@ -1129,7 +1109,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
         <v>20</v>
       </c>
@@ -1143,7 +1123,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
         <v>107</v>
       </c>
@@ -1157,7 +1137,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
         <v>12</v>
       </c>
@@ -1179,19 +1159,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A29AA2D-3F32-45F2-B719-A1F62E0F1A5F}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
+      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="17.140625" style="1"/>
+    <col min="1" max="3" width="17.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>13</v>
       </c>
@@ -1202,7 +1182,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="14">
         <v>44938</v>
       </c>
@@ -1213,7 +1193,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="14">
         <v>44945</v>
       </c>
@@ -1224,7 +1204,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
         <v>44952</v>
       </c>
@@ -1235,7 +1215,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>44959</v>
       </c>
@@ -1246,7 +1226,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>44966</v>
       </c>
@@ -1257,7 +1237,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <v>44980</v>
       </c>
@@ -1268,7 +1248,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>44987</v>
       </c>
@@ -1279,7 +1259,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>44994</v>
       </c>
@@ -1290,7 +1270,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
         <v>45001</v>
       </c>
@@ -1301,7 +1281,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
         <v>45008</v>
       </c>
@@ -1312,7 +1292,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
         <v>45015</v>
       </c>
@@ -1323,7 +1303,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
         <v>45022</v>
       </c>
@@ -1334,7 +1314,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="14">
         <v>45030</v>
       </c>
@@ -1345,7 +1325,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="14">
         <v>45050</v>
       </c>
@@ -1356,7 +1336,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="14">
         <v>45057</v>
       </c>
@@ -1367,7 +1347,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="14">
         <v>45064</v>
       </c>
@@ -1378,7 +1358,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="14">
         <v>45071</v>
       </c>
@@ -1389,7 +1369,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="14">
         <v>45078</v>
       </c>
@@ -1400,7 +1380,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="14">
         <v>45085</v>
       </c>
@@ -1411,7 +1391,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="14">
         <v>45092</v>
       </c>
@@ -1422,7 +1402,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="14">
         <v>45099</v>
       </c>
@@ -1433,7 +1413,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="14">
         <v>45106</v>
       </c>
@@ -1444,7 +1424,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="14">
         <v>45113</v>
       </c>
@@ -1455,7 +1435,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="14">
         <v>45114</v>
       </c>
@@ -1466,7 +1446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="14">
         <v>45115</v>
       </c>
@@ -1477,7 +1457,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="14">
         <v>45116</v>
       </c>
@@ -1488,7 +1468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="14">
         <v>45117</v>
       </c>
@@ -1499,7 +1479,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="14">
         <v>45118</v>
       </c>
@@ -1510,7 +1490,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="14">
         <v>45119</v>
       </c>
@@ -1521,7 +1501,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="26">
         <v>45176</v>
       </c>
@@ -1532,7 +1512,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="26">
         <v>45183</v>
       </c>
@@ -1543,7 +1523,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="26">
         <v>45190</v>
       </c>
@@ -1554,7 +1534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="26">
         <v>45197</v>
       </c>
@@ -1565,7 +1545,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="26">
         <v>45204</v>
       </c>
@@ -1576,7 +1556,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="26">
         <v>45211</v>
       </c>
@@ -1585,6 +1565,17 @@
       </c>
       <c r="C36" s="1">
         <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="26">
+        <v>45218</v>
+      </c>
+      <c r="B37" s="1">
+        <v>4</v>
+      </c>
+      <c r="C37" s="1">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1595,27 +1586,27 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F55E8A24-46F9-4225-A2C2-A9164F13364A}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:J510"/>
+  <dimension ref="A1:J526"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A488" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F506" sqref="F506"/>
+      <pane ySplit="1" topLeftCell="A511" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H528" sqref="H528"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="17.140625" style="3"/>
+    <col min="8" max="8" width="15.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="17.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
@@ -1647,7 +1638,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>44938</v>
       </c>
@@ -1676,7 +1667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>44938</v>
       </c>
@@ -1708,7 +1699,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>44938</v>
       </c>
@@ -1737,7 +1728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>44938</v>
       </c>
@@ -1766,7 +1757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>44938</v>
       </c>
@@ -1795,7 +1786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>44938</v>
       </c>
@@ -1824,7 +1815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>44938</v>
       </c>
@@ -1853,7 +1844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>44938</v>
       </c>
@@ -1882,7 +1873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>44938</v>
       </c>
@@ -1911,7 +1902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>44938</v>
       </c>
@@ -1940,7 +1931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>44938</v>
       </c>
@@ -1969,7 +1960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>44938</v>
       </c>
@@ -1998,7 +1989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>44938</v>
       </c>
@@ -2027,7 +2018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>44938</v>
       </c>
@@ -2056,7 +2047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>44945</v>
       </c>
@@ -2085,7 +2076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>44945</v>
       </c>
@@ -2114,7 +2105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>44945</v>
       </c>
@@ -2143,7 +2134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>44945</v>
       </c>
@@ -2172,7 +2163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>44945</v>
       </c>
@@ -2201,7 +2192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>44945</v>
       </c>
@@ -2230,7 +2221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>44945</v>
       </c>
@@ -2259,7 +2250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>44945</v>
       </c>
@@ -2288,7 +2279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>44945</v>
       </c>
@@ -2317,7 +2308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>44945</v>
       </c>
@@ -2346,7 +2337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>44945</v>
       </c>
@@ -2375,7 +2366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>44945</v>
       </c>
@@ -2404,7 +2395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <v>44945</v>
       </c>
@@ -2433,7 +2424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>44945</v>
       </c>
@@ -2462,7 +2453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
         <v>44945</v>
       </c>
@@ -2491,7 +2482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <v>44945</v>
       </c>
@@ -2520,7 +2511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
         <v>44945</v>
       </c>
@@ -2549,7 +2540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
         <v>44945</v>
       </c>
@@ -2578,7 +2569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
         <v>44945</v>
       </c>
@@ -2607,7 +2598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7">
         <v>44945</v>
       </c>
@@ -2639,7 +2630,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7">
         <v>44945</v>
       </c>
@@ -2668,7 +2659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7">
         <v>44945</v>
       </c>
@@ -2697,7 +2688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7">
         <v>44952</v>
       </c>
@@ -2726,7 +2717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7">
         <v>44952</v>
       </c>
@@ -2755,7 +2746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7">
         <v>44952</v>
       </c>
@@ -2784,7 +2775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7">
         <v>44952</v>
       </c>
@@ -2813,7 +2804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7">
         <v>44952</v>
       </c>
@@ -2842,7 +2833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7">
         <v>44952</v>
       </c>
@@ -2871,7 +2862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7">
         <v>44952</v>
       </c>
@@ -2900,7 +2891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7">
         <v>44952</v>
       </c>
@@ -2929,7 +2920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7">
         <v>44952</v>
       </c>
@@ -2958,7 +2949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7">
         <v>44952</v>
       </c>
@@ -2987,7 +2978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7">
         <v>44952</v>
       </c>
@@ -3016,7 +3007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7">
         <v>44952</v>
       </c>
@@ -3045,7 +3036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7">
         <v>44952</v>
       </c>
@@ -3074,7 +3065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7">
         <v>44952</v>
       </c>
@@ -3103,7 +3094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7">
         <v>44952</v>
       </c>
@@ -3132,7 +3123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="7">
         <v>44952</v>
       </c>
@@ -3161,7 +3152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="7">
         <v>44959</v>
       </c>
@@ -3190,7 +3181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7">
         <v>44959</v>
       </c>
@@ -3219,7 +3210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="7">
         <v>44959</v>
       </c>
@@ -3248,7 +3239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="7">
         <v>44959</v>
       </c>
@@ -3277,7 +3268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="7">
         <v>44959</v>
       </c>
@@ -3306,7 +3297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="7">
         <v>44959</v>
       </c>
@@ -3335,7 +3326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="7">
         <v>44959</v>
       </c>
@@ -3364,7 +3355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="7">
         <v>44959</v>
       </c>
@@ -3393,7 +3384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="7">
         <v>44959</v>
       </c>
@@ -3422,7 +3413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="7">
         <v>44959</v>
       </c>
@@ -3451,7 +3442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="7">
         <v>44959</v>
       </c>
@@ -3480,7 +3471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="7">
         <v>44959</v>
       </c>
@@ -3509,7 +3500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="7">
         <v>44959</v>
       </c>
@@ -3538,7 +3529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="7">
         <v>44959</v>
       </c>
@@ -3567,7 +3558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="7">
         <v>44966</v>
       </c>
@@ -3596,7 +3587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="7">
         <v>44966</v>
       </c>
@@ -3625,7 +3616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="7">
         <v>44966</v>
       </c>
@@ -3654,7 +3645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="7">
         <v>44966</v>
       </c>
@@ -3683,7 +3674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="7">
         <v>44966</v>
       </c>
@@ -3712,7 +3703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="7">
         <v>44966</v>
       </c>
@@ -3741,7 +3732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="7">
         <v>44966</v>
       </c>
@@ -3770,7 +3761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="7">
         <v>44966</v>
       </c>
@@ -3799,7 +3790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="7">
         <v>44966</v>
       </c>
@@ -3828,7 +3819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="7">
         <v>44966</v>
       </c>
@@ -3857,7 +3848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="7">
         <v>44966</v>
       </c>
@@ -3886,7 +3877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="7">
         <v>44966</v>
       </c>
@@ -3915,7 +3906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="7">
         <v>44966</v>
       </c>
@@ -3944,7 +3935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="7">
         <v>44966</v>
       </c>
@@ -3973,7 +3964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="7">
         <v>44980</v>
       </c>
@@ -4002,7 +3993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="7">
         <v>44980</v>
       </c>
@@ -4031,7 +4022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="7">
         <v>44980</v>
       </c>
@@ -4060,7 +4051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="7">
         <v>44980</v>
       </c>
@@ -4089,7 +4080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="7">
         <v>44980</v>
       </c>
@@ -4118,7 +4109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="7">
         <v>44980</v>
       </c>
@@ -4147,7 +4138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="7">
         <v>44980</v>
       </c>
@@ -4176,7 +4167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="7">
         <v>44980</v>
       </c>
@@ -4205,7 +4196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="7">
         <v>44980</v>
       </c>
@@ -4234,7 +4225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="7">
         <v>44980</v>
       </c>
@@ -4263,7 +4254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="7">
         <v>44980</v>
       </c>
@@ -4292,7 +4283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="7">
         <v>44980</v>
       </c>
@@ -4321,7 +4312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="7">
         <v>44980</v>
       </c>
@@ -4350,7 +4341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="7">
         <v>44980</v>
       </c>
@@ -4379,7 +4370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="7">
         <v>44980</v>
       </c>
@@ -4408,7 +4399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="7">
         <v>44980</v>
       </c>
@@ -4437,7 +4428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="7">
         <v>44987</v>
       </c>
@@ -4466,7 +4457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="7">
         <v>44987</v>
       </c>
@@ -4495,7 +4486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="7">
         <v>44987</v>
       </c>
@@ -4524,7 +4515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="7">
         <v>44987</v>
       </c>
@@ -4553,7 +4544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="7">
         <v>44987</v>
       </c>
@@ -4582,7 +4573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="7">
         <v>44987</v>
       </c>
@@ -4611,7 +4602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7">
         <v>44987</v>
       </c>
@@ -4640,7 +4631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="7">
         <v>44987</v>
       </c>
@@ -4669,7 +4660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="7">
         <v>44987</v>
       </c>
@@ -4698,7 +4689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="7">
         <v>44987</v>
       </c>
@@ -4727,7 +4718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="7">
         <v>44987</v>
       </c>
@@ -4756,7 +4747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="7">
         <v>44987</v>
       </c>
@@ -4785,7 +4776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="7">
         <v>44987</v>
       </c>
@@ -4814,7 +4805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="7">
         <v>44987</v>
       </c>
@@ -4843,7 +4834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="7">
         <v>44994</v>
       </c>
@@ -4872,7 +4863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="7">
         <v>44994</v>
       </c>
@@ -4901,7 +4892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="7">
         <v>44994</v>
       </c>
@@ -4930,7 +4921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="7">
         <v>44994</v>
       </c>
@@ -4959,7 +4950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="7">
         <v>44994</v>
       </c>
@@ -4988,7 +4979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="7">
         <v>44994</v>
       </c>
@@ -5017,7 +5008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="7">
         <v>44994</v>
       </c>
@@ -5046,7 +5037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="7">
         <v>44994</v>
       </c>
@@ -5075,7 +5066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="7">
         <v>44994</v>
       </c>
@@ -5104,7 +5095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="7">
         <v>44994</v>
       </c>
@@ -5133,7 +5124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="7">
         <v>44994</v>
       </c>
@@ -5162,7 +5153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="7">
         <v>44994</v>
       </c>
@@ -5191,7 +5182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="7">
         <v>44994</v>
       </c>
@@ -5220,7 +5211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="7">
         <v>44994</v>
       </c>
@@ -5249,7 +5240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="7">
         <v>45001</v>
       </c>
@@ -5278,7 +5269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="7">
         <v>45001</v>
       </c>
@@ -5307,7 +5298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="7">
         <v>45001</v>
       </c>
@@ -5336,7 +5327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="7">
         <v>45001</v>
       </c>
@@ -5365,7 +5356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="7">
         <v>45001</v>
       </c>
@@ -5394,7 +5385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="7">
         <v>45001</v>
       </c>
@@ -5423,7 +5414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="7">
         <v>45001</v>
       </c>
@@ -5452,7 +5443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="7">
         <v>45001</v>
       </c>
@@ -5481,7 +5472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="7">
         <v>45001</v>
       </c>
@@ -5510,7 +5501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="7">
         <v>45001</v>
       </c>
@@ -5539,7 +5530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="7">
         <v>45001</v>
       </c>
@@ -5568,7 +5559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="7">
         <v>45001</v>
       </c>
@@ -5597,7 +5588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="7">
         <v>45001</v>
       </c>
@@ -5626,7 +5617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="7">
         <v>45001</v>
       </c>
@@ -5655,7 +5646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="7">
         <v>45008</v>
       </c>
@@ -5684,7 +5675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="7">
         <v>45008</v>
       </c>
@@ -5713,7 +5704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="7">
         <v>45008</v>
       </c>
@@ -5742,7 +5733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="7">
         <v>45008</v>
       </c>
@@ -5771,7 +5762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="7">
         <v>45008</v>
       </c>
@@ -5800,7 +5791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="7">
         <v>45008</v>
       </c>
@@ -5829,7 +5820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="7">
         <v>45008</v>
       </c>
@@ -5858,7 +5849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="7">
         <v>45008</v>
       </c>
@@ -5887,7 +5878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="7">
         <v>45008</v>
       </c>
@@ -5916,7 +5907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="7">
         <v>45008</v>
       </c>
@@ -5945,7 +5936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="7">
         <v>45008</v>
       </c>
@@ -5974,7 +5965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="7">
         <v>45008</v>
       </c>
@@ -6003,7 +5994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="7">
         <v>45008</v>
       </c>
@@ -6032,7 +6023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="7">
         <v>45008</v>
       </c>
@@ -6061,7 +6052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="7">
         <v>45015</v>
       </c>
@@ -6090,7 +6081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="7">
         <v>45015</v>
       </c>
@@ -6119,7 +6110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="7">
         <v>45015</v>
       </c>
@@ -6148,7 +6139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="7">
         <v>45015</v>
       </c>
@@ -6177,7 +6168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="7">
         <v>45015</v>
       </c>
@@ -6206,7 +6197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="7">
         <v>45015</v>
       </c>
@@ -6235,7 +6226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="7">
         <v>45015</v>
       </c>
@@ -6264,7 +6255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="7">
         <v>45015</v>
       </c>
@@ -6293,7 +6284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="7">
         <v>45015</v>
       </c>
@@ -6322,7 +6313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="7">
         <v>45015</v>
       </c>
@@ -6351,7 +6342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="7">
         <v>45015</v>
       </c>
@@ -6380,7 +6371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="7">
         <v>45015</v>
       </c>
@@ -6409,7 +6400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="7">
         <v>45015</v>
       </c>
@@ -6438,7 +6429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="7">
         <v>45015</v>
       </c>
@@ -6467,7 +6458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="7">
         <v>45022</v>
       </c>
@@ -6496,7 +6487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="7">
         <v>45022</v>
       </c>
@@ -6525,7 +6516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="7">
         <v>45022</v>
       </c>
@@ -6554,7 +6545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="7">
         <v>45022</v>
       </c>
@@ -6583,7 +6574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="7">
         <v>45022</v>
       </c>
@@ -6612,7 +6603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="7">
         <v>45022</v>
       </c>
@@ -6641,7 +6632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="7">
         <v>45022</v>
       </c>
@@ -6670,7 +6661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="7">
         <v>45022</v>
       </c>
@@ -6699,7 +6690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="7">
         <v>45022</v>
       </c>
@@ -6728,7 +6719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="7">
         <v>45022</v>
       </c>
@@ -6757,7 +6748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="7">
         <v>45022</v>
       </c>
@@ -6786,7 +6777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="7">
         <v>45022</v>
       </c>
@@ -6815,7 +6806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="7">
         <v>45022</v>
       </c>
@@ -6844,7 +6835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="7">
         <v>45022</v>
       </c>
@@ -6873,7 +6864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="7">
         <v>45030</v>
       </c>
@@ -6902,7 +6893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="7">
         <v>45030</v>
       </c>
@@ -6931,7 +6922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="7">
         <v>45030</v>
       </c>
@@ -6960,7 +6951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="7">
         <v>45030</v>
       </c>
@@ -6989,7 +6980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="7">
         <v>45030</v>
       </c>
@@ -7018,7 +7009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="7">
         <v>45030</v>
       </c>
@@ -7047,7 +7038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="7">
         <v>45030</v>
       </c>
@@ -7076,7 +7067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="7">
         <v>45030</v>
       </c>
@@ -7105,7 +7096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="7">
         <v>45030</v>
       </c>
@@ -7134,7 +7125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="7">
         <v>45030</v>
       </c>
@@ -7163,7 +7154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="7">
         <v>45030</v>
       </c>
@@ -7192,7 +7183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="7">
         <v>45030</v>
       </c>
@@ -7221,7 +7212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="7">
         <v>45030</v>
       </c>
@@ -7250,7 +7241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="7">
         <v>45030</v>
       </c>
@@ -7279,7 +7270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="7">
         <v>45030</v>
       </c>
@@ -7308,7 +7299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="7">
         <v>45030</v>
       </c>
@@ -7337,7 +7328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="7">
         <v>45030</v>
       </c>
@@ -7366,7 +7357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="7">
         <v>45030</v>
       </c>
@@ -7395,7 +7386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="7">
         <v>45030</v>
       </c>
@@ -7424,7 +7415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="7">
         <v>45030</v>
       </c>
@@ -7453,7 +7444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="7">
         <v>45030</v>
       </c>
@@ -7482,7 +7473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="7">
         <v>45030</v>
       </c>
@@ -7511,7 +7502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="7">
         <v>45050</v>
       </c>
@@ -7540,7 +7531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="7">
         <v>45050</v>
       </c>
@@ -7569,7 +7560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="7">
         <v>45050</v>
       </c>
@@ -7598,7 +7589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="7">
         <v>45050</v>
       </c>
@@ -7627,7 +7618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="7">
         <v>45050</v>
       </c>
@@ -7656,7 +7647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="7">
         <v>45050</v>
       </c>
@@ -7685,7 +7676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="7">
         <v>45050</v>
       </c>
@@ -7714,7 +7705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="7">
         <v>45050</v>
       </c>
@@ -7743,7 +7734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="7">
         <v>45050</v>
       </c>
@@ -7772,7 +7763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="7">
         <v>45050</v>
       </c>
@@ -7801,7 +7792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="7">
         <v>45050</v>
       </c>
@@ -7830,7 +7821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="7">
         <v>45050</v>
       </c>
@@ -7859,7 +7850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="7">
         <v>45050</v>
       </c>
@@ -7888,7 +7879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="7">
         <v>45050</v>
       </c>
@@ -7917,7 +7908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="7">
         <v>45050</v>
       </c>
@@ -7946,7 +7937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="7">
         <v>45050</v>
       </c>
@@ -7975,7 +7966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="7">
         <v>45057</v>
       </c>
@@ -8004,7 +7995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="7">
         <v>45057</v>
       </c>
@@ -8033,7 +8024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="7">
         <v>45057</v>
       </c>
@@ -8062,7 +8053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="7">
         <v>45057</v>
       </c>
@@ -8091,7 +8082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="7">
         <v>45057</v>
       </c>
@@ -8120,7 +8111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="7">
         <v>45057</v>
       </c>
@@ -8149,7 +8140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="7">
         <v>45057</v>
       </c>
@@ -8178,7 +8169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="7">
         <v>45057</v>
       </c>
@@ -8207,7 +8198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="7">
         <v>45057</v>
       </c>
@@ -8236,7 +8227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="7">
         <v>45057</v>
       </c>
@@ -8265,7 +8256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="7">
         <v>45057</v>
       </c>
@@ -8294,7 +8285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="7">
         <v>45057</v>
       </c>
@@ -8323,7 +8314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="7">
         <v>45057</v>
       </c>
@@ -8352,7 +8343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="7">
         <v>45057</v>
       </c>
@@ -8381,7 +8372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="7">
         <v>45064</v>
       </c>
@@ -8410,7 +8401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="7">
         <v>45064</v>
       </c>
@@ -8439,7 +8430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="7">
         <v>45064</v>
       </c>
@@ -8468,7 +8459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="7">
         <v>45064</v>
       </c>
@@ -8497,7 +8488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" s="7">
         <v>45064</v>
       </c>
@@ -8526,7 +8517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="7">
         <v>45064</v>
       </c>
@@ -8555,7 +8546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="7">
         <v>45064</v>
       </c>
@@ -8584,7 +8575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="7">
         <v>45064</v>
       </c>
@@ -8613,7 +8604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="7">
         <v>45064</v>
       </c>
@@ -8642,7 +8633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="7">
         <v>45064</v>
       </c>
@@ -8671,7 +8662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="7">
         <v>45064</v>
       </c>
@@ -8700,7 +8691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="7">
         <v>45064</v>
       </c>
@@ -8729,7 +8720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="7">
         <v>45064</v>
       </c>
@@ -8758,7 +8749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="7">
         <v>45064</v>
       </c>
@@ -8787,7 +8778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" s="7">
         <v>45064</v>
       </c>
@@ -8816,7 +8807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" s="7">
         <v>45064</v>
       </c>
@@ -8845,7 +8836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" s="7">
         <v>45071</v>
       </c>
@@ -8874,7 +8865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" s="7">
         <v>45071</v>
       </c>
@@ -8903,7 +8894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" s="7">
         <v>45071</v>
       </c>
@@ -8932,7 +8923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" s="7">
         <v>45071</v>
       </c>
@@ -8961,7 +8952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" s="7">
         <v>45071</v>
       </c>
@@ -8990,7 +8981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" s="7">
         <v>45071</v>
       </c>
@@ -9019,7 +9010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" s="7">
         <v>45071</v>
       </c>
@@ -9048,7 +9039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="7">
         <v>45071</v>
       </c>
@@ -9077,7 +9068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" s="7">
         <v>45071</v>
       </c>
@@ -9106,7 +9097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" s="7">
         <v>45071</v>
       </c>
@@ -9135,7 +9126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" s="7">
         <v>45071</v>
       </c>
@@ -9164,7 +9155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" s="7">
         <v>45071</v>
       </c>
@@ -9193,7 +9184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" s="7">
         <v>45071</v>
       </c>
@@ -9222,7 +9213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" s="7">
         <v>45071</v>
       </c>
@@ -9251,7 +9242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" s="7">
         <v>45078</v>
       </c>
@@ -9280,7 +9271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" s="7">
         <v>45078</v>
       </c>
@@ -9309,7 +9300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" s="7">
         <v>45078</v>
       </c>
@@ -9338,7 +9329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" s="7">
         <v>45078</v>
       </c>
@@ -9367,7 +9358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="7">
         <v>45078</v>
       </c>
@@ -9396,7 +9387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="7">
         <v>45078</v>
       </c>
@@ -9425,7 +9416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="7">
         <v>45078</v>
       </c>
@@ -9454,7 +9445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="7">
         <v>45078</v>
       </c>
@@ -9483,7 +9474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="7">
         <v>45078</v>
       </c>
@@ -9512,7 +9503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" s="7">
         <v>45078</v>
       </c>
@@ -9541,7 +9532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" s="7">
         <v>45078</v>
       </c>
@@ -9570,7 +9561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" s="7">
         <v>45078</v>
       </c>
@@ -9599,7 +9590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" s="7">
         <v>45078</v>
       </c>
@@ -9628,7 +9619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" s="7">
         <v>45078</v>
       </c>
@@ -9657,7 +9648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" s="7">
         <v>45085</v>
       </c>
@@ -9686,7 +9677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" s="7">
         <v>45085</v>
       </c>
@@ -9715,7 +9706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" s="7">
         <v>45085</v>
       </c>
@@ -9744,7 +9735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" s="7">
         <v>45085</v>
       </c>
@@ -9773,7 +9764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" s="7">
         <v>45085</v>
       </c>
@@ -9802,7 +9793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" s="7">
         <v>45085</v>
       </c>
@@ -9831,7 +9822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" s="7">
         <v>45085</v>
       </c>
@@ -9860,7 +9851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" s="7">
         <v>45085</v>
       </c>
@@ -9889,7 +9880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" s="7">
         <v>45085</v>
       </c>
@@ -9918,7 +9909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" s="7">
         <v>45085</v>
       </c>
@@ -9947,7 +9938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" s="7">
         <v>45085</v>
       </c>
@@ -9976,7 +9967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" s="7">
         <v>45085</v>
       </c>
@@ -10005,7 +9996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" s="7">
         <v>45085</v>
       </c>
@@ -10034,7 +10025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" s="7">
         <v>45085</v>
       </c>
@@ -10063,7 +10054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" s="7">
         <v>45092</v>
       </c>
@@ -10092,7 +10083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" s="7">
         <v>45092</v>
       </c>
@@ -10121,7 +10112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" s="7">
         <v>45092</v>
       </c>
@@ -10150,7 +10141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" s="7">
         <v>45092</v>
       </c>
@@ -10179,7 +10170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" s="7">
         <v>45092</v>
       </c>
@@ -10208,7 +10199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" s="7">
         <v>45092</v>
       </c>
@@ -10237,7 +10228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" s="7">
         <v>45092</v>
       </c>
@@ -10266,7 +10257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" s="7">
         <v>45092</v>
       </c>
@@ -10295,7 +10286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" s="7">
         <v>45092</v>
       </c>
@@ -10324,7 +10315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" s="7">
         <v>45092</v>
       </c>
@@ -10353,7 +10344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" s="7">
         <v>45092</v>
       </c>
@@ -10382,7 +10373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" s="7">
         <v>45092</v>
       </c>
@@ -10411,7 +10402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" s="7">
         <v>45092</v>
       </c>
@@ -10440,7 +10431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" s="7">
         <v>45092</v>
       </c>
@@ -10469,7 +10460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="7">
         <v>45092</v>
       </c>
@@ -10498,7 +10489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" s="7">
         <v>45092</v>
       </c>
@@ -10527,7 +10518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" s="7">
         <v>45099</v>
       </c>
@@ -10556,7 +10547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" s="7">
         <v>45099</v>
       </c>
@@ -10585,7 +10576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" s="7">
         <v>45099</v>
       </c>
@@ -10614,7 +10605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" s="7">
         <v>45099</v>
       </c>
@@ -10643,7 +10634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" s="7">
         <v>45099</v>
       </c>
@@ -10672,7 +10663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" s="7">
         <v>45099</v>
       </c>
@@ -10701,7 +10692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" s="7">
         <v>45099</v>
       </c>
@@ -10730,7 +10721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" s="7">
         <v>45099</v>
       </c>
@@ -10759,7 +10750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" s="7">
         <v>45099</v>
       </c>
@@ -10788,7 +10779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" s="7">
         <v>45099</v>
       </c>
@@ -10817,7 +10808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" s="7">
         <v>45099</v>
       </c>
@@ -10846,7 +10837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" s="7">
         <v>45099</v>
       </c>
@@ -10875,7 +10866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" s="7">
         <v>45099</v>
       </c>
@@ -10904,7 +10895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" s="7">
         <v>45099</v>
       </c>
@@ -10933,7 +10924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" s="7">
         <v>45099</v>
       </c>
@@ -10962,7 +10953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" s="7">
         <v>45099</v>
       </c>
@@ -10991,7 +10982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" s="7">
         <v>45106</v>
       </c>
@@ -11020,7 +11011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" s="7">
         <v>45106</v>
       </c>
@@ -11049,7 +11040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" s="7">
         <v>45106</v>
       </c>
@@ -11078,7 +11069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" s="7">
         <v>45106</v>
       </c>
@@ -11107,7 +11098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" s="7">
         <v>45106</v>
       </c>
@@ -11136,7 +11127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" s="7">
         <v>45106</v>
       </c>
@@ -11165,7 +11156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" s="7">
         <v>45106</v>
       </c>
@@ -11194,7 +11185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" s="7">
         <v>45106</v>
       </c>
@@ -11223,7 +11214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" s="7">
         <v>45106</v>
       </c>
@@ -11252,7 +11243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" s="7">
         <v>45106</v>
       </c>
@@ -11281,7 +11272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" s="7">
         <v>45106</v>
       </c>
@@ -11310,7 +11301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" s="7">
         <v>45106</v>
       </c>
@@ -11339,7 +11330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" s="7">
         <v>45106</v>
       </c>
@@ -11368,7 +11359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" s="7">
         <v>45106</v>
       </c>
@@ -11397,7 +11388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" s="7">
         <v>45106</v>
       </c>
@@ -11426,7 +11417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" s="7">
         <v>45106</v>
       </c>
@@ -11455,7 +11446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" s="7">
         <v>45113</v>
       </c>
@@ -11484,7 +11475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" s="7">
         <v>45113</v>
       </c>
@@ -11513,7 +11504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" s="7">
         <v>45113</v>
       </c>
@@ -11542,7 +11533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" s="7">
         <v>45113</v>
       </c>
@@ -11571,7 +11562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" s="7">
         <v>45113</v>
       </c>
@@ -11600,7 +11591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" s="7">
         <v>45113</v>
       </c>
@@ -11629,7 +11620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" s="7">
         <v>45113</v>
       </c>
@@ -11658,7 +11649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" s="7">
         <v>45113</v>
       </c>
@@ -11687,7 +11678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" s="7">
         <v>45113</v>
       </c>
@@ -11716,7 +11707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" s="7">
         <v>45113</v>
       </c>
@@ -11745,7 +11736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" s="7">
         <v>45113</v>
       </c>
@@ -11774,7 +11765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" s="7">
         <v>45113</v>
       </c>
@@ -11803,7 +11794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" s="7">
         <v>45113</v>
       </c>
@@ -11832,7 +11823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" s="7">
         <v>45113</v>
       </c>
@@ -11861,7 +11852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" s="7">
         <v>45114</v>
       </c>
@@ -11890,7 +11881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" s="7">
         <v>45114</v>
       </c>
@@ -11919,7 +11910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" s="7">
         <v>45114</v>
       </c>
@@ -11948,7 +11939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" s="7">
         <v>45114</v>
       </c>
@@ -11977,7 +11968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" s="7">
         <v>45114</v>
       </c>
@@ -12006,7 +11997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" s="7">
         <v>45114</v>
       </c>
@@ -12035,7 +12026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" s="7">
         <v>45114</v>
       </c>
@@ -12064,7 +12055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" s="7">
         <v>45114</v>
       </c>
@@ -12093,7 +12084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" s="7">
         <v>45114</v>
       </c>
@@ -12122,7 +12113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" s="7">
         <v>45114</v>
       </c>
@@ -12151,7 +12142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" s="7">
         <v>45114</v>
       </c>
@@ -12180,7 +12171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" s="7">
         <v>45114</v>
       </c>
@@ -12209,7 +12200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" s="7">
         <v>45114</v>
       </c>
@@ -12238,7 +12229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" s="7">
         <v>45115</v>
       </c>
@@ -12267,7 +12258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" s="7">
         <v>45115</v>
       </c>
@@ -12296,7 +12287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" s="7">
         <v>45115</v>
       </c>
@@ -12325,7 +12316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" s="7">
         <v>45115</v>
       </c>
@@ -12354,7 +12345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" s="7">
         <v>45115</v>
       </c>
@@ -12383,7 +12374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" s="7">
         <v>45115</v>
       </c>
@@ -12412,7 +12403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" s="7">
         <v>45115</v>
       </c>
@@ -12441,7 +12432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" s="7">
         <v>45115</v>
       </c>
@@ -12470,7 +12461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" s="7">
         <v>45115</v>
       </c>
@@ -12499,7 +12490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" s="7">
         <v>45115</v>
       </c>
@@ -12528,7 +12519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" s="7">
         <v>45116</v>
       </c>
@@ -12557,7 +12548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" s="7">
         <v>45116</v>
       </c>
@@ -12586,7 +12577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" s="7">
         <v>45116</v>
       </c>
@@ -12615,7 +12606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" s="7">
         <v>45116</v>
       </c>
@@ -12644,7 +12635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" s="7">
         <v>45116</v>
       </c>
@@ -12673,7 +12664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" s="7">
         <v>45116</v>
       </c>
@@ -12702,7 +12693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" s="7">
         <v>45116</v>
       </c>
@@ -12731,7 +12722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" s="7">
         <v>45116</v>
       </c>
@@ -12760,7 +12751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385" s="7">
         <v>45116</v>
       </c>
@@ -12789,7 +12780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386" s="7">
         <v>45116</v>
       </c>
@@ -12818,7 +12809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" s="7">
         <v>45116</v>
       </c>
@@ -12847,7 +12838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" s="7">
         <v>45116</v>
       </c>
@@ -12876,7 +12867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" s="7">
         <v>45116</v>
       </c>
@@ -12905,7 +12896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" s="7">
         <v>45116</v>
       </c>
@@ -12934,7 +12925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" s="7">
         <v>45117</v>
       </c>
@@ -12963,7 +12954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" s="7">
         <v>45117</v>
       </c>
@@ -12992,7 +12983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" s="7">
         <v>45117</v>
       </c>
@@ -13021,7 +13012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" s="7">
         <v>45117</v>
       </c>
@@ -13050,7 +13041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395" s="7">
         <v>45117</v>
       </c>
@@ -13079,7 +13070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396" s="7">
         <v>45117</v>
       </c>
@@ -13108,7 +13099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397" s="7">
         <v>45117</v>
       </c>
@@ -13137,7 +13128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398" s="7">
         <v>45117</v>
       </c>
@@ -13166,7 +13157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" s="7">
         <v>45117</v>
       </c>
@@ -13195,7 +13186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400" s="7">
         <v>45118</v>
       </c>
@@ -13224,7 +13215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" s="7">
         <v>45118</v>
       </c>
@@ -13253,7 +13244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402" s="7">
         <v>45118</v>
       </c>
@@ -13282,7 +13273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403" s="7">
         <v>45118</v>
       </c>
@@ -13311,7 +13302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" s="7">
         <v>45118</v>
       </c>
@@ -13340,7 +13331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" s="7">
         <v>45118</v>
       </c>
@@ -13369,7 +13360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406" s="7">
         <v>45118</v>
       </c>
@@ -13398,7 +13389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407" s="7">
         <v>45118</v>
       </c>
@@ -13427,7 +13418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408" s="7">
         <v>45118</v>
       </c>
@@ -13456,7 +13447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409" s="7">
         <v>45118</v>
       </c>
@@ -13485,7 +13476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410" s="7">
         <v>45118</v>
       </c>
@@ -13514,7 +13505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411" s="7">
         <v>45118</v>
       </c>
@@ -13543,7 +13534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412" s="7">
         <v>45118</v>
       </c>
@@ -13572,7 +13563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413" s="7">
         <v>45118</v>
       </c>
@@ -13601,7 +13592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" s="7">
         <v>45119</v>
       </c>
@@ -13630,7 +13621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415" s="7">
         <v>45119</v>
       </c>
@@ -13659,7 +13650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" s="7">
         <v>45119</v>
       </c>
@@ -13688,7 +13679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417" s="7">
         <v>45119</v>
       </c>
@@ -13717,7 +13708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418" s="7">
         <v>45119</v>
       </c>
@@ -13746,7 +13737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419" s="7">
         <v>45119</v>
       </c>
@@ -13775,7 +13766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420" s="7">
         <v>45119</v>
       </c>
@@ -13804,7 +13795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421" s="7">
         <v>45119</v>
       </c>
@@ -13833,7 +13824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422" s="7">
         <v>45119</v>
       </c>
@@ -13862,7 +13853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423" s="26">
         <v>45176</v>
       </c>
@@ -13894,7 +13885,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="424" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424" s="26">
         <v>45176</v>
       </c>
@@ -13926,7 +13917,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="425" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425" s="26">
         <v>45176</v>
       </c>
@@ -13958,7 +13949,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="426" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426" s="26">
         <v>45176</v>
       </c>
@@ -13990,7 +13981,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="427" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427" s="26">
         <v>45176</v>
       </c>
@@ -14022,7 +14013,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="428" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428" s="26">
         <v>45176</v>
       </c>
@@ -14054,7 +14045,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="429" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429" s="26">
         <v>45176</v>
       </c>
@@ -14086,7 +14077,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="430" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430" s="26">
         <v>45176</v>
       </c>
@@ -14118,7 +14109,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="431" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" s="26">
         <v>45176</v>
       </c>
@@ -14150,7 +14141,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="432" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432" s="26">
         <v>45176</v>
       </c>
@@ -14182,7 +14173,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="433" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" s="26">
         <v>45176</v>
       </c>
@@ -14214,7 +14205,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="434" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434" s="26">
         <v>45176</v>
       </c>
@@ -14246,7 +14237,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="435" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435" s="26">
         <v>45176</v>
       </c>
@@ -14278,7 +14269,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="436" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436" s="26">
         <v>45176</v>
       </c>
@@ -14310,7 +14301,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="437" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437" s="26">
         <v>45183</v>
       </c>
@@ -14342,7 +14333,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="438" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438" s="26">
         <v>45183</v>
       </c>
@@ -14374,7 +14365,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="439" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439" s="26">
         <v>45183</v>
       </c>
@@ -14406,7 +14397,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="440" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440" s="26">
         <v>45183</v>
       </c>
@@ -14438,7 +14429,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="441" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A441" s="26">
         <v>45183</v>
       </c>
@@ -14470,7 +14461,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="442" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442" s="26">
         <v>45183</v>
       </c>
@@ -14502,7 +14493,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="443" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A443" s="26">
         <v>45183</v>
       </c>
@@ -14534,7 +14525,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="444" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444" s="26">
         <v>45183</v>
       </c>
@@ -14566,7 +14557,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="445" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445" s="26">
         <v>45183</v>
       </c>
@@ -14598,7 +14589,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="446" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446" s="26">
         <v>45183</v>
       </c>
@@ -14630,7 +14621,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="447" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447" s="26">
         <v>45183</v>
       </c>
@@ -14662,7 +14653,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="448" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448" s="26">
         <v>45183</v>
       </c>
@@ -14694,7 +14685,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="449" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449" s="26">
         <v>45183</v>
       </c>
@@ -14726,7 +14717,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="450" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450" s="26">
         <v>45183</v>
       </c>
@@ -14758,7 +14749,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="451" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A451" s="26">
         <v>45190</v>
       </c>
@@ -14787,7 +14778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A452" s="26">
         <v>45190</v>
       </c>
@@ -14816,7 +14807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A453" s="26">
         <v>45190</v>
       </c>
@@ -14845,7 +14836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A454" s="26">
         <v>45190</v>
       </c>
@@ -14874,7 +14865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A455" s="26">
         <v>45190</v>
       </c>
@@ -14906,7 +14897,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="456" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A456" s="26">
         <v>45190</v>
       </c>
@@ -14935,7 +14926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A457" s="26">
         <v>45190</v>
       </c>
@@ -14964,7 +14955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A458" s="26">
         <v>45190</v>
       </c>
@@ -14993,7 +14984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A459" s="26">
         <v>45190</v>
       </c>
@@ -15022,7 +15013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A460" s="26">
         <v>45190</v>
       </c>
@@ -15051,7 +15042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A461" s="26">
         <v>45190</v>
       </c>
@@ -15080,7 +15071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A462" s="26">
         <v>45190</v>
       </c>
@@ -15109,7 +15100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A463" s="26">
         <v>45190</v>
       </c>
@@ -15138,7 +15129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A464" s="26">
         <v>45190</v>
       </c>
@@ -15167,7 +15158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A465" s="26">
         <v>45197</v>
       </c>
@@ -15199,7 +15190,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="466" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A466" s="26">
         <v>45197</v>
       </c>
@@ -15231,7 +15222,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="467" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A467" s="26">
         <v>45197</v>
       </c>
@@ -15263,7 +15254,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="468" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A468" s="26">
         <v>45197</v>
       </c>
@@ -15295,7 +15286,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="469" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A469" s="26">
         <v>45197</v>
       </c>
@@ -15327,7 +15318,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="470" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A470" s="26">
         <v>45197</v>
       </c>
@@ -15359,7 +15350,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="471" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A471" s="26">
         <v>45197</v>
       </c>
@@ -15391,7 +15382,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="472" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A472" s="26">
         <v>45197</v>
       </c>
@@ -15423,7 +15414,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="473" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A473" s="26">
         <v>45197</v>
       </c>
@@ -15455,7 +15446,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="474" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A474" s="26">
         <v>45197</v>
       </c>
@@ -15487,7 +15478,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="475" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A475" s="26">
         <v>45197</v>
       </c>
@@ -15519,7 +15510,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="476" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A476" s="26">
         <v>45197</v>
       </c>
@@ -15551,7 +15542,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="477" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A477" s="26">
         <v>45197</v>
       </c>
@@ -15583,7 +15574,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="478" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A478" s="26">
         <v>45197</v>
       </c>
@@ -15615,7 +15606,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="479" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A479" s="26">
         <v>45204</v>
       </c>
@@ -15647,7 +15638,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="480" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A480" s="26">
         <v>45204</v>
       </c>
@@ -15679,7 +15670,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="481" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A481" s="26">
         <v>45204</v>
       </c>
@@ -15711,7 +15702,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="482" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A482" s="26">
         <v>45204</v>
       </c>
@@ -15743,7 +15734,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="483" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A483" s="26">
         <v>45204</v>
       </c>
@@ -15775,7 +15766,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="484" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A484" s="26">
         <v>45204</v>
       </c>
@@ -15807,7 +15798,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="485" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A485" s="26">
         <v>45204</v>
       </c>
@@ -15839,7 +15830,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="486" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A486" s="26">
         <v>45204</v>
       </c>
@@ -15871,7 +15862,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="487" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A487" s="26">
         <v>45204</v>
       </c>
@@ -15903,7 +15894,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="488" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A488" s="26">
         <v>45204</v>
       </c>
@@ -15935,7 +15926,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="489" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A489" s="26">
         <v>45204</v>
       </c>
@@ -15967,7 +15958,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="490" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A490" s="26">
         <v>45204</v>
       </c>
@@ -15999,7 +15990,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="491" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A491" s="26">
         <v>45204</v>
       </c>
@@ -16031,7 +16022,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="492" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A492" s="26">
         <v>45204</v>
       </c>
@@ -16063,7 +16054,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="493" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A493" s="26">
         <v>45204</v>
       </c>
@@ -16095,7 +16086,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="494" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A494" s="26">
         <v>45204</v>
       </c>
@@ -16127,7 +16118,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="495" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A495" s="26">
         <v>45211</v>
       </c>
@@ -16159,7 +16150,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="496" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A496" s="26">
         <v>45211</v>
       </c>
@@ -16191,7 +16182,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="497" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A497" s="26">
         <v>45211</v>
       </c>
@@ -16223,7 +16214,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="498" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A498" s="26">
         <v>45211</v>
       </c>
@@ -16255,7 +16246,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="499" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A499" s="26">
         <v>45211</v>
       </c>
@@ -16287,7 +16278,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="500" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A500" s="26">
         <v>45211</v>
       </c>
@@ -16319,7 +16310,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="501" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A501" s="26">
         <v>45211</v>
       </c>
@@ -16351,7 +16342,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="502" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A502" s="26">
         <v>45211</v>
       </c>
@@ -16383,7 +16374,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="503" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A503" s="26">
         <v>45211</v>
       </c>
@@ -16415,7 +16406,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="504" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A504" s="26">
         <v>45211</v>
       </c>
@@ -16447,7 +16438,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="505" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A505" s="26">
         <v>45211</v>
       </c>
@@ -16479,7 +16470,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="506" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A506" s="26">
         <v>45211</v>
       </c>
@@ -16511,7 +16502,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="507" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A507" s="26">
         <v>45211</v>
       </c>
@@ -16543,7 +16534,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="508" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A508" s="26">
         <v>45211</v>
       </c>
@@ -16575,7 +16566,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="509" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A509" s="26">
         <v>45211</v>
       </c>
@@ -16607,7 +16598,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="510" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A510" s="26">
         <v>45211</v>
       </c>
@@ -16639,23 +16630,527 @@
         <v>90</v>
       </c>
     </row>
+    <row r="511" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A511" s="26">
+        <v>45218</v>
+      </c>
+      <c r="B511" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C511" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D511" s="9">
+        <v>0</v>
+      </c>
+      <c r="E511" s="9">
+        <v>0</v>
+      </c>
+      <c r="F511" s="9">
+        <v>0</v>
+      </c>
+      <c r="G511" s="9">
+        <v>0</v>
+      </c>
+      <c r="H511" s="9">
+        <v>0</v>
+      </c>
+      <c r="I511" s="9">
+        <v>0</v>
+      </c>
+      <c r="J511" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="512" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A512" s="26">
+        <v>45218</v>
+      </c>
+      <c r="B512" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C512" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D512" s="9">
+        <v>2</v>
+      </c>
+      <c r="E512" s="9">
+        <v>0</v>
+      </c>
+      <c r="F512" s="9">
+        <v>0</v>
+      </c>
+      <c r="G512" s="9">
+        <v>0</v>
+      </c>
+      <c r="H512" s="9">
+        <v>0</v>
+      </c>
+      <c r="I512" s="9">
+        <v>0</v>
+      </c>
+      <c r="J512" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="513" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A513" s="26">
+        <v>45218</v>
+      </c>
+      <c r="B513" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C513" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D513" s="9">
+        <v>0</v>
+      </c>
+      <c r="E513" s="9">
+        <v>0</v>
+      </c>
+      <c r="F513" s="9">
+        <v>0</v>
+      </c>
+      <c r="G513" s="9">
+        <v>0</v>
+      </c>
+      <c r="H513" s="9">
+        <v>0</v>
+      </c>
+      <c r="I513" s="9">
+        <v>0</v>
+      </c>
+      <c r="J513" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="514" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A514" s="26">
+        <v>45218</v>
+      </c>
+      <c r="B514" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C514" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D514" s="9">
+        <v>1</v>
+      </c>
+      <c r="E514" s="9">
+        <v>0</v>
+      </c>
+      <c r="F514" s="9">
+        <v>0</v>
+      </c>
+      <c r="G514" s="9">
+        <v>0</v>
+      </c>
+      <c r="H514" s="9">
+        <v>0</v>
+      </c>
+      <c r="I514" s="9">
+        <v>0</v>
+      </c>
+      <c r="J514" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="515" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A515" s="26">
+        <v>45218</v>
+      </c>
+      <c r="B515" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C515" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D515" s="9">
+        <v>1</v>
+      </c>
+      <c r="E515" s="9">
+        <v>0</v>
+      </c>
+      <c r="F515" s="9">
+        <v>0</v>
+      </c>
+      <c r="G515" s="9">
+        <v>0</v>
+      </c>
+      <c r="H515" s="9">
+        <v>0</v>
+      </c>
+      <c r="I515" s="9">
+        <v>0</v>
+      </c>
+      <c r="J515" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="516" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A516" s="26">
+        <v>45218</v>
+      </c>
+      <c r="B516" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C516" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D516" s="9">
+        <v>0</v>
+      </c>
+      <c r="E516" s="9">
+        <v>0</v>
+      </c>
+      <c r="F516" s="9">
+        <v>0</v>
+      </c>
+      <c r="G516" s="9">
+        <v>0</v>
+      </c>
+      <c r="H516" s="9">
+        <v>0</v>
+      </c>
+      <c r="I516" s="9">
+        <v>0</v>
+      </c>
+      <c r="J516" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="517" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A517" s="26">
+        <v>45218</v>
+      </c>
+      <c r="B517" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C517" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D517" s="9">
+        <v>0</v>
+      </c>
+      <c r="E517" s="9">
+        <v>0</v>
+      </c>
+      <c r="F517" s="9">
+        <v>0</v>
+      </c>
+      <c r="G517" s="9">
+        <v>0</v>
+      </c>
+      <c r="H517" s="9">
+        <v>0</v>
+      </c>
+      <c r="I517" s="9">
+        <v>0</v>
+      </c>
+      <c r="J517" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="518" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A518" s="26">
+        <v>45218</v>
+      </c>
+      <c r="B518" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C518" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D518" s="9">
+        <v>0</v>
+      </c>
+      <c r="E518" s="9">
+        <v>0</v>
+      </c>
+      <c r="F518" s="9">
+        <v>0</v>
+      </c>
+      <c r="G518" s="9">
+        <v>1</v>
+      </c>
+      <c r="H518" s="9">
+        <v>0</v>
+      </c>
+      <c r="I518" s="9">
+        <v>0</v>
+      </c>
+      <c r="J518" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="519" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A519" s="26">
+        <v>45218</v>
+      </c>
+      <c r="B519" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C519" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D519" s="9">
+        <v>0</v>
+      </c>
+      <c r="E519" s="9">
+        <v>0</v>
+      </c>
+      <c r="F519" s="9">
+        <v>0</v>
+      </c>
+      <c r="G519" s="9">
+        <v>0</v>
+      </c>
+      <c r="H519" s="9">
+        <v>0</v>
+      </c>
+      <c r="I519" s="9">
+        <v>0</v>
+      </c>
+      <c r="J519" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="520" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A520" s="26">
+        <v>45218</v>
+      </c>
+      <c r="B520" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C520" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D520" s="9">
+        <v>2</v>
+      </c>
+      <c r="E520" s="9">
+        <v>0</v>
+      </c>
+      <c r="F520" s="9">
+        <v>0</v>
+      </c>
+      <c r="G520" s="9">
+        <v>0</v>
+      </c>
+      <c r="H520" s="9">
+        <v>0</v>
+      </c>
+      <c r="I520" s="9">
+        <v>0</v>
+      </c>
+      <c r="J520" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="521" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A521" s="26">
+        <v>45218</v>
+      </c>
+      <c r="B521" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C521" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D521" s="9">
+        <v>0</v>
+      </c>
+      <c r="E521" s="9">
+        <v>0</v>
+      </c>
+      <c r="F521" s="9">
+        <v>0</v>
+      </c>
+      <c r="G521" s="9">
+        <v>0</v>
+      </c>
+      <c r="H521" s="9">
+        <v>0</v>
+      </c>
+      <c r="I521" s="9">
+        <v>0</v>
+      </c>
+      <c r="J521" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="522" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A522" s="26">
+        <v>45218</v>
+      </c>
+      <c r="B522" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C522" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D522" s="9">
+        <v>1</v>
+      </c>
+      <c r="E522" s="9">
+        <v>0</v>
+      </c>
+      <c r="F522" s="9">
+        <v>1</v>
+      </c>
+      <c r="G522" s="9">
+        <v>0</v>
+      </c>
+      <c r="H522" s="9">
+        <v>0</v>
+      </c>
+      <c r="I522" s="9">
+        <v>0</v>
+      </c>
+      <c r="J522" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="523" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A523" s="26">
+        <v>45218</v>
+      </c>
+      <c r="B523" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C523" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D523" s="9">
+        <v>4</v>
+      </c>
+      <c r="E523" s="9">
+        <v>0</v>
+      </c>
+      <c r="F523" s="9">
+        <v>0</v>
+      </c>
+      <c r="G523" s="9">
+        <v>0</v>
+      </c>
+      <c r="H523" s="9">
+        <v>1</v>
+      </c>
+      <c r="I523" s="9">
+        <v>0</v>
+      </c>
+      <c r="J523" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="524" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A524" s="26">
+        <v>45218</v>
+      </c>
+      <c r="B524" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C524" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D524" s="9">
+        <v>0</v>
+      </c>
+      <c r="E524" s="9">
+        <v>0</v>
+      </c>
+      <c r="F524" s="9">
+        <v>0</v>
+      </c>
+      <c r="G524" s="9">
+        <v>0</v>
+      </c>
+      <c r="H524" s="9">
+        <v>0</v>
+      </c>
+      <c r="I524" s="9">
+        <v>1</v>
+      </c>
+      <c r="J524" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="525" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A525" s="26">
+        <v>45218</v>
+      </c>
+      <c r="B525" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C525" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D525" s="9">
+        <v>0</v>
+      </c>
+      <c r="E525" s="9">
+        <v>0</v>
+      </c>
+      <c r="F525" s="9">
+        <v>0</v>
+      </c>
+      <c r="G525" s="9">
+        <v>0</v>
+      </c>
+      <c r="H525" s="9">
+        <v>0</v>
+      </c>
+      <c r="I525" s="9">
+        <v>0</v>
+      </c>
+      <c r="J525" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="526" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A526" s="26">
+        <v>45218</v>
+      </c>
+      <c r="B526" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C526" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D526" s="9">
+        <v>3</v>
+      </c>
+      <c r="E526" s="9">
+        <v>0</v>
+      </c>
+      <c r="F526" s="9">
+        <v>0</v>
+      </c>
+      <c r="G526" s="9">
+        <v>0</v>
+      </c>
+      <c r="H526" s="9">
+        <v>0</v>
+      </c>
+      <c r="I526" s="9">
+        <v>0</v>
+      </c>
+      <c r="J526" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J478" xr:uid="{F55E8A24-46F9-4225-A2C2-A9164F13364A}">
+  <autoFilter ref="A1:J526" xr:uid="{F55E8A24-46F9-4225-A2C2-A9164F13364A}">
     <filterColumn colId="0">
       <filters>
-        <dateGroupItem year="2023" month="9" day="28" dateTimeGrouping="day"/>
+        <dateGroupItem year="2023" month="10" day="19" dateTimeGrouping="day"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="C2:C494">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>"Scuri"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
-      <formula>"Bianchi"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C495:C510">
+  <conditionalFormatting sqref="C2:C526">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Scuri"</formula>
     </cfRule>
@@ -16664,13 +17159,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H510 D2:E510" xr:uid="{A2364708-0661-4544-87F1-D3FDEABF18B6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H526 D2:E526" xr:uid="{A2364708-0661-4544-87F1-D3FDEABF18B6}">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I510" xr:uid="{3C35827F-D598-4F40-B064-7FA732E53B67}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I526" xr:uid="{3C35827F-D598-4F40-B064-7FA732E53B67}">
       <formula1>"0, 1, 2, 3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G510" xr:uid="{2FE2E49C-6CC7-4B84-9D73-A960B8BAAF9A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G526" xr:uid="{2FE2E49C-6CC7-4B84-9D73-A960B8BAAF9A}">
       <formula1>"0, 1"</formula1>
     </dataValidation>
   </dataValidations>
@@ -16693,21 +17188,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E168A56-6341-4406-8D41-CC351A3A492A}">
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView topLeftCell="A54" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="25.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.5703125" style="20"/>
-    <col min="3" max="5" width="25.5703125" style="22"/>
-    <col min="6" max="6" width="25.5703125" style="20"/>
-    <col min="7" max="16384" width="25.5703125" style="17"/>
+    <col min="1" max="2" width="25.5546875" style="20"/>
+    <col min="3" max="5" width="25.5546875" style="22"/>
+    <col min="6" max="6" width="25.5546875" style="20"/>
+    <col min="7" max="16384" width="25.5546875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>16</v>
       </c>
@@ -16727,7 +17222,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>74</v>
       </c>
@@ -16747,7 +17242,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>58</v>
       </c>
@@ -16767,7 +17262,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>68</v>
       </c>
@@ -16785,7 +17280,7 @@
       </c>
       <c r="F4" s="19"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>42</v>
       </c>
@@ -16803,7 +17298,7 @@
       </c>
       <c r="F5" s="19"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>71</v>
       </c>
@@ -16823,7 +17318,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>70</v>
       </c>
@@ -16841,7 +17336,7 @@
       </c>
       <c r="F7" s="19"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>78</v>
       </c>
@@ -16859,7 +17354,7 @@
       </c>
       <c r="F8" s="19"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
         <v>21</v>
       </c>
@@ -16877,7 +17372,7 @@
       </c>
       <c r="F9" s="19"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>80</v>
       </c>
@@ -16895,7 +17390,7 @@
       </c>
       <c r="F10" s="19"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
         <v>39</v>
       </c>
@@ -16913,7 +17408,7 @@
       </c>
       <c r="F11" s="19"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="19" t="s">
         <v>64</v>
       </c>
@@ -16931,7 +17426,7 @@
       </c>
       <c r="F12" s="19"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
         <v>31</v>
       </c>
@@ -16949,7 +17444,7 @@
       </c>
       <c r="F13" s="19"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
         <v>28</v>
       </c>
@@ -16967,7 +17462,7 @@
       </c>
       <c r="F14" s="19"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
         <v>73</v>
       </c>
@@ -16985,7 +17480,7 @@
       </c>
       <c r="F15" s="19"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
         <v>110</v>
       </c>
@@ -17005,7 +17500,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="19" t="s">
         <v>52</v>
       </c>
@@ -17025,7 +17520,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="19" t="s">
         <v>33</v>
       </c>
@@ -17043,7 +17538,7 @@
       </c>
       <c r="F18" s="19"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="19" t="s">
         <v>94</v>
       </c>
@@ -17061,7 +17556,7 @@
       </c>
       <c r="F19" s="19"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="19" t="s">
         <v>95</v>
       </c>
@@ -17081,7 +17576,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="19" t="s">
         <v>57</v>
       </c>
@@ -17101,7 +17596,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="19" t="s">
         <v>79</v>
       </c>
@@ -17119,7 +17614,7 @@
       </c>
       <c r="F22" s="19"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="19" t="s">
         <v>96</v>
       </c>
@@ -17139,7 +17634,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="19" t="s">
         <v>43</v>
       </c>
@@ -17157,7 +17652,7 @@
       </c>
       <c r="F24" s="19"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="19" t="s">
         <v>51</v>
       </c>
@@ -17177,7 +17672,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="19" t="s">
         <v>29</v>
       </c>
@@ -17195,7 +17690,7 @@
       </c>
       <c r="F26" s="19"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="19" t="s">
         <v>38</v>
       </c>
@@ -17213,7 +17708,7 @@
       </c>
       <c r="F27" s="19"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="19" t="s">
         <v>99</v>
       </c>
@@ -17233,7 +17728,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="19" t="s">
         <v>35</v>
       </c>
@@ -17251,7 +17746,7 @@
       </c>
       <c r="F29" s="19"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="19" t="s">
         <v>41</v>
       </c>
@@ -17269,7 +17764,7 @@
       </c>
       <c r="F30" s="19"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="19" t="s">
         <v>47</v>
       </c>
@@ -17287,7 +17782,7 @@
       </c>
       <c r="F31" s="19"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="18" t="s">
         <v>72</v>
       </c>
@@ -17307,7 +17802,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="19" t="s">
         <v>49</v>
       </c>
@@ -17325,7 +17820,7 @@
       </c>
       <c r="F33" s="19"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="19" t="s">
         <v>36</v>
       </c>
@@ -17343,7 +17838,7 @@
       </c>
       <c r="F34" s="19"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="19" t="s">
         <v>56</v>
       </c>
@@ -17363,7 +17858,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="19" t="s">
         <v>32</v>
       </c>
@@ -17381,7 +17876,7 @@
       </c>
       <c r="F36" s="19"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="19" t="s">
         <v>55</v>
       </c>
@@ -17401,7 +17896,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="18" t="s">
         <v>66</v>
       </c>
@@ -17419,7 +17914,7 @@
       </c>
       <c r="F38" s="19"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="19" t="s">
         <v>44</v>
       </c>
@@ -17437,7 +17932,7 @@
       </c>
       <c r="F39" s="19"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="19" t="s">
         <v>50</v>
       </c>
@@ -17457,7 +17952,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="19" t="s">
         <v>61</v>
       </c>
@@ -17477,7 +17972,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="19" t="s">
         <v>63</v>
       </c>
@@ -17495,7 +17990,7 @@
       </c>
       <c r="F42" s="19"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="19" t="s">
         <v>23</v>
       </c>
@@ -17513,7 +18008,7 @@
       </c>
       <c r="F43" s="19"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="18" t="s">
         <v>60</v>
       </c>
@@ -17531,7 +18026,7 @@
       </c>
       <c r="F44" s="19"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="19" t="s">
         <v>25</v>
       </c>
@@ -17549,7 +18044,7 @@
       </c>
       <c r="F45" s="19"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="18" t="s">
         <v>69</v>
       </c>
@@ -17569,7 +18064,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="19" t="s">
         <v>53</v>
       </c>
@@ -17589,7 +18084,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="19" t="s">
         <v>76</v>
       </c>
@@ -17607,7 +18102,7 @@
       </c>
       <c r="F48" s="19"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="19" t="s">
         <v>62</v>
       </c>
@@ -17625,7 +18120,7 @@
       </c>
       <c r="F49" s="19"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="19" t="s">
         <v>26</v>
       </c>
@@ -17643,7 +18138,7 @@
       </c>
       <c r="F50" s="19"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="19" t="s">
         <v>48</v>
       </c>
@@ -17661,7 +18156,7 @@
       </c>
       <c r="F51" s="19"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="19" t="s">
         <v>54</v>
       </c>
@@ -17679,7 +18174,7 @@
       </c>
       <c r="F52" s="19"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="18" t="s">
         <v>67</v>
       </c>
@@ -17697,7 +18192,7 @@
       </c>
       <c r="F53" s="19"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="19" t="s">
         <v>24</v>
       </c>
@@ -17715,7 +18210,7 @@
       </c>
       <c r="F54" s="19"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="19" t="s">
         <v>46</v>
       </c>
@@ -17735,7 +18230,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="18" t="s">
         <v>59</v>
       </c>
@@ -17753,7 +18248,7 @@
       </c>
       <c r="F56" s="19"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="19" t="s">
         <v>103</v>
       </c>
@@ -17771,7 +18266,7 @@
       </c>
       <c r="F57" s="19"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="19" t="s">
         <v>40</v>
       </c>
@@ -17791,7 +18286,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="19" t="s">
         <v>27</v>
       </c>
@@ -17809,7 +18304,7 @@
       </c>
       <c r="F59" s="19"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="19" t="s">
         <v>45</v>
       </c>
@@ -17827,7 +18322,7 @@
       </c>
       <c r="F60" s="19"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="19" t="s">
         <v>104</v>
       </c>
@@ -17847,7 +18342,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="19" t="s">
         <v>105</v>
       </c>
@@ -17867,7 +18362,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="19" t="s">
         <v>77</v>
       </c>
@@ -17885,7 +18380,7 @@
       </c>
       <c r="F63" s="19"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="19" t="s">
         <v>34</v>
       </c>
@@ -17903,7 +18398,7 @@
       </c>
       <c r="F64" s="19"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="19" t="s">
         <v>75</v>
       </c>
@@ -17921,7 +18416,7 @@
       </c>
       <c r="F65" s="19"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="19" t="s">
         <v>65</v>
       </c>
@@ -17939,7 +18434,7 @@
       </c>
       <c r="F66" s="19"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="19" t="s">
         <v>111</v>
       </c>
@@ -17957,7 +18452,7 @@
       </c>
       <c r="F67" s="19"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="19" t="s">
         <v>112</v>
       </c>
@@ -17975,7 +18470,7 @@
       </c>
       <c r="F68" s="19"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="19" t="s">
         <v>113</v>
       </c>
@@ -17993,7 +18488,7 @@
       </c>
       <c r="F69" s="19"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="20" t="s">
         <v>114</v>
       </c>
@@ -18011,7 +18506,7 @@
       </c>
       <c r="F70" s="19"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="20" t="s">
         <v>115</v>
       </c>
@@ -18029,7 +18524,7 @@
       </c>
       <c r="F71" s="19"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="20" t="s">
         <v>116</v>
       </c>
@@ -18046,7 +18541,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="20" t="s">
         <v>117</v>
       </c>
@@ -18060,6 +18555,23 @@
         <v>90</v>
       </c>
       <c r="E73" s="21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="B74" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C74" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D74" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E74" s="21" t="s">
         <v>88</v>
       </c>
     </row>
@@ -18080,42 +18592,42 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>88</v>
       </c>

--- a/Input/FantaSPL_Milano.xlsx
+++ b/Input/FantaSPL_Milano.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mcainsh\Desktop\Scripts\Other\SPL\SPL_Regional\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mcainsh\Desktop\Scripts_Other\Other\SPL\SPL_Regional\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA086A75-2749-43B5-A216-3A359459E5B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922A993F-ED8D-42B8-A83F-45C104AEF5AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{05F018D4-855F-4570-8D15-9B4DD092A228}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{05F018D4-855F-4570-8D15-9B4DD092A228}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="11" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1571" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1618" uniqueCount="120">
   <si>
     <t>Parameter</t>
   </si>
@@ -402,6 +402,9 @@
   <si>
     <t>Gian Scotti</t>
   </si>
+  <si>
+    <t>Alessio (Cava)</t>
+  </si>
 </sst>
 </file>
 
@@ -614,7 +617,30 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{E7CD139D-1D99-4C7E-8D34-B9A08519CFB1}"/>
     <cellStyle name="Percent 2" xfId="3" xr:uid="{703E7767-9E09-4E14-BDA5-FA956747F242}"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.749961851863155"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1159,11 +1185,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A29AA2D-3F32-45F2-B719-A1F62E0F1A5F}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
+      <selection pane="bottomLeft" activeCell="B38" sqref="B38:C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1578,6 +1604,17 @@
         <v>10</v>
       </c>
     </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="26">
+        <v>45225</v>
+      </c>
+      <c r="B38" s="1">
+        <v>7</v>
+      </c>
+      <c r="C38" s="1">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1586,11 +1623,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F55E8A24-46F9-4225-A2C2-A9164F13364A}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:J526"/>
+  <dimension ref="A1:J540"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A511" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H528" sqref="H528"/>
+      <pane ySplit="1" topLeftCell="A520" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F536" sqref="F536"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -17142,6 +17179,454 @@
         <v>87</v>
       </c>
     </row>
+    <row r="527" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A527" s="26">
+        <v>45225</v>
+      </c>
+      <c r="B527" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C527" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D527" s="9">
+        <v>1</v>
+      </c>
+      <c r="E527" s="9">
+        <v>0</v>
+      </c>
+      <c r="F527" s="9">
+        <v>0</v>
+      </c>
+      <c r="G527" s="9">
+        <v>0</v>
+      </c>
+      <c r="H527" s="9">
+        <v>0</v>
+      </c>
+      <c r="I527" s="9">
+        <v>0</v>
+      </c>
+      <c r="J527" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="528" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A528" s="26">
+        <v>45225</v>
+      </c>
+      <c r="B528" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C528" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D528" s="9">
+        <v>1</v>
+      </c>
+      <c r="E528" s="9">
+        <v>0</v>
+      </c>
+      <c r="F528" s="9">
+        <v>0</v>
+      </c>
+      <c r="G528" s="9">
+        <v>0</v>
+      </c>
+      <c r="H528" s="9">
+        <v>0</v>
+      </c>
+      <c r="I528" s="9">
+        <v>0</v>
+      </c>
+      <c r="J528" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="529" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A529" s="26">
+        <v>45225</v>
+      </c>
+      <c r="B529" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C529" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D529" s="9">
+        <v>1</v>
+      </c>
+      <c r="E529" s="9">
+        <v>0</v>
+      </c>
+      <c r="F529" s="9">
+        <v>0</v>
+      </c>
+      <c r="G529" s="9">
+        <v>0</v>
+      </c>
+      <c r="H529" s="9">
+        <v>0</v>
+      </c>
+      <c r="I529" s="9">
+        <v>0</v>
+      </c>
+      <c r="J529" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="530" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A530" s="26">
+        <v>45225</v>
+      </c>
+      <c r="B530" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C530" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D530" s="9">
+        <v>0</v>
+      </c>
+      <c r="E530" s="9">
+        <v>0</v>
+      </c>
+      <c r="F530" s="9">
+        <v>0</v>
+      </c>
+      <c r="G530" s="9">
+        <v>0</v>
+      </c>
+      <c r="H530" s="9">
+        <v>0</v>
+      </c>
+      <c r="I530" s="9">
+        <v>0</v>
+      </c>
+      <c r="J530" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="531" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A531" s="26">
+        <v>45225</v>
+      </c>
+      <c r="B531" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C531" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D531" s="9">
+        <v>1</v>
+      </c>
+      <c r="E531" s="9">
+        <v>0</v>
+      </c>
+      <c r="F531" s="9">
+        <v>0</v>
+      </c>
+      <c r="G531" s="9">
+        <v>0</v>
+      </c>
+      <c r="H531" s="9">
+        <v>0</v>
+      </c>
+      <c r="I531" s="9">
+        <v>1</v>
+      </c>
+      <c r="J531" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="532" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A532" s="26">
+        <v>45225</v>
+      </c>
+      <c r="B532" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C532" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D532" s="9">
+        <v>2</v>
+      </c>
+      <c r="E532" s="9">
+        <v>0</v>
+      </c>
+      <c r="F532" s="9">
+        <v>0</v>
+      </c>
+      <c r="G532" s="9">
+        <v>0</v>
+      </c>
+      <c r="H532" s="9">
+        <v>0</v>
+      </c>
+      <c r="I532" s="9">
+        <v>0</v>
+      </c>
+      <c r="J532" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="533" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A533" s="26">
+        <v>45225</v>
+      </c>
+      <c r="B533" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C533" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D533" s="9">
+        <v>1</v>
+      </c>
+      <c r="E533" s="9">
+        <v>0</v>
+      </c>
+      <c r="F533" s="9">
+        <v>1</v>
+      </c>
+      <c r="G533" s="9">
+        <v>0</v>
+      </c>
+      <c r="H533" s="9">
+        <v>0</v>
+      </c>
+      <c r="I533" s="9">
+        <v>0</v>
+      </c>
+      <c r="J533" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="534" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A534" s="26">
+        <v>45225</v>
+      </c>
+      <c r="B534" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C534" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D534" s="9">
+        <v>3</v>
+      </c>
+      <c r="E534" s="9">
+        <v>0</v>
+      </c>
+      <c r="F534" s="9">
+        <v>0</v>
+      </c>
+      <c r="G534" s="9">
+        <v>1</v>
+      </c>
+      <c r="H534" s="9">
+        <v>0</v>
+      </c>
+      <c r="I534" s="9">
+        <v>0</v>
+      </c>
+      <c r="J534" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="535" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A535" s="26">
+        <v>45225</v>
+      </c>
+      <c r="B535" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C535" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D535" s="9">
+        <v>0</v>
+      </c>
+      <c r="E535" s="9">
+        <v>0</v>
+      </c>
+      <c r="F535" s="9">
+        <v>0</v>
+      </c>
+      <c r="G535" s="9">
+        <v>0</v>
+      </c>
+      <c r="H535" s="9">
+        <v>0</v>
+      </c>
+      <c r="I535" s="9">
+        <v>0</v>
+      </c>
+      <c r="J535" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="536" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A536" s="26">
+        <v>45225</v>
+      </c>
+      <c r="B536" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C536" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D536" s="9">
+        <v>5</v>
+      </c>
+      <c r="E536" s="9">
+        <v>0</v>
+      </c>
+      <c r="F536" s="9">
+        <v>0</v>
+      </c>
+      <c r="G536" s="9">
+        <v>0</v>
+      </c>
+      <c r="H536" s="9">
+        <v>0</v>
+      </c>
+      <c r="I536" s="9">
+        <v>0</v>
+      </c>
+      <c r="J536" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="537" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A537" s="26">
+        <v>45225</v>
+      </c>
+      <c r="B537" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C537" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D537" s="9">
+        <v>2</v>
+      </c>
+      <c r="E537" s="9">
+        <v>0</v>
+      </c>
+      <c r="F537" s="9">
+        <v>0</v>
+      </c>
+      <c r="G537" s="9">
+        <v>0</v>
+      </c>
+      <c r="H537" s="9">
+        <v>1</v>
+      </c>
+      <c r="I537" s="9">
+        <v>0</v>
+      </c>
+      <c r="J537" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="538" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A538" s="26">
+        <v>45225</v>
+      </c>
+      <c r="B538" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C538" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D538" s="9">
+        <v>1</v>
+      </c>
+      <c r="E538" s="9">
+        <v>0</v>
+      </c>
+      <c r="F538" s="9">
+        <v>0</v>
+      </c>
+      <c r="G538" s="9">
+        <v>0</v>
+      </c>
+      <c r="H538" s="9">
+        <v>0</v>
+      </c>
+      <c r="I538" s="9">
+        <v>0</v>
+      </c>
+      <c r="J538" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="539" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A539" s="26">
+        <v>45225</v>
+      </c>
+      <c r="B539" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C539" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D539" s="9">
+        <v>0</v>
+      </c>
+      <c r="E539" s="9">
+        <v>0</v>
+      </c>
+      <c r="F539" s="9">
+        <v>0</v>
+      </c>
+      <c r="G539" s="9">
+        <v>0</v>
+      </c>
+      <c r="H539" s="9">
+        <v>0</v>
+      </c>
+      <c r="I539" s="9">
+        <v>0</v>
+      </c>
+      <c r="J539" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="540" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A540" s="26">
+        <v>45225</v>
+      </c>
+      <c r="B540" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C540" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D540" s="9">
+        <v>1</v>
+      </c>
+      <c r="E540" s="9">
+        <v>0</v>
+      </c>
+      <c r="F540" s="9">
+        <v>0</v>
+      </c>
+      <c r="G540" s="9">
+        <v>0</v>
+      </c>
+      <c r="H540" s="9">
+        <v>0</v>
+      </c>
+      <c r="I540" s="9">
+        <v>0</v>
+      </c>
+      <c r="J540" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J526" xr:uid="{F55E8A24-46F9-4225-A2C2-A9164F13364A}">
     <filterColumn colId="0">
@@ -17151,6 +17636,14 @@
     </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="C2:C526">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"Scuri"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"Bianchi"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C527:C540">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Scuri"</formula>
     </cfRule>
@@ -17159,13 +17652,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H526 D2:E526" xr:uid="{A2364708-0661-4544-87F1-D3FDEABF18B6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H540 D2:E540" xr:uid="{A2364708-0661-4544-87F1-D3FDEABF18B6}">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I526" xr:uid="{3C35827F-D598-4F40-B064-7FA732E53B67}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I540" xr:uid="{3C35827F-D598-4F40-B064-7FA732E53B67}">
       <formula1>"0, 1, 2, 3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G526" xr:uid="{2FE2E49C-6CC7-4B84-9D73-A960B8BAAF9A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G540" xr:uid="{2FE2E49C-6CC7-4B84-9D73-A960B8BAAF9A}">
       <formula1>"0, 1"</formula1>
     </dataValidation>
   </dataValidations>
@@ -17188,10 +17681,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E168A56-6341-4406-8D41-CC351A3A492A}">
-  <dimension ref="A1:F74"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView topLeftCell="A54" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+      <selection activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -18572,6 +19065,23 @@
         <v>90</v>
       </c>
       <c r="E74" s="21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="B75" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C75" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D75" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E75" s="21" t="s">
         <v>88</v>
       </c>
     </row>

--- a/Input/FantaSPL_Milano.xlsx
+++ b/Input/FantaSPL_Milano.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mcainsh\Desktop\Scripts_Other\Other\SPL\SPL_Regional\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922A993F-ED8D-42B8-A83F-45C104AEF5AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E863456D-2D30-40E6-BF17-7621058A88AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{05F018D4-855F-4570-8D15-9B4DD092A228}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Players!$A$1:$E$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Points!$A$1:$J$526</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Points!$A$1:$J$555</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1618" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="121">
   <si>
     <t>Parameter</t>
   </si>
@@ -404,6 +404,9 @@
   </si>
   <si>
     <t>Alessio (Cava)</t>
+  </si>
+  <si>
+    <t>Davide (Mazzu)</t>
   </si>
 </sst>
 </file>
@@ -1185,11 +1188,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A29AA2D-3F32-45F2-B719-A1F62E0F1A5F}">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B38" sqref="B38:C38"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1528,91 +1531,102 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="26">
+      <c r="A31" s="14">
         <v>45176</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="15">
         <v>10</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="15">
         <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="26">
+      <c r="A32" s="14">
         <v>45183</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="15">
         <v>10</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="15">
         <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="26">
+      <c r="A33" s="14">
         <v>45190</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="15">
         <v>6</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="26">
+      <c r="A34" s="14">
         <v>45197</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="15">
         <v>3</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="15">
         <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="26">
+      <c r="A35" s="14">
         <v>45204</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="15">
         <v>8</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="15">
         <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="26">
+      <c r="A36" s="14">
         <v>45211</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="15">
         <v>8</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="15">
         <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="26">
+      <c r="A37" s="14">
         <v>45218</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="15">
         <v>4</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="15">
         <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="26">
+      <c r="A38" s="14">
         <v>45225</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="15">
         <v>7</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="15">
         <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="14">
+        <v>45233</v>
+      </c>
+      <c r="B39" s="15">
+        <v>12</v>
+      </c>
+      <c r="C39" s="15">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1623,11 +1637,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F55E8A24-46F9-4225-A2C2-A9164F13364A}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:J540"/>
+  <dimension ref="A1:J555"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A520" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F536" sqref="F536"/>
+      <pane ySplit="1" topLeftCell="A541" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D558" sqref="D558"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -16667,7 +16681,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="511" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A511" s="26">
         <v>45218</v>
       </c>
@@ -16699,7 +16713,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="512" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A512" s="26">
         <v>45218</v>
       </c>
@@ -16731,7 +16745,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="513" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A513" s="26">
         <v>45218</v>
       </c>
@@ -16763,7 +16777,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="514" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A514" s="26">
         <v>45218</v>
       </c>
@@ -16795,7 +16809,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="515" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A515" s="26">
         <v>45218</v>
       </c>
@@ -16827,7 +16841,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="516" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A516" s="26">
         <v>45218</v>
       </c>
@@ -16859,7 +16873,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="517" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A517" s="26">
         <v>45218</v>
       </c>
@@ -16891,7 +16905,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="518" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A518" s="26">
         <v>45218</v>
       </c>
@@ -16923,7 +16937,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="519" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A519" s="26">
         <v>45218</v>
       </c>
@@ -16955,7 +16969,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="520" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A520" s="26">
         <v>45218</v>
       </c>
@@ -16987,7 +17001,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="521" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A521" s="26">
         <v>45218</v>
       </c>
@@ -17019,7 +17033,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="522" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A522" s="26">
         <v>45218</v>
       </c>
@@ -17051,7 +17065,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="523" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A523" s="26">
         <v>45218</v>
       </c>
@@ -17083,7 +17097,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="524" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A524" s="26">
         <v>45218</v>
       </c>
@@ -17115,7 +17129,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="525" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A525" s="26">
         <v>45218</v>
       </c>
@@ -17147,7 +17161,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="526" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A526" s="26">
         <v>45218</v>
       </c>
@@ -17179,7 +17193,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="527" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A527" s="26">
         <v>45225</v>
       </c>
@@ -17211,7 +17225,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="528" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A528" s="26">
         <v>45225</v>
       </c>
@@ -17243,7 +17257,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="529" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A529" s="26">
         <v>45225</v>
       </c>
@@ -17275,7 +17289,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="530" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A530" s="26">
         <v>45225</v>
       </c>
@@ -17307,7 +17321,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="531" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A531" s="26">
         <v>45225</v>
       </c>
@@ -17339,7 +17353,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="532" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A532" s="26">
         <v>45225</v>
       </c>
@@ -17371,7 +17385,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="533" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A533" s="26">
         <v>45225</v>
       </c>
@@ -17403,7 +17417,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="534" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A534" s="26">
         <v>45225</v>
       </c>
@@ -17435,7 +17449,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="535" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A535" s="26">
         <v>45225</v>
       </c>
@@ -17467,7 +17481,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="536" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A536" s="26">
         <v>45225</v>
       </c>
@@ -17499,7 +17513,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="537" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A537" s="26">
         <v>45225</v>
       </c>
@@ -17531,7 +17545,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="538" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A538" s="26">
         <v>45225</v>
       </c>
@@ -17563,7 +17577,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="539" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A539" s="26">
         <v>45225</v>
       </c>
@@ -17595,7 +17609,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="540" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A540" s="26">
         <v>45225</v>
       </c>
@@ -17627,15 +17641,495 @@
         <v>90</v>
       </c>
     </row>
+    <row r="541" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A541" s="26">
+        <v>45233</v>
+      </c>
+      <c r="B541" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C541" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D541" s="9">
+        <v>1</v>
+      </c>
+      <c r="E541" s="9">
+        <v>0</v>
+      </c>
+      <c r="F541" s="9">
+        <v>0</v>
+      </c>
+      <c r="G541" s="9">
+        <v>0</v>
+      </c>
+      <c r="H541" s="9">
+        <v>0</v>
+      </c>
+      <c r="I541" s="9">
+        <v>0</v>
+      </c>
+      <c r="J541" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="542" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A542" s="26">
+        <v>45233</v>
+      </c>
+      <c r="B542" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C542" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D542" s="9">
+        <v>1</v>
+      </c>
+      <c r="E542" s="9">
+        <v>0</v>
+      </c>
+      <c r="F542" s="9">
+        <v>0</v>
+      </c>
+      <c r="G542" s="9">
+        <v>0</v>
+      </c>
+      <c r="H542" s="9">
+        <v>0</v>
+      </c>
+      <c r="I542" s="9">
+        <v>0</v>
+      </c>
+      <c r="J542" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="543" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A543" s="26">
+        <v>45233</v>
+      </c>
+      <c r="B543" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C543" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D543" s="9">
+        <v>3</v>
+      </c>
+      <c r="E543" s="9">
+        <v>0</v>
+      </c>
+      <c r="F543" s="9">
+        <v>0</v>
+      </c>
+      <c r="G543" s="9">
+        <v>0</v>
+      </c>
+      <c r="H543" s="9">
+        <v>1</v>
+      </c>
+      <c r="I543" s="9">
+        <v>0</v>
+      </c>
+      <c r="J543" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="544" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A544" s="26">
+        <v>45233</v>
+      </c>
+      <c r="B544" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C544" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D544" s="9">
+        <v>0</v>
+      </c>
+      <c r="E544" s="9">
+        <v>0</v>
+      </c>
+      <c r="F544" s="9">
+        <v>0</v>
+      </c>
+      <c r="G544" s="9">
+        <v>0</v>
+      </c>
+      <c r="H544" s="9">
+        <v>0</v>
+      </c>
+      <c r="I544" s="9">
+        <v>0</v>
+      </c>
+      <c r="J544" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="545" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A545" s="26">
+        <v>45233</v>
+      </c>
+      <c r="B545" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C545" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D545" s="9">
+        <v>2</v>
+      </c>
+      <c r="E545" s="9">
+        <v>0</v>
+      </c>
+      <c r="F545" s="9">
+        <v>0</v>
+      </c>
+      <c r="G545" s="9">
+        <v>0</v>
+      </c>
+      <c r="H545" s="9">
+        <v>0</v>
+      </c>
+      <c r="I545" s="9">
+        <v>0</v>
+      </c>
+      <c r="J545" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="546" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A546" s="26">
+        <v>45233</v>
+      </c>
+      <c r="B546" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C546" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D546" s="9">
+        <v>2</v>
+      </c>
+      <c r="E546" s="9">
+        <v>0</v>
+      </c>
+      <c r="F546" s="9">
+        <v>0</v>
+      </c>
+      <c r="G546" s="9">
+        <v>0</v>
+      </c>
+      <c r="H546" s="9">
+        <v>0</v>
+      </c>
+      <c r="I546" s="9">
+        <v>0</v>
+      </c>
+      <c r="J546" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="547" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A547" s="26">
+        <v>45233</v>
+      </c>
+      <c r="B547" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C547" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D547" s="9">
+        <v>2</v>
+      </c>
+      <c r="E547" s="9">
+        <v>0</v>
+      </c>
+      <c r="F547" s="9">
+        <v>0</v>
+      </c>
+      <c r="G547" s="9">
+        <v>0</v>
+      </c>
+      <c r="H547" s="9">
+        <v>0</v>
+      </c>
+      <c r="I547" s="9">
+        <v>0</v>
+      </c>
+      <c r="J547" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="548" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A548" s="26">
+        <v>45233</v>
+      </c>
+      <c r="B548" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C548" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D548" s="9">
+        <v>1</v>
+      </c>
+      <c r="E548" s="9">
+        <v>0</v>
+      </c>
+      <c r="F548" s="9">
+        <v>0</v>
+      </c>
+      <c r="G548" s="9">
+        <v>0</v>
+      </c>
+      <c r="H548" s="9">
+        <v>0</v>
+      </c>
+      <c r="I548" s="9">
+        <v>0</v>
+      </c>
+      <c r="J548" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="549" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A549" s="26">
+        <v>45233</v>
+      </c>
+      <c r="B549" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C549" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D549" s="9">
+        <v>1</v>
+      </c>
+      <c r="E549" s="9">
+        <v>0</v>
+      </c>
+      <c r="F549" s="9">
+        <v>1</v>
+      </c>
+      <c r="G549" s="9">
+        <v>0</v>
+      </c>
+      <c r="H549" s="9">
+        <v>0</v>
+      </c>
+      <c r="I549" s="9">
+        <v>0</v>
+      </c>
+      <c r="J549" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="550" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A550" s="26">
+        <v>45233</v>
+      </c>
+      <c r="B550" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C550" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D550" s="9">
+        <v>3</v>
+      </c>
+      <c r="E550" s="9">
+        <v>0</v>
+      </c>
+      <c r="F550" s="9">
+        <v>0</v>
+      </c>
+      <c r="G550" s="9">
+        <v>1</v>
+      </c>
+      <c r="H550" s="9">
+        <v>0</v>
+      </c>
+      <c r="I550" s="9">
+        <v>0</v>
+      </c>
+      <c r="J550" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="551" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A551" s="26">
+        <v>45233</v>
+      </c>
+      <c r="B551" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C551" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D551" s="9">
+        <v>2</v>
+      </c>
+      <c r="E551" s="9">
+        <v>0</v>
+      </c>
+      <c r="F551" s="9">
+        <v>0</v>
+      </c>
+      <c r="G551" s="9">
+        <v>0</v>
+      </c>
+      <c r="H551" s="9">
+        <v>0</v>
+      </c>
+      <c r="I551" s="9">
+        <v>0</v>
+      </c>
+      <c r="J551" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="552" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A552" s="26">
+        <v>45233</v>
+      </c>
+      <c r="B552" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C552" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D552" s="9">
+        <v>0</v>
+      </c>
+      <c r="E552" s="9">
+        <v>0</v>
+      </c>
+      <c r="F552" s="9">
+        <v>0</v>
+      </c>
+      <c r="G552" s="9">
+        <v>0</v>
+      </c>
+      <c r="H552" s="9">
+        <v>0</v>
+      </c>
+      <c r="I552" s="9">
+        <v>0</v>
+      </c>
+      <c r="J552" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="553" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A553" s="26">
+        <v>45233</v>
+      </c>
+      <c r="B553" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C553" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D553" s="9">
+        <v>2</v>
+      </c>
+      <c r="E553" s="9">
+        <v>0</v>
+      </c>
+      <c r="F553" s="9">
+        <v>0</v>
+      </c>
+      <c r="G553" s="9">
+        <v>0</v>
+      </c>
+      <c r="H553" s="9">
+        <v>0</v>
+      </c>
+      <c r="I553" s="9">
+        <v>0</v>
+      </c>
+      <c r="J553" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="554" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A554" s="26">
+        <v>45233</v>
+      </c>
+      <c r="B554" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C554" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D554" s="9">
+        <v>0</v>
+      </c>
+      <c r="E554" s="9">
+        <v>0</v>
+      </c>
+      <c r="F554" s="9">
+        <v>0</v>
+      </c>
+      <c r="G554" s="9">
+        <v>0</v>
+      </c>
+      <c r="H554" s="9">
+        <v>0</v>
+      </c>
+      <c r="I554" s="9">
+        <v>0</v>
+      </c>
+      <c r="J554" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="555" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A555" s="26">
+        <v>45233</v>
+      </c>
+      <c r="B555" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C555" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D555" s="9">
+        <v>0</v>
+      </c>
+      <c r="E555" s="9">
+        <v>0</v>
+      </c>
+      <c r="F555" s="9">
+        <v>0</v>
+      </c>
+      <c r="G555" s="9">
+        <v>0</v>
+      </c>
+      <c r="H555" s="9">
+        <v>0</v>
+      </c>
+      <c r="I555" s="9">
+        <v>0</v>
+      </c>
+      <c r="J555" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J526" xr:uid="{F55E8A24-46F9-4225-A2C2-A9164F13364A}">
+  <autoFilter ref="A1:J555" xr:uid="{F55E8A24-46F9-4225-A2C2-A9164F13364A}">
     <filterColumn colId="0">
       <filters>
-        <dateGroupItem year="2023" month="10" day="19" dateTimeGrouping="day"/>
+        <dateGroupItem year="2023" month="11" dateTimeGrouping="month"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="C2:C526">
+  <conditionalFormatting sqref="C2:C555">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"Scuri"</formula>
     </cfRule>
@@ -17643,22 +18137,14 @@
       <formula>"Bianchi"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C527:C540">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"Scuri"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
-      <formula>"Bianchi"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H540 D2:E540" xr:uid="{A2364708-0661-4544-87F1-D3FDEABF18B6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H555 D2:E555" xr:uid="{A2364708-0661-4544-87F1-D3FDEABF18B6}">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I540" xr:uid="{3C35827F-D598-4F40-B064-7FA732E53B67}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I555" xr:uid="{3C35827F-D598-4F40-B064-7FA732E53B67}">
       <formula1>"0, 1, 2, 3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G540" xr:uid="{2FE2E49C-6CC7-4B84-9D73-A960B8BAAF9A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G555" xr:uid="{2FE2E49C-6CC7-4B84-9D73-A960B8BAAF9A}">
       <formula1>"0, 1"</formula1>
     </dataValidation>
   </dataValidations>
@@ -17681,10 +18167,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E168A56-6341-4406-8D41-CC351A3A492A}">
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F74" sqref="F74"/>
+    <sheetView topLeftCell="A57" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70:XFD76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -18982,7 +19468,7 @@
       <c r="F69" s="19"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="20" t="s">
+      <c r="A70" s="19" t="s">
         <v>114</v>
       </c>
       <c r="B70" s="19" t="s">
@@ -19000,10 +19486,10 @@
       <c r="F70" s="19"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="20" t="s">
+      <c r="A71" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="B71" s="20" t="s">
+      <c r="B71" s="19" t="s">
         <v>115</v>
       </c>
       <c r="C71" s="21" t="s">
@@ -19018,10 +19504,10 @@
       <c r="F71" s="19"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="20" t="s">
+      <c r="A72" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="B72" s="20" t="s">
+      <c r="B72" s="19" t="s">
         <v>116</v>
       </c>
       <c r="C72" s="21" t="s">
@@ -19033,12 +19519,13 @@
       <c r="E72" s="21" t="s">
         <v>88</v>
       </c>
+      <c r="F72" s="19"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="20" t="s">
+      <c r="A73" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="B73" s="20" t="s">
+      <c r="B73" s="19" t="s">
         <v>117</v>
       </c>
       <c r="C73" s="21" t="s">
@@ -19050,12 +19537,13 @@
       <c r="E73" s="21" t="s">
         <v>88</v>
       </c>
+      <c r="F73" s="19"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="20" t="s">
+      <c r="A74" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="B74" s="20" t="s">
+      <c r="B74" s="19" t="s">
         <v>118</v>
       </c>
       <c r="C74" s="21" t="s">
@@ -19067,12 +19555,13 @@
       <c r="E74" s="21" t="s">
         <v>88</v>
       </c>
+      <c r="F74" s="19"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="20" t="s">
+      <c r="A75" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="B75" s="20" t="s">
+      <c r="B75" s="19" t="s">
         <v>119</v>
       </c>
       <c r="C75" s="21" t="s">
@@ -19084,6 +19573,25 @@
       <c r="E75" s="21" t="s">
         <v>88</v>
       </c>
+      <c r="F75" s="19"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="B76" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C76" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D76" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E76" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="F76" s="19"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E66" xr:uid="{3E168A56-6341-4406-8D41-CC351A3A492A}"/>

--- a/Input/FantaSPL_Milano.xlsx
+++ b/Input/FantaSPL_Milano.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mcainsh\Desktop\Scripts_Other\Other\SPL\SPL_Regional\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D06A21-7CD2-46DB-A7C6-E9F9C27F149E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24936C2-F9CB-42F0-A331-09946CA50A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{05F018D4-855F-4570-8D15-9B4DD092A228}"/>
   </bookViews>
@@ -1629,7 +1629,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A550" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B567" sqref="B567"/>
+      <selection pane="bottomLeft" activeCell="F568" sqref="F568"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18888,7 +18888,7 @@
         <v>0</v>
       </c>
       <c r="G567" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H567" s="9">
         <v>0</v>
@@ -18915,7 +18915,7 @@
         <v>0</v>
       </c>
       <c r="F568" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G568" s="9">
         <v>0</v>
